--- a/ProjectStuff/AWOME tables-V4.xlsx
+++ b/ProjectStuff/AWOME tables-V4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="11820" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="Forms" sheetId="6" r:id="rId1"/>
@@ -3699,6 +3699,179 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3711,9 +3884,6 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3759,182 +3929,7 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3944,12 +3939,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3959,6 +3955,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3977,24 +3977,14 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4004,29 +3994,45 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4070,32 +4076,26 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -15356,7 +15356,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Enterprise Table'!$I$2" spid="_x0000_s8239"/>
+                  <a14:cameraTool cellRange="'Enterprise Table'!$I$2" spid="_x0000_s8241"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -28023,8 +28023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28421,13 +28421,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="245" t="s">
         <v>502</v>
       </c>
-      <c r="B1" s="257"/>
-      <c r="C1" s="257"/>
-      <c r="D1" s="257"/>
-      <c r="E1" s="258"/>
+      <c r="B1" s="246"/>
+      <c r="C1" s="246"/>
+      <c r="D1" s="246"/>
+      <c r="E1" s="247"/>
     </row>
     <row r="2" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -28440,10 +28440,10 @@
       <c r="A3" s="100" t="s">
         <v>503</v>
       </c>
-      <c r="B3" s="302"/>
-      <c r="C3" s="365"/>
-      <c r="D3" s="365"/>
-      <c r="E3" s="303"/>
+      <c r="B3" s="277"/>
+      <c r="C3" s="384"/>
+      <c r="D3" s="384"/>
+      <c r="E3" s="278"/>
     </row>
     <row r="4" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="135"/>
@@ -28453,68 +28453,68 @@
       <c r="E4" s="135"/>
     </row>
     <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="366" t="s">
+      <c r="A5" s="385" t="s">
         <v>504</v>
       </c>
-      <c r="B5" s="367"/>
+      <c r="B5" s="386"/>
       <c r="C5" s="135"/>
       <c r="D5" s="135"/>
       <c r="E5" s="135"/>
     </row>
     <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="368" t="s">
+      <c r="A6" s="387" t="s">
         <v>350</v>
       </c>
-      <c r="B6" s="368"/>
-      <c r="C6" s="368" t="s">
+      <c r="B6" s="387"/>
+      <c r="C6" s="387" t="s">
         <v>505</v>
       </c>
-      <c r="D6" s="368"/>
+      <c r="D6" s="387"/>
       <c r="E6" s="100" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="364"/>
-      <c r="B7" s="364"/>
-      <c r="C7" s="364"/>
-      <c r="D7" s="364"/>
+      <c r="A7" s="376"/>
+      <c r="B7" s="376"/>
+      <c r="C7" s="376"/>
+      <c r="D7" s="376"/>
       <c r="E7" s="137"/>
     </row>
     <row r="8" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="364"/>
-      <c r="B8" s="364"/>
-      <c r="C8" s="364"/>
-      <c r="D8" s="364"/>
+      <c r="A8" s="376"/>
+      <c r="B8" s="376"/>
+      <c r="C8" s="376"/>
+      <c r="D8" s="376"/>
       <c r="E8" s="137"/>
     </row>
     <row r="9" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="364"/>
-      <c r="B9" s="364"/>
-      <c r="C9" s="364"/>
-      <c r="D9" s="364"/>
+      <c r="A9" s="376"/>
+      <c r="B9" s="376"/>
+      <c r="C9" s="376"/>
+      <c r="D9" s="376"/>
       <c r="E9" s="137"/>
     </row>
     <row r="10" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="364"/>
-      <c r="B10" s="364"/>
-      <c r="C10" s="364"/>
-      <c r="D10" s="364"/>
+      <c r="A10" s="376"/>
+      <c r="B10" s="376"/>
+      <c r="C10" s="376"/>
+      <c r="D10" s="376"/>
       <c r="E10" s="137"/>
     </row>
     <row r="11" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="364"/>
-      <c r="B11" s="364"/>
-      <c r="C11" s="364"/>
-      <c r="D11" s="364"/>
+      <c r="A11" s="376"/>
+      <c r="B11" s="376"/>
+      <c r="C11" s="376"/>
+      <c r="D11" s="376"/>
       <c r="E11" s="137"/>
     </row>
     <row r="12" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="372"/>
-      <c r="B12" s="372"/>
-      <c r="C12" s="372"/>
-      <c r="D12" s="372"/>
-      <c r="E12" s="372"/>
+      <c r="A12" s="377"/>
+      <c r="B12" s="377"/>
+      <c r="C12" s="377"/>
+      <c r="D12" s="377"/>
+      <c r="E12" s="377"/>
     </row>
     <row r="13" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="138"/>
@@ -28558,34 +28558,34 @@
       <c r="E17" s="135"/>
     </row>
     <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="369" t="s">
+      <c r="A18" s="365" t="s">
         <v>509</v>
       </c>
-      <c r="B18" s="371"/>
+      <c r="B18" s="366"/>
       <c r="C18" s="135"/>
       <c r="D18" s="135"/>
       <c r="E18" s="135"/>
     </row>
     <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="373"/>
-      <c r="B19" s="374"/>
-      <c r="C19" s="374"/>
-      <c r="D19" s="374"/>
-      <c r="E19" s="375"/>
+      <c r="A19" s="369"/>
+      <c r="B19" s="370"/>
+      <c r="C19" s="370"/>
+      <c r="D19" s="370"/>
+      <c r="E19" s="371"/>
     </row>
     <row r="20" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="376"/>
-      <c r="B20" s="377"/>
-      <c r="C20" s="377"/>
-      <c r="D20" s="377"/>
-      <c r="E20" s="378"/>
+      <c r="A20" s="378"/>
+      <c r="B20" s="379"/>
+      <c r="C20" s="379"/>
+      <c r="D20" s="379"/>
+      <c r="E20" s="380"/>
     </row>
     <row r="21" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="379"/>
-      <c r="B21" s="380"/>
-      <c r="C21" s="380"/>
-      <c r="D21" s="380"/>
-      <c r="E21" s="381"/>
+      <c r="A21" s="381"/>
+      <c r="B21" s="382"/>
+      <c r="C21" s="382"/>
+      <c r="D21" s="382"/>
+      <c r="E21" s="383"/>
     </row>
     <row r="22" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="135"/>
@@ -28595,34 +28595,34 @@
       <c r="E22" s="135"/>
     </row>
     <row r="23" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="369" t="s">
+      <c r="A23" s="365" t="s">
         <v>510</v>
       </c>
-      <c r="B23" s="371"/>
+      <c r="B23" s="366"/>
       <c r="C23" s="135"/>
       <c r="D23" s="135"/>
       <c r="E23" s="135"/>
     </row>
     <row r="24" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="373"/>
-      <c r="B24" s="374"/>
-      <c r="C24" s="374"/>
-      <c r="D24" s="374"/>
-      <c r="E24" s="375"/>
+      <c r="A24" s="369"/>
+      <c r="B24" s="370"/>
+      <c r="C24" s="370"/>
+      <c r="D24" s="370"/>
+      <c r="E24" s="371"/>
     </row>
     <row r="25" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="376"/>
-      <c r="B25" s="377"/>
-      <c r="C25" s="377"/>
-      <c r="D25" s="377"/>
-      <c r="E25" s="378"/>
+      <c r="A25" s="378"/>
+      <c r="B25" s="379"/>
+      <c r="C25" s="379"/>
+      <c r="D25" s="379"/>
+      <c r="E25" s="380"/>
     </row>
     <row r="26" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="379"/>
-      <c r="B26" s="380"/>
-      <c r="C26" s="380"/>
-      <c r="D26" s="380"/>
-      <c r="E26" s="381"/>
+      <c r="A26" s="381"/>
+      <c r="B26" s="382"/>
+      <c r="C26" s="382"/>
+      <c r="D26" s="382"/>
+      <c r="E26" s="383"/>
     </row>
     <row r="27" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="135"/>
@@ -28632,34 +28632,34 @@
       <c r="E27" s="135"/>
     </row>
     <row r="28" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="369" t="s">
+      <c r="A28" s="365" t="s">
         <v>511</v>
       </c>
-      <c r="B28" s="371"/>
+      <c r="B28" s="366"/>
       <c r="C28" s="135"/>
       <c r="D28" s="135"/>
       <c r="E28" s="135"/>
     </row>
     <row r="29" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="373"/>
-      <c r="B29" s="374"/>
-      <c r="C29" s="374"/>
-      <c r="D29" s="374"/>
-      <c r="E29" s="375"/>
+      <c r="A29" s="369"/>
+      <c r="B29" s="370"/>
+      <c r="C29" s="370"/>
+      <c r="D29" s="370"/>
+      <c r="E29" s="371"/>
     </row>
     <row r="30" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="376"/>
-      <c r="B30" s="377"/>
-      <c r="C30" s="377"/>
-      <c r="D30" s="377"/>
-      <c r="E30" s="378"/>
+      <c r="A30" s="378"/>
+      <c r="B30" s="379"/>
+      <c r="C30" s="379"/>
+      <c r="D30" s="379"/>
+      <c r="E30" s="380"/>
     </row>
     <row r="31" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="379"/>
-      <c r="B31" s="380"/>
-      <c r="C31" s="380"/>
-      <c r="D31" s="380"/>
-      <c r="E31" s="381"/>
+      <c r="A31" s="381"/>
+      <c r="B31" s="382"/>
+      <c r="C31" s="382"/>
+      <c r="D31" s="382"/>
+      <c r="E31" s="383"/>
     </row>
     <row r="32" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="144"/>
@@ -28669,34 +28669,34 @@
       <c r="E32" s="144"/>
     </row>
     <row r="33" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="369" t="s">
+      <c r="A33" s="365" t="s">
         <v>512</v>
       </c>
-      <c r="B33" s="371"/>
+      <c r="B33" s="366"/>
       <c r="C33" s="135"/>
       <c r="D33" s="135"/>
       <c r="E33" s="135"/>
     </row>
     <row r="34" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="373"/>
-      <c r="B34" s="374"/>
-      <c r="C34" s="374"/>
-      <c r="D34" s="374"/>
-      <c r="E34" s="375"/>
+      <c r="A34" s="369"/>
+      <c r="B34" s="370"/>
+      <c r="C34" s="370"/>
+      <c r="D34" s="370"/>
+      <c r="E34" s="371"/>
     </row>
     <row r="35" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="376"/>
-      <c r="B35" s="377"/>
-      <c r="C35" s="377"/>
-      <c r="D35" s="377"/>
-      <c r="E35" s="378"/>
+      <c r="A35" s="378"/>
+      <c r="B35" s="379"/>
+      <c r="C35" s="379"/>
+      <c r="D35" s="379"/>
+      <c r="E35" s="380"/>
     </row>
     <row r="36" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="379"/>
-      <c r="B36" s="380"/>
-      <c r="C36" s="380"/>
-      <c r="D36" s="380"/>
-      <c r="E36" s="381"/>
+      <c r="A36" s="381"/>
+      <c r="B36" s="382"/>
+      <c r="C36" s="382"/>
+      <c r="D36" s="382"/>
+      <c r="E36" s="383"/>
     </row>
     <row r="37" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="135"/>
@@ -28706,21 +28706,21 @@
       <c r="E37" s="135"/>
     </row>
     <row r="38" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="369" t="s">
+      <c r="A38" s="365" t="s">
         <v>513</v>
       </c>
-      <c r="B38" s="370"/>
-      <c r="C38" s="370"/>
-      <c r="D38" s="371"/>
+      <c r="B38" s="375"/>
+      <c r="C38" s="375"/>
+      <c r="D38" s="366"/>
       <c r="E38" s="135"/>
     </row>
     <row r="39" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="331" t="s">
+      <c r="A39" s="232" t="s">
         <v>318</v>
       </c>
-      <c r="B39" s="332"/>
-      <c r="C39" s="332"/>
-      <c r="D39" s="333"/>
+      <c r="B39" s="233"/>
+      <c r="C39" s="233"/>
+      <c r="D39" s="234"/>
       <c r="E39" s="135"/>
     </row>
     <row r="40" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28731,12 +28731,12 @@
       <c r="E40" s="135"/>
     </row>
     <row r="41" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="331" t="s">
+      <c r="A41" s="232" t="s">
         <v>319</v>
       </c>
-      <c r="B41" s="332"/>
-      <c r="C41" s="332"/>
-      <c r="D41" s="333"/>
+      <c r="B41" s="233"/>
+      <c r="C41" s="233"/>
+      <c r="D41" s="234"/>
       <c r="E41" s="135"/>
     </row>
     <row r="42" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28750,29 +28750,29 @@
       <c r="A43" s="147" t="s">
         <v>265</v>
       </c>
-      <c r="B43" s="373"/>
-      <c r="C43" s="374"/>
-      <c r="D43" s="375"/>
+      <c r="B43" s="369"/>
+      <c r="C43" s="370"/>
+      <c r="D43" s="371"/>
       <c r="E43" s="135"/>
     </row>
     <row r="44" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="382" t="s">
+      <c r="A44" s="372" t="s">
         <v>514</v>
       </c>
-      <c r="B44" s="383"/>
-      <c r="C44" s="383"/>
-      <c r="D44" s="383"/>
-      <c r="E44" s="384"/>
+      <c r="B44" s="373"/>
+      <c r="C44" s="373"/>
+      <c r="D44" s="373"/>
+      <c r="E44" s="374"/>
     </row>
     <row r="45" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="274" t="s">
+      <c r="A46" s="236" t="s">
         <v>515</v>
       </c>
-      <c r="B46" s="275"/>
-      <c r="C46" s="275"/>
-      <c r="D46" s="275"/>
-      <c r="E46" s="276"/>
+      <c r="B46" s="237"/>
+      <c r="C46" s="237"/>
+      <c r="D46" s="237"/>
+      <c r="E46" s="238"/>
     </row>
     <row r="47" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="148"/>
@@ -28782,10 +28782,10 @@
       <c r="E47" s="148"/>
     </row>
     <row r="48" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="369" t="s">
+      <c r="A48" s="365" t="s">
         <v>516</v>
       </c>
-      <c r="B48" s="371"/>
+      <c r="B48" s="366"/>
       <c r="C48" s="135"/>
       <c r="D48" s="137" t="s">
         <v>304</v>
@@ -28800,10 +28800,10 @@
       <c r="E49" s="135"/>
     </row>
     <row r="50" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="369" t="s">
+      <c r="A50" s="365" t="s">
         <v>517</v>
       </c>
-      <c r="B50" s="371"/>
+      <c r="B50" s="366"/>
       <c r="C50" s="135"/>
       <c r="D50" s="137"/>
       <c r="E50" s="135"/>
@@ -28816,10 +28816,10 @@
       <c r="E51" s="135"/>
     </row>
     <row r="52" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="369" t="s">
+      <c r="A52" s="365" t="s">
         <v>518</v>
       </c>
-      <c r="B52" s="371"/>
+      <c r="B52" s="366"/>
       <c r="C52" s="135"/>
       <c r="D52" s="137"/>
       <c r="E52" s="135"/>
@@ -28832,10 +28832,10 @@
       <c r="E53" s="135"/>
     </row>
     <row r="54" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="369" t="s">
+      <c r="A54" s="365" t="s">
         <v>519</v>
       </c>
-      <c r="B54" s="371"/>
+      <c r="B54" s="366"/>
       <c r="C54" s="135"/>
       <c r="D54" s="137" t="s">
         <v>304</v>
@@ -28850,10 +28850,10 @@
       <c r="E55" s="135"/>
     </row>
     <row r="56" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="369" t="s">
+      <c r="A56" s="365" t="s">
         <v>520</v>
       </c>
-      <c r="B56" s="371"/>
+      <c r="B56" s="366"/>
       <c r="C56" s="135"/>
       <c r="D56" s="137" t="s">
         <v>304</v>
@@ -28868,10 +28868,10 @@
       <c r="E57" s="135"/>
     </row>
     <row r="58" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="369" t="s">
+      <c r="A58" s="365" t="s">
         <v>521</v>
       </c>
-      <c r="B58" s="371"/>
+      <c r="B58" s="366"/>
       <c r="C58" s="135"/>
       <c r="D58" s="137" t="s">
         <v>304</v>
@@ -28886,10 +28886,10 @@
       <c r="E59" s="135"/>
     </row>
     <row r="60" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="369" t="s">
+      <c r="A60" s="365" t="s">
         <v>522</v>
       </c>
-      <c r="B60" s="371"/>
+      <c r="B60" s="366"/>
       <c r="C60" s="135"/>
       <c r="D60" s="137" t="s">
         <v>304</v>
@@ -28904,10 +28904,10 @@
       <c r="E61" s="135"/>
     </row>
     <row r="62" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="369" t="s">
+      <c r="A62" s="365" t="s">
         <v>523</v>
       </c>
-      <c r="B62" s="371"/>
+      <c r="B62" s="366"/>
       <c r="C62" s="135"/>
       <c r="D62" s="137" t="s">
         <v>304</v>
@@ -28922,10 +28922,10 @@
       <c r="E63" s="135"/>
     </row>
     <row r="64" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="369" t="s">
+      <c r="A64" s="365" t="s">
         <v>524</v>
       </c>
-      <c r="B64" s="371"/>
+      <c r="B64" s="366"/>
       <c r="C64" s="135"/>
       <c r="D64" s="137" t="s">
         <v>304</v>
@@ -28940,13 +28940,13 @@
       <c r="E65" s="135"/>
     </row>
     <row r="66" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="274" t="s">
+      <c r="A66" s="236" t="s">
         <v>525</v>
       </c>
-      <c r="B66" s="275"/>
-      <c r="C66" s="275"/>
-      <c r="D66" s="275"/>
-      <c r="E66" s="276"/>
+      <c r="B66" s="237"/>
+      <c r="C66" s="237"/>
+      <c r="D66" s="237"/>
+      <c r="E66" s="238"/>
     </row>
     <row r="67" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="148"/>
@@ -28956,10 +28956,10 @@
       <c r="E67" s="148"/>
     </row>
     <row r="68" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="369" t="s">
+      <c r="A68" s="365" t="s">
         <v>526</v>
       </c>
-      <c r="B68" s="371"/>
+      <c r="B68" s="366"/>
       <c r="C68" s="135"/>
       <c r="D68" s="137" t="s">
         <v>304</v>
@@ -28974,10 +28974,10 @@
       <c r="E69" s="135"/>
     </row>
     <row r="70" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="369" t="s">
+      <c r="A70" s="365" t="s">
         <v>527</v>
       </c>
-      <c r="B70" s="371"/>
+      <c r="B70" s="366"/>
       <c r="C70" s="135"/>
       <c r="D70" s="137" t="s">
         <v>304</v>
@@ -28992,10 +28992,10 @@
       <c r="E71" s="135"/>
     </row>
     <row r="72" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="369" t="s">
+      <c r="A72" s="365" t="s">
         <v>528</v>
       </c>
-      <c r="B72" s="371"/>
+      <c r="B72" s="366"/>
       <c r="C72" s="135"/>
       <c r="D72" s="137" t="s">
         <v>304</v>
@@ -29010,10 +29010,10 @@
       <c r="E73" s="135"/>
     </row>
     <row r="74" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="369" t="s">
+      <c r="A74" s="365" t="s">
         <v>529</v>
       </c>
-      <c r="B74" s="371"/>
+      <c r="B74" s="366"/>
       <c r="C74" s="135"/>
       <c r="D74" s="137" t="s">
         <v>304</v>
@@ -29028,10 +29028,10 @@
       <c r="E75" s="135"/>
     </row>
     <row r="76" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="369" t="s">
+      <c r="A76" s="365" t="s">
         <v>530</v>
       </c>
-      <c r="B76" s="371"/>
+      <c r="B76" s="366"/>
       <c r="C76" s="135"/>
       <c r="D76" s="137" t="s">
         <v>304</v>
@@ -29046,10 +29046,10 @@
       <c r="E77" s="135"/>
     </row>
     <row r="78" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="369" t="s">
+      <c r="A78" s="365" t="s">
         <v>531</v>
       </c>
-      <c r="B78" s="371"/>
+      <c r="B78" s="366"/>
       <c r="C78" s="135"/>
       <c r="D78" s="137" t="s">
         <v>304</v>
@@ -29064,10 +29064,10 @@
       <c r="E79" s="135"/>
     </row>
     <row r="80" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="385" t="s">
+      <c r="A80" s="367" t="s">
         <v>532</v>
       </c>
-      <c r="B80" s="386"/>
+      <c r="B80" s="368"/>
       <c r="C80" s="135"/>
       <c r="D80" s="137" t="s">
         <v>304</v>
@@ -29082,10 +29082,10 @@
       <c r="E81" s="135"/>
     </row>
     <row r="82" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="369" t="s">
+      <c r="A82" s="365" t="s">
         <v>533</v>
       </c>
-      <c r="B82" s="371"/>
+      <c r="B82" s="366"/>
       <c r="C82" s="135"/>
       <c r="D82" s="137" t="s">
         <v>304</v>
@@ -29100,10 +29100,10 @@
       <c r="E83" s="135"/>
     </row>
     <row r="84" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="369" t="s">
+      <c r="A84" s="365" t="s">
         <v>534</v>
       </c>
-      <c r="B84" s="371"/>
+      <c r="B84" s="366"/>
       <c r="C84" s="135"/>
       <c r="D84" s="137" t="s">
         <v>304</v>
@@ -29114,29 +29114,29 @@
     <row r="86" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="87" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="88" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="387"/>
-      <c r="B88" s="387"/>
-      <c r="C88" s="387"/>
-      <c r="D88" s="387"/>
-      <c r="E88" s="387"/>
+      <c r="A88" s="364"/>
+      <c r="B88" s="364"/>
+      <c r="C88" s="364"/>
+      <c r="D88" s="364"/>
+      <c r="E88" s="364"/>
     </row>
     <row r="89" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="93" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="334" t="s">
+      <c r="A93" s="235" t="s">
         <v>334</v>
       </c>
-      <c r="B93" s="334"/>
-      <c r="C93" s="334"/>
-      <c r="D93" s="334"/>
-      <c r="E93" s="334"/>
+      <c r="B93" s="235"/>
+      <c r="C93" s="235"/>
+      <c r="D93" s="235"/>
+      <c r="E93" s="235"/>
     </row>
     <row r="94" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="B94" s="226"/>
-      <c r="C94" s="227"/>
-      <c r="D94" s="228"/>
+      <c r="B94" s="223"/>
+      <c r="C94" s="224"/>
+      <c r="D94" s="225"/>
     </row>
     <row r="95" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
@@ -29148,9 +29148,9 @@
       <c r="A96" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="B96" s="226"/>
-      <c r="C96" s="227"/>
-      <c r="D96" s="228"/>
+      <c r="B96" s="223"/>
+      <c r="C96" s="224"/>
+      <c r="D96" s="225"/>
     </row>
     <row r="97" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
@@ -29162,9 +29162,9 @@
       <c r="A98" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="B98" s="226"/>
-      <c r="C98" s="227"/>
-      <c r="D98" s="228"/>
+      <c r="B98" s="223"/>
+      <c r="C98" s="224"/>
+      <c r="D98" s="225"/>
     </row>
     <row r="99" spans="1:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
@@ -29176,9 +29176,9 @@
       <c r="A100" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="B100" s="226"/>
-      <c r="C100" s="227"/>
-      <c r="D100" s="228"/>
+      <c r="B100" s="223"/>
+      <c r="C100" s="224"/>
+      <c r="D100" s="225"/>
     </row>
     <row r="101" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
@@ -29190,9 +29190,9 @@
       <c r="A102" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="B102" s="226"/>
-      <c r="C102" s="227"/>
-      <c r="D102" s="228"/>
+      <c r="B102" s="223"/>
+      <c r="C102" s="224"/>
+      <c r="D102" s="225"/>
     </row>
     <row r="103" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
@@ -29204,9 +29204,9 @@
       <c r="A104" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="B104" s="226"/>
-      <c r="C104" s="227"/>
-      <c r="D104" s="228"/>
+      <c r="B104" s="223"/>
+      <c r="C104" s="224"/>
+      <c r="D104" s="225"/>
     </row>
     <row r="105" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
@@ -29218,9 +29218,9 @@
       <c r="A106" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="B106" s="226"/>
-      <c r="C106" s="227"/>
-      <c r="D106" s="228"/>
+      <c r="B106" s="223"/>
+      <c r="C106" s="224"/>
+      <c r="D106" s="225"/>
     </row>
     <row r="107" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
@@ -29232,9 +29232,9 @@
       <c r="A108" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="B108" s="226"/>
-      <c r="C108" s="227"/>
-      <c r="D108" s="228"/>
+      <c r="B108" s="223"/>
+      <c r="C108" s="224"/>
+      <c r="D108" s="225"/>
     </row>
     <row r="109" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="11"/>
@@ -29246,9 +29246,9 @@
       <c r="A110" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B110" s="226"/>
-      <c r="C110" s="227"/>
-      <c r="D110" s="228"/>
+      <c r="B110" s="223"/>
+      <c r="C110" s="224"/>
+      <c r="D110" s="225"/>
     </row>
     <row r="111" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
@@ -29260,9 +29260,9 @@
       <c r="A112" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="B112" s="226"/>
-      <c r="C112" s="227"/>
-      <c r="D112" s="228"/>
+      <c r="B112" s="223"/>
+      <c r="C112" s="224"/>
+      <c r="D112" s="225"/>
     </row>
     <row r="113" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="11"/>
@@ -29274,9 +29274,9 @@
       <c r="A114" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B114" s="226"/>
-      <c r="C114" s="227"/>
-      <c r="D114" s="228"/>
+      <c r="B114" s="223"/>
+      <c r="C114" s="224"/>
+      <c r="D114" s="225"/>
     </row>
     <row r="115" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="11"/>
@@ -29288,9 +29288,9 @@
       <c r="A116" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="B116" s="226"/>
-      <c r="C116" s="227"/>
-      <c r="D116" s="228"/>
+      <c r="B116" s="223"/>
+      <c r="C116" s="224"/>
+      <c r="D116" s="225"/>
     </row>
     <row r="117" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="11"/>
@@ -29302,9 +29302,9 @@
       <c r="A118" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="B118" s="226"/>
-      <c r="C118" s="227"/>
-      <c r="D118" s="228"/>
+      <c r="B118" s="223"/>
+      <c r="C118" s="224"/>
+      <c r="D118" s="225"/>
     </row>
     <row r="119" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="11"/>
@@ -29316,9 +29316,9 @@
       <c r="A120" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="B120" s="226"/>
-      <c r="C120" s="227"/>
-      <c r="D120" s="228"/>
+      <c r="B120" s="223"/>
+      <c r="C120" s="224"/>
+      <c r="D120" s="225"/>
     </row>
     <row r="121" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="11"/>
@@ -29330,9 +29330,9 @@
       <c r="A122" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="B122" s="226"/>
-      <c r="C122" s="227"/>
-      <c r="D122" s="228"/>
+      <c r="B122" s="223"/>
+      <c r="C122" s="224"/>
+      <c r="D122" s="225"/>
     </row>
     <row r="123" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="12"/>
@@ -29342,11 +29342,55 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="B118:D118"/>
-    <mergeCell ref="B120:D120"/>
-    <mergeCell ref="B122:D122"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:E21"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:E26"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:E31"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:E36"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A82:B82"/>
     <mergeCell ref="B112:D112"/>
     <mergeCell ref="A88:E88"/>
     <mergeCell ref="A93:E93"/>
@@ -29359,55 +29403,11 @@
     <mergeCell ref="B106:D106"/>
     <mergeCell ref="B108:D108"/>
     <mergeCell ref="B110:D110"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:E21"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:E26"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:E31"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:E36"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B122:D122"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -30456,13 +30456,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="418" t="s">
+      <c r="A1" s="388" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="419"/>
-      <c r="C1" s="419"/>
-      <c r="D1" s="419"/>
-      <c r="E1" s="420"/>
+      <c r="B1" s="389"/>
+      <c r="C1" s="389"/>
+      <c r="D1" s="389"/>
+      <c r="E1" s="390"/>
     </row>
     <row r="2" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="152"/>
@@ -30480,11 +30480,11 @@
       <c r="E3" s="156"/>
     </row>
     <row r="4" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="421"/>
-      <c r="B4" s="422"/>
-      <c r="C4" s="422"/>
-      <c r="D4" s="422"/>
-      <c r="E4" s="423"/>
+      <c r="A4" s="391"/>
+      <c r="B4" s="392"/>
+      <c r="C4" s="392"/>
+      <c r="D4" s="392"/>
+      <c r="E4" s="393"/>
     </row>
     <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="157" t="s">
@@ -30568,31 +30568,31 @@
       <c r="D14" s="135"/>
     </row>
     <row r="15" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="415" t="s">
+      <c r="A15" s="394" t="s">
         <v>546</v>
       </c>
-      <c r="B15" s="336" t="s">
+      <c r="B15" s="221" t="s">
         <v>547</v>
       </c>
-      <c r="C15" s="336"/>
-      <c r="D15" s="336"/>
-      <c r="E15" s="337"/>
+      <c r="C15" s="221"/>
+      <c r="D15" s="221"/>
+      <c r="E15" s="222"/>
     </row>
     <row r="16" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="416"/>
+      <c r="A16" s="395"/>
       <c r="B16" s="124"/>
       <c r="C16" s="124"/>
       <c r="D16" s="124"/>
       <c r="E16" s="124"/>
     </row>
     <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="417"/>
-      <c r="B17" s="335" t="s">
+      <c r="A17" s="396"/>
+      <c r="B17" s="220" t="s">
         <v>548</v>
       </c>
-      <c r="C17" s="336"/>
-      <c r="D17" s="336"/>
-      <c r="E17" s="337"/>
+      <c r="C17" s="221"/>
+      <c r="D17" s="221"/>
+      <c r="E17" s="222"/>
     </row>
     <row r="18" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="144"/>
@@ -30604,12 +30604,12 @@
       <c r="A19" s="158" t="s">
         <v>549</v>
       </c>
-      <c r="B19" s="336" t="s">
+      <c r="B19" s="221" t="s">
         <v>550</v>
       </c>
-      <c r="C19" s="336"/>
-      <c r="D19" s="336"/>
-      <c r="E19" s="337"/>
+      <c r="C19" s="221"/>
+      <c r="D19" s="221"/>
+      <c r="E19" s="222"/>
     </row>
     <row r="20" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="159"/>
@@ -30619,31 +30619,31 @@
       <c r="E20" s="42"/>
     </row>
     <row r="21" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="415" t="s">
+      <c r="A21" s="394" t="s">
         <v>551</v>
       </c>
-      <c r="B21" s="336" t="s">
+      <c r="B21" s="221" t="s">
         <v>552</v>
       </c>
-      <c r="C21" s="336"/>
-      <c r="D21" s="336"/>
-      <c r="E21" s="337"/>
+      <c r="C21" s="221"/>
+      <c r="D21" s="221"/>
+      <c r="E21" s="222"/>
     </row>
     <row r="22" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="416"/>
+      <c r="A22" s="395"/>
       <c r="B22" s="124"/>
       <c r="C22" s="124"/>
       <c r="D22" s="124"/>
       <c r="E22" s="124"/>
     </row>
     <row r="23" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="417"/>
-      <c r="B23" s="336" t="s">
+      <c r="A23" s="396"/>
+      <c r="B23" s="221" t="s">
         <v>553</v>
       </c>
-      <c r="C23" s="336"/>
-      <c r="D23" s="336"/>
-      <c r="E23" s="337"/>
+      <c r="C23" s="221"/>
+      <c r="D23" s="221"/>
+      <c r="E23" s="222"/>
     </row>
     <row r="24" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="144"/>
@@ -30703,12 +30703,12 @@
       <c r="A31" s="397" t="s">
         <v>559</v>
       </c>
-      <c r="B31" s="335" t="s">
+      <c r="B31" s="220" t="s">
         <v>560</v>
       </c>
-      <c r="C31" s="336"/>
-      <c r="D31" s="336"/>
-      <c r="E31" s="337"/>
+      <c r="C31" s="221"/>
+      <c r="D31" s="221"/>
+      <c r="E31" s="222"/>
     </row>
     <row r="32" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="398"/>
@@ -30718,12 +30718,12 @@
     </row>
     <row r="33" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="399"/>
-      <c r="B33" s="335" t="s">
+      <c r="B33" s="220" t="s">
         <v>561</v>
       </c>
-      <c r="C33" s="336"/>
-      <c r="D33" s="336"/>
-      <c r="E33" s="337"/>
+      <c r="C33" s="221"/>
+      <c r="D33" s="221"/>
+      <c r="E33" s="222"/>
     </row>
     <row r="34" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="144"/>
@@ -30853,19 +30853,19 @@
       <c r="A49" s="136" t="s">
         <v>245</v>
       </c>
-      <c r="B49" s="302"/>
-      <c r="C49" s="365"/>
-      <c r="D49" s="365"/>
-      <c r="E49" s="303"/>
+      <c r="B49" s="277"/>
+      <c r="C49" s="384"/>
+      <c r="D49" s="384"/>
+      <c r="E49" s="278"/>
     </row>
     <row r="50" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="388" t="s">
+      <c r="A50" s="416" t="s">
         <v>575</v>
       </c>
-      <c r="B50" s="389"/>
-      <c r="C50" s="389"/>
-      <c r="D50" s="389"/>
-      <c r="E50" s="390"/>
+      <c r="B50" s="417"/>
+      <c r="C50" s="417"/>
+      <c r="D50" s="417"/>
+      <c r="E50" s="418"/>
     </row>
     <row r="51" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -30875,10 +30875,10 @@
       <c r="B52" s="167"/>
     </row>
     <row r="53" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="392" t="s">
+      <c r="A53" s="419" t="s">
         <v>576</v>
       </c>
-      <c r="B53" s="393"/>
+      <c r="B53" s="420"/>
       <c r="D53" s="51" t="s">
         <v>577</v>
       </c>
@@ -30970,66 +30970,66 @@
       <c r="A69" s="52"/>
     </row>
     <row r="70" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="394" t="s">
+      <c r="A70" s="421" t="s">
         <v>582</v>
       </c>
-      <c r="B70" s="395"/>
-      <c r="C70" s="395"/>
-      <c r="D70" s="395"/>
-      <c r="E70" s="396"/>
+      <c r="B70" s="422"/>
+      <c r="C70" s="422"/>
+      <c r="D70" s="422"/>
+      <c r="E70" s="423"/>
     </row>
     <row r="71" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="72" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="366" t="s">
+      <c r="A72" s="385" t="s">
         <v>583</v>
       </c>
-      <c r="B72" s="391"/>
-      <c r="C72" s="391"/>
-      <c r="D72" s="367"/>
+      <c r="B72" s="415"/>
+      <c r="C72" s="415"/>
+      <c r="D72" s="386"/>
       <c r="E72" s="168" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="335"/>
-      <c r="B73" s="336"/>
-      <c r="C73" s="336"/>
-      <c r="D73" s="337"/>
+      <c r="A73" s="220"/>
+      <c r="B73" s="221"/>
+      <c r="C73" s="221"/>
+      <c r="D73" s="222"/>
       <c r="E73" s="51"/>
     </row>
     <row r="74" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="335"/>
-      <c r="B74" s="336"/>
-      <c r="C74" s="336"/>
-      <c r="D74" s="337"/>
+      <c r="A74" s="220"/>
+      <c r="B74" s="221"/>
+      <c r="C74" s="221"/>
+      <c r="D74" s="222"/>
       <c r="E74" s="51"/>
     </row>
     <row r="75" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="302"/>
-      <c r="B75" s="365"/>
-      <c r="C75" s="365"/>
-      <c r="D75" s="303"/>
+      <c r="A75" s="277"/>
+      <c r="B75" s="384"/>
+      <c r="C75" s="384"/>
+      <c r="D75" s="278"/>
       <c r="E75" s="51"/>
     </row>
     <row r="76" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="335"/>
-      <c r="B76" s="336"/>
-      <c r="C76" s="336"/>
-      <c r="D76" s="337"/>
+      <c r="A76" s="220"/>
+      <c r="B76" s="221"/>
+      <c r="C76" s="221"/>
+      <c r="D76" s="222"/>
       <c r="E76" s="51"/>
     </row>
     <row r="77" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="335"/>
-      <c r="B77" s="336"/>
-      <c r="C77" s="336"/>
-      <c r="D77" s="337"/>
+      <c r="A77" s="220"/>
+      <c r="B77" s="221"/>
+      <c r="C77" s="221"/>
+      <c r="D77" s="222"/>
       <c r="E77" s="51"/>
     </row>
     <row r="78" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="335"/>
-      <c r="B78" s="336"/>
-      <c r="C78" s="336"/>
-      <c r="D78" s="337"/>
+      <c r="A78" s="220"/>
+      <c r="B78" s="221"/>
+      <c r="C78" s="221"/>
+      <c r="D78" s="222"/>
       <c r="E78" s="51"/>
     </row>
     <row r="79" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31040,68 +31040,68 @@
       <c r="E79" s="124"/>
     </row>
     <row r="80" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="366" t="s">
+      <c r="A80" s="385" t="s">
         <v>490</v>
       </c>
-      <c r="B80" s="391"/>
-      <c r="C80" s="391"/>
-      <c r="D80" s="367"/>
+      <c r="B80" s="415"/>
+      <c r="C80" s="415"/>
+      <c r="D80" s="386"/>
       <c r="E80" s="168" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="335"/>
-      <c r="B81" s="336"/>
-      <c r="C81" s="336"/>
-      <c r="D81" s="337"/>
+      <c r="A81" s="220"/>
+      <c r="B81" s="221"/>
+      <c r="C81" s="221"/>
+      <c r="D81" s="222"/>
       <c r="E81" s="51"/>
     </row>
     <row r="82" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="335"/>
-      <c r="B82" s="336"/>
-      <c r="C82" s="336"/>
-      <c r="D82" s="337"/>
+      <c r="A82" s="220"/>
+      <c r="B82" s="221"/>
+      <c r="C82" s="221"/>
+      <c r="D82" s="222"/>
       <c r="E82" s="51"/>
     </row>
     <row r="83" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="335"/>
-      <c r="B83" s="336"/>
-      <c r="C83" s="336"/>
-      <c r="D83" s="337"/>
+      <c r="A83" s="220"/>
+      <c r="B83" s="221"/>
+      <c r="C83" s="221"/>
+      <c r="D83" s="222"/>
       <c r="E83" s="51"/>
     </row>
     <row r="84" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="335"/>
-      <c r="B84" s="336"/>
-      <c r="C84" s="336"/>
-      <c r="D84" s="337"/>
+      <c r="A84" s="220"/>
+      <c r="B84" s="221"/>
+      <c r="C84" s="221"/>
+      <c r="D84" s="222"/>
       <c r="E84" s="51"/>
     </row>
     <row r="85" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="335"/>
-      <c r="B85" s="336"/>
-      <c r="C85" s="336"/>
-      <c r="D85" s="337"/>
+      <c r="A85" s="220"/>
+      <c r="B85" s="221"/>
+      <c r="C85" s="221"/>
+      <c r="D85" s="222"/>
       <c r="E85" s="51"/>
     </row>
     <row r="88" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="89" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="388" t="s">
+      <c r="A89" s="416" t="s">
         <v>334</v>
       </c>
-      <c r="B89" s="389"/>
-      <c r="C89" s="389"/>
-      <c r="D89" s="389"/>
-      <c r="E89" s="390"/>
+      <c r="B89" s="417"/>
+      <c r="C89" s="417"/>
+      <c r="D89" s="417"/>
+      <c r="E89" s="418"/>
     </row>
     <row r="91" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="74" t="s">
         <v>585</v>
       </c>
-      <c r="B91" s="335"/>
-      <c r="C91" s="336"/>
-      <c r="D91" s="337"/>
+      <c r="B91" s="220"/>
+      <c r="C91" s="221"/>
+      <c r="D91" s="222"/>
     </row>
     <row r="92" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
@@ -31110,9 +31110,9 @@
       <c r="A93" s="74" t="s">
         <v>586</v>
       </c>
-      <c r="B93" s="335"/>
-      <c r="C93" s="336"/>
-      <c r="D93" s="337"/>
+      <c r="B93" s="220"/>
+      <c r="C93" s="221"/>
+      <c r="D93" s="222"/>
     </row>
     <row r="94" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
@@ -31121,9 +31121,9 @@
       <c r="A95" s="74" t="s">
         <v>587</v>
       </c>
-      <c r="B95" s="335"/>
-      <c r="C95" s="336"/>
-      <c r="D95" s="337"/>
+      <c r="B95" s="220"/>
+      <c r="C95" s="221"/>
+      <c r="D95" s="222"/>
     </row>
     <row r="96" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
@@ -31132,9 +31132,9 @@
       <c r="A97" s="74" t="s">
         <v>588</v>
       </c>
-      <c r="B97" s="335"/>
-      <c r="C97" s="336"/>
-      <c r="D97" s="337"/>
+      <c r="B97" s="220"/>
+      <c r="C97" s="221"/>
+      <c r="D97" s="222"/>
     </row>
     <row r="98" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
@@ -31143,9 +31143,9 @@
       <c r="A99" s="74" t="s">
         <v>589</v>
       </c>
-      <c r="B99" s="335"/>
-      <c r="C99" s="336"/>
-      <c r="D99" s="337"/>
+      <c r="B99" s="220"/>
+      <c r="C99" s="221"/>
+      <c r="D99" s="222"/>
     </row>
     <row r="100" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
@@ -31154,9 +31154,9 @@
       <c r="A101" s="74" t="s">
         <v>590</v>
       </c>
-      <c r="B101" s="335"/>
-      <c r="C101" s="336"/>
-      <c r="D101" s="337"/>
+      <c r="B101" s="220"/>
+      <c r="C101" s="221"/>
+      <c r="D101" s="222"/>
     </row>
     <row r="102" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
@@ -31165,9 +31165,9 @@
       <c r="A103" s="74" t="s">
         <v>591</v>
       </c>
-      <c r="B103" s="335"/>
-      <c r="C103" s="336"/>
-      <c r="D103" s="337"/>
+      <c r="B103" s="220"/>
+      <c r="C103" s="221"/>
+      <c r="D103" s="222"/>
     </row>
     <row r="104" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
@@ -31176,9 +31176,9 @@
       <c r="A105" s="74" t="s">
         <v>592</v>
       </c>
-      <c r="B105" s="335"/>
-      <c r="C105" s="336"/>
-      <c r="D105" s="337"/>
+      <c r="B105" s="220"/>
+      <c r="C105" s="221"/>
+      <c r="D105" s="222"/>
     </row>
     <row r="106" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="11"/>
@@ -31187,9 +31187,9 @@
       <c r="A107" s="74" t="s">
         <v>593</v>
       </c>
-      <c r="B107" s="335"/>
-      <c r="C107" s="336"/>
-      <c r="D107" s="337"/>
+      <c r="B107" s="220"/>
+      <c r="C107" s="221"/>
+      <c r="D107" s="222"/>
     </row>
     <row r="108" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
@@ -31198,9 +31198,9 @@
       <c r="A109" s="74" t="s">
         <v>594</v>
       </c>
-      <c r="B109" s="335"/>
-      <c r="C109" s="336"/>
-      <c r="D109" s="337"/>
+      <c r="B109" s="220"/>
+      <c r="C109" s="221"/>
+      <c r="D109" s="222"/>
     </row>
     <row r="110" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
@@ -31209,9 +31209,9 @@
       <c r="A111" s="74" t="s">
         <v>595</v>
       </c>
-      <c r="B111" s="335"/>
-      <c r="C111" s="336"/>
-      <c r="D111" s="337"/>
+      <c r="B111" s="220"/>
+      <c r="C111" s="221"/>
+      <c r="D111" s="222"/>
     </row>
     <row r="112" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
@@ -31220,9 +31220,9 @@
       <c r="A113" s="74" t="s">
         <v>596</v>
       </c>
-      <c r="B113" s="335"/>
-      <c r="C113" s="336"/>
-      <c r="D113" s="337"/>
+      <c r="B113" s="220"/>
+      <c r="C113" s="221"/>
+      <c r="D113" s="222"/>
     </row>
     <row r="114" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="11"/>
@@ -31231,9 +31231,9 @@
       <c r="A115" s="74" t="s">
         <v>597</v>
       </c>
-      <c r="B115" s="335"/>
-      <c r="C115" s="336"/>
-      <c r="D115" s="337"/>
+      <c r="B115" s="220"/>
+      <c r="C115" s="221"/>
+      <c r="D115" s="222"/>
     </row>
     <row r="116" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="11"/>
@@ -31242,9 +31242,9 @@
       <c r="A117" s="74" t="s">
         <v>598</v>
       </c>
-      <c r="B117" s="335"/>
-      <c r="C117" s="336"/>
-      <c r="D117" s="337"/>
+      <c r="B117" s="220"/>
+      <c r="C117" s="221"/>
+      <c r="D117" s="222"/>
     </row>
     <row r="118" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="11"/>
@@ -31253,30 +31253,33 @@
       <c r="A119" s="74" t="s">
         <v>599</v>
       </c>
-      <c r="B119" s="335"/>
-      <c r="C119" s="336"/>
-      <c r="D119" s="337"/>
+      <c r="B119" s="220"/>
+      <c r="C119" s="221"/>
+      <c r="D119" s="222"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="B109:D109"/>
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B99:D99"/>
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="B49:E49"/>
     <mergeCell ref="A50:E50"/>
@@ -31289,27 +31292,24 @@
     <mergeCell ref="A76:D76"/>
     <mergeCell ref="A77:D77"/>
     <mergeCell ref="A78:D78"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="B109:D109"/>
-    <mergeCell ref="B111:D111"/>
-    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B17:E17"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -32899,13 +32899,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="244" t="s">
+      <c r="A1" s="226" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="245"/>
-      <c r="C1" s="245"/>
-      <c r="D1" s="245"/>
-      <c r="E1" s="246"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="228"/>
     </row>
     <row r="2" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
@@ -32914,10 +32914,10 @@
       <c r="A3" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="226"/>
-      <c r="C3" s="227"/>
-      <c r="D3" s="227"/>
-      <c r="E3" s="228"/>
+      <c r="B3" s="223"/>
+      <c r="C3" s="224"/>
+      <c r="D3" s="224"/>
+      <c r="E3" s="225"/>
     </row>
     <row r="4" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
@@ -32984,56 +32984,56 @@
       <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="247" t="s">
+      <c r="A11" s="229" t="s">
         <v>236</v>
       </c>
-      <c r="B11" s="248"/>
-      <c r="C11" s="249"/>
+      <c r="B11" s="230"/>
+      <c r="C11" s="231"/>
       <c r="D11" s="17" t="s">
         <v>237</v>
       </c>
       <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="220"/>
-      <c r="B12" s="221"/>
-      <c r="C12" s="221"/>
-      <c r="D12" s="221"/>
-      <c r="E12" s="222"/>
+      <c r="A12" s="317"/>
+      <c r="B12" s="318"/>
+      <c r="C12" s="318"/>
+      <c r="D12" s="318"/>
+      <c r="E12" s="319"/>
     </row>
     <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="250" t="s">
+      <c r="A13" s="265" t="s">
         <v>238</v>
       </c>
-      <c r="B13" s="253" t="s">
+      <c r="B13" s="301" t="s">
         <v>239</v>
       </c>
-      <c r="C13" s="254"/>
-      <c r="D13" s="254"/>
-      <c r="E13" s="255"/>
+      <c r="C13" s="299"/>
+      <c r="D13" s="299"/>
+      <c r="E13" s="300"/>
     </row>
     <row r="14" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="251"/>
+      <c r="A14" s="271"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
     </row>
     <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="252"/>
-      <c r="B15" s="253" t="s">
+      <c r="A15" s="266"/>
+      <c r="B15" s="301" t="s">
         <v>240</v>
       </c>
-      <c r="C15" s="254"/>
-      <c r="D15" s="254"/>
-      <c r="E15" s="255"/>
+      <c r="C15" s="299"/>
+      <c r="D15" s="299"/>
+      <c r="E15" s="300"/>
     </row>
     <row r="16" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="220"/>
-      <c r="B16" s="221"/>
-      <c r="C16" s="221"/>
-      <c r="D16" s="221"/>
-      <c r="E16" s="222"/>
+      <c r="A16" s="317"/>
+      <c r="B16" s="318"/>
+      <c r="C16" s="318"/>
+      <c r="D16" s="318"/>
+      <c r="E16" s="319"/>
     </row>
     <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
@@ -33051,20 +33051,20 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="223"/>
-      <c r="B18" s="224"/>
-      <c r="C18" s="224"/>
-      <c r="D18" s="224"/>
-      <c r="E18" s="225"/>
+      <c r="A18" s="320"/>
+      <c r="B18" s="321"/>
+      <c r="C18" s="321"/>
+      <c r="D18" s="321"/>
+      <c r="E18" s="322"/>
     </row>
     <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="B19" s="226"/>
-      <c r="C19" s="227"/>
-      <c r="D19" s="227"/>
-      <c r="E19" s="228"/>
+      <c r="B19" s="223"/>
+      <c r="C19" s="224"/>
+      <c r="D19" s="224"/>
+      <c r="E19" s="225"/>
     </row>
     <row r="20" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
@@ -33092,27 +33092,27 @@
       <c r="E22" s="24"/>
     </row>
     <row r="23" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="229" t="s">
+      <c r="A23" s="323" t="s">
         <v>246</v>
       </c>
-      <c r="B23" s="232"/>
-      <c r="C23" s="233"/>
-      <c r="D23" s="233"/>
-      <c r="E23" s="234"/>
+      <c r="B23" s="326"/>
+      <c r="C23" s="327"/>
+      <c r="D23" s="327"/>
+      <c r="E23" s="328"/>
     </row>
     <row r="24" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="230"/>
-      <c r="B24" s="235"/>
-      <c r="C24" s="236"/>
-      <c r="D24" s="236"/>
-      <c r="E24" s="237"/>
+      <c r="A24" s="324"/>
+      <c r="B24" s="329"/>
+      <c r="C24" s="330"/>
+      <c r="D24" s="330"/>
+      <c r="E24" s="331"/>
     </row>
     <row r="25" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="231"/>
-      <c r="B25" s="238"/>
-      <c r="C25" s="239"/>
-      <c r="D25" s="239"/>
-      <c r="E25" s="240"/>
+      <c r="A25" s="325"/>
+      <c r="B25" s="332"/>
+      <c r="C25" s="333"/>
+      <c r="D25" s="333"/>
+      <c r="E25" s="334"/>
     </row>
     <row r="26" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
@@ -33122,37 +33122,37 @@
       <c r="E26" s="24"/>
     </row>
     <row r="27" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="241" t="s">
+      <c r="A27" s="335" t="s">
         <v>247</v>
       </c>
-      <c r="B27" s="232"/>
-      <c r="C27" s="233"/>
-      <c r="D27" s="233"/>
-      <c r="E27" s="234"/>
+      <c r="B27" s="326"/>
+      <c r="C27" s="327"/>
+      <c r="D27" s="327"/>
+      <c r="E27" s="328"/>
     </row>
     <row r="28" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="242"/>
-      <c r="B28" s="235"/>
-      <c r="C28" s="236"/>
-      <c r="D28" s="236"/>
-      <c r="E28" s="237"/>
+      <c r="A28" s="336"/>
+      <c r="B28" s="329"/>
+      <c r="C28" s="330"/>
+      <c r="D28" s="330"/>
+      <c r="E28" s="331"/>
     </row>
     <row r="29" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="243"/>
-      <c r="B29" s="238"/>
-      <c r="C29" s="239"/>
-      <c r="D29" s="239"/>
-      <c r="E29" s="240"/>
+      <c r="A29" s="337"/>
+      <c r="B29" s="332"/>
+      <c r="C29" s="333"/>
+      <c r="D29" s="333"/>
+      <c r="E29" s="334"/>
     </row>
     <row r="30" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="265" t="s">
+      <c r="A31" s="311" t="s">
         <v>248</v>
       </c>
-      <c r="B31" s="266"/>
-      <c r="C31" s="266"/>
-      <c r="D31" s="266"/>
-      <c r="E31" s="267"/>
+      <c r="B31" s="312"/>
+      <c r="C31" s="312"/>
+      <c r="D31" s="312"/>
+      <c r="E31" s="313"/>
     </row>
     <row r="32" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
@@ -33191,13 +33191,13 @@
       <c r="E35" s="12"/>
     </row>
     <row r="36" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="265" t="s">
+      <c r="A36" s="311" t="s">
         <v>253</v>
       </c>
-      <c r="B36" s="266"/>
-      <c r="C36" s="266"/>
-      <c r="D36" s="266"/>
-      <c r="E36" s="267"/>
+      <c r="B36" s="312"/>
+      <c r="C36" s="312"/>
+      <c r="D36" s="312"/>
+      <c r="E36" s="313"/>
     </row>
     <row r="37" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
@@ -33236,13 +33236,13 @@
       <c r="E40" s="12"/>
     </row>
     <row r="41" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="265" t="s">
+      <c r="A41" s="311" t="s">
         <v>254</v>
       </c>
-      <c r="B41" s="266"/>
-      <c r="C41" s="266"/>
-      <c r="D41" s="266"/>
-      <c r="E41" s="267"/>
+      <c r="B41" s="312"/>
+      <c r="C41" s="312"/>
+      <c r="D41" s="312"/>
+      <c r="E41" s="313"/>
     </row>
     <row r="42" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
@@ -33263,13 +33263,13 @@
       <c r="E43" s="12"/>
     </row>
     <row r="44" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="265" t="s">
+      <c r="A44" s="311" t="s">
         <v>257</v>
       </c>
-      <c r="B44" s="266"/>
-      <c r="C44" s="266"/>
-      <c r="D44" s="266"/>
-      <c r="E44" s="267"/>
+      <c r="B44" s="312"/>
+      <c r="C44" s="312"/>
+      <c r="D44" s="312"/>
+      <c r="E44" s="313"/>
     </row>
     <row r="45" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="26" t="s">
@@ -33290,72 +33290,72 @@
       <c r="E46" s="12"/>
     </row>
     <row r="47" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="259" t="s">
+      <c r="A47" s="305" t="s">
         <v>258</v>
       </c>
-      <c r="B47" s="268" t="s">
+      <c r="B47" s="314" t="s">
         <v>259</v>
       </c>
-      <c r="C47" s="269"/>
-      <c r="D47" s="269"/>
-      <c r="E47" s="270"/>
+      <c r="C47" s="315"/>
+      <c r="D47" s="315"/>
+      <c r="E47" s="316"/>
     </row>
     <row r="48" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="260"/>
+      <c r="A48" s="306"/>
       <c r="B48" s="29"/>
       <c r="C48" s="30"/>
       <c r="D48" s="30"/>
       <c r="E48" s="31"/>
     </row>
     <row r="49" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="261"/>
-      <c r="B49" s="268" t="s">
+      <c r="A49" s="307"/>
+      <c r="B49" s="314" t="s">
         <v>260</v>
       </c>
-      <c r="C49" s="269"/>
-      <c r="D49" s="269"/>
-      <c r="E49" s="270"/>
+      <c r="C49" s="315"/>
+      <c r="D49" s="315"/>
+      <c r="E49" s="316"/>
     </row>
     <row r="50" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="256" t="s">
+      <c r="A50" s="245" t="s">
         <v>261</v>
       </c>
-      <c r="B50" s="257"/>
-      <c r="C50" s="257"/>
-      <c r="D50" s="257"/>
-      <c r="E50" s="258"/>
+      <c r="B50" s="246"/>
+      <c r="C50" s="246"/>
+      <c r="D50" s="246"/>
+      <c r="E50" s="247"/>
     </row>
     <row r="51" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="259" t="s">
+      <c r="A52" s="305" t="s">
         <v>262</v>
       </c>
-      <c r="B52" s="253" t="s">
+      <c r="B52" s="301" t="s">
         <v>263</v>
       </c>
-      <c r="C52" s="254"/>
-      <c r="D52" s="254"/>
-      <c r="E52" s="255"/>
+      <c r="C52" s="299"/>
+      <c r="D52" s="299"/>
+      <c r="E52" s="300"/>
     </row>
     <row r="53" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="260"/>
+      <c r="A53" s="306"/>
       <c r="B53" s="32"/>
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="34"/>
     </row>
     <row r="54" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="260"/>
-      <c r="B54" s="253" t="s">
+      <c r="A54" s="306"/>
+      <c r="B54" s="301" t="s">
         <v>264</v>
       </c>
-      <c r="C54" s="254"/>
-      <c r="D54" s="254"/>
-      <c r="E54" s="255"/>
+      <c r="C54" s="299"/>
+      <c r="D54" s="299"/>
+      <c r="E54" s="300"/>
       <c r="F54" s="35"/>
     </row>
     <row r="55" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="260"/>
+      <c r="A55" s="306"/>
       <c r="B55" s="36"/>
       <c r="C55" s="36"/>
       <c r="D55" s="36"/>
@@ -33363,52 +33363,52 @@
       <c r="F55" s="35"/>
     </row>
     <row r="56" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="261"/>
+      <c r="A56" s="307"/>
       <c r="B56" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="C56" s="253"/>
-      <c r="D56" s="254"/>
-      <c r="E56" s="255"/>
+      <c r="C56" s="301"/>
+      <c r="D56" s="299"/>
+      <c r="E56" s="300"/>
       <c r="F56" s="35"/>
     </row>
     <row r="57" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="262"/>
-      <c r="B57" s="263"/>
-      <c r="C57" s="263"/>
-      <c r="D57" s="263"/>
-      <c r="E57" s="264"/>
+      <c r="A57" s="308"/>
+      <c r="B57" s="309"/>
+      <c r="C57" s="309"/>
+      <c r="D57" s="309"/>
+      <c r="E57" s="310"/>
     </row>
     <row r="58" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="285" t="s">
+      <c r="A58" s="296" t="s">
         <v>266</v>
       </c>
-      <c r="B58" s="254" t="s">
+      <c r="B58" s="299" t="s">
         <v>267</v>
       </c>
-      <c r="C58" s="254"/>
-      <c r="D58" s="254"/>
-      <c r="E58" s="255"/>
+      <c r="C58" s="299"/>
+      <c r="D58" s="299"/>
+      <c r="E58" s="300"/>
     </row>
     <row r="59" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="286"/>
+      <c r="A59" s="297"/>
       <c r="B59" s="33"/>
       <c r="C59" s="33"/>
       <c r="D59" s="33"/>
       <c r="E59" s="34"/>
     </row>
     <row r="60" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="286"/>
-      <c r="B60" s="254" t="s">
+      <c r="A60" s="297"/>
+      <c r="B60" s="299" t="s">
         <v>268</v>
       </c>
-      <c r="C60" s="254"/>
-      <c r="D60" s="254"/>
-      <c r="E60" s="255"/>
+      <c r="C60" s="299"/>
+      <c r="D60" s="299"/>
+      <c r="E60" s="300"/>
       <c r="F60" s="39"/>
     </row>
     <row r="61" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="286"/>
+      <c r="A61" s="297"/>
       <c r="B61" s="36"/>
       <c r="C61" s="36"/>
       <c r="D61" s="36"/>
@@ -33416,21 +33416,21 @@
       <c r="F61" s="39"/>
     </row>
     <row r="62" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="287"/>
+      <c r="A62" s="298"/>
       <c r="B62" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="C62" s="253"/>
-      <c r="D62" s="254"/>
-      <c r="E62" s="255"/>
+      <c r="C62" s="301"/>
+      <c r="D62" s="299"/>
+      <c r="E62" s="300"/>
       <c r="F62" s="39"/>
     </row>
     <row r="63" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="288"/>
-      <c r="B63" s="289"/>
-      <c r="C63" s="289"/>
-      <c r="D63" s="289"/>
-      <c r="E63" s="290"/>
+      <c r="A63" s="302"/>
+      <c r="B63" s="303"/>
+      <c r="C63" s="303"/>
+      <c r="D63" s="303"/>
+      <c r="E63" s="304"/>
     </row>
     <row r="64" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="43" t="s">
@@ -33446,46 +33446,46 @@
       <c r="E64" s="44"/>
     </row>
     <row r="65" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="271"/>
-      <c r="B65" s="272"/>
-      <c r="C65" s="272"/>
-      <c r="D65" s="272"/>
-      <c r="E65" s="273"/>
+      <c r="A65" s="291"/>
+      <c r="B65" s="292"/>
+      <c r="C65" s="292"/>
+      <c r="D65" s="292"/>
+      <c r="E65" s="293"/>
     </row>
     <row r="66" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="250" t="s">
+      <c r="A66" s="265" t="s">
         <v>271</v>
       </c>
-      <c r="B66" s="226" t="s">
+      <c r="B66" s="223" t="s">
         <v>272</v>
       </c>
-      <c r="C66" s="227"/>
-      <c r="D66" s="227"/>
-      <c r="E66" s="228"/>
+      <c r="C66" s="224"/>
+      <c r="D66" s="224"/>
+      <c r="E66" s="225"/>
       <c r="F66" s="18"/>
     </row>
     <row r="67" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="251"/>
+      <c r="A67" s="271"/>
       <c r="B67" s="19"/>
       <c r="C67" s="12"/>
       <c r="F67" s="18"/>
     </row>
     <row r="68" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="252"/>
-      <c r="B68" s="226" t="s">
+      <c r="A68" s="266"/>
+      <c r="B68" s="223" t="s">
         <v>273</v>
       </c>
-      <c r="C68" s="227"/>
-      <c r="D68" s="227"/>
-      <c r="E68" s="228"/>
+      <c r="C68" s="224"/>
+      <c r="D68" s="224"/>
+      <c r="E68" s="225"/>
       <c r="F68" s="18"/>
     </row>
     <row r="69" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="271"/>
-      <c r="B69" s="272"/>
-      <c r="C69" s="272"/>
-      <c r="D69" s="272"/>
-      <c r="E69" s="273"/>
+      <c r="A69" s="291"/>
+      <c r="B69" s="292"/>
+      <c r="C69" s="292"/>
+      <c r="D69" s="292"/>
+      <c r="E69" s="293"/>
     </row>
     <row r="70" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="45" t="s">
@@ -33625,13 +33625,13 @@
       <c r="L81" s="18"/>
     </row>
     <row r="82" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="274" t="s">
+      <c r="A82" s="236" t="s">
         <v>285</v>
       </c>
-      <c r="B82" s="275"/>
-      <c r="C82" s="275"/>
-      <c r="D82" s="275"/>
-      <c r="E82" s="276"/>
+      <c r="B82" s="237"/>
+      <c r="C82" s="237"/>
+      <c r="D82" s="237"/>
+      <c r="E82" s="238"/>
       <c r="F82" s="18"/>
       <c r="G82" s="18"/>
       <c r="H82" s="55"/>
@@ -33641,13 +33641,13 @@
       <c r="L82" s="18"/>
     </row>
     <row r="83" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="277" t="s">
+      <c r="A83" s="294" t="s">
         <v>286</v>
       </c>
-      <c r="B83" s="279"/>
-      <c r="C83" s="280"/>
-      <c r="D83" s="280"/>
-      <c r="E83" s="281"/>
+      <c r="B83" s="282"/>
+      <c r="C83" s="283"/>
+      <c r="D83" s="283"/>
+      <c r="E83" s="284"/>
       <c r="F83" s="18"/>
       <c r="G83" s="18"/>
       <c r="H83" s="57"/>
@@ -33657,11 +33657,11 @@
       <c r="L83" s="18"/>
     </row>
     <row r="84" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="278"/>
-      <c r="B84" s="282"/>
-      <c r="C84" s="283"/>
-      <c r="D84" s="283"/>
-      <c r="E84" s="284"/>
+      <c r="A84" s="295"/>
+      <c r="B84" s="285"/>
+      <c r="C84" s="286"/>
+      <c r="D84" s="286"/>
+      <c r="E84" s="287"/>
       <c r="F84" s="18"/>
       <c r="G84" s="18"/>
       <c r="H84" s="55"/>
@@ -33682,15 +33682,15 @@
       <c r="L85" s="18"/>
     </row>
     <row r="86" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="299" t="s">
+      <c r="A86" s="274" t="s">
         <v>287</v>
       </c>
-      <c r="B86" s="300"/>
-      <c r="C86" s="301"/>
-      <c r="D86" s="302" t="s">
+      <c r="B86" s="275"/>
+      <c r="C86" s="276"/>
+      <c r="D86" s="277" t="s">
         <v>288</v>
       </c>
-      <c r="E86" s="303"/>
+      <c r="E86" s="278"/>
       <c r="F86" s="18"/>
       <c r="G86" s="18"/>
       <c r="H86" s="55"/>
@@ -33717,10 +33717,10 @@
       <c r="A88" s="65" t="s">
         <v>289</v>
       </c>
-      <c r="B88" s="304"/>
-      <c r="C88" s="305"/>
-      <c r="D88" s="305"/>
-      <c r="E88" s="306"/>
+      <c r="B88" s="279"/>
+      <c r="C88" s="280"/>
+      <c r="D88" s="280"/>
+      <c r="E88" s="281"/>
       <c r="F88" s="18"/>
       <c r="G88" s="18"/>
       <c r="H88" s="66"/>
@@ -33741,13 +33741,13 @@
       <c r="L89" s="18"/>
     </row>
     <row r="90" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="250" t="s">
+      <c r="A90" s="265" t="s">
         <v>290</v>
       </c>
-      <c r="B90" s="279"/>
-      <c r="C90" s="280"/>
-      <c r="D90" s="280"/>
-      <c r="E90" s="281"/>
+      <c r="B90" s="282"/>
+      <c r="C90" s="283"/>
+      <c r="D90" s="283"/>
+      <c r="E90" s="284"/>
       <c r="F90" s="18"/>
       <c r="G90" s="18"/>
       <c r="H90" s="55"/>
@@ -33757,11 +33757,11 @@
       <c r="L90" s="18"/>
     </row>
     <row r="91" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="252"/>
-      <c r="B91" s="282"/>
-      <c r="C91" s="283"/>
-      <c r="D91" s="283"/>
-      <c r="E91" s="284"/>
+      <c r="A91" s="266"/>
+      <c r="B91" s="285"/>
+      <c r="C91" s="286"/>
+      <c r="D91" s="286"/>
+      <c r="E91" s="287"/>
       <c r="F91" s="18"/>
       <c r="G91" s="18"/>
       <c r="H91" s="55"/>
@@ -33781,13 +33781,13 @@
       <c r="L92" s="18"/>
     </row>
     <row r="93" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="250" t="s">
+      <c r="A93" s="265" t="s">
         <v>291</v>
       </c>
-      <c r="B93" s="279"/>
-      <c r="C93" s="280"/>
-      <c r="D93" s="280"/>
-      <c r="E93" s="281"/>
+      <c r="B93" s="282"/>
+      <c r="C93" s="283"/>
+      <c r="D93" s="283"/>
+      <c r="E93" s="284"/>
       <c r="F93" s="18"/>
       <c r="G93" s="18"/>
       <c r="H93" s="66"/>
@@ -33797,11 +33797,11 @@
       <c r="L93" s="18"/>
     </row>
     <row r="94" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="251"/>
-      <c r="B94" s="307"/>
-      <c r="C94" s="308"/>
-      <c r="D94" s="308"/>
-      <c r="E94" s="309"/>
+      <c r="A94" s="271"/>
+      <c r="B94" s="288"/>
+      <c r="C94" s="289"/>
+      <c r="D94" s="289"/>
+      <c r="E94" s="290"/>
       <c r="F94" s="18"/>
       <c r="G94" s="18"/>
       <c r="H94" s="70"/>
@@ -33811,11 +33811,11 @@
       <c r="L94" s="18"/>
     </row>
     <row r="95" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="252"/>
-      <c r="B95" s="282"/>
-      <c r="C95" s="283"/>
-      <c r="D95" s="283"/>
-      <c r="E95" s="284"/>
+      <c r="A95" s="266"/>
+      <c r="B95" s="285"/>
+      <c r="C95" s="286"/>
+      <c r="D95" s="286"/>
+      <c r="E95" s="287"/>
       <c r="F95" s="18"/>
       <c r="G95" s="18"/>
       <c r="H95" s="18"/>
@@ -33836,13 +33836,13 @@
       <c r="L96" s="18"/>
     </row>
     <row r="97" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="274" t="s">
+      <c r="A97" s="236" t="s">
         <v>292</v>
       </c>
-      <c r="B97" s="275"/>
-      <c r="C97" s="275"/>
-      <c r="D97" s="275"/>
-      <c r="E97" s="276"/>
+      <c r="B97" s="237"/>
+      <c r="C97" s="237"/>
+      <c r="D97" s="237"/>
+      <c r="E97" s="238"/>
       <c r="F97" s="18"/>
       <c r="G97" s="18"/>
       <c r="H97" s="57"/>
@@ -33852,10 +33852,10 @@
       <c r="L97" s="18"/>
     </row>
     <row r="98" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="291" t="s">
+      <c r="A98" s="268" t="s">
         <v>293</v>
       </c>
-      <c r="B98" s="292"/>
+      <c r="B98" s="270"/>
       <c r="C98" s="12"/>
       <c r="D98" s="13" t="s">
         <v>294</v>
@@ -33887,10 +33887,10 @@
       <c r="A100" s="74" t="s">
         <v>295</v>
       </c>
-      <c r="B100" s="226"/>
-      <c r="C100" s="227"/>
-      <c r="D100" s="227"/>
-      <c r="E100" s="228"/>
+      <c r="B100" s="223"/>
+      <c r="C100" s="224"/>
+      <c r="D100" s="224"/>
+      <c r="E100" s="225"/>
       <c r="F100" s="18"/>
       <c r="G100" s="18"/>
       <c r="H100" s="55"/>
@@ -33917,10 +33917,10 @@
       <c r="A102" s="74" t="s">
         <v>296</v>
       </c>
-      <c r="B102" s="226"/>
-      <c r="C102" s="227"/>
-      <c r="D102" s="227"/>
-      <c r="E102" s="228"/>
+      <c r="B102" s="223"/>
+      <c r="C102" s="224"/>
+      <c r="D102" s="224"/>
+      <c r="E102" s="225"/>
       <c r="F102" s="18"/>
       <c r="G102" s="18"/>
       <c r="H102" s="55"/>
@@ -33972,13 +33972,13 @@
       <c r="H105" s="55"/>
     </row>
     <row r="106" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="250" t="s">
+      <c r="A106" s="265" t="s">
         <v>299</v>
       </c>
-      <c r="B106" s="293"/>
-      <c r="C106" s="294"/>
-      <c r="D106" s="294"/>
-      <c r="E106" s="294"/>
+      <c r="B106" s="259"/>
+      <c r="C106" s="260"/>
+      <c r="D106" s="260"/>
+      <c r="E106" s="260"/>
       <c r="F106" s="18"/>
       <c r="G106" s="18"/>
       <c r="H106" s="55"/>
@@ -33988,11 +33988,11 @@
       <c r="L106" s="18"/>
     </row>
     <row r="107" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="251"/>
-      <c r="B107" s="295"/>
-      <c r="C107" s="296"/>
-      <c r="D107" s="296"/>
-      <c r="E107" s="296"/>
+      <c r="A107" s="271"/>
+      <c r="B107" s="272"/>
+      <c r="C107" s="273"/>
+      <c r="D107" s="273"/>
+      <c r="E107" s="273"/>
       <c r="F107" s="18"/>
       <c r="G107" s="18"/>
       <c r="H107" s="55"/>
@@ -34002,11 +34002,11 @@
       <c r="L107" s="18"/>
     </row>
     <row r="108" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="252"/>
-      <c r="B108" s="297"/>
-      <c r="C108" s="298"/>
-      <c r="D108" s="298"/>
-      <c r="E108" s="298"/>
+      <c r="A108" s="266"/>
+      <c r="B108" s="262"/>
+      <c r="C108" s="263"/>
+      <c r="D108" s="263"/>
+      <c r="E108" s="263"/>
       <c r="F108" s="18"/>
       <c r="G108" s="18"/>
       <c r="H108" s="55"/>
@@ -34030,13 +34030,13 @@
       <c r="L109" s="18"/>
     </row>
     <row r="110" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="322" t="s">
+      <c r="A110" s="257" t="s">
         <v>300</v>
       </c>
-      <c r="B110" s="293"/>
-      <c r="C110" s="294"/>
-      <c r="D110" s="294"/>
-      <c r="E110" s="324"/>
+      <c r="B110" s="259"/>
+      <c r="C110" s="260"/>
+      <c r="D110" s="260"/>
+      <c r="E110" s="261"/>
       <c r="F110" s="18"/>
       <c r="G110" s="18"/>
       <c r="H110" s="55"/>
@@ -34046,11 +34046,11 @@
       <c r="L110" s="18"/>
     </row>
     <row r="111" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="323"/>
-      <c r="B111" s="297"/>
-      <c r="C111" s="298"/>
-      <c r="D111" s="298"/>
-      <c r="E111" s="325"/>
+      <c r="A111" s="258"/>
+      <c r="B111" s="262"/>
+      <c r="C111" s="263"/>
+      <c r="D111" s="263"/>
+      <c r="E111" s="264"/>
       <c r="F111" s="18"/>
       <c r="G111" s="18"/>
       <c r="H111" s="55"/>
@@ -34065,38 +34065,38 @@
       <c r="E112" s="12"/>
     </row>
     <row r="113" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="250" t="s">
+      <c r="A113" s="265" t="s">
         <v>301</v>
       </c>
-      <c r="B113" s="293"/>
-      <c r="C113" s="294"/>
-      <c r="D113" s="294"/>
-      <c r="E113" s="324"/>
+      <c r="B113" s="259"/>
+      <c r="C113" s="260"/>
+      <c r="D113" s="260"/>
+      <c r="E113" s="261"/>
     </row>
     <row r="114" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="252"/>
-      <c r="B114" s="297"/>
-      <c r="C114" s="298"/>
-      <c r="D114" s="298"/>
-      <c r="E114" s="325"/>
+      <c r="A114" s="266"/>
+      <c r="B114" s="262"/>
+      <c r="C114" s="263"/>
+      <c r="D114" s="263"/>
+      <c r="E114" s="264"/>
     </row>
     <row r="115" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="116" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="326" t="s">
+      <c r="A116" s="267" t="s">
         <v>302</v>
       </c>
-      <c r="B116" s="326"/>
-      <c r="C116" s="326"/>
-      <c r="D116" s="326"/>
-      <c r="E116" s="326"/>
+      <c r="B116" s="267"/>
+      <c r="C116" s="267"/>
+      <c r="D116" s="267"/>
+      <c r="E116" s="267"/>
       <c r="H116" s="78"/>
     </row>
     <row r="117" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="291" t="s">
+      <c r="A117" s="268" t="s">
         <v>303</v>
       </c>
-      <c r="B117" s="327"/>
-      <c r="C117" s="292"/>
+      <c r="B117" s="269"/>
+      <c r="C117" s="270"/>
       <c r="D117" s="13" t="s">
         <v>304</v>
       </c>
@@ -34104,11 +34104,11 @@
       <c r="H117" s="9"/>
     </row>
     <row r="118" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="310"/>
-      <c r="B118" s="311"/>
-      <c r="C118" s="311"/>
-      <c r="D118" s="311"/>
-      <c r="E118" s="312"/>
+      <c r="A118" s="248"/>
+      <c r="B118" s="249"/>
+      <c r="C118" s="249"/>
+      <c r="D118" s="249"/>
+      <c r="E118" s="250"/>
     </row>
     <row r="119" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="45" t="s">
@@ -34135,10 +34135,10 @@
       <c r="A121" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B121" s="226"/>
-      <c r="C121" s="227"/>
-      <c r="D121" s="227"/>
-      <c r="E121" s="228"/>
+      <c r="B121" s="223"/>
+      <c r="C121" s="224"/>
+      <c r="D121" s="224"/>
+      <c r="E121" s="225"/>
       <c r="H121" s="9"/>
     </row>
     <row r="122" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -34184,11 +34184,11 @@
       <c r="H125" s="9"/>
     </row>
     <row r="126" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="313"/>
-      <c r="B126" s="314"/>
-      <c r="C126" s="314"/>
-      <c r="D126" s="314"/>
-      <c r="E126" s="315"/>
+      <c r="A126" s="251"/>
+      <c r="B126" s="252"/>
+      <c r="C126" s="252"/>
+      <c r="D126" s="252"/>
+      <c r="E126" s="253"/>
     </row>
     <row r="127" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="45" t="s">
@@ -34215,10 +34215,10 @@
       <c r="A129" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B129" s="226"/>
-      <c r="C129" s="227"/>
-      <c r="D129" s="227"/>
-      <c r="E129" s="228"/>
+      <c r="B129" s="223"/>
+      <c r="C129" s="224"/>
+      <c r="D129" s="224"/>
+      <c r="E129" s="225"/>
       <c r="H129" s="9"/>
     </row>
     <row r="130" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -34264,11 +34264,11 @@
       <c r="H133" s="9"/>
     </row>
     <row r="134" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="316"/>
-      <c r="B134" s="317"/>
-      <c r="C134" s="317"/>
-      <c r="D134" s="317"/>
-      <c r="E134" s="318"/>
+      <c r="A134" s="242"/>
+      <c r="B134" s="243"/>
+      <c r="C134" s="243"/>
+      <c r="D134" s="243"/>
+      <c r="E134" s="244"/>
     </row>
     <row r="135" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="45" t="s">
@@ -34294,10 +34294,10 @@
       <c r="A137" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B137" s="319"/>
-      <c r="C137" s="320"/>
-      <c r="D137" s="320"/>
-      <c r="E137" s="321"/>
+      <c r="B137" s="254"/>
+      <c r="C137" s="255"/>
+      <c r="D137" s="255"/>
+      <c r="E137" s="256"/>
     </row>
     <row r="138" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="58"/>
@@ -34340,11 +34340,11 @@
       <c r="F141" s="18"/>
     </row>
     <row r="142" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="316"/>
-      <c r="B142" s="317"/>
-      <c r="C142" s="317"/>
-      <c r="D142" s="317"/>
-      <c r="E142" s="318"/>
+      <c r="A142" s="242"/>
+      <c r="B142" s="243"/>
+      <c r="C142" s="243"/>
+      <c r="D142" s="243"/>
+      <c r="E142" s="244"/>
     </row>
     <row r="143" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="45" t="s">
@@ -34370,10 +34370,10 @@
       <c r="A145" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B145" s="226"/>
-      <c r="C145" s="227"/>
-      <c r="D145" s="227"/>
-      <c r="E145" s="228"/>
+      <c r="B145" s="223"/>
+      <c r="C145" s="224"/>
+      <c r="D145" s="224"/>
+      <c r="E145" s="225"/>
     </row>
     <row r="146" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="69"/>
@@ -34679,13 +34679,13 @@
       <c r="E182" s="18"/>
     </row>
     <row r="183" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A183" s="256" t="s">
+      <c r="A183" s="245" t="s">
         <v>314</v>
       </c>
-      <c r="B183" s="257"/>
-      <c r="C183" s="257"/>
-      <c r="D183" s="257"/>
-      <c r="E183" s="258"/>
+      <c r="B183" s="246"/>
+      <c r="C183" s="246"/>
+      <c r="D183" s="246"/>
+      <c r="E183" s="247"/>
     </row>
     <row r="184" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="53" t="s">
@@ -34699,20 +34699,20 @@
       <c r="A185" s="83"/>
     </row>
     <row r="186" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="274" t="s">
+      <c r="A186" s="236" t="s">
         <v>317</v>
       </c>
-      <c r="B186" s="275"/>
-      <c r="C186" s="275"/>
-      <c r="D186" s="276"/>
+      <c r="B186" s="237"/>
+      <c r="C186" s="237"/>
+      <c r="D186" s="238"/>
     </row>
     <row r="187" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="331" t="s">
+      <c r="A187" s="232" t="s">
         <v>318</v>
       </c>
-      <c r="B187" s="332"/>
-      <c r="C187" s="332"/>
-      <c r="D187" s="333"/>
+      <c r="B187" s="233"/>
+      <c r="C187" s="233"/>
+      <c r="D187" s="234"/>
     </row>
     <row r="188" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="12"/>
@@ -34721,12 +34721,12 @@
       <c r="D188" s="12"/>
     </row>
     <row r="189" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="331" t="s">
+      <c r="A189" s="232" t="s">
         <v>319</v>
       </c>
-      <c r="B189" s="332"/>
-      <c r="C189" s="332"/>
-      <c r="D189" s="333"/>
+      <c r="B189" s="233"/>
+      <c r="C189" s="233"/>
+      <c r="D189" s="234"/>
     </row>
     <row r="190" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="12"/>
@@ -34738,9 +34738,9 @@
       <c r="A191" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B191" s="226"/>
-      <c r="C191" s="227"/>
-      <c r="D191" s="228"/>
+      <c r="B191" s="223"/>
+      <c r="C191" s="224"/>
+      <c r="D191" s="225"/>
     </row>
     <row r="192" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="85"/>
@@ -34749,20 +34749,20 @@
       <c r="D192" s="12"/>
     </row>
     <row r="193" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="328" t="s">
+      <c r="A193" s="239" t="s">
         <v>320</v>
       </c>
-      <c r="B193" s="329"/>
-      <c r="C193" s="329"/>
-      <c r="D193" s="330"/>
+      <c r="B193" s="240"/>
+      <c r="C193" s="240"/>
+      <c r="D193" s="241"/>
     </row>
     <row r="194" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="331" t="s">
+      <c r="A194" s="232" t="s">
         <v>321</v>
       </c>
-      <c r="B194" s="332"/>
-      <c r="C194" s="332"/>
-      <c r="D194" s="333"/>
+      <c r="B194" s="233"/>
+      <c r="C194" s="233"/>
+      <c r="D194" s="234"/>
     </row>
     <row r="195" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="85"/>
@@ -34774,9 +34774,9 @@
       <c r="A196" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B196" s="226"/>
-      <c r="C196" s="227"/>
-      <c r="D196" s="228"/>
+      <c r="B196" s="223"/>
+      <c r="C196" s="224"/>
+      <c r="D196" s="225"/>
     </row>
     <row r="197" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="12"/>
@@ -34785,20 +34785,20 @@
       <c r="D197" s="12"/>
     </row>
     <row r="198" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="274" t="s">
+      <c r="A198" s="236" t="s">
         <v>322</v>
       </c>
-      <c r="B198" s="275"/>
-      <c r="C198" s="275"/>
-      <c r="D198" s="276"/>
+      <c r="B198" s="237"/>
+      <c r="C198" s="237"/>
+      <c r="D198" s="238"/>
     </row>
     <row r="199" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="331" t="s">
+      <c r="A199" s="232" t="s">
         <v>323</v>
       </c>
-      <c r="B199" s="332"/>
-      <c r="C199" s="332"/>
-      <c r="D199" s="333"/>
+      <c r="B199" s="233"/>
+      <c r="C199" s="233"/>
+      <c r="D199" s="234"/>
     </row>
     <row r="200" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="86"/>
@@ -34810,9 +34810,9 @@
       <c r="A201" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B201" s="226"/>
-      <c r="C201" s="227"/>
-      <c r="D201" s="228"/>
+      <c r="B201" s="223"/>
+      <c r="C201" s="224"/>
+      <c r="D201" s="225"/>
     </row>
     <row r="202" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="12"/>
@@ -34821,20 +34821,20 @@
       <c r="D202" s="12"/>
     </row>
     <row r="203" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="274" t="s">
+      <c r="A203" s="236" t="s">
         <v>324</v>
       </c>
-      <c r="B203" s="275"/>
-      <c r="C203" s="275"/>
-      <c r="D203" s="276"/>
+      <c r="B203" s="237"/>
+      <c r="C203" s="237"/>
+      <c r="D203" s="238"/>
     </row>
     <row r="204" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="331" t="s">
+      <c r="A204" s="232" t="s">
         <v>325</v>
       </c>
-      <c r="B204" s="332"/>
-      <c r="C204" s="332"/>
-      <c r="D204" s="333"/>
+      <c r="B204" s="233"/>
+      <c r="C204" s="233"/>
+      <c r="D204" s="234"/>
     </row>
     <row r="205" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="85"/>
@@ -34843,12 +34843,12 @@
       <c r="D205" s="12"/>
     </row>
     <row r="206" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="331" t="s">
+      <c r="A206" s="232" t="s">
         <v>326</v>
       </c>
-      <c r="B206" s="332"/>
-      <c r="C206" s="332"/>
-      <c r="D206" s="333"/>
+      <c r="B206" s="233"/>
+      <c r="C206" s="233"/>
+      <c r="D206" s="234"/>
     </row>
     <row r="207" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="12"/>
@@ -34860,9 +34860,9 @@
       <c r="A208" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B208" s="226"/>
-      <c r="C208" s="227"/>
-      <c r="D208" s="228"/>
+      <c r="B208" s="223"/>
+      <c r="C208" s="224"/>
+      <c r="D208" s="225"/>
     </row>
     <row r="209" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="12"/>
@@ -34871,20 +34871,20 @@
       <c r="D209" s="12"/>
     </row>
     <row r="210" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="274" t="s">
+      <c r="A210" s="236" t="s">
         <v>327</v>
       </c>
-      <c r="B210" s="275"/>
-      <c r="C210" s="275"/>
-      <c r="D210" s="276"/>
+      <c r="B210" s="237"/>
+      <c r="C210" s="237"/>
+      <c r="D210" s="238"/>
     </row>
     <row r="211" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="331" t="s">
+      <c r="A211" s="232" t="s">
         <v>328</v>
       </c>
-      <c r="B211" s="332"/>
-      <c r="C211" s="332"/>
-      <c r="D211" s="333"/>
+      <c r="B211" s="233"/>
+      <c r="C211" s="233"/>
+      <c r="D211" s="234"/>
     </row>
     <row r="212" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="85"/>
@@ -34896,9 +34896,9 @@
       <c r="A213" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B213" s="226"/>
-      <c r="C213" s="227"/>
-      <c r="D213" s="228"/>
+      <c r="B213" s="223"/>
+      <c r="C213" s="224"/>
+      <c r="D213" s="225"/>
     </row>
     <row r="214" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="12"/>
@@ -34907,20 +34907,20 @@
       <c r="D214" s="12"/>
     </row>
     <row r="215" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="274" t="s">
+      <c r="A215" s="236" t="s">
         <v>329</v>
       </c>
-      <c r="B215" s="275"/>
-      <c r="C215" s="275"/>
-      <c r="D215" s="276"/>
+      <c r="B215" s="237"/>
+      <c r="C215" s="237"/>
+      <c r="D215" s="238"/>
     </row>
     <row r="216" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="331" t="s">
+      <c r="A216" s="232" t="s">
         <v>330</v>
       </c>
-      <c r="B216" s="332"/>
-      <c r="C216" s="332"/>
-      <c r="D216" s="333"/>
+      <c r="B216" s="233"/>
+      <c r="C216" s="233"/>
+      <c r="D216" s="234"/>
     </row>
     <row r="217" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="85"/>
@@ -34932,9 +34932,9 @@
       <c r="A218" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B218" s="226"/>
-      <c r="C218" s="227"/>
-      <c r="D218" s="228"/>
+      <c r="B218" s="223"/>
+      <c r="C218" s="224"/>
+      <c r="D218" s="225"/>
     </row>
     <row r="219" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="12"/>
@@ -34943,20 +34943,20 @@
       <c r="D219" s="12"/>
     </row>
     <row r="220" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="274" t="s">
+      <c r="A220" s="236" t="s">
         <v>331</v>
       </c>
-      <c r="B220" s="275"/>
-      <c r="C220" s="275"/>
-      <c r="D220" s="276"/>
+      <c r="B220" s="237"/>
+      <c r="C220" s="237"/>
+      <c r="D220" s="238"/>
     </row>
     <row r="221" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="331" t="s">
+      <c r="A221" s="232" t="s">
         <v>332</v>
       </c>
-      <c r="B221" s="332"/>
-      <c r="C221" s="332"/>
-      <c r="D221" s="333"/>
+      <c r="B221" s="233"/>
+      <c r="C221" s="233"/>
+      <c r="D221" s="234"/>
     </row>
     <row r="222" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="12"/>
@@ -34965,12 +34965,12 @@
       <c r="D222" s="12"/>
     </row>
     <row r="223" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="331" t="s">
+      <c r="A223" s="232" t="s">
         <v>333</v>
       </c>
-      <c r="B223" s="332"/>
-      <c r="C223" s="332"/>
-      <c r="D223" s="333"/>
+      <c r="B223" s="233"/>
+      <c r="C223" s="233"/>
+      <c r="D223" s="234"/>
     </row>
     <row r="224" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="85"/>
@@ -34982,9 +34982,9 @@
       <c r="A225" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B225" s="226"/>
-      <c r="C225" s="227"/>
-      <c r="D225" s="228"/>
+      <c r="B225" s="223"/>
+      <c r="C225" s="224"/>
+      <c r="D225" s="225"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="12"/>
@@ -34993,13 +34993,13 @@
       <c r="D226" s="12"/>
     </row>
     <row r="230" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A230" s="334" t="s">
+      <c r="A230" s="235" t="s">
         <v>334</v>
       </c>
-      <c r="B230" s="334"/>
-      <c r="C230" s="334"/>
-      <c r="D230" s="334"/>
-      <c r="E230" s="334"/>
+      <c r="B230" s="235"/>
+      <c r="C230" s="235"/>
+      <c r="D230" s="235"/>
+      <c r="E230" s="235"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="87"/>
@@ -35011,9 +35011,9 @@
       <c r="A232" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="B232" s="226"/>
-      <c r="C232" s="227"/>
-      <c r="D232" s="228"/>
+      <c r="B232" s="223"/>
+      <c r="C232" s="224"/>
+      <c r="D232" s="225"/>
     </row>
     <row r="233" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="11"/>
@@ -35025,9 +35025,9 @@
       <c r="A234" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="B234" s="226"/>
-      <c r="C234" s="227"/>
-      <c r="D234" s="228"/>
+      <c r="B234" s="223"/>
+      <c r="C234" s="224"/>
+      <c r="D234" s="225"/>
     </row>
     <row r="235" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="11"/>
@@ -35039,9 +35039,9 @@
       <c r="A236" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="B236" s="226"/>
-      <c r="C236" s="227"/>
-      <c r="D236" s="228"/>
+      <c r="B236" s="223"/>
+      <c r="C236" s="224"/>
+      <c r="D236" s="225"/>
     </row>
     <row r="237" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="11"/>
@@ -35053,9 +35053,9 @@
       <c r="A238" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="B238" s="226"/>
-      <c r="C238" s="227"/>
-      <c r="D238" s="228"/>
+      <c r="B238" s="223"/>
+      <c r="C238" s="224"/>
+      <c r="D238" s="225"/>
     </row>
     <row r="239" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="11"/>
@@ -35067,9 +35067,9 @@
       <c r="A240" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="B240" s="226"/>
-      <c r="C240" s="227"/>
-      <c r="D240" s="228"/>
+      <c r="B240" s="223"/>
+      <c r="C240" s="224"/>
+      <c r="D240" s="225"/>
     </row>
     <row r="241" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="11"/>
@@ -35081,9 +35081,9 @@
       <c r="A242" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="B242" s="226"/>
-      <c r="C242" s="227"/>
-      <c r="D242" s="228"/>
+      <c r="B242" s="223"/>
+      <c r="C242" s="224"/>
+      <c r="D242" s="225"/>
     </row>
     <row r="243" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="11"/>
@@ -35095,9 +35095,9 @@
       <c r="A244" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="B244" s="226"/>
-      <c r="C244" s="227"/>
-      <c r="D244" s="228"/>
+      <c r="B244" s="223"/>
+      <c r="C244" s="224"/>
+      <c r="D244" s="225"/>
     </row>
     <row r="245" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="11"/>
@@ -35109,9 +35109,9 @@
       <c r="A246" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="B246" s="226"/>
-      <c r="C246" s="227"/>
-      <c r="D246" s="228"/>
+      <c r="B246" s="223"/>
+      <c r="C246" s="224"/>
+      <c r="D246" s="225"/>
     </row>
     <row r="247" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="11"/>
@@ -35123,9 +35123,9 @@
       <c r="A248" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B248" s="226"/>
-      <c r="C248" s="227"/>
-      <c r="D248" s="228"/>
+      <c r="B248" s="223"/>
+      <c r="C248" s="224"/>
+      <c r="D248" s="225"/>
     </row>
     <row r="249" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="11"/>
@@ -35137,9 +35137,9 @@
       <c r="A250" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="B250" s="226"/>
-      <c r="C250" s="227"/>
-      <c r="D250" s="228"/>
+      <c r="B250" s="223"/>
+      <c r="C250" s="224"/>
+      <c r="D250" s="225"/>
     </row>
     <row r="251" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="11"/>
@@ -35151,9 +35151,9 @@
       <c r="A252" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B252" s="226"/>
-      <c r="C252" s="227"/>
-      <c r="D252" s="228"/>
+      <c r="B252" s="223"/>
+      <c r="C252" s="224"/>
+      <c r="D252" s="225"/>
     </row>
     <row r="253" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="11"/>
@@ -35165,9 +35165,9 @@
       <c r="A254" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="B254" s="226"/>
-      <c r="C254" s="227"/>
-      <c r="D254" s="228"/>
+      <c r="B254" s="223"/>
+      <c r="C254" s="224"/>
+      <c r="D254" s="225"/>
     </row>
     <row r="255" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="11"/>
@@ -35179,9 +35179,9 @@
       <c r="A256" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="B256" s="226"/>
-      <c r="C256" s="227"/>
-      <c r="D256" s="228"/>
+      <c r="B256" s="223"/>
+      <c r="C256" s="224"/>
+      <c r="D256" s="225"/>
     </row>
     <row r="257" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="11"/>
@@ -35193,9 +35193,9 @@
       <c r="A258" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="B258" s="226"/>
-      <c r="C258" s="227"/>
-      <c r="D258" s="228"/>
+      <c r="B258" s="223"/>
+      <c r="C258" s="224"/>
+      <c r="D258" s="225"/>
     </row>
     <row r="259" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="11"/>
@@ -35207,9 +35207,9 @@
       <c r="A260" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="B260" s="226"/>
-      <c r="C260" s="227"/>
-      <c r="D260" s="228"/>
+      <c r="B260" s="223"/>
+      <c r="C260" s="224"/>
+      <c r="D260" s="225"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="12"/>
@@ -35266,13 +35266,13 @@
       <c r="D269" s="12"/>
     </row>
     <row r="274" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A274" s="244" t="s">
+      <c r="A274" s="226" t="s">
         <v>349</v>
       </c>
-      <c r="B274" s="245"/>
-      <c r="C274" s="245"/>
-      <c r="D274" s="245"/>
-      <c r="E274" s="246"/>
+      <c r="B274" s="227"/>
+      <c r="C274" s="227"/>
+      <c r="D274" s="227"/>
+      <c r="E274" s="228"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="88"/>
@@ -35281,210 +35281,102 @@
       <c r="D275" s="12"/>
     </row>
     <row r="276" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="247" t="s">
+      <c r="A276" s="229" t="s">
         <v>350</v>
       </c>
-      <c r="B276" s="248"/>
-      <c r="C276" s="248"/>
-      <c r="D276" s="249"/>
+      <c r="B276" s="230"/>
+      <c r="C276" s="230"/>
+      <c r="D276" s="231"/>
       <c r="E276" s="89" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="226"/>
-      <c r="B277" s="227"/>
-      <c r="C277" s="227"/>
-      <c r="D277" s="228"/>
+      <c r="A277" s="223"/>
+      <c r="B277" s="224"/>
+      <c r="C277" s="224"/>
+      <c r="D277" s="225"/>
       <c r="E277" s="51"/>
     </row>
     <row r="278" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="335"/>
-      <c r="B278" s="336"/>
-      <c r="C278" s="336"/>
-      <c r="D278" s="337"/>
+      <c r="A278" s="220"/>
+      <c r="B278" s="221"/>
+      <c r="C278" s="221"/>
+      <c r="D278" s="222"/>
       <c r="E278" s="51"/>
     </row>
     <row r="279" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="335"/>
-      <c r="B279" s="336"/>
-      <c r="C279" s="336"/>
-      <c r="D279" s="337"/>
+      <c r="A279" s="220"/>
+      <c r="B279" s="221"/>
+      <c r="C279" s="221"/>
+      <c r="D279" s="222"/>
       <c r="E279" s="51"/>
     </row>
     <row r="280" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="335"/>
-      <c r="B280" s="336"/>
-      <c r="C280" s="336"/>
-      <c r="D280" s="337"/>
+      <c r="A280" s="220"/>
+      <c r="B280" s="221"/>
+      <c r="C280" s="221"/>
+      <c r="D280" s="222"/>
       <c r="E280" s="51"/>
     </row>
     <row r="281" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="335"/>
-      <c r="B281" s="336"/>
-      <c r="C281" s="336"/>
-      <c r="D281" s="337"/>
+      <c r="A281" s="220"/>
+      <c r="B281" s="221"/>
+      <c r="C281" s="221"/>
+      <c r="D281" s="222"/>
       <c r="E281" s="51"/>
     </row>
     <row r="282" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="335"/>
-      <c r="B282" s="336"/>
-      <c r="C282" s="336"/>
-      <c r="D282" s="337"/>
+      <c r="A282" s="220"/>
+      <c r="B282" s="221"/>
+      <c r="C282" s="221"/>
+      <c r="D282" s="222"/>
       <c r="E282" s="51"/>
     </row>
     <row r="283" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="335"/>
-      <c r="B283" s="336"/>
-      <c r="C283" s="336"/>
-      <c r="D283" s="337"/>
+      <c r="A283" s="220"/>
+      <c r="B283" s="221"/>
+      <c r="C283" s="221"/>
+      <c r="D283" s="222"/>
       <c r="E283" s="51"/>
     </row>
     <row r="284" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="335"/>
-      <c r="B284" s="336"/>
-      <c r="C284" s="336"/>
-      <c r="D284" s="337"/>
+      <c r="A284" s="220"/>
+      <c r="B284" s="221"/>
+      <c r="C284" s="221"/>
+      <c r="D284" s="222"/>
       <c r="E284" s="51"/>
     </row>
     <row r="285" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="335"/>
-      <c r="B285" s="336"/>
-      <c r="C285" s="336"/>
-      <c r="D285" s="337"/>
+      <c r="A285" s="220"/>
+      <c r="B285" s="221"/>
+      <c r="C285" s="221"/>
+      <c r="D285" s="222"/>
       <c r="E285" s="51"/>
     </row>
     <row r="286" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="335"/>
-      <c r="B286" s="336"/>
-      <c r="C286" s="336"/>
-      <c r="D286" s="337"/>
+      <c r="A286" s="220"/>
+      <c r="B286" s="221"/>
+      <c r="C286" s="221"/>
+      <c r="D286" s="222"/>
       <c r="E286" s="51"/>
     </row>
     <row r="287" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="335"/>
-      <c r="B287" s="336"/>
-      <c r="C287" s="336"/>
-      <c r="D287" s="337"/>
+      <c r="A287" s="220"/>
+      <c r="B287" s="221"/>
+      <c r="C287" s="221"/>
+      <c r="D287" s="222"/>
       <c r="E287" s="51"/>
     </row>
     <row r="288" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="335"/>
-      <c r="B288" s="336"/>
-      <c r="C288" s="336"/>
-      <c r="D288" s="337"/>
+      <c r="A288" s="220"/>
+      <c r="B288" s="221"/>
+      <c r="C288" s="221"/>
+      <c r="D288" s="222"/>
       <c r="E288" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="122">
-    <mergeCell ref="A286:D286"/>
-    <mergeCell ref="A287:D287"/>
-    <mergeCell ref="A288:D288"/>
-    <mergeCell ref="A280:D280"/>
-    <mergeCell ref="A281:D281"/>
-    <mergeCell ref="A282:D282"/>
-    <mergeCell ref="A283:D283"/>
-    <mergeCell ref="A284:D284"/>
-    <mergeCell ref="A285:D285"/>
-    <mergeCell ref="B260:D260"/>
-    <mergeCell ref="A274:E274"/>
-    <mergeCell ref="A276:D276"/>
-    <mergeCell ref="A277:D277"/>
-    <mergeCell ref="A278:D278"/>
-    <mergeCell ref="A279:D279"/>
-    <mergeCell ref="B248:D248"/>
-    <mergeCell ref="B250:D250"/>
-    <mergeCell ref="B252:D252"/>
-    <mergeCell ref="B254:D254"/>
-    <mergeCell ref="B256:D256"/>
-    <mergeCell ref="B258:D258"/>
-    <mergeCell ref="B236:D236"/>
-    <mergeCell ref="B238:D238"/>
-    <mergeCell ref="B240:D240"/>
-    <mergeCell ref="B242:D242"/>
-    <mergeCell ref="B244:D244"/>
-    <mergeCell ref="B246:D246"/>
-    <mergeCell ref="A221:D221"/>
-    <mergeCell ref="A223:D223"/>
-    <mergeCell ref="B225:D225"/>
-    <mergeCell ref="A230:E230"/>
-    <mergeCell ref="B232:D232"/>
-    <mergeCell ref="B234:D234"/>
-    <mergeCell ref="A211:D211"/>
-    <mergeCell ref="B213:D213"/>
-    <mergeCell ref="A215:D215"/>
-    <mergeCell ref="A216:D216"/>
-    <mergeCell ref="B218:D218"/>
-    <mergeCell ref="A220:D220"/>
-    <mergeCell ref="B201:D201"/>
-    <mergeCell ref="A203:D203"/>
-    <mergeCell ref="A204:D204"/>
-    <mergeCell ref="A206:D206"/>
-    <mergeCell ref="B208:D208"/>
-    <mergeCell ref="A210:D210"/>
-    <mergeCell ref="B191:D191"/>
-    <mergeCell ref="A193:D193"/>
-    <mergeCell ref="A194:D194"/>
-    <mergeCell ref="B196:D196"/>
-    <mergeCell ref="A198:D198"/>
-    <mergeCell ref="A199:D199"/>
-    <mergeCell ref="A142:E142"/>
-    <mergeCell ref="B145:E145"/>
-    <mergeCell ref="A183:E183"/>
-    <mergeCell ref="A186:D186"/>
-    <mergeCell ref="A187:D187"/>
-    <mergeCell ref="A189:D189"/>
-    <mergeCell ref="A118:E118"/>
-    <mergeCell ref="B121:E121"/>
-    <mergeCell ref="A126:E126"/>
-    <mergeCell ref="B129:E129"/>
-    <mergeCell ref="A134:E134"/>
-    <mergeCell ref="B137:E137"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B110:E111"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:E114"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="A97:E97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="B100:E100"/>
-    <mergeCell ref="B102:E102"/>
-    <mergeCell ref="A106:A108"/>
-    <mergeCell ref="B106:E108"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:E91"/>
-    <mergeCell ref="A93:A95"/>
-    <mergeCell ref="B93:E95"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:E84"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B49:E49"/>
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="B19:E19"/>
@@ -35499,6 +35391,114 @@
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B15:E15"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:E84"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="A97:E97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="B102:E102"/>
+    <mergeCell ref="A106:A108"/>
+    <mergeCell ref="B106:E108"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:E91"/>
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="B93:E95"/>
+    <mergeCell ref="A118:E118"/>
+    <mergeCell ref="B121:E121"/>
+    <mergeCell ref="A126:E126"/>
+    <mergeCell ref="B129:E129"/>
+    <mergeCell ref="A134:E134"/>
+    <mergeCell ref="B137:E137"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:E111"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:E114"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="B191:D191"/>
+    <mergeCell ref="A193:D193"/>
+    <mergeCell ref="A194:D194"/>
+    <mergeCell ref="B196:D196"/>
+    <mergeCell ref="A198:D198"/>
+    <mergeCell ref="A199:D199"/>
+    <mergeCell ref="A142:E142"/>
+    <mergeCell ref="B145:E145"/>
+    <mergeCell ref="A183:E183"/>
+    <mergeCell ref="A186:D186"/>
+    <mergeCell ref="A187:D187"/>
+    <mergeCell ref="A189:D189"/>
+    <mergeCell ref="A211:D211"/>
+    <mergeCell ref="B213:D213"/>
+    <mergeCell ref="A215:D215"/>
+    <mergeCell ref="A216:D216"/>
+    <mergeCell ref="B218:D218"/>
+    <mergeCell ref="A220:D220"/>
+    <mergeCell ref="B201:D201"/>
+    <mergeCell ref="A203:D203"/>
+    <mergeCell ref="A204:D204"/>
+    <mergeCell ref="A206:D206"/>
+    <mergeCell ref="B208:D208"/>
+    <mergeCell ref="A210:D210"/>
+    <mergeCell ref="B236:D236"/>
+    <mergeCell ref="B238:D238"/>
+    <mergeCell ref="B240:D240"/>
+    <mergeCell ref="B242:D242"/>
+    <mergeCell ref="B244:D244"/>
+    <mergeCell ref="B246:D246"/>
+    <mergeCell ref="A221:D221"/>
+    <mergeCell ref="A223:D223"/>
+    <mergeCell ref="B225:D225"/>
+    <mergeCell ref="A230:E230"/>
+    <mergeCell ref="B232:D232"/>
+    <mergeCell ref="B234:D234"/>
+    <mergeCell ref="B260:D260"/>
+    <mergeCell ref="A274:E274"/>
+    <mergeCell ref="A276:D276"/>
+    <mergeCell ref="A277:D277"/>
+    <mergeCell ref="A278:D278"/>
+    <mergeCell ref="A279:D279"/>
+    <mergeCell ref="B248:D248"/>
+    <mergeCell ref="B250:D250"/>
+    <mergeCell ref="B252:D252"/>
+    <mergeCell ref="B254:D254"/>
+    <mergeCell ref="B256:D256"/>
+    <mergeCell ref="B258:D258"/>
+    <mergeCell ref="A286:D286"/>
+    <mergeCell ref="A287:D287"/>
+    <mergeCell ref="A288:D288"/>
+    <mergeCell ref="A280:D280"/>
+    <mergeCell ref="A281:D281"/>
+    <mergeCell ref="A282:D282"/>
+    <mergeCell ref="A283:D283"/>
+    <mergeCell ref="A284:D284"/>
+    <mergeCell ref="A285:D285"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -39458,13 +39458,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="244" t="s">
+      <c r="A1" s="226" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="245"/>
-      <c r="C1" s="245"/>
-      <c r="D1" s="245"/>
-      <c r="E1" s="246"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="228"/>
       <c r="H1" s="9" t="s">
         <v>415</v>
       </c>
@@ -39482,10 +39482,10 @@
       <c r="A3" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="226"/>
-      <c r="C3" s="227"/>
-      <c r="D3" s="227"/>
-      <c r="E3" s="228"/>
+      <c r="B3" s="223"/>
+      <c r="C3" s="224"/>
+      <c r="D3" s="224"/>
+      <c r="E3" s="225"/>
       <c r="H3" s="9" t="s">
         <v>417</v>
       </c>
@@ -39607,11 +39607,11 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="247" t="s">
+      <c r="A13" s="229" t="s">
         <v>236</v>
       </c>
-      <c r="B13" s="248"/>
-      <c r="C13" s="249"/>
+      <c r="B13" s="230"/>
+      <c r="C13" s="231"/>
       <c r="D13" s="17" t="s">
         <v>237</v>
       </c>
@@ -39624,25 +39624,25 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="220"/>
-      <c r="B14" s="221"/>
-      <c r="C14" s="221"/>
-      <c r="D14" s="221"/>
-      <c r="E14" s="222"/>
+      <c r="A14" s="317"/>
+      <c r="B14" s="318"/>
+      <c r="C14" s="318"/>
+      <c r="D14" s="318"/>
+      <c r="E14" s="319"/>
       <c r="I14" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="322" t="s">
+      <c r="A15" s="257" t="s">
         <v>426</v>
       </c>
-      <c r="B15" s="253" t="s">
+      <c r="B15" s="301" t="s">
         <v>239</v>
       </c>
-      <c r="C15" s="254"/>
-      <c r="D15" s="254"/>
-      <c r="E15" s="255"/>
+      <c r="C15" s="299"/>
+      <c r="D15" s="299"/>
+      <c r="E15" s="300"/>
       <c r="H15" s="101" t="s">
         <v>254</v>
       </c>
@@ -39651,7 +39651,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="338"/>
+      <c r="A16" s="348"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
@@ -39661,13 +39661,13 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="323"/>
-      <c r="B17" s="253" t="s">
+      <c r="A17" s="258"/>
+      <c r="B17" s="301" t="s">
         <v>240</v>
       </c>
-      <c r="C17" s="254"/>
-      <c r="D17" s="254"/>
-      <c r="E17" s="255"/>
+      <c r="C17" s="299"/>
+      <c r="D17" s="299"/>
+      <c r="E17" s="300"/>
       <c r="H17" s="101" t="s">
         <v>257</v>
       </c>
@@ -39676,11 +39676,11 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="220"/>
-      <c r="B18" s="221"/>
-      <c r="C18" s="221"/>
-      <c r="D18" s="221"/>
-      <c r="E18" s="222"/>
+      <c r="A18" s="317"/>
+      <c r="B18" s="318"/>
+      <c r="C18" s="318"/>
+      <c r="D18" s="318"/>
+      <c r="E18" s="319"/>
       <c r="I18" t="s">
         <v>353</v>
       </c>
@@ -39708,11 +39708,11 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="223"/>
-      <c r="B20" s="224"/>
-      <c r="C20" s="224"/>
-      <c r="D20" s="224"/>
-      <c r="E20" s="225"/>
+      <c r="A20" s="320"/>
+      <c r="B20" s="321"/>
+      <c r="C20" s="321"/>
+      <c r="D20" s="321"/>
+      <c r="E20" s="322"/>
       <c r="I20" t="s">
         <v>353</v>
       </c>
@@ -39721,10 +39721,10 @@
       <c r="A21" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="B21" s="226"/>
-      <c r="C21" s="227"/>
-      <c r="D21" s="227"/>
-      <c r="E21" s="228"/>
+      <c r="B21" s="223"/>
+      <c r="C21" s="224"/>
+      <c r="D21" s="224"/>
+      <c r="E21" s="225"/>
       <c r="H21" s="9" t="s">
         <v>236</v>
       </c>
@@ -39746,10 +39746,10 @@
       <c r="A23" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="B23" s="339"/>
-      <c r="C23" s="340"/>
-      <c r="D23" s="340"/>
-      <c r="E23" s="341"/>
+      <c r="B23" s="349"/>
+      <c r="C23" s="350"/>
+      <c r="D23" s="350"/>
+      <c r="E23" s="351"/>
       <c r="H23" s="9" t="s">
         <v>432</v>
       </c>
@@ -39768,13 +39768,13 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="265" t="s">
+      <c r="A25" s="311" t="s">
         <v>248</v>
       </c>
-      <c r="B25" s="266"/>
-      <c r="C25" s="266"/>
-      <c r="D25" s="266"/>
-      <c r="E25" s="267"/>
+      <c r="B25" s="312"/>
+      <c r="C25" s="312"/>
+      <c r="D25" s="312"/>
+      <c r="E25" s="313"/>
       <c r="I25" t="s">
         <v>353</v>
       </c>
@@ -39825,13 +39825,13 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="265" t="s">
+      <c r="A30" s="311" t="s">
         <v>253</v>
       </c>
-      <c r="B30" s="266"/>
-      <c r="C30" s="266"/>
-      <c r="D30" s="266"/>
-      <c r="E30" s="267"/>
+      <c r="B30" s="312"/>
+      <c r="C30" s="312"/>
+      <c r="D30" s="312"/>
+      <c r="E30" s="313"/>
       <c r="I30" t="s">
         <v>353</v>
       </c>
@@ -39879,13 +39879,13 @@
       <c r="E34" s="12"/>
     </row>
     <row r="35" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="265" t="s">
+      <c r="A35" s="311" t="s">
         <v>254</v>
       </c>
-      <c r="B35" s="266"/>
-      <c r="C35" s="266"/>
-      <c r="D35" s="266"/>
-      <c r="E35" s="267"/>
+      <c r="B35" s="312"/>
+      <c r="C35" s="312"/>
+      <c r="D35" s="312"/>
+      <c r="E35" s="313"/>
       <c r="I35" t="s">
         <v>353</v>
       </c>
@@ -39919,13 +39919,13 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="265" t="s">
+      <c r="A38" s="311" t="s">
         <v>257</v>
       </c>
-      <c r="B38" s="266"/>
-      <c r="C38" s="266"/>
-      <c r="D38" s="266"/>
-      <c r="E38" s="267"/>
+      <c r="B38" s="312"/>
+      <c r="C38" s="312"/>
+      <c r="D38" s="312"/>
+      <c r="E38" s="313"/>
       <c r="I38" t="s">
         <v>353</v>
       </c>
@@ -39955,22 +39955,22 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="259" t="s">
+      <c r="A41" s="305" t="s">
         <v>258</v>
       </c>
-      <c r="B41" s="268" t="s">
+      <c r="B41" s="314" t="s">
         <v>259</v>
       </c>
-      <c r="C41" s="269"/>
-      <c r="D41" s="269"/>
-      <c r="E41" s="270"/>
+      <c r="C41" s="315"/>
+      <c r="D41" s="315"/>
+      <c r="E41" s="316"/>
       <c r="F41" s="102"/>
       <c r="I41" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="260"/>
+      <c r="A42" s="306"/>
       <c r="B42" s="29"/>
       <c r="C42" s="30"/>
       <c r="D42" s="30"/>
@@ -39981,13 +39981,13 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="261"/>
-      <c r="B43" s="268" t="s">
+      <c r="A43" s="307"/>
+      <c r="B43" s="314" t="s">
         <v>260</v>
       </c>
-      <c r="C43" s="269"/>
-      <c r="D43" s="269"/>
-      <c r="E43" s="270"/>
+      <c r="C43" s="315"/>
+      <c r="D43" s="315"/>
+      <c r="E43" s="316"/>
       <c r="F43" s="102"/>
       <c r="H43" s="9" t="s">
         <v>434</v>
@@ -40004,46 +40004,46 @@
       <c r="E44" s="105"/>
     </row>
     <row r="45" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="285" t="s">
+      <c r="A45" s="296" t="s">
         <v>435</v>
       </c>
-      <c r="B45" s="342"/>
-      <c r="C45" s="343"/>
-      <c r="D45" s="343"/>
-      <c r="E45" s="344"/>
+      <c r="B45" s="339"/>
+      <c r="C45" s="340"/>
+      <c r="D45" s="340"/>
+      <c r="E45" s="341"/>
       <c r="H45" s="106" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="286"/>
-      <c r="B46" s="345"/>
-      <c r="C46" s="346"/>
-      <c r="D46" s="346"/>
-      <c r="E46" s="347"/>
+      <c r="A46" s="297"/>
+      <c r="B46" s="342"/>
+      <c r="C46" s="343"/>
+      <c r="D46" s="343"/>
+      <c r="E46" s="344"/>
       <c r="H46" s="106" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="287"/>
-      <c r="B47" s="348"/>
-      <c r="C47" s="349"/>
-      <c r="D47" s="349"/>
-      <c r="E47" s="350"/>
+      <c r="A47" s="298"/>
+      <c r="B47" s="345"/>
+      <c r="C47" s="346"/>
+      <c r="D47" s="346"/>
+      <c r="E47" s="347"/>
       <c r="H47" s="106" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="256" t="s">
+      <c r="A49" s="245" t="s">
         <v>261</v>
       </c>
-      <c r="B49" s="257"/>
-      <c r="C49" s="257"/>
-      <c r="D49" s="257"/>
-      <c r="E49" s="258"/>
+      <c r="B49" s="246"/>
+      <c r="C49" s="246"/>
+      <c r="D49" s="246"/>
+      <c r="E49" s="247"/>
       <c r="H49" s="106" t="s">
         <v>436</v>
       </c>
@@ -40054,15 +40054,15 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="285" t="s">
+      <c r="A51" s="296" t="s">
         <v>266</v>
       </c>
-      <c r="B51" s="254" t="s">
+      <c r="B51" s="299" t="s">
         <v>267</v>
       </c>
-      <c r="C51" s="254"/>
-      <c r="D51" s="254"/>
-      <c r="E51" s="255"/>
+      <c r="C51" s="299"/>
+      <c r="D51" s="299"/>
+      <c r="E51" s="300"/>
       <c r="H51" s="106" t="s">
         <v>375</v>
       </c>
@@ -40071,7 +40071,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="286"/>
+      <c r="A52" s="297"/>
       <c r="B52" s="33"/>
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
@@ -40081,20 +40081,20 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="286"/>
-      <c r="B53" s="254" t="s">
+      <c r="A53" s="297"/>
+      <c r="B53" s="299" t="s">
         <v>268</v>
       </c>
-      <c r="C53" s="254"/>
-      <c r="D53" s="254"/>
-      <c r="E53" s="255"/>
+      <c r="C53" s="299"/>
+      <c r="D53" s="299"/>
+      <c r="E53" s="300"/>
       <c r="F53" s="39"/>
       <c r="H53" s="106" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="286"/>
+      <c r="A54" s="297"/>
       <c r="B54" s="36"/>
       <c r="C54" s="107"/>
       <c r="D54" s="107"/>
@@ -40102,21 +40102,21 @@
       <c r="F54" s="39"/>
     </row>
     <row r="55" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="287"/>
-      <c r="B55" s="253" t="s">
+      <c r="A55" s="298"/>
+      <c r="B55" s="301" t="s">
         <v>437</v>
       </c>
-      <c r="C55" s="254"/>
-      <c r="D55" s="254"/>
-      <c r="E55" s="255"/>
+      <c r="C55" s="299"/>
+      <c r="D55" s="299"/>
+      <c r="E55" s="300"/>
       <c r="F55" s="39"/>
     </row>
     <row r="56" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="288"/>
-      <c r="B56" s="289"/>
-      <c r="C56" s="289"/>
-      <c r="D56" s="289"/>
-      <c r="E56" s="290"/>
+      <c r="A56" s="302"/>
+      <c r="B56" s="303"/>
+      <c r="C56" s="303"/>
+      <c r="D56" s="303"/>
+      <c r="E56" s="304"/>
     </row>
     <row r="57" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="43" t="s">
@@ -40136,25 +40136,25 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="271"/>
-      <c r="B58" s="272"/>
-      <c r="C58" s="272"/>
-      <c r="D58" s="272"/>
-      <c r="E58" s="273"/>
+      <c r="A58" s="291"/>
+      <c r="B58" s="292"/>
+      <c r="C58" s="292"/>
+      <c r="D58" s="292"/>
+      <c r="E58" s="293"/>
       <c r="I58" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="250" t="s">
+      <c r="A59" s="265" t="s">
         <v>271</v>
       </c>
-      <c r="B59" s="226" t="s">
+      <c r="B59" s="223" t="s">
         <v>439</v>
       </c>
-      <c r="C59" s="227"/>
-      <c r="D59" s="227"/>
-      <c r="E59" s="228"/>
+      <c r="C59" s="224"/>
+      <c r="D59" s="224"/>
+      <c r="E59" s="225"/>
       <c r="F59" s="18"/>
       <c r="H59" s="110" t="s">
         <v>275</v>
@@ -40164,7 +40164,7 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="251"/>
+      <c r="A60" s="271"/>
       <c r="B60" s="19"/>
       <c r="C60" s="12"/>
       <c r="F60" s="18"/>
@@ -40173,13 +40173,13 @@
       </c>
     </row>
     <row r="61" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="252"/>
-      <c r="B61" s="226" t="s">
+      <c r="A61" s="266"/>
+      <c r="B61" s="223" t="s">
         <v>440</v>
       </c>
-      <c r="C61" s="227"/>
-      <c r="D61" s="227"/>
-      <c r="E61" s="228"/>
+      <c r="C61" s="224"/>
+      <c r="D61" s="224"/>
+      <c r="E61" s="225"/>
       <c r="F61" s="18"/>
       <c r="H61" s="9" t="s">
         <v>441</v>
@@ -40189,11 +40189,11 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="271"/>
-      <c r="B62" s="272"/>
-      <c r="C62" s="272"/>
-      <c r="D62" s="272"/>
-      <c r="E62" s="273"/>
+      <c r="A62" s="291"/>
+      <c r="B62" s="292"/>
+      <c r="C62" s="292"/>
+      <c r="D62" s="292"/>
+      <c r="E62" s="293"/>
       <c r="I62" t="s">
         <v>353</v>
       </c>
@@ -40323,35 +40323,35 @@
       <c r="A74" s="9"/>
     </row>
     <row r="75" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="274" t="s">
+      <c r="A75" s="236" t="s">
         <v>285</v>
       </c>
-      <c r="B75" s="275"/>
-      <c r="C75" s="275"/>
-      <c r="D75" s="275"/>
-      <c r="E75" s="276"/>
+      <c r="B75" s="237"/>
+      <c r="C75" s="237"/>
+      <c r="D75" s="237"/>
+      <c r="E75" s="238"/>
       <c r="H75" s="9" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="277" t="s">
+      <c r="A76" s="294" t="s">
         <v>286</v>
       </c>
-      <c r="B76" s="279"/>
-      <c r="C76" s="280"/>
-      <c r="D76" s="280"/>
-      <c r="E76" s="281"/>
+      <c r="B76" s="282"/>
+      <c r="C76" s="283"/>
+      <c r="D76" s="283"/>
+      <c r="E76" s="284"/>
       <c r="H76" s="78" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="278"/>
-      <c r="B77" s="282"/>
-      <c r="C77" s="283"/>
-      <c r="D77" s="283"/>
-      <c r="E77" s="284"/>
+      <c r="A77" s="295"/>
+      <c r="B77" s="285"/>
+      <c r="C77" s="286"/>
+      <c r="D77" s="286"/>
+      <c r="E77" s="287"/>
       <c r="H77" s="9" t="s">
         <v>286</v>
       </c>
@@ -40364,15 +40364,15 @@
       </c>
     </row>
     <row r="79" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="299" t="s">
+      <c r="A79" s="274" t="s">
         <v>287</v>
       </c>
-      <c r="B79" s="300"/>
-      <c r="C79" s="301"/>
-      <c r="D79" s="302" t="s">
+      <c r="B79" s="275"/>
+      <c r="C79" s="276"/>
+      <c r="D79" s="277" t="s">
         <v>288</v>
       </c>
-      <c r="E79" s="303"/>
+      <c r="E79" s="278"/>
       <c r="H79" s="9" t="s">
         <v>448</v>
       </c>
@@ -40388,10 +40388,10 @@
       <c r="A81" s="65" t="s">
         <v>373</v>
       </c>
-      <c r="B81" s="304"/>
-      <c r="C81" s="305"/>
-      <c r="D81" s="305"/>
-      <c r="E81" s="306"/>
+      <c r="B81" s="279"/>
+      <c r="C81" s="280"/>
+      <c r="D81" s="280"/>
+      <c r="E81" s="281"/>
       <c r="H81" s="113" t="s">
         <v>373</v>
       </c>
@@ -40401,23 +40401,23 @@
       <c r="B82" s="68"/>
     </row>
     <row r="83" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="250" t="s">
+      <c r="A83" s="265" t="s">
         <v>290</v>
       </c>
-      <c r="B83" s="279"/>
-      <c r="C83" s="280"/>
-      <c r="D83" s="280"/>
-      <c r="E83" s="281"/>
+      <c r="B83" s="282"/>
+      <c r="C83" s="283"/>
+      <c r="D83" s="283"/>
+      <c r="E83" s="284"/>
       <c r="H83" s="9" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="252"/>
-      <c r="B84" s="282"/>
-      <c r="C84" s="283"/>
-      <c r="D84" s="283"/>
-      <c r="E84" s="284"/>
+      <c r="A84" s="266"/>
+      <c r="B84" s="285"/>
+      <c r="C84" s="286"/>
+      <c r="D84" s="286"/>
+      <c r="E84" s="287"/>
       <c r="H84" s="9" t="s">
         <v>449</v>
       </c>
@@ -40426,31 +40426,31 @@
       <c r="A85" s="69"/>
     </row>
     <row r="86" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="250" t="s">
+      <c r="A86" s="265" t="s">
         <v>291</v>
       </c>
-      <c r="B86" s="279"/>
-      <c r="C86" s="280"/>
-      <c r="D86" s="280"/>
-      <c r="E86" s="281"/>
+      <c r="B86" s="282"/>
+      <c r="C86" s="283"/>
+      <c r="D86" s="283"/>
+      <c r="E86" s="284"/>
       <c r="H86" s="113" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="251"/>
-      <c r="B87" s="307"/>
-      <c r="C87" s="308"/>
-      <c r="D87" s="308"/>
-      <c r="E87" s="309"/>
+      <c r="A87" s="271"/>
+      <c r="B87" s="288"/>
+      <c r="C87" s="289"/>
+      <c r="D87" s="289"/>
+      <c r="E87" s="290"/>
       <c r="H87" s="103"/>
     </row>
     <row r="88" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="252"/>
-      <c r="B88" s="282"/>
-      <c r="C88" s="283"/>
-      <c r="D88" s="283"/>
-      <c r="E88" s="284"/>
+      <c r="A88" s="266"/>
+      <c r="B88" s="285"/>
+      <c r="C88" s="286"/>
+      <c r="D88" s="286"/>
+      <c r="E88" s="287"/>
       <c r="F88" s="18"/>
     </row>
     <row r="89" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -40458,13 +40458,13 @@
       <c r="B89" s="68"/>
     </row>
     <row r="90" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="274" t="s">
+      <c r="A90" s="236" t="s">
         <v>292</v>
       </c>
-      <c r="B90" s="275"/>
-      <c r="C90" s="275"/>
-      <c r="D90" s="275"/>
-      <c r="E90" s="276"/>
+      <c r="B90" s="237"/>
+      <c r="C90" s="237"/>
+      <c r="D90" s="237"/>
+      <c r="E90" s="238"/>
       <c r="H90" s="78" t="s">
         <v>292</v>
       </c>
@@ -40473,10 +40473,10 @@
       <c r="A91" s="78"/>
     </row>
     <row r="92" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="291" t="s">
+      <c r="A92" s="268" t="s">
         <v>293</v>
       </c>
-      <c r="B92" s="292"/>
+      <c r="B92" s="270"/>
       <c r="C92" s="12"/>
       <c r="D92" s="13" t="s">
         <v>294</v>
@@ -40498,10 +40498,10 @@
       <c r="A94" s="74" t="s">
         <v>295</v>
       </c>
-      <c r="B94" s="226"/>
-      <c r="C94" s="227"/>
-      <c r="D94" s="227"/>
-      <c r="E94" s="228"/>
+      <c r="B94" s="223"/>
+      <c r="C94" s="224"/>
+      <c r="D94" s="224"/>
+      <c r="E94" s="225"/>
       <c r="H94" s="9" t="s">
         <v>452</v>
       </c>
@@ -40517,10 +40517,10 @@
       <c r="A96" s="74" t="s">
         <v>296</v>
       </c>
-      <c r="B96" s="226"/>
-      <c r="C96" s="227"/>
-      <c r="D96" s="227"/>
-      <c r="E96" s="228"/>
+      <c r="B96" s="223"/>
+      <c r="C96" s="224"/>
+      <c r="D96" s="224"/>
+      <c r="E96" s="225"/>
       <c r="F96" s="18"/>
       <c r="H96" s="9" t="s">
         <v>297</v>
@@ -40559,20 +40559,20 @@
       <c r="H99" s="55"/>
     </row>
     <row r="100" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="250" t="s">
+      <c r="A100" s="265" t="s">
         <v>299</v>
       </c>
-      <c r="B100" s="226"/>
-      <c r="C100" s="227"/>
-      <c r="D100" s="227"/>
-      <c r="E100" s="228"/>
+      <c r="B100" s="223"/>
+      <c r="C100" s="224"/>
+      <c r="D100" s="224"/>
+      <c r="E100" s="225"/>
       <c r="F100" s="111"/>
       <c r="H100" s="9" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="251"/>
+      <c r="A101" s="271"/>
       <c r="B101" s="76"/>
       <c r="C101" s="77"/>
       <c r="D101" s="75"/>
@@ -40581,11 +40581,11 @@
       <c r="H101" s="9"/>
     </row>
     <row r="102" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="252"/>
-      <c r="B102" s="226"/>
-      <c r="C102" s="227"/>
-      <c r="D102" s="227"/>
-      <c r="E102" s="228"/>
+      <c r="A102" s="266"/>
+      <c r="B102" s="223"/>
+      <c r="C102" s="224"/>
+      <c r="D102" s="224"/>
+      <c r="E102" s="225"/>
       <c r="F102" s="111"/>
       <c r="H102" s="9" t="s">
         <v>453</v>
@@ -40599,23 +40599,23 @@
       <c r="E103" s="12"/>
     </row>
     <row r="104" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="322" t="s">
+      <c r="A104" s="257" t="s">
         <v>300</v>
       </c>
-      <c r="B104" s="293"/>
-      <c r="C104" s="294"/>
-      <c r="D104" s="294"/>
-      <c r="E104" s="324"/>
+      <c r="B104" s="259"/>
+      <c r="C104" s="260"/>
+      <c r="D104" s="260"/>
+      <c r="E104" s="261"/>
       <c r="H104" s="9" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="323"/>
-      <c r="B105" s="297"/>
-      <c r="C105" s="298"/>
-      <c r="D105" s="298"/>
-      <c r="E105" s="325"/>
+      <c r="A105" s="258"/>
+      <c r="B105" s="262"/>
+      <c r="C105" s="263"/>
+      <c r="D105" s="263"/>
+      <c r="E105" s="264"/>
       <c r="H105" s="9" t="s">
         <v>301</v>
       </c>
@@ -40626,43 +40626,43 @@
       <c r="E106" s="12"/>
     </row>
     <row r="107" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="250" t="s">
+      <c r="A107" s="265" t="s">
         <v>301</v>
       </c>
-      <c r="B107" s="293"/>
-      <c r="C107" s="294"/>
-      <c r="D107" s="294"/>
-      <c r="E107" s="324"/>
+      <c r="B107" s="259"/>
+      <c r="C107" s="260"/>
+      <c r="D107" s="260"/>
+      <c r="E107" s="261"/>
     </row>
     <row r="108" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="252"/>
-      <c r="B108" s="297"/>
-      <c r="C108" s="298"/>
-      <c r="D108" s="298"/>
-      <c r="E108" s="325"/>
+      <c r="A108" s="266"/>
+      <c r="B108" s="262"/>
+      <c r="C108" s="263"/>
+      <c r="D108" s="263"/>
+      <c r="E108" s="264"/>
     </row>
     <row r="109" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="9"/>
     </row>
     <row r="110" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="111" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="351" t="s">
+      <c r="A111" s="338" t="s">
         <v>302</v>
       </c>
-      <c r="B111" s="326"/>
-      <c r="C111" s="326"/>
-      <c r="D111" s="326"/>
-      <c r="E111" s="326"/>
+      <c r="B111" s="267"/>
+      <c r="C111" s="267"/>
+      <c r="D111" s="267"/>
+      <c r="E111" s="267"/>
       <c r="H111" s="78" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="291" t="s">
+      <c r="A112" s="268" t="s">
         <v>303</v>
       </c>
-      <c r="B112" s="327"/>
-      <c r="C112" s="292"/>
+      <c r="B112" s="269"/>
+      <c r="C112" s="270"/>
       <c r="D112" s="13" t="s">
         <v>304</v>
       </c>
@@ -40672,11 +40672,11 @@
       </c>
     </row>
     <row r="113" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="310"/>
-      <c r="B113" s="311"/>
-      <c r="C113" s="311"/>
-      <c r="D113" s="311"/>
-      <c r="E113" s="312"/>
+      <c r="A113" s="248"/>
+      <c r="B113" s="249"/>
+      <c r="C113" s="249"/>
+      <c r="D113" s="249"/>
+      <c r="E113" s="250"/>
     </row>
     <row r="114" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="45" t="s">
@@ -40705,10 +40705,10 @@
       <c r="A116" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B116" s="226"/>
-      <c r="C116" s="227"/>
-      <c r="D116" s="227"/>
-      <c r="E116" s="228"/>
+      <c r="B116" s="223"/>
+      <c r="C116" s="224"/>
+      <c r="D116" s="224"/>
+      <c r="E116" s="225"/>
       <c r="H116" s="9" t="s">
         <v>306</v>
       </c>
@@ -40760,11 +40760,11 @@
       </c>
     </row>
     <row r="121" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="313"/>
-      <c r="B121" s="314"/>
-      <c r="C121" s="314"/>
-      <c r="D121" s="314"/>
-      <c r="E121" s="315"/>
+      <c r="A121" s="251"/>
+      <c r="B121" s="252"/>
+      <c r="C121" s="252"/>
+      <c r="D121" s="252"/>
+      <c r="E121" s="253"/>
     </row>
     <row r="122" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="45" t="s">
@@ -40793,10 +40793,10 @@
       <c r="A124" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B124" s="226"/>
-      <c r="C124" s="227"/>
-      <c r="D124" s="227"/>
-      <c r="E124" s="228"/>
+      <c r="B124" s="223"/>
+      <c r="C124" s="224"/>
+      <c r="D124" s="224"/>
+      <c r="E124" s="225"/>
       <c r="H124" s="9" t="s">
         <v>457</v>
       </c>
@@ -40848,11 +40848,11 @@
       </c>
     </row>
     <row r="129" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="316"/>
-      <c r="B129" s="317"/>
-      <c r="C129" s="317"/>
-      <c r="D129" s="317"/>
-      <c r="E129" s="318"/>
+      <c r="A129" s="242"/>
+      <c r="B129" s="243"/>
+      <c r="C129" s="243"/>
+      <c r="D129" s="243"/>
+      <c r="E129" s="244"/>
     </row>
     <row r="130" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="45" t="s">
@@ -40878,10 +40878,10 @@
       <c r="A132" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B132" s="319"/>
-      <c r="C132" s="320"/>
-      <c r="D132" s="320"/>
-      <c r="E132" s="321"/>
+      <c r="B132" s="254"/>
+      <c r="C132" s="255"/>
+      <c r="D132" s="255"/>
+      <c r="E132" s="256"/>
     </row>
     <row r="133" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="116"/>
@@ -40924,11 +40924,11 @@
       <c r="F136" s="18"/>
     </row>
     <row r="137" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="316"/>
-      <c r="B137" s="317"/>
-      <c r="C137" s="317"/>
-      <c r="D137" s="317"/>
-      <c r="E137" s="318"/>
+      <c r="A137" s="242"/>
+      <c r="B137" s="243"/>
+      <c r="C137" s="243"/>
+      <c r="D137" s="243"/>
+      <c r="E137" s="244"/>
     </row>
     <row r="138" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="45" t="s">
@@ -40954,10 +40954,10 @@
       <c r="A140" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B140" s="226"/>
-      <c r="C140" s="227"/>
-      <c r="D140" s="227"/>
-      <c r="E140" s="228"/>
+      <c r="B140" s="223"/>
+      <c r="C140" s="224"/>
+      <c r="D140" s="224"/>
+      <c r="E140" s="225"/>
     </row>
     <row r="141" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="112"/>
@@ -41039,16 +41039,45 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="A129:E129"/>
-    <mergeCell ref="B132:E132"/>
-    <mergeCell ref="A137:E137"/>
-    <mergeCell ref="B140:E140"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="A112:C112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="B116:E116"/>
-    <mergeCell ref="A121:E121"/>
-    <mergeCell ref="B124:E124"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:E47"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:E84"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A75:E75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:E77"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="B81:E81"/>
     <mergeCell ref="A107:A108"/>
     <mergeCell ref="B107:E108"/>
     <mergeCell ref="A86:A88"/>
@@ -41062,45 +41091,16 @@
     <mergeCell ref="B102:E102"/>
     <mergeCell ref="A104:A105"/>
     <mergeCell ref="B104:E105"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:E84"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A75:E75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:E77"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:E47"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A129:E129"/>
+    <mergeCell ref="B132:E132"/>
+    <mergeCell ref="A137:E137"/>
+    <mergeCell ref="B140:E140"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="B116:E116"/>
+    <mergeCell ref="A121:E121"/>
+    <mergeCell ref="B124:E124"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -43823,7 +43823,7 @@
   </sheetPr>
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:D6"/>
     </sheetView>
   </sheetViews>
@@ -43837,13 +43837,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="353" t="s">
+      <c r="A1" s="356" t="s">
         <v>474</v>
       </c>
-      <c r="B1" s="353"/>
-      <c r="C1" s="353"/>
-      <c r="D1" s="353"/>
-      <c r="E1" s="353"/>
+      <c r="B1" s="356"/>
+      <c r="C1" s="356"/>
+      <c r="D1" s="356"/>
+      <c r="E1" s="356"/>
       <c r="F1" s="14"/>
       <c r="G1" s="124"/>
       <c r="H1" s="124"/>
@@ -43855,11 +43855,11 @@
       <c r="A2" s="125" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="335" t="s">
+      <c r="B2" s="220" t="s">
         <v>475</v>
       </c>
-      <c r="C2" s="336"/>
-      <c r="D2" s="337"/>
+      <c r="C2" s="221"/>
+      <c r="D2" s="222"/>
       <c r="F2" s="14"/>
       <c r="G2" s="124"/>
       <c r="H2" s="124"/>
@@ -43879,9 +43879,9 @@
       <c r="A4" s="125" t="s">
         <v>245</v>
       </c>
-      <c r="B4" s="335"/>
-      <c r="C4" s="336"/>
-      <c r="D4" s="337"/>
+      <c r="B4" s="220"/>
+      <c r="C4" s="221"/>
+      <c r="D4" s="222"/>
       <c r="F4" s="14"/>
       <c r="G4" s="124"/>
       <c r="H4" s="124"/>
@@ -43901,9 +43901,9 @@
       <c r="A6" s="125" t="s">
         <v>476</v>
       </c>
-      <c r="B6" s="335"/>
-      <c r="C6" s="336"/>
-      <c r="D6" s="337"/>
+      <c r="B6" s="220"/>
+      <c r="C6" s="221"/>
+      <c r="D6" s="222"/>
       <c r="F6" s="14"/>
       <c r="G6" s="124"/>
       <c r="H6" s="124"/>
@@ -43925,11 +43925,11 @@
       <c r="K7" s="124"/>
     </row>
     <row r="8" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="354"/>
-      <c r="B8" s="354"/>
-      <c r="C8" s="354"/>
-      <c r="D8" s="354"/>
-      <c r="E8" s="354"/>
+      <c r="A8" s="357"/>
+      <c r="B8" s="357"/>
+      <c r="C8" s="357"/>
+      <c r="D8" s="357"/>
+      <c r="E8" s="357"/>
       <c r="F8" s="14"/>
       <c r="G8" s="124"/>
       <c r="H8" s="124"/>
@@ -43941,11 +43941,11 @@
       <c r="A9" s="125" t="s">
         <v>477</v>
       </c>
-      <c r="B9" s="335" t="s">
+      <c r="B9" s="220" t="s">
         <v>478</v>
       </c>
-      <c r="C9" s="336"/>
-      <c r="D9" s="337"/>
+      <c r="C9" s="221"/>
+      <c r="D9" s="222"/>
       <c r="E9" s="124"/>
       <c r="F9" s="14"/>
       <c r="G9" s="124"/>
@@ -43968,15 +43968,15 @@
       <c r="K10" s="124"/>
     </row>
     <row r="11" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="355" t="s">
+      <c r="A11" s="353" t="s">
         <v>479</v>
       </c>
-      <c r="B11" s="336" t="s">
+      <c r="B11" s="221" t="s">
         <v>480</v>
       </c>
-      <c r="C11" s="336"/>
-      <c r="D11" s="336"/>
-      <c r="E11" s="337"/>
+      <c r="C11" s="221"/>
+      <c r="D11" s="221"/>
+      <c r="E11" s="222"/>
       <c r="F11" s="14"/>
       <c r="G11" s="126"/>
       <c r="H11" s="124"/>
@@ -43985,7 +43985,7 @@
       <c r="K11" s="124"/>
     </row>
     <row r="12" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="356"/>
+      <c r="A12" s="354"/>
       <c r="B12" s="124"/>
       <c r="C12" s="124"/>
       <c r="D12" s="124"/>
@@ -43998,11 +43998,11 @@
       <c r="K12" s="124"/>
     </row>
     <row r="13" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="357"/>
-      <c r="B13" s="336"/>
-      <c r="C13" s="336"/>
-      <c r="D13" s="336"/>
-      <c r="E13" s="337"/>
+      <c r="A13" s="355"/>
+      <c r="B13" s="221"/>
+      <c r="C13" s="221"/>
+      <c r="D13" s="221"/>
+      <c r="E13" s="222"/>
       <c r="F13" s="124"/>
       <c r="G13" s="124"/>
       <c r="H13" s="124"/>
@@ -44095,20 +44095,20 @@
       <c r="E22" s="124"/>
     </row>
     <row r="23" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="355" t="s">
+      <c r="A23" s="353" t="s">
         <v>136</v>
       </c>
-      <c r="B23" s="279"/>
-      <c r="C23" s="280"/>
-      <c r="D23" s="280"/>
-      <c r="E23" s="281"/>
+      <c r="B23" s="282"/>
+      <c r="C23" s="283"/>
+      <c r="D23" s="283"/>
+      <c r="E23" s="284"/>
     </row>
     <row r="24" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="357"/>
-      <c r="B24" s="282"/>
-      <c r="C24" s="283"/>
-      <c r="D24" s="283"/>
-      <c r="E24" s="284"/>
+      <c r="A24" s="355"/>
+      <c r="B24" s="285"/>
+      <c r="C24" s="286"/>
+      <c r="D24" s="286"/>
+      <c r="E24" s="287"/>
     </row>
     <row r="25" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="352"/>
@@ -44121,11 +44121,11 @@
       <c r="A26" s="125" t="s">
         <v>487</v>
       </c>
-      <c r="B26" s="335" t="s">
+      <c r="B26" s="220" t="s">
         <v>478</v>
       </c>
-      <c r="C26" s="336"/>
-      <c r="D26" s="337"/>
+      <c r="C26" s="221"/>
+      <c r="D26" s="222"/>
       <c r="E26" s="124"/>
     </row>
     <row r="27" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -44136,29 +44136,29 @@
       <c r="E27" s="124"/>
     </row>
     <row r="28" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="355" t="s">
+      <c r="A28" s="353" t="s">
         <v>479</v>
       </c>
-      <c r="B28" s="336" t="s">
+      <c r="B28" s="221" t="s">
         <v>488</v>
       </c>
-      <c r="C28" s="336"/>
-      <c r="D28" s="336"/>
-      <c r="E28" s="337"/>
+      <c r="C28" s="221"/>
+      <c r="D28" s="221"/>
+      <c r="E28" s="222"/>
     </row>
     <row r="29" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="356"/>
+      <c r="A29" s="354"/>
       <c r="B29" s="124"/>
       <c r="C29" s="124"/>
       <c r="D29" s="124"/>
       <c r="E29" s="124"/>
     </row>
     <row r="30" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="357"/>
-      <c r="B30" s="336"/>
-      <c r="C30" s="336"/>
-      <c r="D30" s="336"/>
-      <c r="E30" s="337"/>
+      <c r="A30" s="355"/>
+      <c r="B30" s="221"/>
+      <c r="C30" s="221"/>
+      <c r="D30" s="221"/>
+      <c r="E30" s="222"/>
     </row>
     <row r="31" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
@@ -44239,20 +44239,20 @@
       <c r="E39" s="124"/>
     </row>
     <row r="40" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="355" t="s">
+      <c r="A40" s="353" t="s">
         <v>136</v>
       </c>
-      <c r="B40" s="279"/>
-      <c r="C40" s="280"/>
-      <c r="D40" s="280"/>
-      <c r="E40" s="281"/>
+      <c r="B40" s="282"/>
+      <c r="C40" s="283"/>
+      <c r="D40" s="283"/>
+      <c r="E40" s="284"/>
     </row>
     <row r="41" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="357"/>
-      <c r="B41" s="282"/>
-      <c r="C41" s="283"/>
-      <c r="D41" s="283"/>
-      <c r="E41" s="284"/>
+      <c r="A41" s="355"/>
+      <c r="B41" s="285"/>
+      <c r="C41" s="286"/>
+      <c r="D41" s="286"/>
+      <c r="E41" s="287"/>
     </row>
     <row r="42" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="352"/>
@@ -44263,13 +44263,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:E41"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:D2"/>
@@ -44282,6 +44275,13 @@
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:E24"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:E41"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -44727,13 +44727,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="244" t="s">
+      <c r="A1" s="226" t="s">
         <v>489</v>
       </c>
-      <c r="B1" s="245"/>
-      <c r="C1" s="245"/>
-      <c r="D1" s="245"/>
-      <c r="E1" s="246"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="228"/>
     </row>
     <row r="2" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
@@ -44742,10 +44742,10 @@
       <c r="A3" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="B3" s="226"/>
-      <c r="C3" s="227"/>
-      <c r="D3" s="227"/>
-      <c r="E3" s="228"/>
+      <c r="B3" s="223"/>
+      <c r="C3" s="224"/>
+      <c r="D3" s="224"/>
+      <c r="E3" s="225"/>
     </row>
     <row r="4" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
@@ -44776,12 +44776,12 @@
       <c r="A7" s="74" t="s">
         <v>491</v>
       </c>
-      <c r="B7" s="253" t="s">
+      <c r="B7" s="301" t="s">
         <v>492</v>
       </c>
-      <c r="C7" s="254"/>
-      <c r="D7" s="254"/>
-      <c r="E7" s="255"/>
+      <c r="C7" s="299"/>
+      <c r="D7" s="299"/>
+      <c r="E7" s="300"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -44830,66 +44830,66 @@
       <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="247" t="s">
+      <c r="A13" s="229" t="s">
         <v>236</v>
       </c>
-      <c r="B13" s="248"/>
-      <c r="C13" s="249"/>
+      <c r="B13" s="230"/>
+      <c r="C13" s="231"/>
       <c r="D13" s="17" t="s">
         <v>304</v>
       </c>
       <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="220"/>
-      <c r="B14" s="221"/>
-      <c r="C14" s="221"/>
-      <c r="D14" s="221"/>
-      <c r="E14" s="222"/>
+      <c r="A14" s="317"/>
+      <c r="B14" s="318"/>
+      <c r="C14" s="318"/>
+      <c r="D14" s="318"/>
+      <c r="E14" s="319"/>
     </row>
     <row r="15" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="322" t="s">
+      <c r="A15" s="257" t="s">
         <v>426</v>
       </c>
-      <c r="B15" s="253" t="s">
+      <c r="B15" s="301" t="s">
         <v>239</v>
       </c>
-      <c r="C15" s="254"/>
-      <c r="D15" s="254"/>
-      <c r="E15" s="255"/>
+      <c r="C15" s="299"/>
+      <c r="D15" s="299"/>
+      <c r="E15" s="300"/>
       <c r="I15" s="124"/>
     </row>
     <row r="16" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="338"/>
+      <c r="A16" s="348"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="323"/>
-      <c r="B17" s="253" t="s">
+      <c r="A17" s="258"/>
+      <c r="B17" s="301" t="s">
         <v>240</v>
       </c>
-      <c r="C17" s="254"/>
-      <c r="D17" s="254"/>
-      <c r="E17" s="255"/>
+      <c r="C17" s="299"/>
+      <c r="D17" s="299"/>
+      <c r="E17" s="300"/>
     </row>
     <row r="18" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="223"/>
-      <c r="B18" s="224"/>
-      <c r="C18" s="224"/>
-      <c r="D18" s="224"/>
-      <c r="E18" s="225"/>
+      <c r="A18" s="320"/>
+      <c r="B18" s="321"/>
+      <c r="C18" s="321"/>
+      <c r="D18" s="321"/>
+      <c r="E18" s="322"/>
     </row>
     <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="B19" s="226"/>
-      <c r="C19" s="227"/>
-      <c r="D19" s="227"/>
-      <c r="E19" s="228"/>
+      <c r="B19" s="223"/>
+      <c r="C19" s="224"/>
+      <c r="D19" s="224"/>
+      <c r="E19" s="225"/>
     </row>
     <row r="20" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
@@ -44920,24 +44920,24 @@
       <c r="A23" s="358" t="s">
         <v>246</v>
       </c>
-      <c r="B23" s="232"/>
-      <c r="C23" s="233"/>
-      <c r="D23" s="233"/>
-      <c r="E23" s="234"/>
+      <c r="B23" s="326"/>
+      <c r="C23" s="327"/>
+      <c r="D23" s="327"/>
+      <c r="E23" s="328"/>
     </row>
     <row r="24" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="359"/>
-      <c r="B24" s="235"/>
-      <c r="C24" s="236"/>
-      <c r="D24" s="236"/>
-      <c r="E24" s="237"/>
+      <c r="B24" s="329"/>
+      <c r="C24" s="330"/>
+      <c r="D24" s="330"/>
+      <c r="E24" s="331"/>
     </row>
     <row r="25" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="360"/>
-      <c r="B25" s="238"/>
-      <c r="C25" s="239"/>
-      <c r="D25" s="239"/>
-      <c r="E25" s="240"/>
+      <c r="B25" s="332"/>
+      <c r="C25" s="333"/>
+      <c r="D25" s="333"/>
+      <c r="E25" s="334"/>
     </row>
     <row r="26" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
@@ -44950,34 +44950,34 @@
       <c r="A27" s="361" t="s">
         <v>247</v>
       </c>
-      <c r="B27" s="232"/>
-      <c r="C27" s="233"/>
-      <c r="D27" s="233"/>
-      <c r="E27" s="234"/>
+      <c r="B27" s="326"/>
+      <c r="C27" s="327"/>
+      <c r="D27" s="327"/>
+      <c r="E27" s="328"/>
     </row>
     <row r="28" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="362"/>
-      <c r="B28" s="235"/>
-      <c r="C28" s="236"/>
-      <c r="D28" s="236"/>
-      <c r="E28" s="237"/>
+      <c r="B28" s="329"/>
+      <c r="C28" s="330"/>
+      <c r="D28" s="330"/>
+      <c r="E28" s="331"/>
     </row>
     <row r="29" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="363"/>
-      <c r="B29" s="238"/>
-      <c r="C29" s="239"/>
-      <c r="D29" s="239"/>
-      <c r="E29" s="240"/>
+      <c r="B29" s="332"/>
+      <c r="C29" s="333"/>
+      <c r="D29" s="333"/>
+      <c r="E29" s="334"/>
     </row>
     <row r="30" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="265" t="s">
+      <c r="A31" s="311" t="s">
         <v>248</v>
       </c>
-      <c r="B31" s="266"/>
-      <c r="C31" s="266"/>
-      <c r="D31" s="266"/>
-      <c r="E31" s="267"/>
+      <c r="B31" s="312"/>
+      <c r="C31" s="312"/>
+      <c r="D31" s="312"/>
+      <c r="E31" s="313"/>
     </row>
     <row r="32" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
@@ -45016,13 +45016,13 @@
       <c r="E35" s="12"/>
     </row>
     <row r="36" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="265" t="s">
+      <c r="A36" s="311" t="s">
         <v>253</v>
       </c>
-      <c r="B36" s="266"/>
-      <c r="C36" s="266"/>
-      <c r="D36" s="266"/>
-      <c r="E36" s="267"/>
+      <c r="B36" s="312"/>
+      <c r="C36" s="312"/>
+      <c r="D36" s="312"/>
+      <c r="E36" s="313"/>
     </row>
     <row r="37" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
@@ -45061,13 +45061,13 @@
       <c r="E40" s="12"/>
     </row>
     <row r="41" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="265" t="s">
+      <c r="A41" s="311" t="s">
         <v>254</v>
       </c>
-      <c r="B41" s="266"/>
-      <c r="C41" s="266"/>
-      <c r="D41" s="266"/>
-      <c r="E41" s="267"/>
+      <c r="B41" s="312"/>
+      <c r="C41" s="312"/>
+      <c r="D41" s="312"/>
+      <c r="E41" s="313"/>
     </row>
     <row r="42" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
@@ -45088,13 +45088,13 @@
       <c r="E43" s="12"/>
     </row>
     <row r="44" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="265" t="s">
+      <c r="A44" s="311" t="s">
         <v>257</v>
       </c>
-      <c r="B44" s="266"/>
-      <c r="C44" s="266"/>
-      <c r="D44" s="266"/>
-      <c r="E44" s="267"/>
+      <c r="B44" s="312"/>
+      <c r="C44" s="312"/>
+      <c r="D44" s="312"/>
+      <c r="E44" s="313"/>
     </row>
     <row r="45" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="26" t="s">
@@ -45115,72 +45115,72 @@
       <c r="E46" s="12"/>
     </row>
     <row r="47" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="259" t="s">
+      <c r="A47" s="305" t="s">
         <v>258</v>
       </c>
-      <c r="B47" s="268" t="s">
+      <c r="B47" s="314" t="s">
         <v>259</v>
       </c>
-      <c r="C47" s="269"/>
-      <c r="D47" s="269"/>
-      <c r="E47" s="270"/>
+      <c r="C47" s="315"/>
+      <c r="D47" s="315"/>
+      <c r="E47" s="316"/>
     </row>
     <row r="48" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="260"/>
+      <c r="A48" s="306"/>
       <c r="B48" s="29"/>
       <c r="C48" s="30"/>
       <c r="D48" s="30"/>
       <c r="E48" s="31"/>
     </row>
     <row r="49" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="261"/>
-      <c r="B49" s="268" t="s">
+      <c r="A49" s="307"/>
+      <c r="B49" s="314" t="s">
         <v>260</v>
       </c>
-      <c r="C49" s="269"/>
-      <c r="D49" s="269"/>
-      <c r="E49" s="270"/>
+      <c r="C49" s="315"/>
+      <c r="D49" s="315"/>
+      <c r="E49" s="316"/>
     </row>
     <row r="50" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="256" t="s">
+      <c r="A50" s="245" t="s">
         <v>495</v>
       </c>
-      <c r="B50" s="257"/>
-      <c r="C50" s="257"/>
-      <c r="D50" s="257"/>
-      <c r="E50" s="258"/>
+      <c r="B50" s="246"/>
+      <c r="C50" s="246"/>
+      <c r="D50" s="246"/>
+      <c r="E50" s="247"/>
     </row>
     <row r="51" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="259" t="s">
+      <c r="A52" s="305" t="s">
         <v>262</v>
       </c>
-      <c r="B52" s="253" t="s">
+      <c r="B52" s="301" t="s">
         <v>496</v>
       </c>
-      <c r="C52" s="254"/>
-      <c r="D52" s="254"/>
-      <c r="E52" s="255"/>
+      <c r="C52" s="299"/>
+      <c r="D52" s="299"/>
+      <c r="E52" s="300"/>
     </row>
     <row r="53" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="260"/>
+      <c r="A53" s="306"/>
       <c r="B53" s="32"/>
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="34"/>
     </row>
     <row r="54" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="260"/>
-      <c r="B54" s="253" t="s">
+      <c r="A54" s="306"/>
+      <c r="B54" s="301" t="s">
         <v>264</v>
       </c>
-      <c r="C54" s="254"/>
-      <c r="D54" s="254"/>
-      <c r="E54" s="255"/>
+      <c r="C54" s="299"/>
+      <c r="D54" s="299"/>
+      <c r="E54" s="300"/>
       <c r="F54" s="35"/>
     </row>
     <row r="55" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="260"/>
+      <c r="A55" s="306"/>
       <c r="B55" s="36"/>
       <c r="C55" s="36"/>
       <c r="D55" s="36"/>
@@ -45188,52 +45188,52 @@
       <c r="F55" s="35"/>
     </row>
     <row r="56" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="261"/>
+      <c r="A56" s="307"/>
       <c r="B56" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="C56" s="253"/>
-      <c r="D56" s="254"/>
-      <c r="E56" s="255"/>
+      <c r="C56" s="301"/>
+      <c r="D56" s="299"/>
+      <c r="E56" s="300"/>
       <c r="F56" s="35"/>
     </row>
     <row r="57" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="262"/>
-      <c r="B57" s="263"/>
-      <c r="C57" s="263"/>
-      <c r="D57" s="263"/>
-      <c r="E57" s="264"/>
+      <c r="A57" s="308"/>
+      <c r="B57" s="309"/>
+      <c r="C57" s="309"/>
+      <c r="D57" s="309"/>
+      <c r="E57" s="310"/>
     </row>
     <row r="58" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="285" t="s">
+      <c r="A58" s="296" t="s">
         <v>266</v>
       </c>
-      <c r="B58" s="254" t="s">
+      <c r="B58" s="299" t="s">
         <v>267</v>
       </c>
-      <c r="C58" s="254"/>
-      <c r="D58" s="254"/>
-      <c r="E58" s="255"/>
+      <c r="C58" s="299"/>
+      <c r="D58" s="299"/>
+      <c r="E58" s="300"/>
     </row>
     <row r="59" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="286"/>
+      <c r="A59" s="297"/>
       <c r="B59" s="33"/>
       <c r="C59" s="33"/>
       <c r="D59" s="33"/>
       <c r="E59" s="34"/>
     </row>
     <row r="60" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="286"/>
-      <c r="B60" s="254" t="s">
+      <c r="A60" s="297"/>
+      <c r="B60" s="299" t="s">
         <v>268</v>
       </c>
-      <c r="C60" s="254"/>
-      <c r="D60" s="254"/>
-      <c r="E60" s="255"/>
+      <c r="C60" s="299"/>
+      <c r="D60" s="299"/>
+      <c r="E60" s="300"/>
       <c r="F60" s="39"/>
     </row>
     <row r="61" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="286"/>
+      <c r="A61" s="297"/>
       <c r="B61" s="36"/>
       <c r="C61" s="36"/>
       <c r="D61" s="36"/>
@@ -45241,21 +45241,21 @@
       <c r="F61" s="39"/>
     </row>
     <row r="62" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="287"/>
+      <c r="A62" s="298"/>
       <c r="B62" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="C62" s="253"/>
-      <c r="D62" s="254"/>
-      <c r="E62" s="255"/>
+      <c r="C62" s="301"/>
+      <c r="D62" s="299"/>
+      <c r="E62" s="300"/>
       <c r="F62" s="39"/>
     </row>
     <row r="63" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="288"/>
-      <c r="B63" s="289"/>
-      <c r="C63" s="289"/>
-      <c r="D63" s="289"/>
-      <c r="E63" s="290"/>
+      <c r="A63" s="302"/>
+      <c r="B63" s="303"/>
+      <c r="C63" s="303"/>
+      <c r="D63" s="303"/>
+      <c r="E63" s="304"/>
     </row>
     <row r="64" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="43" t="s">
@@ -45271,46 +45271,46 @@
       <c r="E64" s="44"/>
     </row>
     <row r="65" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="271"/>
-      <c r="B65" s="272"/>
-      <c r="C65" s="272"/>
-      <c r="D65" s="272"/>
-      <c r="E65" s="273"/>
+      <c r="A65" s="291"/>
+      <c r="B65" s="292"/>
+      <c r="C65" s="292"/>
+      <c r="D65" s="292"/>
+      <c r="E65" s="293"/>
     </row>
     <row r="66" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="250" t="s">
+      <c r="A66" s="265" t="s">
         <v>271</v>
       </c>
-      <c r="B66" s="226" t="s">
+      <c r="B66" s="223" t="s">
         <v>272</v>
       </c>
-      <c r="C66" s="227"/>
-      <c r="D66" s="227"/>
-      <c r="E66" s="228"/>
+      <c r="C66" s="224"/>
+      <c r="D66" s="224"/>
+      <c r="E66" s="225"/>
       <c r="F66" s="18"/>
     </row>
     <row r="67" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="251"/>
+      <c r="A67" s="271"/>
       <c r="B67" s="19"/>
       <c r="C67" s="12"/>
       <c r="F67" s="18"/>
     </row>
     <row r="68" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="252"/>
-      <c r="B68" s="226" t="s">
+      <c r="A68" s="266"/>
+      <c r="B68" s="223" t="s">
         <v>273</v>
       </c>
-      <c r="C68" s="227"/>
-      <c r="D68" s="227"/>
-      <c r="E68" s="228"/>
+      <c r="C68" s="224"/>
+      <c r="D68" s="224"/>
+      <c r="E68" s="225"/>
       <c r="F68" s="18"/>
     </row>
     <row r="69" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="271"/>
-      <c r="B69" s="272"/>
-      <c r="C69" s="272"/>
-      <c r="D69" s="272"/>
-      <c r="E69" s="273"/>
+      <c r="A69" s="291"/>
+      <c r="B69" s="292"/>
+      <c r="C69" s="292"/>
+      <c r="D69" s="292"/>
+      <c r="E69" s="293"/>
     </row>
     <row r="70" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="45" t="s">
@@ -45450,13 +45450,13 @@
       <c r="L81" s="18"/>
     </row>
     <row r="82" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="274" t="s">
+      <c r="A82" s="236" t="s">
         <v>285</v>
       </c>
-      <c r="B82" s="275"/>
-      <c r="C82" s="275"/>
-      <c r="D82" s="275"/>
-      <c r="E82" s="276"/>
+      <c r="B82" s="237"/>
+      <c r="C82" s="237"/>
+      <c r="D82" s="237"/>
+      <c r="E82" s="238"/>
       <c r="F82" s="18"/>
       <c r="G82" s="18"/>
       <c r="H82" s="55"/>
@@ -45466,13 +45466,13 @@
       <c r="L82" s="18"/>
     </row>
     <row r="83" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="277" t="s">
+      <c r="A83" s="294" t="s">
         <v>286</v>
       </c>
-      <c r="B83" s="279"/>
-      <c r="C83" s="280"/>
-      <c r="D83" s="280"/>
-      <c r="E83" s="281"/>
+      <c r="B83" s="282"/>
+      <c r="C83" s="283"/>
+      <c r="D83" s="283"/>
+      <c r="E83" s="284"/>
       <c r="F83" s="18"/>
       <c r="G83" s="18"/>
       <c r="H83" s="57"/>
@@ -45482,11 +45482,11 @@
       <c r="L83" s="18"/>
     </row>
     <row r="84" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="278"/>
-      <c r="B84" s="282"/>
-      <c r="C84" s="283"/>
-      <c r="D84" s="283"/>
-      <c r="E84" s="284"/>
+      <c r="A84" s="295"/>
+      <c r="B84" s="285"/>
+      <c r="C84" s="286"/>
+      <c r="D84" s="286"/>
+      <c r="E84" s="287"/>
       <c r="F84" s="18"/>
       <c r="G84" s="18"/>
       <c r="H84" s="55"/>
@@ -45507,15 +45507,15 @@
       <c r="L85" s="18"/>
     </row>
     <row r="86" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="299" t="s">
+      <c r="A86" s="274" t="s">
         <v>287</v>
       </c>
-      <c r="B86" s="300"/>
-      <c r="C86" s="301"/>
-      <c r="D86" s="302" t="s">
+      <c r="B86" s="275"/>
+      <c r="C86" s="276"/>
+      <c r="D86" s="277" t="s">
         <v>288</v>
       </c>
-      <c r="E86" s="303"/>
+      <c r="E86" s="278"/>
       <c r="F86" s="18"/>
       <c r="G86" s="18"/>
       <c r="H86" s="55"/>
@@ -45542,10 +45542,10 @@
       <c r="A88" s="65" t="s">
         <v>373</v>
       </c>
-      <c r="B88" s="304"/>
-      <c r="C88" s="305"/>
-      <c r="D88" s="305"/>
-      <c r="E88" s="306"/>
+      <c r="B88" s="279"/>
+      <c r="C88" s="280"/>
+      <c r="D88" s="280"/>
+      <c r="E88" s="281"/>
       <c r="F88" s="18"/>
       <c r="G88" s="18"/>
       <c r="H88" s="66"/>
@@ -45566,13 +45566,13 @@
       <c r="L89" s="18"/>
     </row>
     <row r="90" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="250" t="s">
+      <c r="A90" s="265" t="s">
         <v>290</v>
       </c>
-      <c r="B90" s="279"/>
-      <c r="C90" s="280"/>
-      <c r="D90" s="280"/>
-      <c r="E90" s="281"/>
+      <c r="B90" s="282"/>
+      <c r="C90" s="283"/>
+      <c r="D90" s="283"/>
+      <c r="E90" s="284"/>
       <c r="F90" s="18"/>
       <c r="G90" s="18"/>
       <c r="H90" s="55"/>
@@ -45582,11 +45582,11 @@
       <c r="L90" s="18"/>
     </row>
     <row r="91" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="252"/>
-      <c r="B91" s="282"/>
-      <c r="C91" s="283"/>
-      <c r="D91" s="283"/>
-      <c r="E91" s="284"/>
+      <c r="A91" s="266"/>
+      <c r="B91" s="285"/>
+      <c r="C91" s="286"/>
+      <c r="D91" s="286"/>
+      <c r="E91" s="287"/>
       <c r="F91" s="18"/>
       <c r="G91" s="18"/>
       <c r="H91" s="55"/>
@@ -45606,13 +45606,13 @@
       <c r="L92" s="18"/>
     </row>
     <row r="93" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="250" t="s">
+      <c r="A93" s="265" t="s">
         <v>291</v>
       </c>
-      <c r="B93" s="279"/>
-      <c r="C93" s="280"/>
-      <c r="D93" s="280"/>
-      <c r="E93" s="281"/>
+      <c r="B93" s="282"/>
+      <c r="C93" s="283"/>
+      <c r="D93" s="283"/>
+      <c r="E93" s="284"/>
       <c r="F93" s="18"/>
       <c r="G93" s="18"/>
       <c r="H93" s="66"/>
@@ -45622,11 +45622,11 @@
       <c r="L93" s="18"/>
     </row>
     <row r="94" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="251"/>
-      <c r="B94" s="307"/>
-      <c r="C94" s="308"/>
-      <c r="D94" s="308"/>
-      <c r="E94" s="309"/>
+      <c r="A94" s="271"/>
+      <c r="B94" s="288"/>
+      <c r="C94" s="289"/>
+      <c r="D94" s="289"/>
+      <c r="E94" s="290"/>
       <c r="F94" s="18"/>
       <c r="G94" s="18"/>
       <c r="H94" s="70"/>
@@ -45636,11 +45636,11 @@
       <c r="L94" s="18"/>
     </row>
     <row r="95" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="252"/>
-      <c r="B95" s="282"/>
-      <c r="C95" s="283"/>
-      <c r="D95" s="283"/>
-      <c r="E95" s="284"/>
+      <c r="A95" s="266"/>
+      <c r="B95" s="285"/>
+      <c r="C95" s="286"/>
+      <c r="D95" s="286"/>
+      <c r="E95" s="287"/>
       <c r="F95" s="18"/>
       <c r="G95" s="18"/>
       <c r="H95" s="18"/>
@@ -45661,13 +45661,13 @@
       <c r="L96" s="18"/>
     </row>
     <row r="97" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="274" t="s">
+      <c r="A97" s="236" t="s">
         <v>292</v>
       </c>
-      <c r="B97" s="275"/>
-      <c r="C97" s="275"/>
-      <c r="D97" s="275"/>
-      <c r="E97" s="276"/>
+      <c r="B97" s="237"/>
+      <c r="C97" s="237"/>
+      <c r="D97" s="237"/>
+      <c r="E97" s="238"/>
       <c r="F97" s="18"/>
       <c r="G97" s="18"/>
       <c r="H97" s="57"/>
@@ -45677,10 +45677,10 @@
       <c r="L97" s="18"/>
     </row>
     <row r="98" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="291" t="s">
+      <c r="A98" s="268" t="s">
         <v>293</v>
       </c>
-      <c r="B98" s="292"/>
+      <c r="B98" s="270"/>
       <c r="C98" s="12"/>
       <c r="D98" s="13" t="s">
         <v>294</v>
@@ -45712,10 +45712,10 @@
       <c r="A100" s="74" t="s">
         <v>295</v>
       </c>
-      <c r="B100" s="226"/>
-      <c r="C100" s="227"/>
-      <c r="D100" s="227"/>
-      <c r="E100" s="228"/>
+      <c r="B100" s="223"/>
+      <c r="C100" s="224"/>
+      <c r="D100" s="224"/>
+      <c r="E100" s="225"/>
       <c r="F100" s="18"/>
       <c r="G100" s="18"/>
       <c r="H100" s="55"/>
@@ -45742,10 +45742,10 @@
       <c r="A102" s="74" t="s">
         <v>296</v>
       </c>
-      <c r="B102" s="226"/>
-      <c r="C102" s="227"/>
-      <c r="D102" s="227"/>
-      <c r="E102" s="228"/>
+      <c r="B102" s="223"/>
+      <c r="C102" s="224"/>
+      <c r="D102" s="224"/>
+      <c r="E102" s="225"/>
       <c r="F102" s="18"/>
       <c r="G102" s="18"/>
       <c r="H102" s="55"/>
@@ -45797,13 +45797,13 @@
       <c r="H105" s="55"/>
     </row>
     <row r="106" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="250" t="s">
+      <c r="A106" s="265" t="s">
         <v>299</v>
       </c>
-      <c r="B106" s="226"/>
-      <c r="C106" s="227"/>
-      <c r="D106" s="227"/>
-      <c r="E106" s="228"/>
+      <c r="B106" s="223"/>
+      <c r="C106" s="224"/>
+      <c r="D106" s="224"/>
+      <c r="E106" s="225"/>
       <c r="F106" s="18"/>
       <c r="G106" s="18"/>
       <c r="H106" s="55"/>
@@ -45813,7 +45813,7 @@
       <c r="L106" s="18"/>
     </row>
     <row r="107" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="251"/>
+      <c r="A107" s="271"/>
       <c r="B107" s="76"/>
       <c r="C107" s="77"/>
       <c r="D107" s="75"/>
@@ -45827,11 +45827,11 @@
       <c r="L107" s="18"/>
     </row>
     <row r="108" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="252"/>
-      <c r="B108" s="226"/>
-      <c r="C108" s="227"/>
-      <c r="D108" s="227"/>
-      <c r="E108" s="228"/>
+      <c r="A108" s="266"/>
+      <c r="B108" s="223"/>
+      <c r="C108" s="224"/>
+      <c r="D108" s="224"/>
+      <c r="E108" s="225"/>
       <c r="F108" s="18"/>
       <c r="G108" s="18"/>
       <c r="H108" s="55"/>
@@ -45855,13 +45855,13 @@
       <c r="L109" s="18"/>
     </row>
     <row r="110" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="322" t="s">
+      <c r="A110" s="257" t="s">
         <v>300</v>
       </c>
-      <c r="B110" s="293"/>
-      <c r="C110" s="294"/>
-      <c r="D110" s="294"/>
-      <c r="E110" s="324"/>
+      <c r="B110" s="259"/>
+      <c r="C110" s="260"/>
+      <c r="D110" s="260"/>
+      <c r="E110" s="261"/>
       <c r="F110" s="18"/>
       <c r="G110" s="18"/>
       <c r="H110" s="55"/>
@@ -45871,11 +45871,11 @@
       <c r="L110" s="18"/>
     </row>
     <row r="111" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="323"/>
-      <c r="B111" s="297"/>
-      <c r="C111" s="298"/>
-      <c r="D111" s="298"/>
-      <c r="E111" s="325"/>
+      <c r="A111" s="258"/>
+      <c r="B111" s="262"/>
+      <c r="C111" s="263"/>
+      <c r="D111" s="263"/>
+      <c r="E111" s="264"/>
       <c r="F111" s="18"/>
       <c r="G111" s="18"/>
       <c r="H111" s="55"/>
@@ -45890,38 +45890,38 @@
       <c r="E112" s="12"/>
     </row>
     <row r="113" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="250" t="s">
+      <c r="A113" s="265" t="s">
         <v>301</v>
       </c>
-      <c r="B113" s="293"/>
-      <c r="C113" s="294"/>
-      <c r="D113" s="294"/>
-      <c r="E113" s="324"/>
+      <c r="B113" s="259"/>
+      <c r="C113" s="260"/>
+      <c r="D113" s="260"/>
+      <c r="E113" s="261"/>
     </row>
     <row r="114" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="252"/>
-      <c r="B114" s="297"/>
-      <c r="C114" s="298"/>
-      <c r="D114" s="298"/>
-      <c r="E114" s="325"/>
+      <c r="A114" s="266"/>
+      <c r="B114" s="262"/>
+      <c r="C114" s="263"/>
+      <c r="D114" s="263"/>
+      <c r="E114" s="264"/>
     </row>
     <row r="115" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="116" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="326" t="s">
+      <c r="A116" s="267" t="s">
         <v>302</v>
       </c>
-      <c r="B116" s="326"/>
-      <c r="C116" s="326"/>
-      <c r="D116" s="326"/>
-      <c r="E116" s="326"/>
+      <c r="B116" s="267"/>
+      <c r="C116" s="267"/>
+      <c r="D116" s="267"/>
+      <c r="E116" s="267"/>
       <c r="H116" s="78"/>
     </row>
     <row r="117" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="291" t="s">
+      <c r="A117" s="268" t="s">
         <v>303</v>
       </c>
-      <c r="B117" s="327"/>
-      <c r="C117" s="292"/>
+      <c r="B117" s="269"/>
+      <c r="C117" s="270"/>
       <c r="D117" s="13" t="s">
         <v>304</v>
       </c>
@@ -45929,11 +45929,11 @@
       <c r="H117" s="9"/>
     </row>
     <row r="118" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="310"/>
-      <c r="B118" s="311"/>
-      <c r="C118" s="311"/>
-      <c r="D118" s="311"/>
-      <c r="E118" s="312"/>
+      <c r="A118" s="248"/>
+      <c r="B118" s="249"/>
+      <c r="C118" s="249"/>
+      <c r="D118" s="249"/>
+      <c r="E118" s="250"/>
     </row>
     <row r="119" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="45" t="s">
@@ -45960,10 +45960,10 @@
       <c r="A121" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B121" s="226"/>
-      <c r="C121" s="227"/>
-      <c r="D121" s="227"/>
-      <c r="E121" s="228"/>
+      <c r="B121" s="223"/>
+      <c r="C121" s="224"/>
+      <c r="D121" s="224"/>
+      <c r="E121" s="225"/>
       <c r="H121" s="9"/>
     </row>
     <row r="122" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -46009,11 +46009,11 @@
       <c r="H125" s="9"/>
     </row>
     <row r="126" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="313"/>
-      <c r="B126" s="314"/>
-      <c r="C126" s="314"/>
-      <c r="D126" s="314"/>
-      <c r="E126" s="315"/>
+      <c r="A126" s="251"/>
+      <c r="B126" s="252"/>
+      <c r="C126" s="252"/>
+      <c r="D126" s="252"/>
+      <c r="E126" s="253"/>
     </row>
     <row r="127" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="45" t="s">
@@ -46040,10 +46040,10 @@
       <c r="A129" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B129" s="226"/>
-      <c r="C129" s="227"/>
-      <c r="D129" s="227"/>
-      <c r="E129" s="228"/>
+      <c r="B129" s="223"/>
+      <c r="C129" s="224"/>
+      <c r="D129" s="224"/>
+      <c r="E129" s="225"/>
       <c r="H129" s="9"/>
     </row>
     <row r="130" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -46089,11 +46089,11 @@
       <c r="H133" s="9"/>
     </row>
     <row r="134" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="316"/>
-      <c r="B134" s="317"/>
-      <c r="C134" s="317"/>
-      <c r="D134" s="317"/>
-      <c r="E134" s="318"/>
+      <c r="A134" s="242"/>
+      <c r="B134" s="243"/>
+      <c r="C134" s="243"/>
+      <c r="D134" s="243"/>
+      <c r="E134" s="244"/>
     </row>
     <row r="135" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="45" t="s">
@@ -46119,10 +46119,10 @@
       <c r="A137" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B137" s="319"/>
-      <c r="C137" s="320"/>
-      <c r="D137" s="320"/>
-      <c r="E137" s="321"/>
+      <c r="B137" s="254"/>
+      <c r="C137" s="255"/>
+      <c r="D137" s="255"/>
+      <c r="E137" s="256"/>
     </row>
     <row r="138" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="58"/>
@@ -46165,11 +46165,11 @@
       <c r="F141" s="18"/>
     </row>
     <row r="142" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="316"/>
-      <c r="B142" s="317"/>
-      <c r="C142" s="317"/>
-      <c r="D142" s="317"/>
-      <c r="E142" s="318"/>
+      <c r="A142" s="242"/>
+      <c r="B142" s="243"/>
+      <c r="C142" s="243"/>
+      <c r="D142" s="243"/>
+      <c r="E142" s="244"/>
     </row>
     <row r="143" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="45" t="s">
@@ -46195,10 +46195,10 @@
       <c r="A145" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B145" s="226"/>
-      <c r="C145" s="227"/>
-      <c r="D145" s="227"/>
-      <c r="E145" s="228"/>
+      <c r="B145" s="223"/>
+      <c r="C145" s="224"/>
+      <c r="D145" s="224"/>
+      <c r="E145" s="225"/>
     </row>
     <row r="146" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="69"/>
@@ -46504,13 +46504,13 @@
       <c r="E182" s="18"/>
     </row>
     <row r="183" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A183" s="256" t="s">
+      <c r="A183" s="245" t="s">
         <v>314</v>
       </c>
-      <c r="B183" s="257"/>
-      <c r="C183" s="257"/>
-      <c r="D183" s="257"/>
-      <c r="E183" s="258"/>
+      <c r="B183" s="246"/>
+      <c r="C183" s="246"/>
+      <c r="D183" s="246"/>
+      <c r="E183" s="247"/>
     </row>
     <row r="184" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="53" t="s">
@@ -46524,20 +46524,20 @@
       <c r="A185" s="83"/>
     </row>
     <row r="186" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="274" t="s">
+      <c r="A186" s="236" t="s">
         <v>317</v>
       </c>
-      <c r="B186" s="275"/>
-      <c r="C186" s="275"/>
-      <c r="D186" s="276"/>
+      <c r="B186" s="237"/>
+      <c r="C186" s="237"/>
+      <c r="D186" s="238"/>
     </row>
     <row r="187" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="331" t="s">
+      <c r="A187" s="232" t="s">
         <v>318</v>
       </c>
-      <c r="B187" s="332"/>
-      <c r="C187" s="332"/>
-      <c r="D187" s="333"/>
+      <c r="B187" s="233"/>
+      <c r="C187" s="233"/>
+      <c r="D187" s="234"/>
     </row>
     <row r="188" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="12"/>
@@ -46546,12 +46546,12 @@
       <c r="D188" s="12"/>
     </row>
     <row r="189" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="331" t="s">
+      <c r="A189" s="232" t="s">
         <v>319</v>
       </c>
-      <c r="B189" s="332"/>
-      <c r="C189" s="332"/>
-      <c r="D189" s="333"/>
+      <c r="B189" s="233"/>
+      <c r="C189" s="233"/>
+      <c r="D189" s="234"/>
     </row>
     <row r="190" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="12"/>
@@ -46563,9 +46563,9 @@
       <c r="A191" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B191" s="226"/>
-      <c r="C191" s="227"/>
-      <c r="D191" s="228"/>
+      <c r="B191" s="223"/>
+      <c r="C191" s="224"/>
+      <c r="D191" s="225"/>
     </row>
     <row r="192" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="85"/>
@@ -46574,20 +46574,20 @@
       <c r="D192" s="12"/>
     </row>
     <row r="193" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="328" t="s">
+      <c r="A193" s="239" t="s">
         <v>320</v>
       </c>
-      <c r="B193" s="329"/>
-      <c r="C193" s="329"/>
-      <c r="D193" s="330"/>
+      <c r="B193" s="240"/>
+      <c r="C193" s="240"/>
+      <c r="D193" s="241"/>
     </row>
     <row r="194" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="331" t="s">
+      <c r="A194" s="232" t="s">
         <v>321</v>
       </c>
-      <c r="B194" s="332"/>
-      <c r="C194" s="332"/>
-      <c r="D194" s="333"/>
+      <c r="B194" s="233"/>
+      <c r="C194" s="233"/>
+      <c r="D194" s="234"/>
     </row>
     <row r="195" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="85"/>
@@ -46599,9 +46599,9 @@
       <c r="A196" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B196" s="226"/>
-      <c r="C196" s="227"/>
-      <c r="D196" s="228"/>
+      <c r="B196" s="223"/>
+      <c r="C196" s="224"/>
+      <c r="D196" s="225"/>
     </row>
     <row r="197" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="12"/>
@@ -46610,20 +46610,20 @@
       <c r="D197" s="12"/>
     </row>
     <row r="198" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="274" t="s">
+      <c r="A198" s="236" t="s">
         <v>322</v>
       </c>
-      <c r="B198" s="275"/>
-      <c r="C198" s="275"/>
-      <c r="D198" s="276"/>
+      <c r="B198" s="237"/>
+      <c r="C198" s="237"/>
+      <c r="D198" s="238"/>
     </row>
     <row r="199" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="331" t="s">
+      <c r="A199" s="232" t="s">
         <v>323</v>
       </c>
-      <c r="B199" s="332"/>
-      <c r="C199" s="332"/>
-      <c r="D199" s="333"/>
+      <c r="B199" s="233"/>
+      <c r="C199" s="233"/>
+      <c r="D199" s="234"/>
     </row>
     <row r="200" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="86"/>
@@ -46635,9 +46635,9 @@
       <c r="A201" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B201" s="226"/>
-      <c r="C201" s="227"/>
-      <c r="D201" s="228"/>
+      <c r="B201" s="223"/>
+      <c r="C201" s="224"/>
+      <c r="D201" s="225"/>
     </row>
     <row r="202" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="12"/>
@@ -46646,20 +46646,20 @@
       <c r="D202" s="12"/>
     </row>
     <row r="203" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="274" t="s">
+      <c r="A203" s="236" t="s">
         <v>324</v>
       </c>
-      <c r="B203" s="275"/>
-      <c r="C203" s="275"/>
-      <c r="D203" s="276"/>
+      <c r="B203" s="237"/>
+      <c r="C203" s="237"/>
+      <c r="D203" s="238"/>
     </row>
     <row r="204" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="331" t="s">
+      <c r="A204" s="232" t="s">
         <v>325</v>
       </c>
-      <c r="B204" s="332"/>
-      <c r="C204" s="332"/>
-      <c r="D204" s="333"/>
+      <c r="B204" s="233"/>
+      <c r="C204" s="233"/>
+      <c r="D204" s="234"/>
     </row>
     <row r="205" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="85"/>
@@ -46668,12 +46668,12 @@
       <c r="D205" s="12"/>
     </row>
     <row r="206" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="331" t="s">
+      <c r="A206" s="232" t="s">
         <v>326</v>
       </c>
-      <c r="B206" s="332"/>
-      <c r="C206" s="332"/>
-      <c r="D206" s="333"/>
+      <c r="B206" s="233"/>
+      <c r="C206" s="233"/>
+      <c r="D206" s="234"/>
     </row>
     <row r="207" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="12"/>
@@ -46685,9 +46685,9 @@
       <c r="A208" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B208" s="226"/>
-      <c r="C208" s="227"/>
-      <c r="D208" s="228"/>
+      <c r="B208" s="223"/>
+      <c r="C208" s="224"/>
+      <c r="D208" s="225"/>
     </row>
     <row r="209" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="12"/>
@@ -46696,20 +46696,20 @@
       <c r="D209" s="12"/>
     </row>
     <row r="210" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="274" t="s">
+      <c r="A210" s="236" t="s">
         <v>327</v>
       </c>
-      <c r="B210" s="275"/>
-      <c r="C210" s="275"/>
-      <c r="D210" s="276"/>
+      <c r="B210" s="237"/>
+      <c r="C210" s="237"/>
+      <c r="D210" s="238"/>
     </row>
     <row r="211" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="331" t="s">
+      <c r="A211" s="232" t="s">
         <v>328</v>
       </c>
-      <c r="B211" s="332"/>
-      <c r="C211" s="332"/>
-      <c r="D211" s="333"/>
+      <c r="B211" s="233"/>
+      <c r="C211" s="233"/>
+      <c r="D211" s="234"/>
     </row>
     <row r="212" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="85"/>
@@ -46721,9 +46721,9 @@
       <c r="A213" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B213" s="226"/>
-      <c r="C213" s="227"/>
-      <c r="D213" s="228"/>
+      <c r="B213" s="223"/>
+      <c r="C213" s="224"/>
+      <c r="D213" s="225"/>
     </row>
     <row r="214" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="12"/>
@@ -46732,20 +46732,20 @@
       <c r="D214" s="12"/>
     </row>
     <row r="215" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="274" t="s">
+      <c r="A215" s="236" t="s">
         <v>329</v>
       </c>
-      <c r="B215" s="275"/>
-      <c r="C215" s="275"/>
-      <c r="D215" s="276"/>
+      <c r="B215" s="237"/>
+      <c r="C215" s="237"/>
+      <c r="D215" s="238"/>
     </row>
     <row r="216" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="331" t="s">
+      <c r="A216" s="232" t="s">
         <v>330</v>
       </c>
-      <c r="B216" s="332"/>
-      <c r="C216" s="332"/>
-      <c r="D216" s="333"/>
+      <c r="B216" s="233"/>
+      <c r="C216" s="233"/>
+      <c r="D216" s="234"/>
     </row>
     <row r="217" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="85"/>
@@ -46757,9 +46757,9 @@
       <c r="A218" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B218" s="226"/>
-      <c r="C218" s="227"/>
-      <c r="D218" s="228"/>
+      <c r="B218" s="223"/>
+      <c r="C218" s="224"/>
+      <c r="D218" s="225"/>
     </row>
     <row r="219" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="12"/>
@@ -46768,20 +46768,20 @@
       <c r="D219" s="12"/>
     </row>
     <row r="220" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="274" t="s">
+      <c r="A220" s="236" t="s">
         <v>331</v>
       </c>
-      <c r="B220" s="275"/>
-      <c r="C220" s="275"/>
-      <c r="D220" s="276"/>
+      <c r="B220" s="237"/>
+      <c r="C220" s="237"/>
+      <c r="D220" s="238"/>
     </row>
     <row r="221" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="331" t="s">
+      <c r="A221" s="232" t="s">
         <v>500</v>
       </c>
-      <c r="B221" s="332"/>
-      <c r="C221" s="332"/>
-      <c r="D221" s="333"/>
+      <c r="B221" s="233"/>
+      <c r="C221" s="233"/>
+      <c r="D221" s="234"/>
     </row>
     <row r="222" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="12"/>
@@ -46790,12 +46790,12 @@
       <c r="D222" s="12"/>
     </row>
     <row r="223" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="331" t="s">
+      <c r="A223" s="232" t="s">
         <v>501</v>
       </c>
-      <c r="B223" s="332"/>
-      <c r="C223" s="332"/>
-      <c r="D223" s="333"/>
+      <c r="B223" s="233"/>
+      <c r="C223" s="233"/>
+      <c r="D223" s="234"/>
     </row>
     <row r="224" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="85"/>
@@ -46807,9 +46807,9 @@
       <c r="A225" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B225" s="226"/>
-      <c r="C225" s="227"/>
-      <c r="D225" s="228"/>
+      <c r="B225" s="223"/>
+      <c r="C225" s="224"/>
+      <c r="D225" s="225"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="12"/>
@@ -46818,13 +46818,13 @@
       <c r="D226" s="12"/>
     </row>
     <row r="230" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A230" s="334" t="s">
+      <c r="A230" s="235" t="s">
         <v>334</v>
       </c>
-      <c r="B230" s="334"/>
-      <c r="C230" s="334"/>
-      <c r="D230" s="334"/>
-      <c r="E230" s="334"/>
+      <c r="B230" s="235"/>
+      <c r="C230" s="235"/>
+      <c r="D230" s="235"/>
+      <c r="E230" s="235"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="87"/>
@@ -46836,9 +46836,9 @@
       <c r="A232" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="B232" s="226"/>
-      <c r="C232" s="227"/>
-      <c r="D232" s="228"/>
+      <c r="B232" s="223"/>
+      <c r="C232" s="224"/>
+      <c r="D232" s="225"/>
     </row>
     <row r="233" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="11"/>
@@ -46850,9 +46850,9 @@
       <c r="A234" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="B234" s="226"/>
-      <c r="C234" s="227"/>
-      <c r="D234" s="228"/>
+      <c r="B234" s="223"/>
+      <c r="C234" s="224"/>
+      <c r="D234" s="225"/>
     </row>
     <row r="235" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="11"/>
@@ -46864,9 +46864,9 @@
       <c r="A236" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="B236" s="226"/>
-      <c r="C236" s="227"/>
-      <c r="D236" s="228"/>
+      <c r="B236" s="223"/>
+      <c r="C236" s="224"/>
+      <c r="D236" s="225"/>
     </row>
     <row r="237" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="11"/>
@@ -46878,9 +46878,9 @@
       <c r="A238" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="B238" s="226"/>
-      <c r="C238" s="227"/>
-      <c r="D238" s="228"/>
+      <c r="B238" s="223"/>
+      <c r="C238" s="224"/>
+      <c r="D238" s="225"/>
     </row>
     <row r="239" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="11"/>
@@ -46892,9 +46892,9 @@
       <c r="A240" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="B240" s="226"/>
-      <c r="C240" s="227"/>
-      <c r="D240" s="228"/>
+      <c r="B240" s="223"/>
+      <c r="C240" s="224"/>
+      <c r="D240" s="225"/>
     </row>
     <row r="241" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="11"/>
@@ -46906,9 +46906,9 @@
       <c r="A242" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="B242" s="226"/>
-      <c r="C242" s="227"/>
-      <c r="D242" s="228"/>
+      <c r="B242" s="223"/>
+      <c r="C242" s="224"/>
+      <c r="D242" s="225"/>
     </row>
     <row r="243" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="11"/>
@@ -46920,9 +46920,9 @@
       <c r="A244" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="B244" s="226"/>
-      <c r="C244" s="227"/>
-      <c r="D244" s="228"/>
+      <c r="B244" s="223"/>
+      <c r="C244" s="224"/>
+      <c r="D244" s="225"/>
     </row>
     <row r="245" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="11"/>
@@ -46934,9 +46934,9 @@
       <c r="A246" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="B246" s="226"/>
-      <c r="C246" s="227"/>
-      <c r="D246" s="228"/>
+      <c r="B246" s="223"/>
+      <c r="C246" s="224"/>
+      <c r="D246" s="225"/>
     </row>
     <row r="247" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="11"/>
@@ -46948,9 +46948,9 @@
       <c r="A248" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B248" s="226"/>
-      <c r="C248" s="227"/>
-      <c r="D248" s="228"/>
+      <c r="B248" s="223"/>
+      <c r="C248" s="224"/>
+      <c r="D248" s="225"/>
     </row>
     <row r="249" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="11"/>
@@ -46962,9 +46962,9 @@
       <c r="A250" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="B250" s="226"/>
-      <c r="C250" s="227"/>
-      <c r="D250" s="228"/>
+      <c r="B250" s="223"/>
+      <c r="C250" s="224"/>
+      <c r="D250" s="225"/>
     </row>
     <row r="251" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="11"/>
@@ -46976,9 +46976,9 @@
       <c r="A252" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B252" s="226"/>
-      <c r="C252" s="227"/>
-      <c r="D252" s="228"/>
+      <c r="B252" s="223"/>
+      <c r="C252" s="224"/>
+      <c r="D252" s="225"/>
     </row>
     <row r="253" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="11"/>
@@ -46990,9 +46990,9 @@
       <c r="A254" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="B254" s="226"/>
-      <c r="C254" s="227"/>
-      <c r="D254" s="228"/>
+      <c r="B254" s="223"/>
+      <c r="C254" s="224"/>
+      <c r="D254" s="225"/>
     </row>
     <row r="255" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="11"/>
@@ -47004,9 +47004,9 @@
       <c r="A256" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="B256" s="226"/>
-      <c r="C256" s="227"/>
-      <c r="D256" s="228"/>
+      <c r="B256" s="223"/>
+      <c r="C256" s="224"/>
+      <c r="D256" s="225"/>
     </row>
     <row r="257" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="11"/>
@@ -47018,9 +47018,9 @@
       <c r="A258" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="B258" s="226"/>
-      <c r="C258" s="227"/>
-      <c r="D258" s="228"/>
+      <c r="B258" s="223"/>
+      <c r="C258" s="224"/>
+      <c r="D258" s="225"/>
     </row>
     <row r="259" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="11"/>
@@ -47032,9 +47032,9 @@
       <c r="A260" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="B260" s="226"/>
-      <c r="C260" s="227"/>
-      <c r="D260" s="228"/>
+      <c r="B260" s="223"/>
+      <c r="C260" s="224"/>
+      <c r="D260" s="225"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="12"/>
@@ -47091,13 +47091,13 @@
       <c r="D269" s="12"/>
     </row>
     <row r="274" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A274" s="244" t="s">
+      <c r="A274" s="226" t="s">
         <v>349</v>
       </c>
-      <c r="B274" s="245"/>
-      <c r="C274" s="245"/>
-      <c r="D274" s="245"/>
-      <c r="E274" s="246"/>
+      <c r="B274" s="227"/>
+      <c r="C274" s="227"/>
+      <c r="D274" s="227"/>
+      <c r="E274" s="228"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="88"/>
@@ -47106,171 +47106,142 @@
       <c r="D275" s="12"/>
     </row>
     <row r="276" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="247" t="s">
+      <c r="A276" s="229" t="s">
         <v>350</v>
       </c>
-      <c r="B276" s="248"/>
-      <c r="C276" s="248"/>
-      <c r="D276" s="249"/>
+      <c r="B276" s="230"/>
+      <c r="C276" s="230"/>
+      <c r="D276" s="231"/>
       <c r="E276" s="89" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="226"/>
-      <c r="B277" s="227"/>
-      <c r="C277" s="227"/>
-      <c r="D277" s="228"/>
+      <c r="A277" s="223"/>
+      <c r="B277" s="224"/>
+      <c r="C277" s="224"/>
+      <c r="D277" s="225"/>
       <c r="E277" s="51"/>
     </row>
     <row r="278" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="335"/>
-      <c r="B278" s="336"/>
-      <c r="C278" s="336"/>
-      <c r="D278" s="337"/>
+      <c r="A278" s="220"/>
+      <c r="B278" s="221"/>
+      <c r="C278" s="221"/>
+      <c r="D278" s="222"/>
       <c r="E278" s="51"/>
     </row>
     <row r="279" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="335"/>
-      <c r="B279" s="336"/>
-      <c r="C279" s="336"/>
-      <c r="D279" s="337"/>
+      <c r="A279" s="220"/>
+      <c r="B279" s="221"/>
+      <c r="C279" s="221"/>
+      <c r="D279" s="222"/>
       <c r="E279" s="51"/>
     </row>
     <row r="280" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="335"/>
-      <c r="B280" s="336"/>
-      <c r="C280" s="336"/>
-      <c r="D280" s="337"/>
+      <c r="A280" s="220"/>
+      <c r="B280" s="221"/>
+      <c r="C280" s="221"/>
+      <c r="D280" s="222"/>
       <c r="E280" s="51"/>
     </row>
     <row r="281" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="335"/>
-      <c r="B281" s="336"/>
-      <c r="C281" s="336"/>
-      <c r="D281" s="337"/>
+      <c r="A281" s="220"/>
+      <c r="B281" s="221"/>
+      <c r="C281" s="221"/>
+      <c r="D281" s="222"/>
       <c r="E281" s="51"/>
     </row>
     <row r="282" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="335"/>
-      <c r="B282" s="336"/>
-      <c r="C282" s="336"/>
-      <c r="D282" s="337"/>
+      <c r="A282" s="220"/>
+      <c r="B282" s="221"/>
+      <c r="C282" s="221"/>
+      <c r="D282" s="222"/>
       <c r="E282" s="51"/>
     </row>
     <row r="283" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="335"/>
-      <c r="B283" s="336"/>
-      <c r="C283" s="336"/>
-      <c r="D283" s="337"/>
+      <c r="A283" s="220"/>
+      <c r="B283" s="221"/>
+      <c r="C283" s="221"/>
+      <c r="D283" s="222"/>
       <c r="E283" s="51"/>
     </row>
     <row r="284" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="335"/>
-      <c r="B284" s="336"/>
-      <c r="C284" s="336"/>
-      <c r="D284" s="337"/>
+      <c r="A284" s="220"/>
+      <c r="B284" s="221"/>
+      <c r="C284" s="221"/>
+      <c r="D284" s="222"/>
       <c r="E284" s="51"/>
     </row>
     <row r="285" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="335"/>
-      <c r="B285" s="336"/>
-      <c r="C285" s="336"/>
-      <c r="D285" s="337"/>
+      <c r="A285" s="220"/>
+      <c r="B285" s="221"/>
+      <c r="C285" s="221"/>
+      <c r="D285" s="222"/>
       <c r="E285" s="51"/>
     </row>
     <row r="286" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="335"/>
-      <c r="B286" s="336"/>
-      <c r="C286" s="336"/>
-      <c r="D286" s="337"/>
+      <c r="A286" s="220"/>
+      <c r="B286" s="221"/>
+      <c r="C286" s="221"/>
+      <c r="D286" s="222"/>
       <c r="E286" s="51"/>
     </row>
     <row r="287" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="335"/>
-      <c r="B287" s="336"/>
-      <c r="C287" s="336"/>
-      <c r="D287" s="337"/>
+      <c r="A287" s="220"/>
+      <c r="B287" s="221"/>
+      <c r="C287" s="221"/>
+      <c r="D287" s="222"/>
       <c r="E287" s="51"/>
     </row>
     <row r="288" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="335"/>
-      <c r="B288" s="336"/>
-      <c r="C288" s="336"/>
-      <c r="D288" s="337"/>
+      <c r="A288" s="220"/>
+      <c r="B288" s="221"/>
+      <c r="C288" s="221"/>
+      <c r="D288" s="222"/>
       <c r="E288" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="123">
-    <mergeCell ref="A286:D286"/>
-    <mergeCell ref="A287:D287"/>
-    <mergeCell ref="A288:D288"/>
-    <mergeCell ref="A280:D280"/>
-    <mergeCell ref="A281:D281"/>
-    <mergeCell ref="A282:D282"/>
-    <mergeCell ref="A283:D283"/>
-    <mergeCell ref="A284:D284"/>
-    <mergeCell ref="A285:D285"/>
-    <mergeCell ref="B260:D260"/>
-    <mergeCell ref="A274:E274"/>
-    <mergeCell ref="A276:D276"/>
-    <mergeCell ref="A277:D277"/>
-    <mergeCell ref="A278:D278"/>
-    <mergeCell ref="A279:D279"/>
-    <mergeCell ref="B248:D248"/>
-    <mergeCell ref="B250:D250"/>
-    <mergeCell ref="B252:D252"/>
-    <mergeCell ref="B254:D254"/>
-    <mergeCell ref="B256:D256"/>
-    <mergeCell ref="B258:D258"/>
-    <mergeCell ref="B236:D236"/>
-    <mergeCell ref="B238:D238"/>
-    <mergeCell ref="B240:D240"/>
-    <mergeCell ref="B242:D242"/>
-    <mergeCell ref="B244:D244"/>
-    <mergeCell ref="B246:D246"/>
-    <mergeCell ref="A221:D221"/>
-    <mergeCell ref="A223:D223"/>
-    <mergeCell ref="B225:D225"/>
-    <mergeCell ref="A230:E230"/>
-    <mergeCell ref="B232:D232"/>
-    <mergeCell ref="B234:D234"/>
-    <mergeCell ref="A211:D211"/>
-    <mergeCell ref="B213:D213"/>
-    <mergeCell ref="A215:D215"/>
-    <mergeCell ref="A216:D216"/>
-    <mergeCell ref="B218:D218"/>
-    <mergeCell ref="A220:D220"/>
-    <mergeCell ref="B201:D201"/>
-    <mergeCell ref="A203:D203"/>
-    <mergeCell ref="A204:D204"/>
-    <mergeCell ref="A206:D206"/>
-    <mergeCell ref="B208:D208"/>
-    <mergeCell ref="A210:D210"/>
-    <mergeCell ref="B191:D191"/>
-    <mergeCell ref="A193:D193"/>
-    <mergeCell ref="A194:D194"/>
-    <mergeCell ref="B196:D196"/>
-    <mergeCell ref="A198:D198"/>
-    <mergeCell ref="A199:D199"/>
-    <mergeCell ref="A142:E142"/>
-    <mergeCell ref="B145:E145"/>
-    <mergeCell ref="A183:E183"/>
-    <mergeCell ref="A186:D186"/>
-    <mergeCell ref="A187:D187"/>
-    <mergeCell ref="A189:D189"/>
-    <mergeCell ref="A118:E118"/>
-    <mergeCell ref="B121:E121"/>
-    <mergeCell ref="A126:E126"/>
-    <mergeCell ref="B129:E129"/>
-    <mergeCell ref="A134:E134"/>
-    <mergeCell ref="B137:E137"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B110:E111"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:E114"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:E25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:E29"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:E84"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A65:E65"/>
     <mergeCell ref="A97:E97"/>
     <mergeCell ref="A98:B98"/>
     <mergeCell ref="B100:E100"/>
@@ -47285,46 +47256,75 @@
     <mergeCell ref="B90:E91"/>
     <mergeCell ref="A93:A95"/>
     <mergeCell ref="B93:E95"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:E84"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:E25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:E29"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="A118:E118"/>
+    <mergeCell ref="B121:E121"/>
+    <mergeCell ref="A126:E126"/>
+    <mergeCell ref="B129:E129"/>
+    <mergeCell ref="A134:E134"/>
+    <mergeCell ref="B137:E137"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:E111"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:E114"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="B191:D191"/>
+    <mergeCell ref="A193:D193"/>
+    <mergeCell ref="A194:D194"/>
+    <mergeCell ref="B196:D196"/>
+    <mergeCell ref="A198:D198"/>
+    <mergeCell ref="A199:D199"/>
+    <mergeCell ref="A142:E142"/>
+    <mergeCell ref="B145:E145"/>
+    <mergeCell ref="A183:E183"/>
+    <mergeCell ref="A186:D186"/>
+    <mergeCell ref="A187:D187"/>
+    <mergeCell ref="A189:D189"/>
+    <mergeCell ref="A211:D211"/>
+    <mergeCell ref="B213:D213"/>
+    <mergeCell ref="A215:D215"/>
+    <mergeCell ref="A216:D216"/>
+    <mergeCell ref="B218:D218"/>
+    <mergeCell ref="A220:D220"/>
+    <mergeCell ref="B201:D201"/>
+    <mergeCell ref="A203:D203"/>
+    <mergeCell ref="A204:D204"/>
+    <mergeCell ref="A206:D206"/>
+    <mergeCell ref="B208:D208"/>
+    <mergeCell ref="A210:D210"/>
+    <mergeCell ref="B236:D236"/>
+    <mergeCell ref="B238:D238"/>
+    <mergeCell ref="B240:D240"/>
+    <mergeCell ref="B242:D242"/>
+    <mergeCell ref="B244:D244"/>
+    <mergeCell ref="B246:D246"/>
+    <mergeCell ref="A221:D221"/>
+    <mergeCell ref="A223:D223"/>
+    <mergeCell ref="B225:D225"/>
+    <mergeCell ref="A230:E230"/>
+    <mergeCell ref="B232:D232"/>
+    <mergeCell ref="B234:D234"/>
+    <mergeCell ref="B260:D260"/>
+    <mergeCell ref="A274:E274"/>
+    <mergeCell ref="A276:D276"/>
+    <mergeCell ref="A277:D277"/>
+    <mergeCell ref="A278:D278"/>
+    <mergeCell ref="A279:D279"/>
+    <mergeCell ref="B248:D248"/>
+    <mergeCell ref="B250:D250"/>
+    <mergeCell ref="B252:D252"/>
+    <mergeCell ref="B254:D254"/>
+    <mergeCell ref="B256:D256"/>
+    <mergeCell ref="B258:D258"/>
+    <mergeCell ref="A286:D286"/>
+    <mergeCell ref="A287:D287"/>
+    <mergeCell ref="A288:D288"/>
+    <mergeCell ref="A280:D280"/>
+    <mergeCell ref="A281:D281"/>
+    <mergeCell ref="A282:D282"/>
+    <mergeCell ref="A283:D283"/>
+    <mergeCell ref="A284:D284"/>
+    <mergeCell ref="A285:D285"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ProjectStuff/AWOME tables-V4.xlsx
+++ b/ProjectStuff/AWOME tables-V4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="11820"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="11820" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="Forms" sheetId="6" r:id="rId1"/>
@@ -3699,179 +3699,6 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3884,6 +3711,9 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3929,7 +3759,182 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3939,13 +3944,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3955,10 +3959,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3977,14 +3977,24 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3994,45 +4004,29 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4076,26 +4070,32 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -15356,7 +15356,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Enterprise Table'!$I$2" spid="_x0000_s8241"/>
+                  <a14:cameraTool cellRange="'Enterprise Table'!$I$2" spid="_x0000_s8242"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -28024,7 +28024,7 @@
   <dimension ref="A2:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="A3" sqref="A3:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28421,13 +28421,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="245" t="s">
+      <c r="A1" s="256" t="s">
         <v>502</v>
       </c>
-      <c r="B1" s="246"/>
-      <c r="C1" s="246"/>
-      <c r="D1" s="246"/>
-      <c r="E1" s="247"/>
+      <c r="B1" s="257"/>
+      <c r="C1" s="257"/>
+      <c r="D1" s="257"/>
+      <c r="E1" s="258"/>
     </row>
     <row r="2" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -28440,10 +28440,10 @@
       <c r="A3" s="100" t="s">
         <v>503</v>
       </c>
-      <c r="B3" s="277"/>
-      <c r="C3" s="384"/>
-      <c r="D3" s="384"/>
-      <c r="E3" s="278"/>
+      <c r="B3" s="302"/>
+      <c r="C3" s="365"/>
+      <c r="D3" s="365"/>
+      <c r="E3" s="303"/>
     </row>
     <row r="4" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="135"/>
@@ -28453,68 +28453,68 @@
       <c r="E4" s="135"/>
     </row>
     <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="385" t="s">
+      <c r="A5" s="366" t="s">
         <v>504</v>
       </c>
-      <c r="B5" s="386"/>
+      <c r="B5" s="367"/>
       <c r="C5" s="135"/>
       <c r="D5" s="135"/>
       <c r="E5" s="135"/>
     </row>
     <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="387" t="s">
+      <c r="A6" s="368" t="s">
         <v>350</v>
       </c>
-      <c r="B6" s="387"/>
-      <c r="C6" s="387" t="s">
+      <c r="B6" s="368"/>
+      <c r="C6" s="368" t="s">
         <v>505</v>
       </c>
-      <c r="D6" s="387"/>
+      <c r="D6" s="368"/>
       <c r="E6" s="100" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="376"/>
-      <c r="B7" s="376"/>
-      <c r="C7" s="376"/>
-      <c r="D7" s="376"/>
+      <c r="A7" s="364"/>
+      <c r="B7" s="364"/>
+      <c r="C7" s="364"/>
+      <c r="D7" s="364"/>
       <c r="E7" s="137"/>
     </row>
     <row r="8" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="376"/>
-      <c r="B8" s="376"/>
-      <c r="C8" s="376"/>
-      <c r="D8" s="376"/>
+      <c r="A8" s="364"/>
+      <c r="B8" s="364"/>
+      <c r="C8" s="364"/>
+      <c r="D8" s="364"/>
       <c r="E8" s="137"/>
     </row>
     <row r="9" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="376"/>
-      <c r="B9" s="376"/>
-      <c r="C9" s="376"/>
-      <c r="D9" s="376"/>
+      <c r="A9" s="364"/>
+      <c r="B9" s="364"/>
+      <c r="C9" s="364"/>
+      <c r="D9" s="364"/>
       <c r="E9" s="137"/>
     </row>
     <row r="10" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="376"/>
-      <c r="B10" s="376"/>
-      <c r="C10" s="376"/>
-      <c r="D10" s="376"/>
+      <c r="A10" s="364"/>
+      <c r="B10" s="364"/>
+      <c r="C10" s="364"/>
+      <c r="D10" s="364"/>
       <c r="E10" s="137"/>
     </row>
     <row r="11" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="376"/>
-      <c r="B11" s="376"/>
-      <c r="C11" s="376"/>
-      <c r="D11" s="376"/>
+      <c r="A11" s="364"/>
+      <c r="B11" s="364"/>
+      <c r="C11" s="364"/>
+      <c r="D11" s="364"/>
       <c r="E11" s="137"/>
     </row>
     <row r="12" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="377"/>
-      <c r="B12" s="377"/>
-      <c r="C12" s="377"/>
-      <c r="D12" s="377"/>
-      <c r="E12" s="377"/>
+      <c r="A12" s="372"/>
+      <c r="B12" s="372"/>
+      <c r="C12" s="372"/>
+      <c r="D12" s="372"/>
+      <c r="E12" s="372"/>
     </row>
     <row r="13" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="138"/>
@@ -28558,34 +28558,34 @@
       <c r="E17" s="135"/>
     </row>
     <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="365" t="s">
+      <c r="A18" s="369" t="s">
         <v>509</v>
       </c>
-      <c r="B18" s="366"/>
+      <c r="B18" s="371"/>
       <c r="C18" s="135"/>
       <c r="D18" s="135"/>
       <c r="E18" s="135"/>
     </row>
     <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="369"/>
-      <c r="B19" s="370"/>
-      <c r="C19" s="370"/>
-      <c r="D19" s="370"/>
-      <c r="E19" s="371"/>
+      <c r="A19" s="373"/>
+      <c r="B19" s="374"/>
+      <c r="C19" s="374"/>
+      <c r="D19" s="374"/>
+      <c r="E19" s="375"/>
     </row>
     <row r="20" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="378"/>
-      <c r="B20" s="379"/>
-      <c r="C20" s="379"/>
-      <c r="D20" s="379"/>
-      <c r="E20" s="380"/>
+      <c r="A20" s="376"/>
+      <c r="B20" s="377"/>
+      <c r="C20" s="377"/>
+      <c r="D20" s="377"/>
+      <c r="E20" s="378"/>
     </row>
     <row r="21" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="381"/>
-      <c r="B21" s="382"/>
-      <c r="C21" s="382"/>
-      <c r="D21" s="382"/>
-      <c r="E21" s="383"/>
+      <c r="A21" s="379"/>
+      <c r="B21" s="380"/>
+      <c r="C21" s="380"/>
+      <c r="D21" s="380"/>
+      <c r="E21" s="381"/>
     </row>
     <row r="22" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="135"/>
@@ -28595,34 +28595,34 @@
       <c r="E22" s="135"/>
     </row>
     <row r="23" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="365" t="s">
+      <c r="A23" s="369" t="s">
         <v>510</v>
       </c>
-      <c r="B23" s="366"/>
+      <c r="B23" s="371"/>
       <c r="C23" s="135"/>
       <c r="D23" s="135"/>
       <c r="E23" s="135"/>
     </row>
     <row r="24" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="369"/>
-      <c r="B24" s="370"/>
-      <c r="C24" s="370"/>
-      <c r="D24" s="370"/>
-      <c r="E24" s="371"/>
+      <c r="A24" s="373"/>
+      <c r="B24" s="374"/>
+      <c r="C24" s="374"/>
+      <c r="D24" s="374"/>
+      <c r="E24" s="375"/>
     </row>
     <row r="25" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="378"/>
-      <c r="B25" s="379"/>
-      <c r="C25" s="379"/>
-      <c r="D25" s="379"/>
-      <c r="E25" s="380"/>
+      <c r="A25" s="376"/>
+      <c r="B25" s="377"/>
+      <c r="C25" s="377"/>
+      <c r="D25" s="377"/>
+      <c r="E25" s="378"/>
     </row>
     <row r="26" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="381"/>
-      <c r="B26" s="382"/>
-      <c r="C26" s="382"/>
-      <c r="D26" s="382"/>
-      <c r="E26" s="383"/>
+      <c r="A26" s="379"/>
+      <c r="B26" s="380"/>
+      <c r="C26" s="380"/>
+      <c r="D26" s="380"/>
+      <c r="E26" s="381"/>
     </row>
     <row r="27" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="135"/>
@@ -28632,34 +28632,34 @@
       <c r="E27" s="135"/>
     </row>
     <row r="28" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="365" t="s">
+      <c r="A28" s="369" t="s">
         <v>511</v>
       </c>
-      <c r="B28" s="366"/>
+      <c r="B28" s="371"/>
       <c r="C28" s="135"/>
       <c r="D28" s="135"/>
       <c r="E28" s="135"/>
     </row>
     <row r="29" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="369"/>
-      <c r="B29" s="370"/>
-      <c r="C29" s="370"/>
-      <c r="D29" s="370"/>
-      <c r="E29" s="371"/>
+      <c r="A29" s="373"/>
+      <c r="B29" s="374"/>
+      <c r="C29" s="374"/>
+      <c r="D29" s="374"/>
+      <c r="E29" s="375"/>
     </row>
     <row r="30" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="378"/>
-      <c r="B30" s="379"/>
-      <c r="C30" s="379"/>
-      <c r="D30" s="379"/>
-      <c r="E30" s="380"/>
+      <c r="A30" s="376"/>
+      <c r="B30" s="377"/>
+      <c r="C30" s="377"/>
+      <c r="D30" s="377"/>
+      <c r="E30" s="378"/>
     </row>
     <row r="31" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="381"/>
-      <c r="B31" s="382"/>
-      <c r="C31" s="382"/>
-      <c r="D31" s="382"/>
-      <c r="E31" s="383"/>
+      <c r="A31" s="379"/>
+      <c r="B31" s="380"/>
+      <c r="C31" s="380"/>
+      <c r="D31" s="380"/>
+      <c r="E31" s="381"/>
     </row>
     <row r="32" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="144"/>
@@ -28669,34 +28669,34 @@
       <c r="E32" s="144"/>
     </row>
     <row r="33" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="365" t="s">
+      <c r="A33" s="369" t="s">
         <v>512</v>
       </c>
-      <c r="B33" s="366"/>
+      <c r="B33" s="371"/>
       <c r="C33" s="135"/>
       <c r="D33" s="135"/>
       <c r="E33" s="135"/>
     </row>
     <row r="34" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="369"/>
-      <c r="B34" s="370"/>
-      <c r="C34" s="370"/>
-      <c r="D34" s="370"/>
-      <c r="E34" s="371"/>
+      <c r="A34" s="373"/>
+      <c r="B34" s="374"/>
+      <c r="C34" s="374"/>
+      <c r="D34" s="374"/>
+      <c r="E34" s="375"/>
     </row>
     <row r="35" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="378"/>
-      <c r="B35" s="379"/>
-      <c r="C35" s="379"/>
-      <c r="D35" s="379"/>
-      <c r="E35" s="380"/>
+      <c r="A35" s="376"/>
+      <c r="B35" s="377"/>
+      <c r="C35" s="377"/>
+      <c r="D35" s="377"/>
+      <c r="E35" s="378"/>
     </row>
     <row r="36" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="381"/>
-      <c r="B36" s="382"/>
-      <c r="C36" s="382"/>
-      <c r="D36" s="382"/>
-      <c r="E36" s="383"/>
+      <c r="A36" s="379"/>
+      <c r="B36" s="380"/>
+      <c r="C36" s="380"/>
+      <c r="D36" s="380"/>
+      <c r="E36" s="381"/>
     </row>
     <row r="37" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="135"/>
@@ -28706,21 +28706,21 @@
       <c r="E37" s="135"/>
     </row>
     <row r="38" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="365" t="s">
+      <c r="A38" s="369" t="s">
         <v>513</v>
       </c>
-      <c r="B38" s="375"/>
-      <c r="C38" s="375"/>
-      <c r="D38" s="366"/>
+      <c r="B38" s="370"/>
+      <c r="C38" s="370"/>
+      <c r="D38" s="371"/>
       <c r="E38" s="135"/>
     </row>
     <row r="39" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="232" t="s">
+      <c r="A39" s="331" t="s">
         <v>318</v>
       </c>
-      <c r="B39" s="233"/>
-      <c r="C39" s="233"/>
-      <c r="D39" s="234"/>
+      <c r="B39" s="332"/>
+      <c r="C39" s="332"/>
+      <c r="D39" s="333"/>
       <c r="E39" s="135"/>
     </row>
     <row r="40" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28731,12 +28731,12 @@
       <c r="E40" s="135"/>
     </row>
     <row r="41" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="232" t="s">
+      <c r="A41" s="331" t="s">
         <v>319</v>
       </c>
-      <c r="B41" s="233"/>
-      <c r="C41" s="233"/>
-      <c r="D41" s="234"/>
+      <c r="B41" s="332"/>
+      <c r="C41" s="332"/>
+      <c r="D41" s="333"/>
       <c r="E41" s="135"/>
     </row>
     <row r="42" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28750,29 +28750,29 @@
       <c r="A43" s="147" t="s">
         <v>265</v>
       </c>
-      <c r="B43" s="369"/>
-      <c r="C43" s="370"/>
-      <c r="D43" s="371"/>
+      <c r="B43" s="373"/>
+      <c r="C43" s="374"/>
+      <c r="D43" s="375"/>
       <c r="E43" s="135"/>
     </row>
     <row r="44" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="372" t="s">
+      <c r="A44" s="382" t="s">
         <v>514</v>
       </c>
-      <c r="B44" s="373"/>
-      <c r="C44" s="373"/>
-      <c r="D44" s="373"/>
-      <c r="E44" s="374"/>
+      <c r="B44" s="383"/>
+      <c r="C44" s="383"/>
+      <c r="D44" s="383"/>
+      <c r="E44" s="384"/>
     </row>
     <row r="45" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="236" t="s">
+      <c r="A46" s="274" t="s">
         <v>515</v>
       </c>
-      <c r="B46" s="237"/>
-      <c r="C46" s="237"/>
-      <c r="D46" s="237"/>
-      <c r="E46" s="238"/>
+      <c r="B46" s="275"/>
+      <c r="C46" s="275"/>
+      <c r="D46" s="275"/>
+      <c r="E46" s="276"/>
     </row>
     <row r="47" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="148"/>
@@ -28782,10 +28782,10 @@
       <c r="E47" s="148"/>
     </row>
     <row r="48" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="365" t="s">
+      <c r="A48" s="369" t="s">
         <v>516</v>
       </c>
-      <c r="B48" s="366"/>
+      <c r="B48" s="371"/>
       <c r="C48" s="135"/>
       <c r="D48" s="137" t="s">
         <v>304</v>
@@ -28800,10 +28800,10 @@
       <c r="E49" s="135"/>
     </row>
     <row r="50" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="365" t="s">
+      <c r="A50" s="369" t="s">
         <v>517</v>
       </c>
-      <c r="B50" s="366"/>
+      <c r="B50" s="371"/>
       <c r="C50" s="135"/>
       <c r="D50" s="137"/>
       <c r="E50" s="135"/>
@@ -28816,10 +28816,10 @@
       <c r="E51" s="135"/>
     </row>
     <row r="52" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="365" t="s">
+      <c r="A52" s="369" t="s">
         <v>518</v>
       </c>
-      <c r="B52" s="366"/>
+      <c r="B52" s="371"/>
       <c r="C52" s="135"/>
       <c r="D52" s="137"/>
       <c r="E52" s="135"/>
@@ -28832,10 +28832,10 @@
       <c r="E53" s="135"/>
     </row>
     <row r="54" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="365" t="s">
+      <c r="A54" s="369" t="s">
         <v>519</v>
       </c>
-      <c r="B54" s="366"/>
+      <c r="B54" s="371"/>
       <c r="C54" s="135"/>
       <c r="D54" s="137" t="s">
         <v>304</v>
@@ -28850,10 +28850,10 @@
       <c r="E55" s="135"/>
     </row>
     <row r="56" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="365" t="s">
+      <c r="A56" s="369" t="s">
         <v>520</v>
       </c>
-      <c r="B56" s="366"/>
+      <c r="B56" s="371"/>
       <c r="C56" s="135"/>
       <c r="D56" s="137" t="s">
         <v>304</v>
@@ -28868,10 +28868,10 @@
       <c r="E57" s="135"/>
     </row>
     <row r="58" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="365" t="s">
+      <c r="A58" s="369" t="s">
         <v>521</v>
       </c>
-      <c r="B58" s="366"/>
+      <c r="B58" s="371"/>
       <c r="C58" s="135"/>
       <c r="D58" s="137" t="s">
         <v>304</v>
@@ -28886,10 +28886,10 @@
       <c r="E59" s="135"/>
     </row>
     <row r="60" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="365" t="s">
+      <c r="A60" s="369" t="s">
         <v>522</v>
       </c>
-      <c r="B60" s="366"/>
+      <c r="B60" s="371"/>
       <c r="C60" s="135"/>
       <c r="D60" s="137" t="s">
         <v>304</v>
@@ -28904,10 +28904,10 @@
       <c r="E61" s="135"/>
     </row>
     <row r="62" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="365" t="s">
+      <c r="A62" s="369" t="s">
         <v>523</v>
       </c>
-      <c r="B62" s="366"/>
+      <c r="B62" s="371"/>
       <c r="C62" s="135"/>
       <c r="D62" s="137" t="s">
         <v>304</v>
@@ -28922,10 +28922,10 @@
       <c r="E63" s="135"/>
     </row>
     <row r="64" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="365" t="s">
+      <c r="A64" s="369" t="s">
         <v>524</v>
       </c>
-      <c r="B64" s="366"/>
+      <c r="B64" s="371"/>
       <c r="C64" s="135"/>
       <c r="D64" s="137" t="s">
         <v>304</v>
@@ -28940,13 +28940,13 @@
       <c r="E65" s="135"/>
     </row>
     <row r="66" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="236" t="s">
+      <c r="A66" s="274" t="s">
         <v>525</v>
       </c>
-      <c r="B66" s="237"/>
-      <c r="C66" s="237"/>
-      <c r="D66" s="237"/>
-      <c r="E66" s="238"/>
+      <c r="B66" s="275"/>
+      <c r="C66" s="275"/>
+      <c r="D66" s="275"/>
+      <c r="E66" s="276"/>
     </row>
     <row r="67" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="148"/>
@@ -28956,10 +28956,10 @@
       <c r="E67" s="148"/>
     </row>
     <row r="68" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="365" t="s">
+      <c r="A68" s="369" t="s">
         <v>526</v>
       </c>
-      <c r="B68" s="366"/>
+      <c r="B68" s="371"/>
       <c r="C68" s="135"/>
       <c r="D68" s="137" t="s">
         <v>304</v>
@@ -28974,10 +28974,10 @@
       <c r="E69" s="135"/>
     </row>
     <row r="70" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="365" t="s">
+      <c r="A70" s="369" t="s">
         <v>527</v>
       </c>
-      <c r="B70" s="366"/>
+      <c r="B70" s="371"/>
       <c r="C70" s="135"/>
       <c r="D70" s="137" t="s">
         <v>304</v>
@@ -28992,10 +28992,10 @@
       <c r="E71" s="135"/>
     </row>
     <row r="72" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="365" t="s">
+      <c r="A72" s="369" t="s">
         <v>528</v>
       </c>
-      <c r="B72" s="366"/>
+      <c r="B72" s="371"/>
       <c r="C72" s="135"/>
       <c r="D72" s="137" t="s">
         <v>304</v>
@@ -29010,10 +29010,10 @@
       <c r="E73" s="135"/>
     </row>
     <row r="74" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="365" t="s">
+      <c r="A74" s="369" t="s">
         <v>529</v>
       </c>
-      <c r="B74" s="366"/>
+      <c r="B74" s="371"/>
       <c r="C74" s="135"/>
       <c r="D74" s="137" t="s">
         <v>304</v>
@@ -29028,10 +29028,10 @@
       <c r="E75" s="135"/>
     </row>
     <row r="76" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="365" t="s">
+      <c r="A76" s="369" t="s">
         <v>530</v>
       </c>
-      <c r="B76" s="366"/>
+      <c r="B76" s="371"/>
       <c r="C76" s="135"/>
       <c r="D76" s="137" t="s">
         <v>304</v>
@@ -29046,10 +29046,10 @@
       <c r="E77" s="135"/>
     </row>
     <row r="78" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="365" t="s">
+      <c r="A78" s="369" t="s">
         <v>531</v>
       </c>
-      <c r="B78" s="366"/>
+      <c r="B78" s="371"/>
       <c r="C78" s="135"/>
       <c r="D78" s="137" t="s">
         <v>304</v>
@@ -29064,10 +29064,10 @@
       <c r="E79" s="135"/>
     </row>
     <row r="80" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="367" t="s">
+      <c r="A80" s="385" t="s">
         <v>532</v>
       </c>
-      <c r="B80" s="368"/>
+      <c r="B80" s="386"/>
       <c r="C80" s="135"/>
       <c r="D80" s="137" t="s">
         <v>304</v>
@@ -29082,10 +29082,10 @@
       <c r="E81" s="135"/>
     </row>
     <row r="82" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="365" t="s">
+      <c r="A82" s="369" t="s">
         <v>533</v>
       </c>
-      <c r="B82" s="366"/>
+      <c r="B82" s="371"/>
       <c r="C82" s="135"/>
       <c r="D82" s="137" t="s">
         <v>304</v>
@@ -29100,10 +29100,10 @@
       <c r="E83" s="135"/>
     </row>
     <row r="84" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="365" t="s">
+      <c r="A84" s="369" t="s">
         <v>534</v>
       </c>
-      <c r="B84" s="366"/>
+      <c r="B84" s="371"/>
       <c r="C84" s="135"/>
       <c r="D84" s="137" t="s">
         <v>304</v>
@@ -29114,29 +29114,29 @@
     <row r="86" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="87" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="88" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="364"/>
-      <c r="B88" s="364"/>
-      <c r="C88" s="364"/>
-      <c r="D88" s="364"/>
-      <c r="E88" s="364"/>
+      <c r="A88" s="387"/>
+      <c r="B88" s="387"/>
+      <c r="C88" s="387"/>
+      <c r="D88" s="387"/>
+      <c r="E88" s="387"/>
     </row>
     <row r="89" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="93" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="235" t="s">
+      <c r="A93" s="334" t="s">
         <v>334</v>
       </c>
-      <c r="B93" s="235"/>
-      <c r="C93" s="235"/>
-      <c r="D93" s="235"/>
-      <c r="E93" s="235"/>
+      <c r="B93" s="334"/>
+      <c r="C93" s="334"/>
+      <c r="D93" s="334"/>
+      <c r="E93" s="334"/>
     </row>
     <row r="94" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="B94" s="223"/>
-      <c r="C94" s="224"/>
-      <c r="D94" s="225"/>
+      <c r="B94" s="226"/>
+      <c r="C94" s="227"/>
+      <c r="D94" s="228"/>
     </row>
     <row r="95" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
@@ -29148,9 +29148,9 @@
       <c r="A96" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="B96" s="223"/>
-      <c r="C96" s="224"/>
-      <c r="D96" s="225"/>
+      <c r="B96" s="226"/>
+      <c r="C96" s="227"/>
+      <c r="D96" s="228"/>
     </row>
     <row r="97" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
@@ -29162,9 +29162,9 @@
       <c r="A98" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="B98" s="223"/>
-      <c r="C98" s="224"/>
-      <c r="D98" s="225"/>
+      <c r="B98" s="226"/>
+      <c r="C98" s="227"/>
+      <c r="D98" s="228"/>
     </row>
     <row r="99" spans="1:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
@@ -29176,9 +29176,9 @@
       <c r="A100" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="B100" s="223"/>
-      <c r="C100" s="224"/>
-      <c r="D100" s="225"/>
+      <c r="B100" s="226"/>
+      <c r="C100" s="227"/>
+      <c r="D100" s="228"/>
     </row>
     <row r="101" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
@@ -29190,9 +29190,9 @@
       <c r="A102" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="B102" s="223"/>
-      <c r="C102" s="224"/>
-      <c r="D102" s="225"/>
+      <c r="B102" s="226"/>
+      <c r="C102" s="227"/>
+      <c r="D102" s="228"/>
     </row>
     <row r="103" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
@@ -29204,9 +29204,9 @@
       <c r="A104" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="B104" s="223"/>
-      <c r="C104" s="224"/>
-      <c r="D104" s="225"/>
+      <c r="B104" s="226"/>
+      <c r="C104" s="227"/>
+      <c r="D104" s="228"/>
     </row>
     <row r="105" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
@@ -29218,9 +29218,9 @@
       <c r="A106" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="B106" s="223"/>
-      <c r="C106" s="224"/>
-      <c r="D106" s="225"/>
+      <c r="B106" s="226"/>
+      <c r="C106" s="227"/>
+      <c r="D106" s="228"/>
     </row>
     <row r="107" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
@@ -29232,9 +29232,9 @@
       <c r="A108" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="B108" s="223"/>
-      <c r="C108" s="224"/>
-      <c r="D108" s="225"/>
+      <c r="B108" s="226"/>
+      <c r="C108" s="227"/>
+      <c r="D108" s="228"/>
     </row>
     <row r="109" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="11"/>
@@ -29246,9 +29246,9 @@
       <c r="A110" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B110" s="223"/>
-      <c r="C110" s="224"/>
-      <c r="D110" s="225"/>
+      <c r="B110" s="226"/>
+      <c r="C110" s="227"/>
+      <c r="D110" s="228"/>
     </row>
     <row r="111" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
@@ -29260,9 +29260,9 @@
       <c r="A112" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="B112" s="223"/>
-      <c r="C112" s="224"/>
-      <c r="D112" s="225"/>
+      <c r="B112" s="226"/>
+      <c r="C112" s="227"/>
+      <c r="D112" s="228"/>
     </row>
     <row r="113" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="11"/>
@@ -29274,9 +29274,9 @@
       <c r="A114" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B114" s="223"/>
-      <c r="C114" s="224"/>
-      <c r="D114" s="225"/>
+      <c r="B114" s="226"/>
+      <c r="C114" s="227"/>
+      <c r="D114" s="228"/>
     </row>
     <row r="115" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="11"/>
@@ -29288,9 +29288,9 @@
       <c r="A116" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="B116" s="223"/>
-      <c r="C116" s="224"/>
-      <c r="D116" s="225"/>
+      <c r="B116" s="226"/>
+      <c r="C116" s="227"/>
+      <c r="D116" s="228"/>
     </row>
     <row r="117" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="11"/>
@@ -29302,9 +29302,9 @@
       <c r="A118" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="B118" s="223"/>
-      <c r="C118" s="224"/>
-      <c r="D118" s="225"/>
+      <c r="B118" s="226"/>
+      <c r="C118" s="227"/>
+      <c r="D118" s="228"/>
     </row>
     <row r="119" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="11"/>
@@ -29316,9 +29316,9 @@
       <c r="A120" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="B120" s="223"/>
-      <c r="C120" s="224"/>
-      <c r="D120" s="225"/>
+      <c r="B120" s="226"/>
+      <c r="C120" s="227"/>
+      <c r="D120" s="228"/>
     </row>
     <row r="121" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="11"/>
@@ -29330,9 +29330,9 @@
       <c r="A122" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="B122" s="223"/>
-      <c r="C122" s="224"/>
-      <c r="D122" s="225"/>
+      <c r="B122" s="226"/>
+      <c r="C122" s="227"/>
+      <c r="D122" s="228"/>
     </row>
     <row r="123" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="12"/>
@@ -29342,19 +29342,47 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B122:D122"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="A93:E93"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="B110:D110"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A58:B58"/>
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:D11"/>
@@ -29367,47 +29395,19 @@
     <mergeCell ref="A29:E31"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A34:E36"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="A88:E88"/>
-    <mergeCell ref="A93:E93"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="B110:D110"/>
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="B118:D118"/>
-    <mergeCell ref="B120:D120"/>
-    <mergeCell ref="B122:D122"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -30456,13 +30456,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="388" t="s">
+      <c r="A1" s="418" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="389"/>
-      <c r="C1" s="389"/>
-      <c r="D1" s="389"/>
-      <c r="E1" s="390"/>
+      <c r="B1" s="419"/>
+      <c r="C1" s="419"/>
+      <c r="D1" s="419"/>
+      <c r="E1" s="420"/>
     </row>
     <row r="2" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="152"/>
@@ -30480,11 +30480,11 @@
       <c r="E3" s="156"/>
     </row>
     <row r="4" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="391"/>
-      <c r="B4" s="392"/>
-      <c r="C4" s="392"/>
-      <c r="D4" s="392"/>
-      <c r="E4" s="393"/>
+      <c r="A4" s="421"/>
+      <c r="B4" s="422"/>
+      <c r="C4" s="422"/>
+      <c r="D4" s="422"/>
+      <c r="E4" s="423"/>
     </row>
     <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="157" t="s">
@@ -30568,31 +30568,31 @@
       <c r="D14" s="135"/>
     </row>
     <row r="15" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="394" t="s">
+      <c r="A15" s="415" t="s">
         <v>546</v>
       </c>
-      <c r="B15" s="221" t="s">
+      <c r="B15" s="336" t="s">
         <v>547</v>
       </c>
-      <c r="C15" s="221"/>
-      <c r="D15" s="221"/>
-      <c r="E15" s="222"/>
+      <c r="C15" s="336"/>
+      <c r="D15" s="336"/>
+      <c r="E15" s="337"/>
     </row>
     <row r="16" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="395"/>
+      <c r="A16" s="416"/>
       <c r="B16" s="124"/>
       <c r="C16" s="124"/>
       <c r="D16" s="124"/>
       <c r="E16" s="124"/>
     </row>
     <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="396"/>
-      <c r="B17" s="220" t="s">
+      <c r="A17" s="417"/>
+      <c r="B17" s="335" t="s">
         <v>548</v>
       </c>
-      <c r="C17" s="221"/>
-      <c r="D17" s="221"/>
-      <c r="E17" s="222"/>
+      <c r="C17" s="336"/>
+      <c r="D17" s="336"/>
+      <c r="E17" s="337"/>
     </row>
     <row r="18" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="144"/>
@@ -30604,12 +30604,12 @@
       <c r="A19" s="158" t="s">
         <v>549</v>
       </c>
-      <c r="B19" s="221" t="s">
+      <c r="B19" s="336" t="s">
         <v>550</v>
       </c>
-      <c r="C19" s="221"/>
-      <c r="D19" s="221"/>
-      <c r="E19" s="222"/>
+      <c r="C19" s="336"/>
+      <c r="D19" s="336"/>
+      <c r="E19" s="337"/>
     </row>
     <row r="20" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="159"/>
@@ -30619,31 +30619,31 @@
       <c r="E20" s="42"/>
     </row>
     <row r="21" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="394" t="s">
+      <c r="A21" s="415" t="s">
         <v>551</v>
       </c>
-      <c r="B21" s="221" t="s">
+      <c r="B21" s="336" t="s">
         <v>552</v>
       </c>
-      <c r="C21" s="221"/>
-      <c r="D21" s="221"/>
-      <c r="E21" s="222"/>
+      <c r="C21" s="336"/>
+      <c r="D21" s="336"/>
+      <c r="E21" s="337"/>
     </row>
     <row r="22" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="395"/>
+      <c r="A22" s="416"/>
       <c r="B22" s="124"/>
       <c r="C22" s="124"/>
       <c r="D22" s="124"/>
       <c r="E22" s="124"/>
     </row>
     <row r="23" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="396"/>
-      <c r="B23" s="221" t="s">
+      <c r="A23" s="417"/>
+      <c r="B23" s="336" t="s">
         <v>553</v>
       </c>
-      <c r="C23" s="221"/>
-      <c r="D23" s="221"/>
-      <c r="E23" s="222"/>
+      <c r="C23" s="336"/>
+      <c r="D23" s="336"/>
+      <c r="E23" s="337"/>
     </row>
     <row r="24" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="144"/>
@@ -30703,12 +30703,12 @@
       <c r="A31" s="397" t="s">
         <v>559</v>
       </c>
-      <c r="B31" s="220" t="s">
+      <c r="B31" s="335" t="s">
         <v>560</v>
       </c>
-      <c r="C31" s="221"/>
-      <c r="D31" s="221"/>
-      <c r="E31" s="222"/>
+      <c r="C31" s="336"/>
+      <c r="D31" s="336"/>
+      <c r="E31" s="337"/>
     </row>
     <row r="32" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="398"/>
@@ -30718,12 +30718,12 @@
     </row>
     <row r="33" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="399"/>
-      <c r="B33" s="220" t="s">
+      <c r="B33" s="335" t="s">
         <v>561</v>
       </c>
-      <c r="C33" s="221"/>
-      <c r="D33" s="221"/>
-      <c r="E33" s="222"/>
+      <c r="C33" s="336"/>
+      <c r="D33" s="336"/>
+      <c r="E33" s="337"/>
     </row>
     <row r="34" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="144"/>
@@ -30853,19 +30853,19 @@
       <c r="A49" s="136" t="s">
         <v>245</v>
       </c>
-      <c r="B49" s="277"/>
-      <c r="C49" s="384"/>
-      <c r="D49" s="384"/>
-      <c r="E49" s="278"/>
+      <c r="B49" s="302"/>
+      <c r="C49" s="365"/>
+      <c r="D49" s="365"/>
+      <c r="E49" s="303"/>
     </row>
     <row r="50" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="416" t="s">
+      <c r="A50" s="388" t="s">
         <v>575</v>
       </c>
-      <c r="B50" s="417"/>
-      <c r="C50" s="417"/>
-      <c r="D50" s="417"/>
-      <c r="E50" s="418"/>
+      <c r="B50" s="389"/>
+      <c r="C50" s="389"/>
+      <c r="D50" s="389"/>
+      <c r="E50" s="390"/>
     </row>
     <row r="51" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -30875,10 +30875,10 @@
       <c r="B52" s="167"/>
     </row>
     <row r="53" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="419" t="s">
+      <c r="A53" s="392" t="s">
         <v>576</v>
       </c>
-      <c r="B53" s="420"/>
+      <c r="B53" s="393"/>
       <c r="D53" s="51" t="s">
         <v>577</v>
       </c>
@@ -30970,66 +30970,66 @@
       <c r="A69" s="52"/>
     </row>
     <row r="70" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="421" t="s">
+      <c r="A70" s="394" t="s">
         <v>582</v>
       </c>
-      <c r="B70" s="422"/>
-      <c r="C70" s="422"/>
-      <c r="D70" s="422"/>
-      <c r="E70" s="423"/>
+      <c r="B70" s="395"/>
+      <c r="C70" s="395"/>
+      <c r="D70" s="395"/>
+      <c r="E70" s="396"/>
     </row>
     <row r="71" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="72" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="385" t="s">
+      <c r="A72" s="366" t="s">
         <v>583</v>
       </c>
-      <c r="B72" s="415"/>
-      <c r="C72" s="415"/>
-      <c r="D72" s="386"/>
+      <c r="B72" s="391"/>
+      <c r="C72" s="391"/>
+      <c r="D72" s="367"/>
       <c r="E72" s="168" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="220"/>
-      <c r="B73" s="221"/>
-      <c r="C73" s="221"/>
-      <c r="D73" s="222"/>
+      <c r="A73" s="335"/>
+      <c r="B73" s="336"/>
+      <c r="C73" s="336"/>
+      <c r="D73" s="337"/>
       <c r="E73" s="51"/>
     </row>
     <row r="74" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="220"/>
-      <c r="B74" s="221"/>
-      <c r="C74" s="221"/>
-      <c r="D74" s="222"/>
+      <c r="A74" s="335"/>
+      <c r="B74" s="336"/>
+      <c r="C74" s="336"/>
+      <c r="D74" s="337"/>
       <c r="E74" s="51"/>
     </row>
     <row r="75" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="277"/>
-      <c r="B75" s="384"/>
-      <c r="C75" s="384"/>
-      <c r="D75" s="278"/>
+      <c r="A75" s="302"/>
+      <c r="B75" s="365"/>
+      <c r="C75" s="365"/>
+      <c r="D75" s="303"/>
       <c r="E75" s="51"/>
     </row>
     <row r="76" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="220"/>
-      <c r="B76" s="221"/>
-      <c r="C76" s="221"/>
-      <c r="D76" s="222"/>
+      <c r="A76" s="335"/>
+      <c r="B76" s="336"/>
+      <c r="C76" s="336"/>
+      <c r="D76" s="337"/>
       <c r="E76" s="51"/>
     </row>
     <row r="77" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="220"/>
-      <c r="B77" s="221"/>
-      <c r="C77" s="221"/>
-      <c r="D77" s="222"/>
+      <c r="A77" s="335"/>
+      <c r="B77" s="336"/>
+      <c r="C77" s="336"/>
+      <c r="D77" s="337"/>
       <c r="E77" s="51"/>
     </row>
     <row r="78" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="220"/>
-      <c r="B78" s="221"/>
-      <c r="C78" s="221"/>
-      <c r="D78" s="222"/>
+      <c r="A78" s="335"/>
+      <c r="B78" s="336"/>
+      <c r="C78" s="336"/>
+      <c r="D78" s="337"/>
       <c r="E78" s="51"/>
     </row>
     <row r="79" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31040,68 +31040,68 @@
       <c r="E79" s="124"/>
     </row>
     <row r="80" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="385" t="s">
+      <c r="A80" s="366" t="s">
         <v>490</v>
       </c>
-      <c r="B80" s="415"/>
-      <c r="C80" s="415"/>
-      <c r="D80" s="386"/>
+      <c r="B80" s="391"/>
+      <c r="C80" s="391"/>
+      <c r="D80" s="367"/>
       <c r="E80" s="168" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="220"/>
-      <c r="B81" s="221"/>
-      <c r="C81" s="221"/>
-      <c r="D81" s="222"/>
+      <c r="A81" s="335"/>
+      <c r="B81" s="336"/>
+      <c r="C81" s="336"/>
+      <c r="D81" s="337"/>
       <c r="E81" s="51"/>
     </row>
     <row r="82" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="220"/>
-      <c r="B82" s="221"/>
-      <c r="C82" s="221"/>
-      <c r="D82" s="222"/>
+      <c r="A82" s="335"/>
+      <c r="B82" s="336"/>
+      <c r="C82" s="336"/>
+      <c r="D82" s="337"/>
       <c r="E82" s="51"/>
     </row>
     <row r="83" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="220"/>
-      <c r="B83" s="221"/>
-      <c r="C83" s="221"/>
-      <c r="D83" s="222"/>
+      <c r="A83" s="335"/>
+      <c r="B83" s="336"/>
+      <c r="C83" s="336"/>
+      <c r="D83" s="337"/>
       <c r="E83" s="51"/>
     </row>
     <row r="84" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="220"/>
-      <c r="B84" s="221"/>
-      <c r="C84" s="221"/>
-      <c r="D84" s="222"/>
+      <c r="A84" s="335"/>
+      <c r="B84" s="336"/>
+      <c r="C84" s="336"/>
+      <c r="D84" s="337"/>
       <c r="E84" s="51"/>
     </row>
     <row r="85" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="220"/>
-      <c r="B85" s="221"/>
-      <c r="C85" s="221"/>
-      <c r="D85" s="222"/>
+      <c r="A85" s="335"/>
+      <c r="B85" s="336"/>
+      <c r="C85" s="336"/>
+      <c r="D85" s="337"/>
       <c r="E85" s="51"/>
     </row>
     <row r="88" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="89" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="416" t="s">
+      <c r="A89" s="388" t="s">
         <v>334</v>
       </c>
-      <c r="B89" s="417"/>
-      <c r="C89" s="417"/>
-      <c r="D89" s="417"/>
-      <c r="E89" s="418"/>
+      <c r="B89" s="389"/>
+      <c r="C89" s="389"/>
+      <c r="D89" s="389"/>
+      <c r="E89" s="390"/>
     </row>
     <row r="91" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="74" t="s">
         <v>585</v>
       </c>
-      <c r="B91" s="220"/>
-      <c r="C91" s="221"/>
-      <c r="D91" s="222"/>
+      <c r="B91" s="335"/>
+      <c r="C91" s="336"/>
+      <c r="D91" s="337"/>
     </row>
     <row r="92" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
@@ -31110,9 +31110,9 @@
       <c r="A93" s="74" t="s">
         <v>586</v>
       </c>
-      <c r="B93" s="220"/>
-      <c r="C93" s="221"/>
-      <c r="D93" s="222"/>
+      <c r="B93" s="335"/>
+      <c r="C93" s="336"/>
+      <c r="D93" s="337"/>
     </row>
     <row r="94" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
@@ -31121,9 +31121,9 @@
       <c r="A95" s="74" t="s">
         <v>587</v>
       </c>
-      <c r="B95" s="220"/>
-      <c r="C95" s="221"/>
-      <c r="D95" s="222"/>
+      <c r="B95" s="335"/>
+      <c r="C95" s="336"/>
+      <c r="D95" s="337"/>
     </row>
     <row r="96" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
@@ -31132,9 +31132,9 @@
       <c r="A97" s="74" t="s">
         <v>588</v>
       </c>
-      <c r="B97" s="220"/>
-      <c r="C97" s="221"/>
-      <c r="D97" s="222"/>
+      <c r="B97" s="335"/>
+      <c r="C97" s="336"/>
+      <c r="D97" s="337"/>
     </row>
     <row r="98" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
@@ -31143,9 +31143,9 @@
       <c r="A99" s="74" t="s">
         <v>589</v>
       </c>
-      <c r="B99" s="220"/>
-      <c r="C99" s="221"/>
-      <c r="D99" s="222"/>
+      <c r="B99" s="335"/>
+      <c r="C99" s="336"/>
+      <c r="D99" s="337"/>
     </row>
     <row r="100" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
@@ -31154,9 +31154,9 @@
       <c r="A101" s="74" t="s">
         <v>590</v>
       </c>
-      <c r="B101" s="220"/>
-      <c r="C101" s="221"/>
-      <c r="D101" s="222"/>
+      <c r="B101" s="335"/>
+      <c r="C101" s="336"/>
+      <c r="D101" s="337"/>
     </row>
     <row r="102" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
@@ -31165,9 +31165,9 @@
       <c r="A103" s="74" t="s">
         <v>591</v>
       </c>
-      <c r="B103" s="220"/>
-      <c r="C103" s="221"/>
-      <c r="D103" s="222"/>
+      <c r="B103" s="335"/>
+      <c r="C103" s="336"/>
+      <c r="D103" s="337"/>
     </row>
     <row r="104" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
@@ -31176,9 +31176,9 @@
       <c r="A105" s="74" t="s">
         <v>592</v>
       </c>
-      <c r="B105" s="220"/>
-      <c r="C105" s="221"/>
-      <c r="D105" s="222"/>
+      <c r="B105" s="335"/>
+      <c r="C105" s="336"/>
+      <c r="D105" s="337"/>
     </row>
     <row r="106" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="11"/>
@@ -31187,9 +31187,9 @@
       <c r="A107" s="74" t="s">
         <v>593</v>
       </c>
-      <c r="B107" s="220"/>
-      <c r="C107" s="221"/>
-      <c r="D107" s="222"/>
+      <c r="B107" s="335"/>
+      <c r="C107" s="336"/>
+      <c r="D107" s="337"/>
     </row>
     <row r="108" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
@@ -31198,9 +31198,9 @@
       <c r="A109" s="74" t="s">
         <v>594</v>
       </c>
-      <c r="B109" s="220"/>
-      <c r="C109" s="221"/>
-      <c r="D109" s="222"/>
+      <c r="B109" s="335"/>
+      <c r="C109" s="336"/>
+      <c r="D109" s="337"/>
     </row>
     <row r="110" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
@@ -31209,9 +31209,9 @@
       <c r="A111" s="74" t="s">
         <v>595</v>
       </c>
-      <c r="B111" s="220"/>
-      <c r="C111" s="221"/>
-      <c r="D111" s="222"/>
+      <c r="B111" s="335"/>
+      <c r="C111" s="336"/>
+      <c r="D111" s="337"/>
     </row>
     <row r="112" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
@@ -31220,9 +31220,9 @@
       <c r="A113" s="74" t="s">
         <v>596</v>
       </c>
-      <c r="B113" s="220"/>
-      <c r="C113" s="221"/>
-      <c r="D113" s="222"/>
+      <c r="B113" s="335"/>
+      <c r="C113" s="336"/>
+      <c r="D113" s="337"/>
     </row>
     <row r="114" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="11"/>
@@ -31231,9 +31231,9 @@
       <c r="A115" s="74" t="s">
         <v>597</v>
       </c>
-      <c r="B115" s="220"/>
-      <c r="C115" s="221"/>
-      <c r="D115" s="222"/>
+      <c r="B115" s="335"/>
+      <c r="C115" s="336"/>
+      <c r="D115" s="337"/>
     </row>
     <row r="116" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="11"/>
@@ -31242,9 +31242,9 @@
       <c r="A117" s="74" t="s">
         <v>598</v>
       </c>
-      <c r="B117" s="220"/>
-      <c r="C117" s="221"/>
-      <c r="D117" s="222"/>
+      <c r="B117" s="335"/>
+      <c r="C117" s="336"/>
+      <c r="D117" s="337"/>
     </row>
     <row r="118" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="11"/>
@@ -31253,21 +31253,42 @@
       <c r="A119" s="74" t="s">
         <v>599</v>
       </c>
-      <c r="B119" s="220"/>
-      <c r="C119" s="221"/>
-      <c r="D119" s="222"/>
+      <c r="B119" s="335"/>
+      <c r="C119" s="336"/>
+      <c r="D119" s="337"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="B109:D109"/>
-    <mergeCell ref="B111:D111"/>
-    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A78:D78"/>
     <mergeCell ref="B101:D101"/>
     <mergeCell ref="A81:D81"/>
     <mergeCell ref="A82:D82"/>
@@ -31280,36 +31301,15 @@
     <mergeCell ref="B95:D95"/>
     <mergeCell ref="B97:D97"/>
     <mergeCell ref="B99:D99"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="B109:D109"/>
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="B113:D113"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -32899,13 +32899,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="226" t="s">
+      <c r="A1" s="244" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="227"/>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="228"/>
+      <c r="B1" s="245"/>
+      <c r="C1" s="245"/>
+      <c r="D1" s="245"/>
+      <c r="E1" s="246"/>
     </row>
     <row r="2" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
@@ -32914,10 +32914,10 @@
       <c r="A3" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="223"/>
-      <c r="C3" s="224"/>
-      <c r="D3" s="224"/>
-      <c r="E3" s="225"/>
+      <c r="B3" s="226"/>
+      <c r="C3" s="227"/>
+      <c r="D3" s="227"/>
+      <c r="E3" s="228"/>
     </row>
     <row r="4" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
@@ -32984,56 +32984,56 @@
       <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="229" t="s">
+      <c r="A11" s="247" t="s">
         <v>236</v>
       </c>
-      <c r="B11" s="230"/>
-      <c r="C11" s="231"/>
+      <c r="B11" s="248"/>
+      <c r="C11" s="249"/>
       <c r="D11" s="17" t="s">
         <v>237</v>
       </c>
       <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="317"/>
-      <c r="B12" s="318"/>
-      <c r="C12" s="318"/>
-      <c r="D12" s="318"/>
-      <c r="E12" s="319"/>
+      <c r="A12" s="220"/>
+      <c r="B12" s="221"/>
+      <c r="C12" s="221"/>
+      <c r="D12" s="221"/>
+      <c r="E12" s="222"/>
     </row>
     <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="265" t="s">
+      <c r="A13" s="250" t="s">
         <v>238</v>
       </c>
-      <c r="B13" s="301" t="s">
+      <c r="B13" s="253" t="s">
         <v>239</v>
       </c>
-      <c r="C13" s="299"/>
-      <c r="D13" s="299"/>
-      <c r="E13" s="300"/>
+      <c r="C13" s="254"/>
+      <c r="D13" s="254"/>
+      <c r="E13" s="255"/>
     </row>
     <row r="14" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="271"/>
+      <c r="A14" s="251"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
     </row>
     <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="266"/>
-      <c r="B15" s="301" t="s">
+      <c r="A15" s="252"/>
+      <c r="B15" s="253" t="s">
         <v>240</v>
       </c>
-      <c r="C15" s="299"/>
-      <c r="D15" s="299"/>
-      <c r="E15" s="300"/>
+      <c r="C15" s="254"/>
+      <c r="D15" s="254"/>
+      <c r="E15" s="255"/>
     </row>
     <row r="16" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="317"/>
-      <c r="B16" s="318"/>
-      <c r="C16" s="318"/>
-      <c r="D16" s="318"/>
-      <c r="E16" s="319"/>
+      <c r="A16" s="220"/>
+      <c r="B16" s="221"/>
+      <c r="C16" s="221"/>
+      <c r="D16" s="221"/>
+      <c r="E16" s="222"/>
     </row>
     <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
@@ -33051,20 +33051,20 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="320"/>
-      <c r="B18" s="321"/>
-      <c r="C18" s="321"/>
-      <c r="D18" s="321"/>
-      <c r="E18" s="322"/>
+      <c r="A18" s="223"/>
+      <c r="B18" s="224"/>
+      <c r="C18" s="224"/>
+      <c r="D18" s="224"/>
+      <c r="E18" s="225"/>
     </row>
     <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="B19" s="223"/>
-      <c r="C19" s="224"/>
-      <c r="D19" s="224"/>
-      <c r="E19" s="225"/>
+      <c r="B19" s="226"/>
+      <c r="C19" s="227"/>
+      <c r="D19" s="227"/>
+      <c r="E19" s="228"/>
     </row>
     <row r="20" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
@@ -33092,27 +33092,27 @@
       <c r="E22" s="24"/>
     </row>
     <row r="23" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="323" t="s">
+      <c r="A23" s="229" t="s">
         <v>246</v>
       </c>
-      <c r="B23" s="326"/>
-      <c r="C23" s="327"/>
-      <c r="D23" s="327"/>
-      <c r="E23" s="328"/>
+      <c r="B23" s="232"/>
+      <c r="C23" s="233"/>
+      <c r="D23" s="233"/>
+      <c r="E23" s="234"/>
     </row>
     <row r="24" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="324"/>
-      <c r="B24" s="329"/>
-      <c r="C24" s="330"/>
-      <c r="D24" s="330"/>
-      <c r="E24" s="331"/>
+      <c r="A24" s="230"/>
+      <c r="B24" s="235"/>
+      <c r="C24" s="236"/>
+      <c r="D24" s="236"/>
+      <c r="E24" s="237"/>
     </row>
     <row r="25" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="325"/>
-      <c r="B25" s="332"/>
-      <c r="C25" s="333"/>
-      <c r="D25" s="333"/>
-      <c r="E25" s="334"/>
+      <c r="A25" s="231"/>
+      <c r="B25" s="238"/>
+      <c r="C25" s="239"/>
+      <c r="D25" s="239"/>
+      <c r="E25" s="240"/>
     </row>
     <row r="26" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
@@ -33122,37 +33122,37 @@
       <c r="E26" s="24"/>
     </row>
     <row r="27" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="335" t="s">
+      <c r="A27" s="241" t="s">
         <v>247</v>
       </c>
-      <c r="B27" s="326"/>
-      <c r="C27" s="327"/>
-      <c r="D27" s="327"/>
-      <c r="E27" s="328"/>
+      <c r="B27" s="232"/>
+      <c r="C27" s="233"/>
+      <c r="D27" s="233"/>
+      <c r="E27" s="234"/>
     </row>
     <row r="28" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="336"/>
-      <c r="B28" s="329"/>
-      <c r="C28" s="330"/>
-      <c r="D28" s="330"/>
-      <c r="E28" s="331"/>
+      <c r="A28" s="242"/>
+      <c r="B28" s="235"/>
+      <c r="C28" s="236"/>
+      <c r="D28" s="236"/>
+      <c r="E28" s="237"/>
     </row>
     <row r="29" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="337"/>
-      <c r="B29" s="332"/>
-      <c r="C29" s="333"/>
-      <c r="D29" s="333"/>
-      <c r="E29" s="334"/>
+      <c r="A29" s="243"/>
+      <c r="B29" s="238"/>
+      <c r="C29" s="239"/>
+      <c r="D29" s="239"/>
+      <c r="E29" s="240"/>
     </row>
     <row r="30" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="311" t="s">
+      <c r="A31" s="265" t="s">
         <v>248</v>
       </c>
-      <c r="B31" s="312"/>
-      <c r="C31" s="312"/>
-      <c r="D31" s="312"/>
-      <c r="E31" s="313"/>
+      <c r="B31" s="266"/>
+      <c r="C31" s="266"/>
+      <c r="D31" s="266"/>
+      <c r="E31" s="267"/>
     </row>
     <row r="32" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
@@ -33191,13 +33191,13 @@
       <c r="E35" s="12"/>
     </row>
     <row r="36" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="311" t="s">
+      <c r="A36" s="265" t="s">
         <v>253</v>
       </c>
-      <c r="B36" s="312"/>
-      <c r="C36" s="312"/>
-      <c r="D36" s="312"/>
-      <c r="E36" s="313"/>
+      <c r="B36" s="266"/>
+      <c r="C36" s="266"/>
+      <c r="D36" s="266"/>
+      <c r="E36" s="267"/>
     </row>
     <row r="37" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
@@ -33236,13 +33236,13 @@
       <c r="E40" s="12"/>
     </row>
     <row r="41" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="311" t="s">
+      <c r="A41" s="265" t="s">
         <v>254</v>
       </c>
-      <c r="B41" s="312"/>
-      <c r="C41" s="312"/>
-      <c r="D41" s="312"/>
-      <c r="E41" s="313"/>
+      <c r="B41" s="266"/>
+      <c r="C41" s="266"/>
+      <c r="D41" s="266"/>
+      <c r="E41" s="267"/>
     </row>
     <row r="42" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
@@ -33263,13 +33263,13 @@
       <c r="E43" s="12"/>
     </row>
     <row r="44" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="311" t="s">
+      <c r="A44" s="265" t="s">
         <v>257</v>
       </c>
-      <c r="B44" s="312"/>
-      <c r="C44" s="312"/>
-      <c r="D44" s="312"/>
-      <c r="E44" s="313"/>
+      <c r="B44" s="266"/>
+      <c r="C44" s="266"/>
+      <c r="D44" s="266"/>
+      <c r="E44" s="267"/>
     </row>
     <row r="45" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="26" t="s">
@@ -33290,72 +33290,72 @@
       <c r="E46" s="12"/>
     </row>
     <row r="47" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="305" t="s">
+      <c r="A47" s="259" t="s">
         <v>258</v>
       </c>
-      <c r="B47" s="314" t="s">
+      <c r="B47" s="268" t="s">
         <v>259</v>
       </c>
-      <c r="C47" s="315"/>
-      <c r="D47" s="315"/>
-      <c r="E47" s="316"/>
+      <c r="C47" s="269"/>
+      <c r="D47" s="269"/>
+      <c r="E47" s="270"/>
     </row>
     <row r="48" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="306"/>
+      <c r="A48" s="260"/>
       <c r="B48" s="29"/>
       <c r="C48" s="30"/>
       <c r="D48" s="30"/>
       <c r="E48" s="31"/>
     </row>
     <row r="49" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="307"/>
-      <c r="B49" s="314" t="s">
+      <c r="A49" s="261"/>
+      <c r="B49" s="268" t="s">
         <v>260</v>
       </c>
-      <c r="C49" s="315"/>
-      <c r="D49" s="315"/>
-      <c r="E49" s="316"/>
+      <c r="C49" s="269"/>
+      <c r="D49" s="269"/>
+      <c r="E49" s="270"/>
     </row>
     <row r="50" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="245" t="s">
+      <c r="A50" s="256" t="s">
         <v>261</v>
       </c>
-      <c r="B50" s="246"/>
-      <c r="C50" s="246"/>
-      <c r="D50" s="246"/>
-      <c r="E50" s="247"/>
+      <c r="B50" s="257"/>
+      <c r="C50" s="257"/>
+      <c r="D50" s="257"/>
+      <c r="E50" s="258"/>
     </row>
     <row r="51" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="305" t="s">
+      <c r="A52" s="259" t="s">
         <v>262</v>
       </c>
-      <c r="B52" s="301" t="s">
+      <c r="B52" s="253" t="s">
         <v>263</v>
       </c>
-      <c r="C52" s="299"/>
-      <c r="D52" s="299"/>
-      <c r="E52" s="300"/>
+      <c r="C52" s="254"/>
+      <c r="D52" s="254"/>
+      <c r="E52" s="255"/>
     </row>
     <row r="53" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="306"/>
+      <c r="A53" s="260"/>
       <c r="B53" s="32"/>
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="34"/>
     </row>
     <row r="54" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="306"/>
-      <c r="B54" s="301" t="s">
+      <c r="A54" s="260"/>
+      <c r="B54" s="253" t="s">
         <v>264</v>
       </c>
-      <c r="C54" s="299"/>
-      <c r="D54" s="299"/>
-      <c r="E54" s="300"/>
+      <c r="C54" s="254"/>
+      <c r="D54" s="254"/>
+      <c r="E54" s="255"/>
       <c r="F54" s="35"/>
     </row>
     <row r="55" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="306"/>
+      <c r="A55" s="260"/>
       <c r="B55" s="36"/>
       <c r="C55" s="36"/>
       <c r="D55" s="36"/>
@@ -33363,52 +33363,52 @@
       <c r="F55" s="35"/>
     </row>
     <row r="56" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="307"/>
+      <c r="A56" s="261"/>
       <c r="B56" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="C56" s="301"/>
-      <c r="D56" s="299"/>
-      <c r="E56" s="300"/>
+      <c r="C56" s="253"/>
+      <c r="D56" s="254"/>
+      <c r="E56" s="255"/>
       <c r="F56" s="35"/>
     </row>
     <row r="57" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="308"/>
-      <c r="B57" s="309"/>
-      <c r="C57" s="309"/>
-      <c r="D57" s="309"/>
-      <c r="E57" s="310"/>
+      <c r="A57" s="262"/>
+      <c r="B57" s="263"/>
+      <c r="C57" s="263"/>
+      <c r="D57" s="263"/>
+      <c r="E57" s="264"/>
     </row>
     <row r="58" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="296" t="s">
+      <c r="A58" s="285" t="s">
         <v>266</v>
       </c>
-      <c r="B58" s="299" t="s">
+      <c r="B58" s="254" t="s">
         <v>267</v>
       </c>
-      <c r="C58" s="299"/>
-      <c r="D58" s="299"/>
-      <c r="E58" s="300"/>
+      <c r="C58" s="254"/>
+      <c r="D58" s="254"/>
+      <c r="E58" s="255"/>
     </row>
     <row r="59" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="297"/>
+      <c r="A59" s="286"/>
       <c r="B59" s="33"/>
       <c r="C59" s="33"/>
       <c r="D59" s="33"/>
       <c r="E59" s="34"/>
     </row>
     <row r="60" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="297"/>
-      <c r="B60" s="299" t="s">
+      <c r="A60" s="286"/>
+      <c r="B60" s="254" t="s">
         <v>268</v>
       </c>
-      <c r="C60" s="299"/>
-      <c r="D60" s="299"/>
-      <c r="E60" s="300"/>
+      <c r="C60" s="254"/>
+      <c r="D60" s="254"/>
+      <c r="E60" s="255"/>
       <c r="F60" s="39"/>
     </row>
     <row r="61" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="297"/>
+      <c r="A61" s="286"/>
       <c r="B61" s="36"/>
       <c r="C61" s="36"/>
       <c r="D61" s="36"/>
@@ -33416,21 +33416,21 @@
       <c r="F61" s="39"/>
     </row>
     <row r="62" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="298"/>
+      <c r="A62" s="287"/>
       <c r="B62" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="C62" s="301"/>
-      <c r="D62" s="299"/>
-      <c r="E62" s="300"/>
+      <c r="C62" s="253"/>
+      <c r="D62" s="254"/>
+      <c r="E62" s="255"/>
       <c r="F62" s="39"/>
     </row>
     <row r="63" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="302"/>
-      <c r="B63" s="303"/>
-      <c r="C63" s="303"/>
-      <c r="D63" s="303"/>
-      <c r="E63" s="304"/>
+      <c r="A63" s="288"/>
+      <c r="B63" s="289"/>
+      <c r="C63" s="289"/>
+      <c r="D63" s="289"/>
+      <c r="E63" s="290"/>
     </row>
     <row r="64" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="43" t="s">
@@ -33446,46 +33446,46 @@
       <c r="E64" s="44"/>
     </row>
     <row r="65" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="291"/>
-      <c r="B65" s="292"/>
-      <c r="C65" s="292"/>
-      <c r="D65" s="292"/>
-      <c r="E65" s="293"/>
+      <c r="A65" s="271"/>
+      <c r="B65" s="272"/>
+      <c r="C65" s="272"/>
+      <c r="D65" s="272"/>
+      <c r="E65" s="273"/>
     </row>
     <row r="66" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="265" t="s">
+      <c r="A66" s="250" t="s">
         <v>271</v>
       </c>
-      <c r="B66" s="223" t="s">
+      <c r="B66" s="226" t="s">
         <v>272</v>
       </c>
-      <c r="C66" s="224"/>
-      <c r="D66" s="224"/>
-      <c r="E66" s="225"/>
+      <c r="C66" s="227"/>
+      <c r="D66" s="227"/>
+      <c r="E66" s="228"/>
       <c r="F66" s="18"/>
     </row>
     <row r="67" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="271"/>
+      <c r="A67" s="251"/>
       <c r="B67" s="19"/>
       <c r="C67" s="12"/>
       <c r="F67" s="18"/>
     </row>
     <row r="68" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="266"/>
-      <c r="B68" s="223" t="s">
+      <c r="A68" s="252"/>
+      <c r="B68" s="226" t="s">
         <v>273</v>
       </c>
-      <c r="C68" s="224"/>
-      <c r="D68" s="224"/>
-      <c r="E68" s="225"/>
+      <c r="C68" s="227"/>
+      <c r="D68" s="227"/>
+      <c r="E68" s="228"/>
       <c r="F68" s="18"/>
     </row>
     <row r="69" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="291"/>
-      <c r="B69" s="292"/>
-      <c r="C69" s="292"/>
-      <c r="D69" s="292"/>
-      <c r="E69" s="293"/>
+      <c r="A69" s="271"/>
+      <c r="B69" s="272"/>
+      <c r="C69" s="272"/>
+      <c r="D69" s="272"/>
+      <c r="E69" s="273"/>
     </row>
     <row r="70" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="45" t="s">
@@ -33625,13 +33625,13 @@
       <c r="L81" s="18"/>
     </row>
     <row r="82" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="236" t="s">
+      <c r="A82" s="274" t="s">
         <v>285</v>
       </c>
-      <c r="B82" s="237"/>
-      <c r="C82" s="237"/>
-      <c r="D82" s="237"/>
-      <c r="E82" s="238"/>
+      <c r="B82" s="275"/>
+      <c r="C82" s="275"/>
+      <c r="D82" s="275"/>
+      <c r="E82" s="276"/>
       <c r="F82" s="18"/>
       <c r="G82" s="18"/>
       <c r="H82" s="55"/>
@@ -33641,13 +33641,13 @@
       <c r="L82" s="18"/>
     </row>
     <row r="83" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="294" t="s">
+      <c r="A83" s="277" t="s">
         <v>286</v>
       </c>
-      <c r="B83" s="282"/>
-      <c r="C83" s="283"/>
-      <c r="D83" s="283"/>
-      <c r="E83" s="284"/>
+      <c r="B83" s="279"/>
+      <c r="C83" s="280"/>
+      <c r="D83" s="280"/>
+      <c r="E83" s="281"/>
       <c r="F83" s="18"/>
       <c r="G83" s="18"/>
       <c r="H83" s="57"/>
@@ -33657,11 +33657,11 @@
       <c r="L83" s="18"/>
     </row>
     <row r="84" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="295"/>
-      <c r="B84" s="285"/>
-      <c r="C84" s="286"/>
-      <c r="D84" s="286"/>
-      <c r="E84" s="287"/>
+      <c r="A84" s="278"/>
+      <c r="B84" s="282"/>
+      <c r="C84" s="283"/>
+      <c r="D84" s="283"/>
+      <c r="E84" s="284"/>
       <c r="F84" s="18"/>
       <c r="G84" s="18"/>
       <c r="H84" s="55"/>
@@ -33682,15 +33682,15 @@
       <c r="L85" s="18"/>
     </row>
     <row r="86" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="274" t="s">
+      <c r="A86" s="299" t="s">
         <v>287</v>
       </c>
-      <c r="B86" s="275"/>
-      <c r="C86" s="276"/>
-      <c r="D86" s="277" t="s">
+      <c r="B86" s="300"/>
+      <c r="C86" s="301"/>
+      <c r="D86" s="302" t="s">
         <v>288</v>
       </c>
-      <c r="E86" s="278"/>
+      <c r="E86" s="303"/>
       <c r="F86" s="18"/>
       <c r="G86" s="18"/>
       <c r="H86" s="55"/>
@@ -33717,10 +33717,10 @@
       <c r="A88" s="65" t="s">
         <v>289</v>
       </c>
-      <c r="B88" s="279"/>
-      <c r="C88" s="280"/>
-      <c r="D88" s="280"/>
-      <c r="E88" s="281"/>
+      <c r="B88" s="304"/>
+      <c r="C88" s="305"/>
+      <c r="D88" s="305"/>
+      <c r="E88" s="306"/>
       <c r="F88" s="18"/>
       <c r="G88" s="18"/>
       <c r="H88" s="66"/>
@@ -33741,13 +33741,13 @@
       <c r="L89" s="18"/>
     </row>
     <row r="90" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="265" t="s">
+      <c r="A90" s="250" t="s">
         <v>290</v>
       </c>
-      <c r="B90" s="282"/>
-      <c r="C90" s="283"/>
-      <c r="D90" s="283"/>
-      <c r="E90" s="284"/>
+      <c r="B90" s="279"/>
+      <c r="C90" s="280"/>
+      <c r="D90" s="280"/>
+      <c r="E90" s="281"/>
       <c r="F90" s="18"/>
       <c r="G90" s="18"/>
       <c r="H90" s="55"/>
@@ -33757,11 +33757,11 @@
       <c r="L90" s="18"/>
     </row>
     <row r="91" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="266"/>
-      <c r="B91" s="285"/>
-      <c r="C91" s="286"/>
-      <c r="D91" s="286"/>
-      <c r="E91" s="287"/>
+      <c r="A91" s="252"/>
+      <c r="B91" s="282"/>
+      <c r="C91" s="283"/>
+      <c r="D91" s="283"/>
+      <c r="E91" s="284"/>
       <c r="F91" s="18"/>
       <c r="G91" s="18"/>
       <c r="H91" s="55"/>
@@ -33781,13 +33781,13 @@
       <c r="L92" s="18"/>
     </row>
     <row r="93" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="265" t="s">
+      <c r="A93" s="250" t="s">
         <v>291</v>
       </c>
-      <c r="B93" s="282"/>
-      <c r="C93" s="283"/>
-      <c r="D93" s="283"/>
-      <c r="E93" s="284"/>
+      <c r="B93" s="279"/>
+      <c r="C93" s="280"/>
+      <c r="D93" s="280"/>
+      <c r="E93" s="281"/>
       <c r="F93" s="18"/>
       <c r="G93" s="18"/>
       <c r="H93" s="66"/>
@@ -33797,11 +33797,11 @@
       <c r="L93" s="18"/>
     </row>
     <row r="94" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="271"/>
-      <c r="B94" s="288"/>
-      <c r="C94" s="289"/>
-      <c r="D94" s="289"/>
-      <c r="E94" s="290"/>
+      <c r="A94" s="251"/>
+      <c r="B94" s="307"/>
+      <c r="C94" s="308"/>
+      <c r="D94" s="308"/>
+      <c r="E94" s="309"/>
       <c r="F94" s="18"/>
       <c r="G94" s="18"/>
       <c r="H94" s="70"/>
@@ -33811,11 +33811,11 @@
       <c r="L94" s="18"/>
     </row>
     <row r="95" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="266"/>
-      <c r="B95" s="285"/>
-      <c r="C95" s="286"/>
-      <c r="D95" s="286"/>
-      <c r="E95" s="287"/>
+      <c r="A95" s="252"/>
+      <c r="B95" s="282"/>
+      <c r="C95" s="283"/>
+      <c r="D95" s="283"/>
+      <c r="E95" s="284"/>
       <c r="F95" s="18"/>
       <c r="G95" s="18"/>
       <c r="H95" s="18"/>
@@ -33836,13 +33836,13 @@
       <c r="L96" s="18"/>
     </row>
     <row r="97" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="236" t="s">
+      <c r="A97" s="274" t="s">
         <v>292</v>
       </c>
-      <c r="B97" s="237"/>
-      <c r="C97" s="237"/>
-      <c r="D97" s="237"/>
-      <c r="E97" s="238"/>
+      <c r="B97" s="275"/>
+      <c r="C97" s="275"/>
+      <c r="D97" s="275"/>
+      <c r="E97" s="276"/>
       <c r="F97" s="18"/>
       <c r="G97" s="18"/>
       <c r="H97" s="57"/>
@@ -33852,10 +33852,10 @@
       <c r="L97" s="18"/>
     </row>
     <row r="98" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="268" t="s">
+      <c r="A98" s="291" t="s">
         <v>293</v>
       </c>
-      <c r="B98" s="270"/>
+      <c r="B98" s="292"/>
       <c r="C98" s="12"/>
       <c r="D98" s="13" t="s">
         <v>294</v>
@@ -33887,10 +33887,10 @@
       <c r="A100" s="74" t="s">
         <v>295</v>
       </c>
-      <c r="B100" s="223"/>
-      <c r="C100" s="224"/>
-      <c r="D100" s="224"/>
-      <c r="E100" s="225"/>
+      <c r="B100" s="226"/>
+      <c r="C100" s="227"/>
+      <c r="D100" s="227"/>
+      <c r="E100" s="228"/>
       <c r="F100" s="18"/>
       <c r="G100" s="18"/>
       <c r="H100" s="55"/>
@@ -33917,10 +33917,10 @@
       <c r="A102" s="74" t="s">
         <v>296</v>
       </c>
-      <c r="B102" s="223"/>
-      <c r="C102" s="224"/>
-      <c r="D102" s="224"/>
-      <c r="E102" s="225"/>
+      <c r="B102" s="226"/>
+      <c r="C102" s="227"/>
+      <c r="D102" s="227"/>
+      <c r="E102" s="228"/>
       <c r="F102" s="18"/>
       <c r="G102" s="18"/>
       <c r="H102" s="55"/>
@@ -33972,13 +33972,13 @@
       <c r="H105" s="55"/>
     </row>
     <row r="106" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="265" t="s">
+      <c r="A106" s="250" t="s">
         <v>299</v>
       </c>
-      <c r="B106" s="259"/>
-      <c r="C106" s="260"/>
-      <c r="D106" s="260"/>
-      <c r="E106" s="260"/>
+      <c r="B106" s="293"/>
+      <c r="C106" s="294"/>
+      <c r="D106" s="294"/>
+      <c r="E106" s="294"/>
       <c r="F106" s="18"/>
       <c r="G106" s="18"/>
       <c r="H106" s="55"/>
@@ -33988,11 +33988,11 @@
       <c r="L106" s="18"/>
     </row>
     <row r="107" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="271"/>
-      <c r="B107" s="272"/>
-      <c r="C107" s="273"/>
-      <c r="D107" s="273"/>
-      <c r="E107" s="273"/>
+      <c r="A107" s="251"/>
+      <c r="B107" s="295"/>
+      <c r="C107" s="296"/>
+      <c r="D107" s="296"/>
+      <c r="E107" s="296"/>
       <c r="F107" s="18"/>
       <c r="G107" s="18"/>
       <c r="H107" s="55"/>
@@ -34002,11 +34002,11 @@
       <c r="L107" s="18"/>
     </row>
     <row r="108" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="266"/>
-      <c r="B108" s="262"/>
-      <c r="C108" s="263"/>
-      <c r="D108" s="263"/>
-      <c r="E108" s="263"/>
+      <c r="A108" s="252"/>
+      <c r="B108" s="297"/>
+      <c r="C108" s="298"/>
+      <c r="D108" s="298"/>
+      <c r="E108" s="298"/>
       <c r="F108" s="18"/>
       <c r="G108" s="18"/>
       <c r="H108" s="55"/>
@@ -34030,13 +34030,13 @@
       <c r="L109" s="18"/>
     </row>
     <row r="110" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="257" t="s">
+      <c r="A110" s="322" t="s">
         <v>300</v>
       </c>
-      <c r="B110" s="259"/>
-      <c r="C110" s="260"/>
-      <c r="D110" s="260"/>
-      <c r="E110" s="261"/>
+      <c r="B110" s="293"/>
+      <c r="C110" s="294"/>
+      <c r="D110" s="294"/>
+      <c r="E110" s="324"/>
       <c r="F110" s="18"/>
       <c r="G110" s="18"/>
       <c r="H110" s="55"/>
@@ -34046,11 +34046,11 @@
       <c r="L110" s="18"/>
     </row>
     <row r="111" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="258"/>
-      <c r="B111" s="262"/>
-      <c r="C111" s="263"/>
-      <c r="D111" s="263"/>
-      <c r="E111" s="264"/>
+      <c r="A111" s="323"/>
+      <c r="B111" s="297"/>
+      <c r="C111" s="298"/>
+      <c r="D111" s="298"/>
+      <c r="E111" s="325"/>
       <c r="F111" s="18"/>
       <c r="G111" s="18"/>
       <c r="H111" s="55"/>
@@ -34065,38 +34065,38 @@
       <c r="E112" s="12"/>
     </row>
     <row r="113" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="265" t="s">
+      <c r="A113" s="250" t="s">
         <v>301</v>
       </c>
-      <c r="B113" s="259"/>
-      <c r="C113" s="260"/>
-      <c r="D113" s="260"/>
-      <c r="E113" s="261"/>
+      <c r="B113" s="293"/>
+      <c r="C113" s="294"/>
+      <c r="D113" s="294"/>
+      <c r="E113" s="324"/>
     </row>
     <row r="114" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="266"/>
-      <c r="B114" s="262"/>
-      <c r="C114" s="263"/>
-      <c r="D114" s="263"/>
-      <c r="E114" s="264"/>
+      <c r="A114" s="252"/>
+      <c r="B114" s="297"/>
+      <c r="C114" s="298"/>
+      <c r="D114" s="298"/>
+      <c r="E114" s="325"/>
     </row>
     <row r="115" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="116" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="267" t="s">
+      <c r="A116" s="326" t="s">
         <v>302</v>
       </c>
-      <c r="B116" s="267"/>
-      <c r="C116" s="267"/>
-      <c r="D116" s="267"/>
-      <c r="E116" s="267"/>
+      <c r="B116" s="326"/>
+      <c r="C116" s="326"/>
+      <c r="D116" s="326"/>
+      <c r="E116" s="326"/>
       <c r="H116" s="78"/>
     </row>
     <row r="117" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="268" t="s">
+      <c r="A117" s="291" t="s">
         <v>303</v>
       </c>
-      <c r="B117" s="269"/>
-      <c r="C117" s="270"/>
+      <c r="B117" s="327"/>
+      <c r="C117" s="292"/>
       <c r="D117" s="13" t="s">
         <v>304</v>
       </c>
@@ -34104,11 +34104,11 @@
       <c r="H117" s="9"/>
     </row>
     <row r="118" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="248"/>
-      <c r="B118" s="249"/>
-      <c r="C118" s="249"/>
-      <c r="D118" s="249"/>
-      <c r="E118" s="250"/>
+      <c r="A118" s="310"/>
+      <c r="B118" s="311"/>
+      <c r="C118" s="311"/>
+      <c r="D118" s="311"/>
+      <c r="E118" s="312"/>
     </row>
     <row r="119" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="45" t="s">
@@ -34135,10 +34135,10 @@
       <c r="A121" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B121" s="223"/>
-      <c r="C121" s="224"/>
-      <c r="D121" s="224"/>
-      <c r="E121" s="225"/>
+      <c r="B121" s="226"/>
+      <c r="C121" s="227"/>
+      <c r="D121" s="227"/>
+      <c r="E121" s="228"/>
       <c r="H121" s="9"/>
     </row>
     <row r="122" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -34184,11 +34184,11 @@
       <c r="H125" s="9"/>
     </row>
     <row r="126" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="251"/>
-      <c r="B126" s="252"/>
-      <c r="C126" s="252"/>
-      <c r="D126" s="252"/>
-      <c r="E126" s="253"/>
+      <c r="A126" s="313"/>
+      <c r="B126" s="314"/>
+      <c r="C126" s="314"/>
+      <c r="D126" s="314"/>
+      <c r="E126" s="315"/>
     </row>
     <row r="127" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="45" t="s">
@@ -34215,10 +34215,10 @@
       <c r="A129" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B129" s="223"/>
-      <c r="C129" s="224"/>
-      <c r="D129" s="224"/>
-      <c r="E129" s="225"/>
+      <c r="B129" s="226"/>
+      <c r="C129" s="227"/>
+      <c r="D129" s="227"/>
+      <c r="E129" s="228"/>
       <c r="H129" s="9"/>
     </row>
     <row r="130" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -34264,11 +34264,11 @@
       <c r="H133" s="9"/>
     </row>
     <row r="134" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="242"/>
-      <c r="B134" s="243"/>
-      <c r="C134" s="243"/>
-      <c r="D134" s="243"/>
-      <c r="E134" s="244"/>
+      <c r="A134" s="316"/>
+      <c r="B134" s="317"/>
+      <c r="C134" s="317"/>
+      <c r="D134" s="317"/>
+      <c r="E134" s="318"/>
     </row>
     <row r="135" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="45" t="s">
@@ -34294,10 +34294,10 @@
       <c r="A137" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B137" s="254"/>
-      <c r="C137" s="255"/>
-      <c r="D137" s="255"/>
-      <c r="E137" s="256"/>
+      <c r="B137" s="319"/>
+      <c r="C137" s="320"/>
+      <c r="D137" s="320"/>
+      <c r="E137" s="321"/>
     </row>
     <row r="138" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="58"/>
@@ -34340,11 +34340,11 @@
       <c r="F141" s="18"/>
     </row>
     <row r="142" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="242"/>
-      <c r="B142" s="243"/>
-      <c r="C142" s="243"/>
-      <c r="D142" s="243"/>
-      <c r="E142" s="244"/>
+      <c r="A142" s="316"/>
+      <c r="B142" s="317"/>
+      <c r="C142" s="317"/>
+      <c r="D142" s="317"/>
+      <c r="E142" s="318"/>
     </row>
     <row r="143" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="45" t="s">
@@ -34370,10 +34370,10 @@
       <c r="A145" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B145" s="223"/>
-      <c r="C145" s="224"/>
-      <c r="D145" s="224"/>
-      <c r="E145" s="225"/>
+      <c r="B145" s="226"/>
+      <c r="C145" s="227"/>
+      <c r="D145" s="227"/>
+      <c r="E145" s="228"/>
     </row>
     <row r="146" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="69"/>
@@ -34679,13 +34679,13 @@
       <c r="E182" s="18"/>
     </row>
     <row r="183" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A183" s="245" t="s">
+      <c r="A183" s="256" t="s">
         <v>314</v>
       </c>
-      <c r="B183" s="246"/>
-      <c r="C183" s="246"/>
-      <c r="D183" s="246"/>
-      <c r="E183" s="247"/>
+      <c r="B183" s="257"/>
+      <c r="C183" s="257"/>
+      <c r="D183" s="257"/>
+      <c r="E183" s="258"/>
     </row>
     <row r="184" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="53" t="s">
@@ -34699,20 +34699,20 @@
       <c r="A185" s="83"/>
     </row>
     <row r="186" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="236" t="s">
+      <c r="A186" s="274" t="s">
         <v>317</v>
       </c>
-      <c r="B186" s="237"/>
-      <c r="C186" s="237"/>
-      <c r="D186" s="238"/>
+      <c r="B186" s="275"/>
+      <c r="C186" s="275"/>
+      <c r="D186" s="276"/>
     </row>
     <row r="187" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="232" t="s">
+      <c r="A187" s="331" t="s">
         <v>318</v>
       </c>
-      <c r="B187" s="233"/>
-      <c r="C187" s="233"/>
-      <c r="D187" s="234"/>
+      <c r="B187" s="332"/>
+      <c r="C187" s="332"/>
+      <c r="D187" s="333"/>
     </row>
     <row r="188" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="12"/>
@@ -34721,12 +34721,12 @@
       <c r="D188" s="12"/>
     </row>
     <row r="189" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="232" t="s">
+      <c r="A189" s="331" t="s">
         <v>319</v>
       </c>
-      <c r="B189" s="233"/>
-      <c r="C189" s="233"/>
-      <c r="D189" s="234"/>
+      <c r="B189" s="332"/>
+      <c r="C189" s="332"/>
+      <c r="D189" s="333"/>
     </row>
     <row r="190" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="12"/>
@@ -34738,9 +34738,9 @@
       <c r="A191" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B191" s="223"/>
-      <c r="C191" s="224"/>
-      <c r="D191" s="225"/>
+      <c r="B191" s="226"/>
+      <c r="C191" s="227"/>
+      <c r="D191" s="228"/>
     </row>
     <row r="192" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="85"/>
@@ -34749,20 +34749,20 @@
       <c r="D192" s="12"/>
     </row>
     <row r="193" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="239" t="s">
+      <c r="A193" s="328" t="s">
         <v>320</v>
       </c>
-      <c r="B193" s="240"/>
-      <c r="C193" s="240"/>
-      <c r="D193" s="241"/>
+      <c r="B193" s="329"/>
+      <c r="C193" s="329"/>
+      <c r="D193" s="330"/>
     </row>
     <row r="194" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="232" t="s">
+      <c r="A194" s="331" t="s">
         <v>321</v>
       </c>
-      <c r="B194" s="233"/>
-      <c r="C194" s="233"/>
-      <c r="D194" s="234"/>
+      <c r="B194" s="332"/>
+      <c r="C194" s="332"/>
+      <c r="D194" s="333"/>
     </row>
     <row r="195" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="85"/>
@@ -34774,9 +34774,9 @@
       <c r="A196" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B196" s="223"/>
-      <c r="C196" s="224"/>
-      <c r="D196" s="225"/>
+      <c r="B196" s="226"/>
+      <c r="C196" s="227"/>
+      <c r="D196" s="228"/>
     </row>
     <row r="197" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="12"/>
@@ -34785,20 +34785,20 @@
       <c r="D197" s="12"/>
     </row>
     <row r="198" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="236" t="s">
+      <c r="A198" s="274" t="s">
         <v>322</v>
       </c>
-      <c r="B198" s="237"/>
-      <c r="C198" s="237"/>
-      <c r="D198" s="238"/>
+      <c r="B198" s="275"/>
+      <c r="C198" s="275"/>
+      <c r="D198" s="276"/>
     </row>
     <row r="199" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="232" t="s">
+      <c r="A199" s="331" t="s">
         <v>323</v>
       </c>
-      <c r="B199" s="233"/>
-      <c r="C199" s="233"/>
-      <c r="D199" s="234"/>
+      <c r="B199" s="332"/>
+      <c r="C199" s="332"/>
+      <c r="D199" s="333"/>
     </row>
     <row r="200" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="86"/>
@@ -34810,9 +34810,9 @@
       <c r="A201" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B201" s="223"/>
-      <c r="C201" s="224"/>
-      <c r="D201" s="225"/>
+      <c r="B201" s="226"/>
+      <c r="C201" s="227"/>
+      <c r="D201" s="228"/>
     </row>
     <row r="202" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="12"/>
@@ -34821,20 +34821,20 @@
       <c r="D202" s="12"/>
     </row>
     <row r="203" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="236" t="s">
+      <c r="A203" s="274" t="s">
         <v>324</v>
       </c>
-      <c r="B203" s="237"/>
-      <c r="C203" s="237"/>
-      <c r="D203" s="238"/>
+      <c r="B203" s="275"/>
+      <c r="C203" s="275"/>
+      <c r="D203" s="276"/>
     </row>
     <row r="204" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="232" t="s">
+      <c r="A204" s="331" t="s">
         <v>325</v>
       </c>
-      <c r="B204" s="233"/>
-      <c r="C204" s="233"/>
-      <c r="D204" s="234"/>
+      <c r="B204" s="332"/>
+      <c r="C204" s="332"/>
+      <c r="D204" s="333"/>
     </row>
     <row r="205" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="85"/>
@@ -34843,12 +34843,12 @@
       <c r="D205" s="12"/>
     </row>
     <row r="206" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="232" t="s">
+      <c r="A206" s="331" t="s">
         <v>326</v>
       </c>
-      <c r="B206" s="233"/>
-      <c r="C206" s="233"/>
-      <c r="D206" s="234"/>
+      <c r="B206" s="332"/>
+      <c r="C206" s="332"/>
+      <c r="D206" s="333"/>
     </row>
     <row r="207" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="12"/>
@@ -34860,9 +34860,9 @@
       <c r="A208" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B208" s="223"/>
-      <c r="C208" s="224"/>
-      <c r="D208" s="225"/>
+      <c r="B208" s="226"/>
+      <c r="C208" s="227"/>
+      <c r="D208" s="228"/>
     </row>
     <row r="209" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="12"/>
@@ -34871,20 +34871,20 @@
       <c r="D209" s="12"/>
     </row>
     <row r="210" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="236" t="s">
+      <c r="A210" s="274" t="s">
         <v>327</v>
       </c>
-      <c r="B210" s="237"/>
-      <c r="C210" s="237"/>
-      <c r="D210" s="238"/>
+      <c r="B210" s="275"/>
+      <c r="C210" s="275"/>
+      <c r="D210" s="276"/>
     </row>
     <row r="211" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="232" t="s">
+      <c r="A211" s="331" t="s">
         <v>328</v>
       </c>
-      <c r="B211" s="233"/>
-      <c r="C211" s="233"/>
-      <c r="D211" s="234"/>
+      <c r="B211" s="332"/>
+      <c r="C211" s="332"/>
+      <c r="D211" s="333"/>
     </row>
     <row r="212" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="85"/>
@@ -34896,9 +34896,9 @@
       <c r="A213" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B213" s="223"/>
-      <c r="C213" s="224"/>
-      <c r="D213" s="225"/>
+      <c r="B213" s="226"/>
+      <c r="C213" s="227"/>
+      <c r="D213" s="228"/>
     </row>
     <row r="214" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="12"/>
@@ -34907,20 +34907,20 @@
       <c r="D214" s="12"/>
     </row>
     <row r="215" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="236" t="s">
+      <c r="A215" s="274" t="s">
         <v>329</v>
       </c>
-      <c r="B215" s="237"/>
-      <c r="C215" s="237"/>
-      <c r="D215" s="238"/>
+      <c r="B215" s="275"/>
+      <c r="C215" s="275"/>
+      <c r="D215" s="276"/>
     </row>
     <row r="216" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="232" t="s">
+      <c r="A216" s="331" t="s">
         <v>330</v>
       </c>
-      <c r="B216" s="233"/>
-      <c r="C216" s="233"/>
-      <c r="D216" s="234"/>
+      <c r="B216" s="332"/>
+      <c r="C216" s="332"/>
+      <c r="D216" s="333"/>
     </row>
     <row r="217" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="85"/>
@@ -34932,9 +34932,9 @@
       <c r="A218" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B218" s="223"/>
-      <c r="C218" s="224"/>
-      <c r="D218" s="225"/>
+      <c r="B218" s="226"/>
+      <c r="C218" s="227"/>
+      <c r="D218" s="228"/>
     </row>
     <row r="219" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="12"/>
@@ -34943,20 +34943,20 @@
       <c r="D219" s="12"/>
     </row>
     <row r="220" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="236" t="s">
+      <c r="A220" s="274" t="s">
         <v>331</v>
       </c>
-      <c r="B220" s="237"/>
-      <c r="C220" s="237"/>
-      <c r="D220" s="238"/>
+      <c r="B220" s="275"/>
+      <c r="C220" s="275"/>
+      <c r="D220" s="276"/>
     </row>
     <row r="221" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="232" t="s">
+      <c r="A221" s="331" t="s">
         <v>332</v>
       </c>
-      <c r="B221" s="233"/>
-      <c r="C221" s="233"/>
-      <c r="D221" s="234"/>
+      <c r="B221" s="332"/>
+      <c r="C221" s="332"/>
+      <c r="D221" s="333"/>
     </row>
     <row r="222" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="12"/>
@@ -34965,12 +34965,12 @@
       <c r="D222" s="12"/>
     </row>
     <row r="223" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="232" t="s">
+      <c r="A223" s="331" t="s">
         <v>333</v>
       </c>
-      <c r="B223" s="233"/>
-      <c r="C223" s="233"/>
-      <c r="D223" s="234"/>
+      <c r="B223" s="332"/>
+      <c r="C223" s="332"/>
+      <c r="D223" s="333"/>
     </row>
     <row r="224" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="85"/>
@@ -34982,9 +34982,9 @@
       <c r="A225" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B225" s="223"/>
-      <c r="C225" s="224"/>
-      <c r="D225" s="225"/>
+      <c r="B225" s="226"/>
+      <c r="C225" s="227"/>
+      <c r="D225" s="228"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="12"/>
@@ -34993,13 +34993,13 @@
       <c r="D226" s="12"/>
     </row>
     <row r="230" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A230" s="235" t="s">
+      <c r="A230" s="334" t="s">
         <v>334</v>
       </c>
-      <c r="B230" s="235"/>
-      <c r="C230" s="235"/>
-      <c r="D230" s="235"/>
-      <c r="E230" s="235"/>
+      <c r="B230" s="334"/>
+      <c r="C230" s="334"/>
+      <c r="D230" s="334"/>
+      <c r="E230" s="334"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="87"/>
@@ -35011,9 +35011,9 @@
       <c r="A232" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="B232" s="223"/>
-      <c r="C232" s="224"/>
-      <c r="D232" s="225"/>
+      <c r="B232" s="226"/>
+      <c r="C232" s="227"/>
+      <c r="D232" s="228"/>
     </row>
     <row r="233" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="11"/>
@@ -35025,9 +35025,9 @@
       <c r="A234" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="B234" s="223"/>
-      <c r="C234" s="224"/>
-      <c r="D234" s="225"/>
+      <c r="B234" s="226"/>
+      <c r="C234" s="227"/>
+      <c r="D234" s="228"/>
     </row>
     <row r="235" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="11"/>
@@ -35039,9 +35039,9 @@
       <c r="A236" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="B236" s="223"/>
-      <c r="C236" s="224"/>
-      <c r="D236" s="225"/>
+      <c r="B236" s="226"/>
+      <c r="C236" s="227"/>
+      <c r="D236" s="228"/>
     </row>
     <row r="237" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="11"/>
@@ -35053,9 +35053,9 @@
       <c r="A238" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="B238" s="223"/>
-      <c r="C238" s="224"/>
-      <c r="D238" s="225"/>
+      <c r="B238" s="226"/>
+      <c r="C238" s="227"/>
+      <c r="D238" s="228"/>
     </row>
     <row r="239" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="11"/>
@@ -35067,9 +35067,9 @@
       <c r="A240" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="B240" s="223"/>
-      <c r="C240" s="224"/>
-      <c r="D240" s="225"/>
+      <c r="B240" s="226"/>
+      <c r="C240" s="227"/>
+      <c r="D240" s="228"/>
     </row>
     <row r="241" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="11"/>
@@ -35081,9 +35081,9 @@
       <c r="A242" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="B242" s="223"/>
-      <c r="C242" s="224"/>
-      <c r="D242" s="225"/>
+      <c r="B242" s="226"/>
+      <c r="C242" s="227"/>
+      <c r="D242" s="228"/>
     </row>
     <row r="243" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="11"/>
@@ -35095,9 +35095,9 @@
       <c r="A244" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="B244" s="223"/>
-      <c r="C244" s="224"/>
-      <c r="D244" s="225"/>
+      <c r="B244" s="226"/>
+      <c r="C244" s="227"/>
+      <c r="D244" s="228"/>
     </row>
     <row r="245" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="11"/>
@@ -35109,9 +35109,9 @@
       <c r="A246" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="B246" s="223"/>
-      <c r="C246" s="224"/>
-      <c r="D246" s="225"/>
+      <c r="B246" s="226"/>
+      <c r="C246" s="227"/>
+      <c r="D246" s="228"/>
     </row>
     <row r="247" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="11"/>
@@ -35123,9 +35123,9 @@
       <c r="A248" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B248" s="223"/>
-      <c r="C248" s="224"/>
-      <c r="D248" s="225"/>
+      <c r="B248" s="226"/>
+      <c r="C248" s="227"/>
+      <c r="D248" s="228"/>
     </row>
     <row r="249" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="11"/>
@@ -35137,9 +35137,9 @@
       <c r="A250" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="B250" s="223"/>
-      <c r="C250" s="224"/>
-      <c r="D250" s="225"/>
+      <c r="B250" s="226"/>
+      <c r="C250" s="227"/>
+      <c r="D250" s="228"/>
     </row>
     <row r="251" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="11"/>
@@ -35151,9 +35151,9 @@
       <c r="A252" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B252" s="223"/>
-      <c r="C252" s="224"/>
-      <c r="D252" s="225"/>
+      <c r="B252" s="226"/>
+      <c r="C252" s="227"/>
+      <c r="D252" s="228"/>
     </row>
     <row r="253" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="11"/>
@@ -35165,9 +35165,9 @@
       <c r="A254" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="B254" s="223"/>
-      <c r="C254" s="224"/>
-      <c r="D254" s="225"/>
+      <c r="B254" s="226"/>
+      <c r="C254" s="227"/>
+      <c r="D254" s="228"/>
     </row>
     <row r="255" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="11"/>
@@ -35179,9 +35179,9 @@
       <c r="A256" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="B256" s="223"/>
-      <c r="C256" s="224"/>
-      <c r="D256" s="225"/>
+      <c r="B256" s="226"/>
+      <c r="C256" s="227"/>
+      <c r="D256" s="228"/>
     </row>
     <row r="257" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="11"/>
@@ -35193,9 +35193,9 @@
       <c r="A258" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="B258" s="223"/>
-      <c r="C258" s="224"/>
-      <c r="D258" s="225"/>
+      <c r="B258" s="226"/>
+      <c r="C258" s="227"/>
+      <c r="D258" s="228"/>
     </row>
     <row r="259" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="11"/>
@@ -35207,9 +35207,9 @@
       <c r="A260" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="B260" s="223"/>
-      <c r="C260" s="224"/>
-      <c r="D260" s="225"/>
+      <c r="B260" s="226"/>
+      <c r="C260" s="227"/>
+      <c r="D260" s="228"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="12"/>
@@ -35266,13 +35266,13 @@
       <c r="D269" s="12"/>
     </row>
     <row r="274" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A274" s="226" t="s">
+      <c r="A274" s="244" t="s">
         <v>349</v>
       </c>
-      <c r="B274" s="227"/>
-      <c r="C274" s="227"/>
-      <c r="D274" s="227"/>
-      <c r="E274" s="228"/>
+      <c r="B274" s="245"/>
+      <c r="C274" s="245"/>
+      <c r="D274" s="245"/>
+      <c r="E274" s="246"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="88"/>
@@ -35281,102 +35281,210 @@
       <c r="D275" s="12"/>
     </row>
     <row r="276" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="229" t="s">
+      <c r="A276" s="247" t="s">
         <v>350</v>
       </c>
-      <c r="B276" s="230"/>
-      <c r="C276" s="230"/>
-      <c r="D276" s="231"/>
+      <c r="B276" s="248"/>
+      <c r="C276" s="248"/>
+      <c r="D276" s="249"/>
       <c r="E276" s="89" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="223"/>
-      <c r="B277" s="224"/>
-      <c r="C277" s="224"/>
-      <c r="D277" s="225"/>
+      <c r="A277" s="226"/>
+      <c r="B277" s="227"/>
+      <c r="C277" s="227"/>
+      <c r="D277" s="228"/>
       <c r="E277" s="51"/>
     </row>
     <row r="278" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="220"/>
-      <c r="B278" s="221"/>
-      <c r="C278" s="221"/>
-      <c r="D278" s="222"/>
+      <c r="A278" s="335"/>
+      <c r="B278" s="336"/>
+      <c r="C278" s="336"/>
+      <c r="D278" s="337"/>
       <c r="E278" s="51"/>
     </row>
     <row r="279" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="220"/>
-      <c r="B279" s="221"/>
-      <c r="C279" s="221"/>
-      <c r="D279" s="222"/>
+      <c r="A279" s="335"/>
+      <c r="B279" s="336"/>
+      <c r="C279" s="336"/>
+      <c r="D279" s="337"/>
       <c r="E279" s="51"/>
     </row>
     <row r="280" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="220"/>
-      <c r="B280" s="221"/>
-      <c r="C280" s="221"/>
-      <c r="D280" s="222"/>
+      <c r="A280" s="335"/>
+      <c r="B280" s="336"/>
+      <c r="C280" s="336"/>
+      <c r="D280" s="337"/>
       <c r="E280" s="51"/>
     </row>
     <row r="281" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="220"/>
-      <c r="B281" s="221"/>
-      <c r="C281" s="221"/>
-      <c r="D281" s="222"/>
+      <c r="A281" s="335"/>
+      <c r="B281" s="336"/>
+      <c r="C281" s="336"/>
+      <c r="D281" s="337"/>
       <c r="E281" s="51"/>
     </row>
     <row r="282" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="220"/>
-      <c r="B282" s="221"/>
-      <c r="C282" s="221"/>
-      <c r="D282" s="222"/>
+      <c r="A282" s="335"/>
+      <c r="B282" s="336"/>
+      <c r="C282" s="336"/>
+      <c r="D282" s="337"/>
       <c r="E282" s="51"/>
     </row>
     <row r="283" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="220"/>
-      <c r="B283" s="221"/>
-      <c r="C283" s="221"/>
-      <c r="D283" s="222"/>
+      <c r="A283" s="335"/>
+      <c r="B283" s="336"/>
+      <c r="C283" s="336"/>
+      <c r="D283" s="337"/>
       <c r="E283" s="51"/>
     </row>
     <row r="284" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="220"/>
-      <c r="B284" s="221"/>
-      <c r="C284" s="221"/>
-      <c r="D284" s="222"/>
+      <c r="A284" s="335"/>
+      <c r="B284" s="336"/>
+      <c r="C284" s="336"/>
+      <c r="D284" s="337"/>
       <c r="E284" s="51"/>
     </row>
     <row r="285" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="220"/>
-      <c r="B285" s="221"/>
-      <c r="C285" s="221"/>
-      <c r="D285" s="222"/>
+      <c r="A285" s="335"/>
+      <c r="B285" s="336"/>
+      <c r="C285" s="336"/>
+      <c r="D285" s="337"/>
       <c r="E285" s="51"/>
     </row>
     <row r="286" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="220"/>
-      <c r="B286" s="221"/>
-      <c r="C286" s="221"/>
-      <c r="D286" s="222"/>
+      <c r="A286" s="335"/>
+      <c r="B286" s="336"/>
+      <c r="C286" s="336"/>
+      <c r="D286" s="337"/>
       <c r="E286" s="51"/>
     </row>
     <row r="287" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="220"/>
-      <c r="B287" s="221"/>
-      <c r="C287" s="221"/>
-      <c r="D287" s="222"/>
+      <c r="A287" s="335"/>
+      <c r="B287" s="336"/>
+      <c r="C287" s="336"/>
+      <c r="D287" s="337"/>
       <c r="E287" s="51"/>
     </row>
     <row r="288" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="220"/>
-      <c r="B288" s="221"/>
-      <c r="C288" s="221"/>
-      <c r="D288" s="222"/>
+      <c r="A288" s="335"/>
+      <c r="B288" s="336"/>
+      <c r="C288" s="336"/>
+      <c r="D288" s="337"/>
       <c r="E288" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="122">
+    <mergeCell ref="A286:D286"/>
+    <mergeCell ref="A287:D287"/>
+    <mergeCell ref="A288:D288"/>
+    <mergeCell ref="A280:D280"/>
+    <mergeCell ref="A281:D281"/>
+    <mergeCell ref="A282:D282"/>
+    <mergeCell ref="A283:D283"/>
+    <mergeCell ref="A284:D284"/>
+    <mergeCell ref="A285:D285"/>
+    <mergeCell ref="B260:D260"/>
+    <mergeCell ref="A274:E274"/>
+    <mergeCell ref="A276:D276"/>
+    <mergeCell ref="A277:D277"/>
+    <mergeCell ref="A278:D278"/>
+    <mergeCell ref="A279:D279"/>
+    <mergeCell ref="B248:D248"/>
+    <mergeCell ref="B250:D250"/>
+    <mergeCell ref="B252:D252"/>
+    <mergeCell ref="B254:D254"/>
+    <mergeCell ref="B256:D256"/>
+    <mergeCell ref="B258:D258"/>
+    <mergeCell ref="B236:D236"/>
+    <mergeCell ref="B238:D238"/>
+    <mergeCell ref="B240:D240"/>
+    <mergeCell ref="B242:D242"/>
+    <mergeCell ref="B244:D244"/>
+    <mergeCell ref="B246:D246"/>
+    <mergeCell ref="A221:D221"/>
+    <mergeCell ref="A223:D223"/>
+    <mergeCell ref="B225:D225"/>
+    <mergeCell ref="A230:E230"/>
+    <mergeCell ref="B232:D232"/>
+    <mergeCell ref="B234:D234"/>
+    <mergeCell ref="A211:D211"/>
+    <mergeCell ref="B213:D213"/>
+    <mergeCell ref="A215:D215"/>
+    <mergeCell ref="A216:D216"/>
+    <mergeCell ref="B218:D218"/>
+    <mergeCell ref="A220:D220"/>
+    <mergeCell ref="B201:D201"/>
+    <mergeCell ref="A203:D203"/>
+    <mergeCell ref="A204:D204"/>
+    <mergeCell ref="A206:D206"/>
+    <mergeCell ref="B208:D208"/>
+    <mergeCell ref="A210:D210"/>
+    <mergeCell ref="B191:D191"/>
+    <mergeCell ref="A193:D193"/>
+    <mergeCell ref="A194:D194"/>
+    <mergeCell ref="B196:D196"/>
+    <mergeCell ref="A198:D198"/>
+    <mergeCell ref="A199:D199"/>
+    <mergeCell ref="A142:E142"/>
+    <mergeCell ref="B145:E145"/>
+    <mergeCell ref="A183:E183"/>
+    <mergeCell ref="A186:D186"/>
+    <mergeCell ref="A187:D187"/>
+    <mergeCell ref="A189:D189"/>
+    <mergeCell ref="A118:E118"/>
+    <mergeCell ref="B121:E121"/>
+    <mergeCell ref="A126:E126"/>
+    <mergeCell ref="B129:E129"/>
+    <mergeCell ref="A134:E134"/>
+    <mergeCell ref="B137:E137"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:E111"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:E114"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A97:E97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="B102:E102"/>
+    <mergeCell ref="A106:A108"/>
+    <mergeCell ref="B106:E108"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:E91"/>
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="B93:E95"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:E84"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B49:E49"/>
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="B19:E19"/>
@@ -35391,114 +35499,6 @@
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B15:E15"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:E84"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="A97:E97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="B100:E100"/>
-    <mergeCell ref="B102:E102"/>
-    <mergeCell ref="A106:A108"/>
-    <mergeCell ref="B106:E108"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:E91"/>
-    <mergeCell ref="A93:A95"/>
-    <mergeCell ref="B93:E95"/>
-    <mergeCell ref="A118:E118"/>
-    <mergeCell ref="B121:E121"/>
-    <mergeCell ref="A126:E126"/>
-    <mergeCell ref="B129:E129"/>
-    <mergeCell ref="A134:E134"/>
-    <mergeCell ref="B137:E137"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B110:E111"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:E114"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="B191:D191"/>
-    <mergeCell ref="A193:D193"/>
-    <mergeCell ref="A194:D194"/>
-    <mergeCell ref="B196:D196"/>
-    <mergeCell ref="A198:D198"/>
-    <mergeCell ref="A199:D199"/>
-    <mergeCell ref="A142:E142"/>
-    <mergeCell ref="B145:E145"/>
-    <mergeCell ref="A183:E183"/>
-    <mergeCell ref="A186:D186"/>
-    <mergeCell ref="A187:D187"/>
-    <mergeCell ref="A189:D189"/>
-    <mergeCell ref="A211:D211"/>
-    <mergeCell ref="B213:D213"/>
-    <mergeCell ref="A215:D215"/>
-    <mergeCell ref="A216:D216"/>
-    <mergeCell ref="B218:D218"/>
-    <mergeCell ref="A220:D220"/>
-    <mergeCell ref="B201:D201"/>
-    <mergeCell ref="A203:D203"/>
-    <mergeCell ref="A204:D204"/>
-    <mergeCell ref="A206:D206"/>
-    <mergeCell ref="B208:D208"/>
-    <mergeCell ref="A210:D210"/>
-    <mergeCell ref="B236:D236"/>
-    <mergeCell ref="B238:D238"/>
-    <mergeCell ref="B240:D240"/>
-    <mergeCell ref="B242:D242"/>
-    <mergeCell ref="B244:D244"/>
-    <mergeCell ref="B246:D246"/>
-    <mergeCell ref="A221:D221"/>
-    <mergeCell ref="A223:D223"/>
-    <mergeCell ref="B225:D225"/>
-    <mergeCell ref="A230:E230"/>
-    <mergeCell ref="B232:D232"/>
-    <mergeCell ref="B234:D234"/>
-    <mergeCell ref="B260:D260"/>
-    <mergeCell ref="A274:E274"/>
-    <mergeCell ref="A276:D276"/>
-    <mergeCell ref="A277:D277"/>
-    <mergeCell ref="A278:D278"/>
-    <mergeCell ref="A279:D279"/>
-    <mergeCell ref="B248:D248"/>
-    <mergeCell ref="B250:D250"/>
-    <mergeCell ref="B252:D252"/>
-    <mergeCell ref="B254:D254"/>
-    <mergeCell ref="B256:D256"/>
-    <mergeCell ref="B258:D258"/>
-    <mergeCell ref="A286:D286"/>
-    <mergeCell ref="A287:D287"/>
-    <mergeCell ref="A288:D288"/>
-    <mergeCell ref="A280:D280"/>
-    <mergeCell ref="A281:D281"/>
-    <mergeCell ref="A282:D282"/>
-    <mergeCell ref="A283:D283"/>
-    <mergeCell ref="A284:D284"/>
-    <mergeCell ref="A285:D285"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -39458,13 +39458,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="226" t="s">
+      <c r="A1" s="244" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="227"/>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="228"/>
+      <c r="B1" s="245"/>
+      <c r="C1" s="245"/>
+      <c r="D1" s="245"/>
+      <c r="E1" s="246"/>
       <c r="H1" s="9" t="s">
         <v>415</v>
       </c>
@@ -39482,10 +39482,10 @@
       <c r="A3" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="223"/>
-      <c r="C3" s="224"/>
-      <c r="D3" s="224"/>
-      <c r="E3" s="225"/>
+      <c r="B3" s="226"/>
+      <c r="C3" s="227"/>
+      <c r="D3" s="227"/>
+      <c r="E3" s="228"/>
       <c r="H3" s="9" t="s">
         <v>417</v>
       </c>
@@ -39607,11 +39607,11 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="229" t="s">
+      <c r="A13" s="247" t="s">
         <v>236</v>
       </c>
-      <c r="B13" s="230"/>
-      <c r="C13" s="231"/>
+      <c r="B13" s="248"/>
+      <c r="C13" s="249"/>
       <c r="D13" s="17" t="s">
         <v>237</v>
       </c>
@@ -39624,25 +39624,25 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="317"/>
-      <c r="B14" s="318"/>
-      <c r="C14" s="318"/>
-      <c r="D14" s="318"/>
-      <c r="E14" s="319"/>
+      <c r="A14" s="220"/>
+      <c r="B14" s="221"/>
+      <c r="C14" s="221"/>
+      <c r="D14" s="221"/>
+      <c r="E14" s="222"/>
       <c r="I14" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="257" t="s">
+      <c r="A15" s="322" t="s">
         <v>426</v>
       </c>
-      <c r="B15" s="301" t="s">
+      <c r="B15" s="253" t="s">
         <v>239</v>
       </c>
-      <c r="C15" s="299"/>
-      <c r="D15" s="299"/>
-      <c r="E15" s="300"/>
+      <c r="C15" s="254"/>
+      <c r="D15" s="254"/>
+      <c r="E15" s="255"/>
       <c r="H15" s="101" t="s">
         <v>254</v>
       </c>
@@ -39651,7 +39651,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="348"/>
+      <c r="A16" s="338"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
@@ -39661,13 +39661,13 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="258"/>
-      <c r="B17" s="301" t="s">
+      <c r="A17" s="323"/>
+      <c r="B17" s="253" t="s">
         <v>240</v>
       </c>
-      <c r="C17" s="299"/>
-      <c r="D17" s="299"/>
-      <c r="E17" s="300"/>
+      <c r="C17" s="254"/>
+      <c r="D17" s="254"/>
+      <c r="E17" s="255"/>
       <c r="H17" s="101" t="s">
         <v>257</v>
       </c>
@@ -39676,11 +39676,11 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="317"/>
-      <c r="B18" s="318"/>
-      <c r="C18" s="318"/>
-      <c r="D18" s="318"/>
-      <c r="E18" s="319"/>
+      <c r="A18" s="220"/>
+      <c r="B18" s="221"/>
+      <c r="C18" s="221"/>
+      <c r="D18" s="221"/>
+      <c r="E18" s="222"/>
       <c r="I18" t="s">
         <v>353</v>
       </c>
@@ -39708,11 +39708,11 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="320"/>
-      <c r="B20" s="321"/>
-      <c r="C20" s="321"/>
-      <c r="D20" s="321"/>
-      <c r="E20" s="322"/>
+      <c r="A20" s="223"/>
+      <c r="B20" s="224"/>
+      <c r="C20" s="224"/>
+      <c r="D20" s="224"/>
+      <c r="E20" s="225"/>
       <c r="I20" t="s">
         <v>353</v>
       </c>
@@ -39721,10 +39721,10 @@
       <c r="A21" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="B21" s="223"/>
-      <c r="C21" s="224"/>
-      <c r="D21" s="224"/>
-      <c r="E21" s="225"/>
+      <c r="B21" s="226"/>
+      <c r="C21" s="227"/>
+      <c r="D21" s="227"/>
+      <c r="E21" s="228"/>
       <c r="H21" s="9" t="s">
         <v>236</v>
       </c>
@@ -39746,10 +39746,10 @@
       <c r="A23" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="B23" s="349"/>
-      <c r="C23" s="350"/>
-      <c r="D23" s="350"/>
-      <c r="E23" s="351"/>
+      <c r="B23" s="339"/>
+      <c r="C23" s="340"/>
+      <c r="D23" s="340"/>
+      <c r="E23" s="341"/>
       <c r="H23" s="9" t="s">
         <v>432</v>
       </c>
@@ -39768,13 +39768,13 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="311" t="s">
+      <c r="A25" s="265" t="s">
         <v>248</v>
       </c>
-      <c r="B25" s="312"/>
-      <c r="C25" s="312"/>
-      <c r="D25" s="312"/>
-      <c r="E25" s="313"/>
+      <c r="B25" s="266"/>
+      <c r="C25" s="266"/>
+      <c r="D25" s="266"/>
+      <c r="E25" s="267"/>
       <c r="I25" t="s">
         <v>353</v>
       </c>
@@ -39825,13 +39825,13 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="311" t="s">
+      <c r="A30" s="265" t="s">
         <v>253</v>
       </c>
-      <c r="B30" s="312"/>
-      <c r="C30" s="312"/>
-      <c r="D30" s="312"/>
-      <c r="E30" s="313"/>
+      <c r="B30" s="266"/>
+      <c r="C30" s="266"/>
+      <c r="D30" s="266"/>
+      <c r="E30" s="267"/>
       <c r="I30" t="s">
         <v>353</v>
       </c>
@@ -39879,13 +39879,13 @@
       <c r="E34" s="12"/>
     </row>
     <row r="35" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="311" t="s">
+      <c r="A35" s="265" t="s">
         <v>254</v>
       </c>
-      <c r="B35" s="312"/>
-      <c r="C35" s="312"/>
-      <c r="D35" s="312"/>
-      <c r="E35" s="313"/>
+      <c r="B35" s="266"/>
+      <c r="C35" s="266"/>
+      <c r="D35" s="266"/>
+      <c r="E35" s="267"/>
       <c r="I35" t="s">
         <v>353</v>
       </c>
@@ -39919,13 +39919,13 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="311" t="s">
+      <c r="A38" s="265" t="s">
         <v>257</v>
       </c>
-      <c r="B38" s="312"/>
-      <c r="C38" s="312"/>
-      <c r="D38" s="312"/>
-      <c r="E38" s="313"/>
+      <c r="B38" s="266"/>
+      <c r="C38" s="266"/>
+      <c r="D38" s="266"/>
+      <c r="E38" s="267"/>
       <c r="I38" t="s">
         <v>353</v>
       </c>
@@ -39955,22 +39955,22 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="305" t="s">
+      <c r="A41" s="259" t="s">
         <v>258</v>
       </c>
-      <c r="B41" s="314" t="s">
+      <c r="B41" s="268" t="s">
         <v>259</v>
       </c>
-      <c r="C41" s="315"/>
-      <c r="D41" s="315"/>
-      <c r="E41" s="316"/>
+      <c r="C41" s="269"/>
+      <c r="D41" s="269"/>
+      <c r="E41" s="270"/>
       <c r="F41" s="102"/>
       <c r="I41" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="306"/>
+      <c r="A42" s="260"/>
       <c r="B42" s="29"/>
       <c r="C42" s="30"/>
       <c r="D42" s="30"/>
@@ -39981,13 +39981,13 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="307"/>
-      <c r="B43" s="314" t="s">
+      <c r="A43" s="261"/>
+      <c r="B43" s="268" t="s">
         <v>260</v>
       </c>
-      <c r="C43" s="315"/>
-      <c r="D43" s="315"/>
-      <c r="E43" s="316"/>
+      <c r="C43" s="269"/>
+      <c r="D43" s="269"/>
+      <c r="E43" s="270"/>
       <c r="F43" s="102"/>
       <c r="H43" s="9" t="s">
         <v>434</v>
@@ -40004,46 +40004,46 @@
       <c r="E44" s="105"/>
     </row>
     <row r="45" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="296" t="s">
+      <c r="A45" s="285" t="s">
         <v>435</v>
       </c>
-      <c r="B45" s="339"/>
-      <c r="C45" s="340"/>
-      <c r="D45" s="340"/>
-      <c r="E45" s="341"/>
+      <c r="B45" s="342"/>
+      <c r="C45" s="343"/>
+      <c r="D45" s="343"/>
+      <c r="E45" s="344"/>
       <c r="H45" s="106" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="297"/>
-      <c r="B46" s="342"/>
-      <c r="C46" s="343"/>
-      <c r="D46" s="343"/>
-      <c r="E46" s="344"/>
+      <c r="A46" s="286"/>
+      <c r="B46" s="345"/>
+      <c r="C46" s="346"/>
+      <c r="D46" s="346"/>
+      <c r="E46" s="347"/>
       <c r="H46" s="106" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="298"/>
-      <c r="B47" s="345"/>
-      <c r="C47" s="346"/>
-      <c r="D47" s="346"/>
-      <c r="E47" s="347"/>
+      <c r="A47" s="287"/>
+      <c r="B47" s="348"/>
+      <c r="C47" s="349"/>
+      <c r="D47" s="349"/>
+      <c r="E47" s="350"/>
       <c r="H47" s="106" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="245" t="s">
+      <c r="A49" s="256" t="s">
         <v>261</v>
       </c>
-      <c r="B49" s="246"/>
-      <c r="C49" s="246"/>
-      <c r="D49" s="246"/>
-      <c r="E49" s="247"/>
+      <c r="B49" s="257"/>
+      <c r="C49" s="257"/>
+      <c r="D49" s="257"/>
+      <c r="E49" s="258"/>
       <c r="H49" s="106" t="s">
         <v>436</v>
       </c>
@@ -40054,15 +40054,15 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="296" t="s">
+      <c r="A51" s="285" t="s">
         <v>266</v>
       </c>
-      <c r="B51" s="299" t="s">
+      <c r="B51" s="254" t="s">
         <v>267</v>
       </c>
-      <c r="C51" s="299"/>
-      <c r="D51" s="299"/>
-      <c r="E51" s="300"/>
+      <c r="C51" s="254"/>
+      <c r="D51" s="254"/>
+      <c r="E51" s="255"/>
       <c r="H51" s="106" t="s">
         <v>375</v>
       </c>
@@ -40071,7 +40071,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="297"/>
+      <c r="A52" s="286"/>
       <c r="B52" s="33"/>
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
@@ -40081,20 +40081,20 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="297"/>
-      <c r="B53" s="299" t="s">
+      <c r="A53" s="286"/>
+      <c r="B53" s="254" t="s">
         <v>268</v>
       </c>
-      <c r="C53" s="299"/>
-      <c r="D53" s="299"/>
-      <c r="E53" s="300"/>
+      <c r="C53" s="254"/>
+      <c r="D53" s="254"/>
+      <c r="E53" s="255"/>
       <c r="F53" s="39"/>
       <c r="H53" s="106" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="297"/>
+      <c r="A54" s="286"/>
       <c r="B54" s="36"/>
       <c r="C54" s="107"/>
       <c r="D54" s="107"/>
@@ -40102,21 +40102,21 @@
       <c r="F54" s="39"/>
     </row>
     <row r="55" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="298"/>
-      <c r="B55" s="301" t="s">
+      <c r="A55" s="287"/>
+      <c r="B55" s="253" t="s">
         <v>437</v>
       </c>
-      <c r="C55" s="299"/>
-      <c r="D55" s="299"/>
-      <c r="E55" s="300"/>
+      <c r="C55" s="254"/>
+      <c r="D55" s="254"/>
+      <c r="E55" s="255"/>
       <c r="F55" s="39"/>
     </row>
     <row r="56" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="302"/>
-      <c r="B56" s="303"/>
-      <c r="C56" s="303"/>
-      <c r="D56" s="303"/>
-      <c r="E56" s="304"/>
+      <c r="A56" s="288"/>
+      <c r="B56" s="289"/>
+      <c r="C56" s="289"/>
+      <c r="D56" s="289"/>
+      <c r="E56" s="290"/>
     </row>
     <row r="57" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="43" t="s">
@@ -40136,25 +40136,25 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="291"/>
-      <c r="B58" s="292"/>
-      <c r="C58" s="292"/>
-      <c r="D58" s="292"/>
-      <c r="E58" s="293"/>
+      <c r="A58" s="271"/>
+      <c r="B58" s="272"/>
+      <c r="C58" s="272"/>
+      <c r="D58" s="272"/>
+      <c r="E58" s="273"/>
       <c r="I58" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="265" t="s">
+      <c r="A59" s="250" t="s">
         <v>271</v>
       </c>
-      <c r="B59" s="223" t="s">
+      <c r="B59" s="226" t="s">
         <v>439</v>
       </c>
-      <c r="C59" s="224"/>
-      <c r="D59" s="224"/>
-      <c r="E59" s="225"/>
+      <c r="C59" s="227"/>
+      <c r="D59" s="227"/>
+      <c r="E59" s="228"/>
       <c r="F59" s="18"/>
       <c r="H59" s="110" t="s">
         <v>275</v>
@@ -40164,7 +40164,7 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="271"/>
+      <c r="A60" s="251"/>
       <c r="B60" s="19"/>
       <c r="C60" s="12"/>
       <c r="F60" s="18"/>
@@ -40173,13 +40173,13 @@
       </c>
     </row>
     <row r="61" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="266"/>
-      <c r="B61" s="223" t="s">
+      <c r="A61" s="252"/>
+      <c r="B61" s="226" t="s">
         <v>440</v>
       </c>
-      <c r="C61" s="224"/>
-      <c r="D61" s="224"/>
-      <c r="E61" s="225"/>
+      <c r="C61" s="227"/>
+      <c r="D61" s="227"/>
+      <c r="E61" s="228"/>
       <c r="F61" s="18"/>
       <c r="H61" s="9" t="s">
         <v>441</v>
@@ -40189,11 +40189,11 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="291"/>
-      <c r="B62" s="292"/>
-      <c r="C62" s="292"/>
-      <c r="D62" s="292"/>
-      <c r="E62" s="293"/>
+      <c r="A62" s="271"/>
+      <c r="B62" s="272"/>
+      <c r="C62" s="272"/>
+      <c r="D62" s="272"/>
+      <c r="E62" s="273"/>
       <c r="I62" t="s">
         <v>353</v>
       </c>
@@ -40323,35 +40323,35 @@
       <c r="A74" s="9"/>
     </row>
     <row r="75" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="236" t="s">
+      <c r="A75" s="274" t="s">
         <v>285</v>
       </c>
-      <c r="B75" s="237"/>
-      <c r="C75" s="237"/>
-      <c r="D75" s="237"/>
-      <c r="E75" s="238"/>
+      <c r="B75" s="275"/>
+      <c r="C75" s="275"/>
+      <c r="D75" s="275"/>
+      <c r="E75" s="276"/>
       <c r="H75" s="9" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="294" t="s">
+      <c r="A76" s="277" t="s">
         <v>286</v>
       </c>
-      <c r="B76" s="282"/>
-      <c r="C76" s="283"/>
-      <c r="D76" s="283"/>
-      <c r="E76" s="284"/>
+      <c r="B76" s="279"/>
+      <c r="C76" s="280"/>
+      <c r="D76" s="280"/>
+      <c r="E76" s="281"/>
       <c r="H76" s="78" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="295"/>
-      <c r="B77" s="285"/>
-      <c r="C77" s="286"/>
-      <c r="D77" s="286"/>
-      <c r="E77" s="287"/>
+      <c r="A77" s="278"/>
+      <c r="B77" s="282"/>
+      <c r="C77" s="283"/>
+      <c r="D77" s="283"/>
+      <c r="E77" s="284"/>
       <c r="H77" s="9" t="s">
         <v>286</v>
       </c>
@@ -40364,15 +40364,15 @@
       </c>
     </row>
     <row r="79" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="274" t="s">
+      <c r="A79" s="299" t="s">
         <v>287</v>
       </c>
-      <c r="B79" s="275"/>
-      <c r="C79" s="276"/>
-      <c r="D79" s="277" t="s">
+      <c r="B79" s="300"/>
+      <c r="C79" s="301"/>
+      <c r="D79" s="302" t="s">
         <v>288</v>
       </c>
-      <c r="E79" s="278"/>
+      <c r="E79" s="303"/>
       <c r="H79" s="9" t="s">
         <v>448</v>
       </c>
@@ -40388,10 +40388,10 @@
       <c r="A81" s="65" t="s">
         <v>373</v>
       </c>
-      <c r="B81" s="279"/>
-      <c r="C81" s="280"/>
-      <c r="D81" s="280"/>
-      <c r="E81" s="281"/>
+      <c r="B81" s="304"/>
+      <c r="C81" s="305"/>
+      <c r="D81" s="305"/>
+      <c r="E81" s="306"/>
       <c r="H81" s="113" t="s">
         <v>373</v>
       </c>
@@ -40401,23 +40401,23 @@
       <c r="B82" s="68"/>
     </row>
     <row r="83" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="265" t="s">
+      <c r="A83" s="250" t="s">
         <v>290</v>
       </c>
-      <c r="B83" s="282"/>
-      <c r="C83" s="283"/>
-      <c r="D83" s="283"/>
-      <c r="E83" s="284"/>
+      <c r="B83" s="279"/>
+      <c r="C83" s="280"/>
+      <c r="D83" s="280"/>
+      <c r="E83" s="281"/>
       <c r="H83" s="9" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="266"/>
-      <c r="B84" s="285"/>
-      <c r="C84" s="286"/>
-      <c r="D84" s="286"/>
-      <c r="E84" s="287"/>
+      <c r="A84" s="252"/>
+      <c r="B84" s="282"/>
+      <c r="C84" s="283"/>
+      <c r="D84" s="283"/>
+      <c r="E84" s="284"/>
       <c r="H84" s="9" t="s">
         <v>449</v>
       </c>
@@ -40426,31 +40426,31 @@
       <c r="A85" s="69"/>
     </row>
     <row r="86" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="265" t="s">
+      <c r="A86" s="250" t="s">
         <v>291</v>
       </c>
-      <c r="B86" s="282"/>
-      <c r="C86" s="283"/>
-      <c r="D86" s="283"/>
-      <c r="E86" s="284"/>
+      <c r="B86" s="279"/>
+      <c r="C86" s="280"/>
+      <c r="D86" s="280"/>
+      <c r="E86" s="281"/>
       <c r="H86" s="113" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="271"/>
-      <c r="B87" s="288"/>
-      <c r="C87" s="289"/>
-      <c r="D87" s="289"/>
-      <c r="E87" s="290"/>
+      <c r="A87" s="251"/>
+      <c r="B87" s="307"/>
+      <c r="C87" s="308"/>
+      <c r="D87" s="308"/>
+      <c r="E87" s="309"/>
       <c r="H87" s="103"/>
     </row>
     <row r="88" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="266"/>
-      <c r="B88" s="285"/>
-      <c r="C88" s="286"/>
-      <c r="D88" s="286"/>
-      <c r="E88" s="287"/>
+      <c r="A88" s="252"/>
+      <c r="B88" s="282"/>
+      <c r="C88" s="283"/>
+      <c r="D88" s="283"/>
+      <c r="E88" s="284"/>
       <c r="F88" s="18"/>
     </row>
     <row r="89" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -40458,13 +40458,13 @@
       <c r="B89" s="68"/>
     </row>
     <row r="90" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="236" t="s">
+      <c r="A90" s="274" t="s">
         <v>292</v>
       </c>
-      <c r="B90" s="237"/>
-      <c r="C90" s="237"/>
-      <c r="D90" s="237"/>
-      <c r="E90" s="238"/>
+      <c r="B90" s="275"/>
+      <c r="C90" s="275"/>
+      <c r="D90" s="275"/>
+      <c r="E90" s="276"/>
       <c r="H90" s="78" t="s">
         <v>292</v>
       </c>
@@ -40473,10 +40473,10 @@
       <c r="A91" s="78"/>
     </row>
     <row r="92" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="268" t="s">
+      <c r="A92" s="291" t="s">
         <v>293</v>
       </c>
-      <c r="B92" s="270"/>
+      <c r="B92" s="292"/>
       <c r="C92" s="12"/>
       <c r="D92" s="13" t="s">
         <v>294</v>
@@ -40498,10 +40498,10 @@
       <c r="A94" s="74" t="s">
         <v>295</v>
       </c>
-      <c r="B94" s="223"/>
-      <c r="C94" s="224"/>
-      <c r="D94" s="224"/>
-      <c r="E94" s="225"/>
+      <c r="B94" s="226"/>
+      <c r="C94" s="227"/>
+      <c r="D94" s="227"/>
+      <c r="E94" s="228"/>
       <c r="H94" s="9" t="s">
         <v>452</v>
       </c>
@@ -40517,10 +40517,10 @@
       <c r="A96" s="74" t="s">
         <v>296</v>
       </c>
-      <c r="B96" s="223"/>
-      <c r="C96" s="224"/>
-      <c r="D96" s="224"/>
-      <c r="E96" s="225"/>
+      <c r="B96" s="226"/>
+      <c r="C96" s="227"/>
+      <c r="D96" s="227"/>
+      <c r="E96" s="228"/>
       <c r="F96" s="18"/>
       <c r="H96" s="9" t="s">
         <v>297</v>
@@ -40559,20 +40559,20 @@
       <c r="H99" s="55"/>
     </row>
     <row r="100" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="265" t="s">
+      <c r="A100" s="250" t="s">
         <v>299</v>
       </c>
-      <c r="B100" s="223"/>
-      <c r="C100" s="224"/>
-      <c r="D100" s="224"/>
-      <c r="E100" s="225"/>
+      <c r="B100" s="226"/>
+      <c r="C100" s="227"/>
+      <c r="D100" s="227"/>
+      <c r="E100" s="228"/>
       <c r="F100" s="111"/>
       <c r="H100" s="9" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="271"/>
+      <c r="A101" s="251"/>
       <c r="B101" s="76"/>
       <c r="C101" s="77"/>
       <c r="D101" s="75"/>
@@ -40581,11 +40581,11 @@
       <c r="H101" s="9"/>
     </row>
     <row r="102" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="266"/>
-      <c r="B102" s="223"/>
-      <c r="C102" s="224"/>
-      <c r="D102" s="224"/>
-      <c r="E102" s="225"/>
+      <c r="A102" s="252"/>
+      <c r="B102" s="226"/>
+      <c r="C102" s="227"/>
+      <c r="D102" s="227"/>
+      <c r="E102" s="228"/>
       <c r="F102" s="111"/>
       <c r="H102" s="9" t="s">
         <v>453</v>
@@ -40599,23 +40599,23 @@
       <c r="E103" s="12"/>
     </row>
     <row r="104" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="257" t="s">
+      <c r="A104" s="322" t="s">
         <v>300</v>
       </c>
-      <c r="B104" s="259"/>
-      <c r="C104" s="260"/>
-      <c r="D104" s="260"/>
-      <c r="E104" s="261"/>
+      <c r="B104" s="293"/>
+      <c r="C104" s="294"/>
+      <c r="D104" s="294"/>
+      <c r="E104" s="324"/>
       <c r="H104" s="9" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="258"/>
-      <c r="B105" s="262"/>
-      <c r="C105" s="263"/>
-      <c r="D105" s="263"/>
-      <c r="E105" s="264"/>
+      <c r="A105" s="323"/>
+      <c r="B105" s="297"/>
+      <c r="C105" s="298"/>
+      <c r="D105" s="298"/>
+      <c r="E105" s="325"/>
       <c r="H105" s="9" t="s">
         <v>301</v>
       </c>
@@ -40626,43 +40626,43 @@
       <c r="E106" s="12"/>
     </row>
     <row r="107" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="265" t="s">
+      <c r="A107" s="250" t="s">
         <v>301</v>
       </c>
-      <c r="B107" s="259"/>
-      <c r="C107" s="260"/>
-      <c r="D107" s="260"/>
-      <c r="E107" s="261"/>
+      <c r="B107" s="293"/>
+      <c r="C107" s="294"/>
+      <c r="D107" s="294"/>
+      <c r="E107" s="324"/>
     </row>
     <row r="108" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="266"/>
-      <c r="B108" s="262"/>
-      <c r="C108" s="263"/>
-      <c r="D108" s="263"/>
-      <c r="E108" s="264"/>
+      <c r="A108" s="252"/>
+      <c r="B108" s="297"/>
+      <c r="C108" s="298"/>
+      <c r="D108" s="298"/>
+      <c r="E108" s="325"/>
     </row>
     <row r="109" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="9"/>
     </row>
     <row r="110" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="111" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="338" t="s">
+      <c r="A111" s="351" t="s">
         <v>302</v>
       </c>
-      <c r="B111" s="267"/>
-      <c r="C111" s="267"/>
-      <c r="D111" s="267"/>
-      <c r="E111" s="267"/>
+      <c r="B111" s="326"/>
+      <c r="C111" s="326"/>
+      <c r="D111" s="326"/>
+      <c r="E111" s="326"/>
       <c r="H111" s="78" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="268" t="s">
+      <c r="A112" s="291" t="s">
         <v>303</v>
       </c>
-      <c r="B112" s="269"/>
-      <c r="C112" s="270"/>
+      <c r="B112" s="327"/>
+      <c r="C112" s="292"/>
       <c r="D112" s="13" t="s">
         <v>304</v>
       </c>
@@ -40672,11 +40672,11 @@
       </c>
     </row>
     <row r="113" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="248"/>
-      <c r="B113" s="249"/>
-      <c r="C113" s="249"/>
-      <c r="D113" s="249"/>
-      <c r="E113" s="250"/>
+      <c r="A113" s="310"/>
+      <c r="B113" s="311"/>
+      <c r="C113" s="311"/>
+      <c r="D113" s="311"/>
+      <c r="E113" s="312"/>
     </row>
     <row r="114" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="45" t="s">
@@ -40705,10 +40705,10 @@
       <c r="A116" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B116" s="223"/>
-      <c r="C116" s="224"/>
-      <c r="D116" s="224"/>
-      <c r="E116" s="225"/>
+      <c r="B116" s="226"/>
+      <c r="C116" s="227"/>
+      <c r="D116" s="227"/>
+      <c r="E116" s="228"/>
       <c r="H116" s="9" t="s">
         <v>306</v>
       </c>
@@ -40760,11 +40760,11 @@
       </c>
     </row>
     <row r="121" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="251"/>
-      <c r="B121" s="252"/>
-      <c r="C121" s="252"/>
-      <c r="D121" s="252"/>
-      <c r="E121" s="253"/>
+      <c r="A121" s="313"/>
+      <c r="B121" s="314"/>
+      <c r="C121" s="314"/>
+      <c r="D121" s="314"/>
+      <c r="E121" s="315"/>
     </row>
     <row r="122" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="45" t="s">
@@ -40793,10 +40793,10 @@
       <c r="A124" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B124" s="223"/>
-      <c r="C124" s="224"/>
-      <c r="D124" s="224"/>
-      <c r="E124" s="225"/>
+      <c r="B124" s="226"/>
+      <c r="C124" s="227"/>
+      <c r="D124" s="227"/>
+      <c r="E124" s="228"/>
       <c r="H124" s="9" t="s">
         <v>457</v>
       </c>
@@ -40848,11 +40848,11 @@
       </c>
     </row>
     <row r="129" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="242"/>
-      <c r="B129" s="243"/>
-      <c r="C129" s="243"/>
-      <c r="D129" s="243"/>
-      <c r="E129" s="244"/>
+      <c r="A129" s="316"/>
+      <c r="B129" s="317"/>
+      <c r="C129" s="317"/>
+      <c r="D129" s="317"/>
+      <c r="E129" s="318"/>
     </row>
     <row r="130" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="45" t="s">
@@ -40878,10 +40878,10 @@
       <c r="A132" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B132" s="254"/>
-      <c r="C132" s="255"/>
-      <c r="D132" s="255"/>
-      <c r="E132" s="256"/>
+      <c r="B132" s="319"/>
+      <c r="C132" s="320"/>
+      <c r="D132" s="320"/>
+      <c r="E132" s="321"/>
     </row>
     <row r="133" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="116"/>
@@ -40924,11 +40924,11 @@
       <c r="F136" s="18"/>
     </row>
     <row r="137" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="242"/>
-      <c r="B137" s="243"/>
-      <c r="C137" s="243"/>
-      <c r="D137" s="243"/>
-      <c r="E137" s="244"/>
+      <c r="A137" s="316"/>
+      <c r="B137" s="317"/>
+      <c r="C137" s="317"/>
+      <c r="D137" s="317"/>
+      <c r="E137" s="318"/>
     </row>
     <row r="138" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="45" t="s">
@@ -40954,10 +40954,10 @@
       <c r="A140" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B140" s="223"/>
-      <c r="C140" s="224"/>
-      <c r="D140" s="224"/>
-      <c r="E140" s="225"/>
+      <c r="B140" s="226"/>
+      <c r="C140" s="227"/>
+      <c r="D140" s="227"/>
+      <c r="E140" s="228"/>
     </row>
     <row r="141" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="112"/>
@@ -41039,6 +41039,55 @@
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="A129:E129"/>
+    <mergeCell ref="B132:E132"/>
+    <mergeCell ref="A137:E137"/>
+    <mergeCell ref="B140:E140"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="B116:E116"/>
+    <mergeCell ref="A121:E121"/>
+    <mergeCell ref="B124:E124"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:E108"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="B86:E88"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="B96:E96"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="B102:E102"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="B104:E105"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:E84"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A75:E75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:E77"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:E47"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B55:E55"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B3:E3"/>
@@ -41052,55 +41101,6 @@
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:E47"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:E84"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A75:E75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:E77"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:E108"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="B86:E88"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="B94:E94"/>
-    <mergeCell ref="B96:E96"/>
-    <mergeCell ref="A100:A102"/>
-    <mergeCell ref="B100:E100"/>
-    <mergeCell ref="B102:E102"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="B104:E105"/>
-    <mergeCell ref="A129:E129"/>
-    <mergeCell ref="B132:E132"/>
-    <mergeCell ref="A137:E137"/>
-    <mergeCell ref="B140:E140"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="A112:C112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="B116:E116"/>
-    <mergeCell ref="A121:E121"/>
-    <mergeCell ref="B124:E124"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -43837,13 +43837,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="356" t="s">
+      <c r="A1" s="353" t="s">
         <v>474</v>
       </c>
-      <c r="B1" s="356"/>
-      <c r="C1" s="356"/>
-      <c r="D1" s="356"/>
-      <c r="E1" s="356"/>
+      <c r="B1" s="353"/>
+      <c r="C1" s="353"/>
+      <c r="D1" s="353"/>
+      <c r="E1" s="353"/>
       <c r="F1" s="14"/>
       <c r="G1" s="124"/>
       <c r="H1" s="124"/>
@@ -43855,11 +43855,11 @@
       <c r="A2" s="125" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="220" t="s">
+      <c r="B2" s="335" t="s">
         <v>475</v>
       </c>
-      <c r="C2" s="221"/>
-      <c r="D2" s="222"/>
+      <c r="C2" s="336"/>
+      <c r="D2" s="337"/>
       <c r="F2" s="14"/>
       <c r="G2" s="124"/>
       <c r="H2" s="124"/>
@@ -43879,9 +43879,9 @@
       <c r="A4" s="125" t="s">
         <v>245</v>
       </c>
-      <c r="B4" s="220"/>
-      <c r="C4" s="221"/>
-      <c r="D4" s="222"/>
+      <c r="B4" s="335"/>
+      <c r="C4" s="336"/>
+      <c r="D4" s="337"/>
       <c r="F4" s="14"/>
       <c r="G4" s="124"/>
       <c r="H4" s="124"/>
@@ -43901,9 +43901,9 @@
       <c r="A6" s="125" t="s">
         <v>476</v>
       </c>
-      <c r="B6" s="220"/>
-      <c r="C6" s="221"/>
-      <c r="D6" s="222"/>
+      <c r="B6" s="335"/>
+      <c r="C6" s="336"/>
+      <c r="D6" s="337"/>
       <c r="F6" s="14"/>
       <c r="G6" s="124"/>
       <c r="H6" s="124"/>
@@ -43925,11 +43925,11 @@
       <c r="K7" s="124"/>
     </row>
     <row r="8" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="357"/>
-      <c r="B8" s="357"/>
-      <c r="C8" s="357"/>
-      <c r="D8" s="357"/>
-      <c r="E8" s="357"/>
+      <c r="A8" s="354"/>
+      <c r="B8" s="354"/>
+      <c r="C8" s="354"/>
+      <c r="D8" s="354"/>
+      <c r="E8" s="354"/>
       <c r="F8" s="14"/>
       <c r="G8" s="124"/>
       <c r="H8" s="124"/>
@@ -43941,11 +43941,11 @@
       <c r="A9" s="125" t="s">
         <v>477</v>
       </c>
-      <c r="B9" s="220" t="s">
+      <c r="B9" s="335" t="s">
         <v>478</v>
       </c>
-      <c r="C9" s="221"/>
-      <c r="D9" s="222"/>
+      <c r="C9" s="336"/>
+      <c r="D9" s="337"/>
       <c r="E9" s="124"/>
       <c r="F9" s="14"/>
       <c r="G9" s="124"/>
@@ -43968,15 +43968,15 @@
       <c r="K10" s="124"/>
     </row>
     <row r="11" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="353" t="s">
+      <c r="A11" s="355" t="s">
         <v>479</v>
       </c>
-      <c r="B11" s="221" t="s">
+      <c r="B11" s="336" t="s">
         <v>480</v>
       </c>
-      <c r="C11" s="221"/>
-      <c r="D11" s="221"/>
-      <c r="E11" s="222"/>
+      <c r="C11" s="336"/>
+      <c r="D11" s="336"/>
+      <c r="E11" s="337"/>
       <c r="F11" s="14"/>
       <c r="G11" s="126"/>
       <c r="H11" s="124"/>
@@ -43985,7 +43985,7 @@
       <c r="K11" s="124"/>
     </row>
     <row r="12" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="354"/>
+      <c r="A12" s="356"/>
       <c r="B12" s="124"/>
       <c r="C12" s="124"/>
       <c r="D12" s="124"/>
@@ -43998,11 +43998,11 @@
       <c r="K12" s="124"/>
     </row>
     <row r="13" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="355"/>
-      <c r="B13" s="221"/>
-      <c r="C13" s="221"/>
-      <c r="D13" s="221"/>
-      <c r="E13" s="222"/>
+      <c r="A13" s="357"/>
+      <c r="B13" s="336"/>
+      <c r="C13" s="336"/>
+      <c r="D13" s="336"/>
+      <c r="E13" s="337"/>
       <c r="F13" s="124"/>
       <c r="G13" s="124"/>
       <c r="H13" s="124"/>
@@ -44095,20 +44095,20 @@
       <c r="E22" s="124"/>
     </row>
     <row r="23" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="353" t="s">
+      <c r="A23" s="355" t="s">
         <v>136</v>
       </c>
-      <c r="B23" s="282"/>
-      <c r="C23" s="283"/>
-      <c r="D23" s="283"/>
-      <c r="E23" s="284"/>
+      <c r="B23" s="279"/>
+      <c r="C23" s="280"/>
+      <c r="D23" s="280"/>
+      <c r="E23" s="281"/>
     </row>
     <row r="24" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="355"/>
-      <c r="B24" s="285"/>
-      <c r="C24" s="286"/>
-      <c r="D24" s="286"/>
-      <c r="E24" s="287"/>
+      <c r="A24" s="357"/>
+      <c r="B24" s="282"/>
+      <c r="C24" s="283"/>
+      <c r="D24" s="283"/>
+      <c r="E24" s="284"/>
     </row>
     <row r="25" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="352"/>
@@ -44121,11 +44121,11 @@
       <c r="A26" s="125" t="s">
         <v>487</v>
       </c>
-      <c r="B26" s="220" t="s">
+      <c r="B26" s="335" t="s">
         <v>478</v>
       </c>
-      <c r="C26" s="221"/>
-      <c r="D26" s="222"/>
+      <c r="C26" s="336"/>
+      <c r="D26" s="337"/>
       <c r="E26" s="124"/>
     </row>
     <row r="27" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -44136,29 +44136,29 @@
       <c r="E27" s="124"/>
     </row>
     <row r="28" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="353" t="s">
+      <c r="A28" s="355" t="s">
         <v>479</v>
       </c>
-      <c r="B28" s="221" t="s">
+      <c r="B28" s="336" t="s">
         <v>488</v>
       </c>
-      <c r="C28" s="221"/>
-      <c r="D28" s="221"/>
-      <c r="E28" s="222"/>
+      <c r="C28" s="336"/>
+      <c r="D28" s="336"/>
+      <c r="E28" s="337"/>
     </row>
     <row r="29" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="354"/>
+      <c r="A29" s="356"/>
       <c r="B29" s="124"/>
       <c r="C29" s="124"/>
       <c r="D29" s="124"/>
       <c r="E29" s="124"/>
     </row>
     <row r="30" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="355"/>
-      <c r="B30" s="221"/>
-      <c r="C30" s="221"/>
-      <c r="D30" s="221"/>
-      <c r="E30" s="222"/>
+      <c r="A30" s="357"/>
+      <c r="B30" s="336"/>
+      <c r="C30" s="336"/>
+      <c r="D30" s="336"/>
+      <c r="E30" s="337"/>
     </row>
     <row r="31" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
@@ -44239,20 +44239,20 @@
       <c r="E39" s="124"/>
     </row>
     <row r="40" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="353" t="s">
+      <c r="A40" s="355" t="s">
         <v>136</v>
       </c>
-      <c r="B40" s="282"/>
-      <c r="C40" s="283"/>
-      <c r="D40" s="283"/>
-      <c r="E40" s="284"/>
+      <c r="B40" s="279"/>
+      <c r="C40" s="280"/>
+      <c r="D40" s="280"/>
+      <c r="E40" s="281"/>
     </row>
     <row r="41" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="355"/>
-      <c r="B41" s="285"/>
-      <c r="C41" s="286"/>
-      <c r="D41" s="286"/>
-      <c r="E41" s="287"/>
+      <c r="A41" s="357"/>
+      <c r="B41" s="282"/>
+      <c r="C41" s="283"/>
+      <c r="D41" s="283"/>
+      <c r="E41" s="284"/>
     </row>
     <row r="42" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="352"/>
@@ -44263,6 +44263,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:E41"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:D2"/>
@@ -44275,13 +44282,6 @@
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:E24"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:E41"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -44727,13 +44727,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="226" t="s">
+      <c r="A1" s="244" t="s">
         <v>489</v>
       </c>
-      <c r="B1" s="227"/>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="228"/>
+      <c r="B1" s="245"/>
+      <c r="C1" s="245"/>
+      <c r="D1" s="245"/>
+      <c r="E1" s="246"/>
     </row>
     <row r="2" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
@@ -44742,10 +44742,10 @@
       <c r="A3" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="B3" s="223"/>
-      <c r="C3" s="224"/>
-      <c r="D3" s="224"/>
-      <c r="E3" s="225"/>
+      <c r="B3" s="226"/>
+      <c r="C3" s="227"/>
+      <c r="D3" s="227"/>
+      <c r="E3" s="228"/>
     </row>
     <row r="4" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
@@ -44776,12 +44776,12 @@
       <c r="A7" s="74" t="s">
         <v>491</v>
       </c>
-      <c r="B7" s="301" t="s">
+      <c r="B7" s="253" t="s">
         <v>492</v>
       </c>
-      <c r="C7" s="299"/>
-      <c r="D7" s="299"/>
-      <c r="E7" s="300"/>
+      <c r="C7" s="254"/>
+      <c r="D7" s="254"/>
+      <c r="E7" s="255"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -44830,66 +44830,66 @@
       <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="229" t="s">
+      <c r="A13" s="247" t="s">
         <v>236</v>
       </c>
-      <c r="B13" s="230"/>
-      <c r="C13" s="231"/>
+      <c r="B13" s="248"/>
+      <c r="C13" s="249"/>
       <c r="D13" s="17" t="s">
         <v>304</v>
       </c>
       <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="317"/>
-      <c r="B14" s="318"/>
-      <c r="C14" s="318"/>
-      <c r="D14" s="318"/>
-      <c r="E14" s="319"/>
+      <c r="A14" s="220"/>
+      <c r="B14" s="221"/>
+      <c r="C14" s="221"/>
+      <c r="D14" s="221"/>
+      <c r="E14" s="222"/>
     </row>
     <row r="15" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="257" t="s">
+      <c r="A15" s="322" t="s">
         <v>426</v>
       </c>
-      <c r="B15" s="301" t="s">
+      <c r="B15" s="253" t="s">
         <v>239</v>
       </c>
-      <c r="C15" s="299"/>
-      <c r="D15" s="299"/>
-      <c r="E15" s="300"/>
+      <c r="C15" s="254"/>
+      <c r="D15" s="254"/>
+      <c r="E15" s="255"/>
       <c r="I15" s="124"/>
     </row>
     <row r="16" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="348"/>
+      <c r="A16" s="338"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="258"/>
-      <c r="B17" s="301" t="s">
+      <c r="A17" s="323"/>
+      <c r="B17" s="253" t="s">
         <v>240</v>
       </c>
-      <c r="C17" s="299"/>
-      <c r="D17" s="299"/>
-      <c r="E17" s="300"/>
+      <c r="C17" s="254"/>
+      <c r="D17" s="254"/>
+      <c r="E17" s="255"/>
     </row>
     <row r="18" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="320"/>
-      <c r="B18" s="321"/>
-      <c r="C18" s="321"/>
-      <c r="D18" s="321"/>
-      <c r="E18" s="322"/>
+      <c r="A18" s="223"/>
+      <c r="B18" s="224"/>
+      <c r="C18" s="224"/>
+      <c r="D18" s="224"/>
+      <c r="E18" s="225"/>
     </row>
     <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="B19" s="223"/>
-      <c r="C19" s="224"/>
-      <c r="D19" s="224"/>
-      <c r="E19" s="225"/>
+      <c r="B19" s="226"/>
+      <c r="C19" s="227"/>
+      <c r="D19" s="227"/>
+      <c r="E19" s="228"/>
     </row>
     <row r="20" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
@@ -44920,24 +44920,24 @@
       <c r="A23" s="358" t="s">
         <v>246</v>
       </c>
-      <c r="B23" s="326"/>
-      <c r="C23" s="327"/>
-      <c r="D23" s="327"/>
-      <c r="E23" s="328"/>
+      <c r="B23" s="232"/>
+      <c r="C23" s="233"/>
+      <c r="D23" s="233"/>
+      <c r="E23" s="234"/>
     </row>
     <row r="24" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="359"/>
-      <c r="B24" s="329"/>
-      <c r="C24" s="330"/>
-      <c r="D24" s="330"/>
-      <c r="E24" s="331"/>
+      <c r="B24" s="235"/>
+      <c r="C24" s="236"/>
+      <c r="D24" s="236"/>
+      <c r="E24" s="237"/>
     </row>
     <row r="25" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="360"/>
-      <c r="B25" s="332"/>
-      <c r="C25" s="333"/>
-      <c r="D25" s="333"/>
-      <c r="E25" s="334"/>
+      <c r="B25" s="238"/>
+      <c r="C25" s="239"/>
+      <c r="D25" s="239"/>
+      <c r="E25" s="240"/>
     </row>
     <row r="26" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
@@ -44950,34 +44950,34 @@
       <c r="A27" s="361" t="s">
         <v>247</v>
       </c>
-      <c r="B27" s="326"/>
-      <c r="C27" s="327"/>
-      <c r="D27" s="327"/>
-      <c r="E27" s="328"/>
+      <c r="B27" s="232"/>
+      <c r="C27" s="233"/>
+      <c r="D27" s="233"/>
+      <c r="E27" s="234"/>
     </row>
     <row r="28" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="362"/>
-      <c r="B28" s="329"/>
-      <c r="C28" s="330"/>
-      <c r="D28" s="330"/>
-      <c r="E28" s="331"/>
+      <c r="B28" s="235"/>
+      <c r="C28" s="236"/>
+      <c r="D28" s="236"/>
+      <c r="E28" s="237"/>
     </row>
     <row r="29" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="363"/>
-      <c r="B29" s="332"/>
-      <c r="C29" s="333"/>
-      <c r="D29" s="333"/>
-      <c r="E29" s="334"/>
+      <c r="B29" s="238"/>
+      <c r="C29" s="239"/>
+      <c r="D29" s="239"/>
+      <c r="E29" s="240"/>
     </row>
     <row r="30" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="311" t="s">
+      <c r="A31" s="265" t="s">
         <v>248</v>
       </c>
-      <c r="B31" s="312"/>
-      <c r="C31" s="312"/>
-      <c r="D31" s="312"/>
-      <c r="E31" s="313"/>
+      <c r="B31" s="266"/>
+      <c r="C31" s="266"/>
+      <c r="D31" s="266"/>
+      <c r="E31" s="267"/>
     </row>
     <row r="32" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
@@ -45016,13 +45016,13 @@
       <c r="E35" s="12"/>
     </row>
     <row r="36" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="311" t="s">
+      <c r="A36" s="265" t="s">
         <v>253</v>
       </c>
-      <c r="B36" s="312"/>
-      <c r="C36" s="312"/>
-      <c r="D36" s="312"/>
-      <c r="E36" s="313"/>
+      <c r="B36" s="266"/>
+      <c r="C36" s="266"/>
+      <c r="D36" s="266"/>
+      <c r="E36" s="267"/>
     </row>
     <row r="37" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
@@ -45061,13 +45061,13 @@
       <c r="E40" s="12"/>
     </row>
     <row r="41" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="311" t="s">
+      <c r="A41" s="265" t="s">
         <v>254</v>
       </c>
-      <c r="B41" s="312"/>
-      <c r="C41" s="312"/>
-      <c r="D41" s="312"/>
-      <c r="E41" s="313"/>
+      <c r="B41" s="266"/>
+      <c r="C41" s="266"/>
+      <c r="D41" s="266"/>
+      <c r="E41" s="267"/>
     </row>
     <row r="42" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
@@ -45088,13 +45088,13 @@
       <c r="E43" s="12"/>
     </row>
     <row r="44" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="311" t="s">
+      <c r="A44" s="265" t="s">
         <v>257</v>
       </c>
-      <c r="B44" s="312"/>
-      <c r="C44" s="312"/>
-      <c r="D44" s="312"/>
-      <c r="E44" s="313"/>
+      <c r="B44" s="266"/>
+      <c r="C44" s="266"/>
+      <c r="D44" s="266"/>
+      <c r="E44" s="267"/>
     </row>
     <row r="45" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="26" t="s">
@@ -45115,72 +45115,72 @@
       <c r="E46" s="12"/>
     </row>
     <row r="47" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="305" t="s">
+      <c r="A47" s="259" t="s">
         <v>258</v>
       </c>
-      <c r="B47" s="314" t="s">
+      <c r="B47" s="268" t="s">
         <v>259</v>
       </c>
-      <c r="C47" s="315"/>
-      <c r="D47" s="315"/>
-      <c r="E47" s="316"/>
+      <c r="C47" s="269"/>
+      <c r="D47" s="269"/>
+      <c r="E47" s="270"/>
     </row>
     <row r="48" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="306"/>
+      <c r="A48" s="260"/>
       <c r="B48" s="29"/>
       <c r="C48" s="30"/>
       <c r="D48" s="30"/>
       <c r="E48" s="31"/>
     </row>
     <row r="49" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="307"/>
-      <c r="B49" s="314" t="s">
+      <c r="A49" s="261"/>
+      <c r="B49" s="268" t="s">
         <v>260</v>
       </c>
-      <c r="C49" s="315"/>
-      <c r="D49" s="315"/>
-      <c r="E49" s="316"/>
+      <c r="C49" s="269"/>
+      <c r="D49" s="269"/>
+      <c r="E49" s="270"/>
     </row>
     <row r="50" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="245" t="s">
+      <c r="A50" s="256" t="s">
         <v>495</v>
       </c>
-      <c r="B50" s="246"/>
-      <c r="C50" s="246"/>
-      <c r="D50" s="246"/>
-      <c r="E50" s="247"/>
+      <c r="B50" s="257"/>
+      <c r="C50" s="257"/>
+      <c r="D50" s="257"/>
+      <c r="E50" s="258"/>
     </row>
     <row r="51" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="305" t="s">
+      <c r="A52" s="259" t="s">
         <v>262</v>
       </c>
-      <c r="B52" s="301" t="s">
+      <c r="B52" s="253" t="s">
         <v>496</v>
       </c>
-      <c r="C52" s="299"/>
-      <c r="D52" s="299"/>
-      <c r="E52" s="300"/>
+      <c r="C52" s="254"/>
+      <c r="D52" s="254"/>
+      <c r="E52" s="255"/>
     </row>
     <row r="53" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="306"/>
+      <c r="A53" s="260"/>
       <c r="B53" s="32"/>
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="34"/>
     </row>
     <row r="54" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="306"/>
-      <c r="B54" s="301" t="s">
+      <c r="A54" s="260"/>
+      <c r="B54" s="253" t="s">
         <v>264</v>
       </c>
-      <c r="C54" s="299"/>
-      <c r="D54" s="299"/>
-      <c r="E54" s="300"/>
+      <c r="C54" s="254"/>
+      <c r="D54" s="254"/>
+      <c r="E54" s="255"/>
       <c r="F54" s="35"/>
     </row>
     <row r="55" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="306"/>
+      <c r="A55" s="260"/>
       <c r="B55" s="36"/>
       <c r="C55" s="36"/>
       <c r="D55" s="36"/>
@@ -45188,52 +45188,52 @@
       <c r="F55" s="35"/>
     </row>
     <row r="56" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="307"/>
+      <c r="A56" s="261"/>
       <c r="B56" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="C56" s="301"/>
-      <c r="D56" s="299"/>
-      <c r="E56" s="300"/>
+      <c r="C56" s="253"/>
+      <c r="D56" s="254"/>
+      <c r="E56" s="255"/>
       <c r="F56" s="35"/>
     </row>
     <row r="57" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="308"/>
-      <c r="B57" s="309"/>
-      <c r="C57" s="309"/>
-      <c r="D57" s="309"/>
-      <c r="E57" s="310"/>
+      <c r="A57" s="262"/>
+      <c r="B57" s="263"/>
+      <c r="C57" s="263"/>
+      <c r="D57" s="263"/>
+      <c r="E57" s="264"/>
     </row>
     <row r="58" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="296" t="s">
+      <c r="A58" s="285" t="s">
         <v>266</v>
       </c>
-      <c r="B58" s="299" t="s">
+      <c r="B58" s="254" t="s">
         <v>267</v>
       </c>
-      <c r="C58" s="299"/>
-      <c r="D58" s="299"/>
-      <c r="E58" s="300"/>
+      <c r="C58" s="254"/>
+      <c r="D58" s="254"/>
+      <c r="E58" s="255"/>
     </row>
     <row r="59" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="297"/>
+      <c r="A59" s="286"/>
       <c r="B59" s="33"/>
       <c r="C59" s="33"/>
       <c r="D59" s="33"/>
       <c r="E59" s="34"/>
     </row>
     <row r="60" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="297"/>
-      <c r="B60" s="299" t="s">
+      <c r="A60" s="286"/>
+      <c r="B60" s="254" t="s">
         <v>268</v>
       </c>
-      <c r="C60" s="299"/>
-      <c r="D60" s="299"/>
-      <c r="E60" s="300"/>
+      <c r="C60" s="254"/>
+      <c r="D60" s="254"/>
+      <c r="E60" s="255"/>
       <c r="F60" s="39"/>
     </row>
     <row r="61" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="297"/>
+      <c r="A61" s="286"/>
       <c r="B61" s="36"/>
       <c r="C61" s="36"/>
       <c r="D61" s="36"/>
@@ -45241,21 +45241,21 @@
       <c r="F61" s="39"/>
     </row>
     <row r="62" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="298"/>
+      <c r="A62" s="287"/>
       <c r="B62" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="C62" s="301"/>
-      <c r="D62" s="299"/>
-      <c r="E62" s="300"/>
+      <c r="C62" s="253"/>
+      <c r="D62" s="254"/>
+      <c r="E62" s="255"/>
       <c r="F62" s="39"/>
     </row>
     <row r="63" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="302"/>
-      <c r="B63" s="303"/>
-      <c r="C63" s="303"/>
-      <c r="D63" s="303"/>
-      <c r="E63" s="304"/>
+      <c r="A63" s="288"/>
+      <c r="B63" s="289"/>
+      <c r="C63" s="289"/>
+      <c r="D63" s="289"/>
+      <c r="E63" s="290"/>
     </row>
     <row r="64" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="43" t="s">
@@ -45271,46 +45271,46 @@
       <c r="E64" s="44"/>
     </row>
     <row r="65" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="291"/>
-      <c r="B65" s="292"/>
-      <c r="C65" s="292"/>
-      <c r="D65" s="292"/>
-      <c r="E65" s="293"/>
+      <c r="A65" s="271"/>
+      <c r="B65" s="272"/>
+      <c r="C65" s="272"/>
+      <c r="D65" s="272"/>
+      <c r="E65" s="273"/>
     </row>
     <row r="66" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="265" t="s">
+      <c r="A66" s="250" t="s">
         <v>271</v>
       </c>
-      <c r="B66" s="223" t="s">
+      <c r="B66" s="226" t="s">
         <v>272</v>
       </c>
-      <c r="C66" s="224"/>
-      <c r="D66" s="224"/>
-      <c r="E66" s="225"/>
+      <c r="C66" s="227"/>
+      <c r="D66" s="227"/>
+      <c r="E66" s="228"/>
       <c r="F66" s="18"/>
     </row>
     <row r="67" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="271"/>
+      <c r="A67" s="251"/>
       <c r="B67" s="19"/>
       <c r="C67" s="12"/>
       <c r="F67" s="18"/>
     </row>
     <row r="68" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="266"/>
-      <c r="B68" s="223" t="s">
+      <c r="A68" s="252"/>
+      <c r="B68" s="226" t="s">
         <v>273</v>
       </c>
-      <c r="C68" s="224"/>
-      <c r="D68" s="224"/>
-      <c r="E68" s="225"/>
+      <c r="C68" s="227"/>
+      <c r="D68" s="227"/>
+      <c r="E68" s="228"/>
       <c r="F68" s="18"/>
     </row>
     <row r="69" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="291"/>
-      <c r="B69" s="292"/>
-      <c r="C69" s="292"/>
-      <c r="D69" s="292"/>
-      <c r="E69" s="293"/>
+      <c r="A69" s="271"/>
+      <c r="B69" s="272"/>
+      <c r="C69" s="272"/>
+      <c r="D69" s="272"/>
+      <c r="E69" s="273"/>
     </row>
     <row r="70" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="45" t="s">
@@ -45450,13 +45450,13 @@
       <c r="L81" s="18"/>
     </row>
     <row r="82" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="236" t="s">
+      <c r="A82" s="274" t="s">
         <v>285</v>
       </c>
-      <c r="B82" s="237"/>
-      <c r="C82" s="237"/>
-      <c r="D82" s="237"/>
-      <c r="E82" s="238"/>
+      <c r="B82" s="275"/>
+      <c r="C82" s="275"/>
+      <c r="D82" s="275"/>
+      <c r="E82" s="276"/>
       <c r="F82" s="18"/>
       <c r="G82" s="18"/>
       <c r="H82" s="55"/>
@@ -45466,13 +45466,13 @@
       <c r="L82" s="18"/>
     </row>
     <row r="83" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="294" t="s">
+      <c r="A83" s="277" t="s">
         <v>286</v>
       </c>
-      <c r="B83" s="282"/>
-      <c r="C83" s="283"/>
-      <c r="D83" s="283"/>
-      <c r="E83" s="284"/>
+      <c r="B83" s="279"/>
+      <c r="C83" s="280"/>
+      <c r="D83" s="280"/>
+      <c r="E83" s="281"/>
       <c r="F83" s="18"/>
       <c r="G83" s="18"/>
       <c r="H83" s="57"/>
@@ -45482,11 +45482,11 @@
       <c r="L83" s="18"/>
     </row>
     <row r="84" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="295"/>
-      <c r="B84" s="285"/>
-      <c r="C84" s="286"/>
-      <c r="D84" s="286"/>
-      <c r="E84" s="287"/>
+      <c r="A84" s="278"/>
+      <c r="B84" s="282"/>
+      <c r="C84" s="283"/>
+      <c r="D84" s="283"/>
+      <c r="E84" s="284"/>
       <c r="F84" s="18"/>
       <c r="G84" s="18"/>
       <c r="H84" s="55"/>
@@ -45507,15 +45507,15 @@
       <c r="L85" s="18"/>
     </row>
     <row r="86" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="274" t="s">
+      <c r="A86" s="299" t="s">
         <v>287</v>
       </c>
-      <c r="B86" s="275"/>
-      <c r="C86" s="276"/>
-      <c r="D86" s="277" t="s">
+      <c r="B86" s="300"/>
+      <c r="C86" s="301"/>
+      <c r="D86" s="302" t="s">
         <v>288</v>
       </c>
-      <c r="E86" s="278"/>
+      <c r="E86" s="303"/>
       <c r="F86" s="18"/>
       <c r="G86" s="18"/>
       <c r="H86" s="55"/>
@@ -45542,10 +45542,10 @@
       <c r="A88" s="65" t="s">
         <v>373</v>
       </c>
-      <c r="B88" s="279"/>
-      <c r="C88" s="280"/>
-      <c r="D88" s="280"/>
-      <c r="E88" s="281"/>
+      <c r="B88" s="304"/>
+      <c r="C88" s="305"/>
+      <c r="D88" s="305"/>
+      <c r="E88" s="306"/>
       <c r="F88" s="18"/>
       <c r="G88" s="18"/>
       <c r="H88" s="66"/>
@@ -45566,13 +45566,13 @@
       <c r="L89" s="18"/>
     </row>
     <row r="90" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="265" t="s">
+      <c r="A90" s="250" t="s">
         <v>290</v>
       </c>
-      <c r="B90" s="282"/>
-      <c r="C90" s="283"/>
-      <c r="D90" s="283"/>
-      <c r="E90" s="284"/>
+      <c r="B90" s="279"/>
+      <c r="C90" s="280"/>
+      <c r="D90" s="280"/>
+      <c r="E90" s="281"/>
       <c r="F90" s="18"/>
       <c r="G90" s="18"/>
       <c r="H90" s="55"/>
@@ -45582,11 +45582,11 @@
       <c r="L90" s="18"/>
     </row>
     <row r="91" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="266"/>
-      <c r="B91" s="285"/>
-      <c r="C91" s="286"/>
-      <c r="D91" s="286"/>
-      <c r="E91" s="287"/>
+      <c r="A91" s="252"/>
+      <c r="B91" s="282"/>
+      <c r="C91" s="283"/>
+      <c r="D91" s="283"/>
+      <c r="E91" s="284"/>
       <c r="F91" s="18"/>
       <c r="G91" s="18"/>
       <c r="H91" s="55"/>
@@ -45606,13 +45606,13 @@
       <c r="L92" s="18"/>
     </row>
     <row r="93" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="265" t="s">
+      <c r="A93" s="250" t="s">
         <v>291</v>
       </c>
-      <c r="B93" s="282"/>
-      <c r="C93" s="283"/>
-      <c r="D93" s="283"/>
-      <c r="E93" s="284"/>
+      <c r="B93" s="279"/>
+      <c r="C93" s="280"/>
+      <c r="D93" s="280"/>
+      <c r="E93" s="281"/>
       <c r="F93" s="18"/>
       <c r="G93" s="18"/>
       <c r="H93" s="66"/>
@@ -45622,11 +45622,11 @@
       <c r="L93" s="18"/>
     </row>
     <row r="94" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="271"/>
-      <c r="B94" s="288"/>
-      <c r="C94" s="289"/>
-      <c r="D94" s="289"/>
-      <c r="E94" s="290"/>
+      <c r="A94" s="251"/>
+      <c r="B94" s="307"/>
+      <c r="C94" s="308"/>
+      <c r="D94" s="308"/>
+      <c r="E94" s="309"/>
       <c r="F94" s="18"/>
       <c r="G94" s="18"/>
       <c r="H94" s="70"/>
@@ -45636,11 +45636,11 @@
       <c r="L94" s="18"/>
     </row>
     <row r="95" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="266"/>
-      <c r="B95" s="285"/>
-      <c r="C95" s="286"/>
-      <c r="D95" s="286"/>
-      <c r="E95" s="287"/>
+      <c r="A95" s="252"/>
+      <c r="B95" s="282"/>
+      <c r="C95" s="283"/>
+      <c r="D95" s="283"/>
+      <c r="E95" s="284"/>
       <c r="F95" s="18"/>
       <c r="G95" s="18"/>
       <c r="H95" s="18"/>
@@ -45661,13 +45661,13 @@
       <c r="L96" s="18"/>
     </row>
     <row r="97" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="236" t="s">
+      <c r="A97" s="274" t="s">
         <v>292</v>
       </c>
-      <c r="B97" s="237"/>
-      <c r="C97" s="237"/>
-      <c r="D97" s="237"/>
-      <c r="E97" s="238"/>
+      <c r="B97" s="275"/>
+      <c r="C97" s="275"/>
+      <c r="D97" s="275"/>
+      <c r="E97" s="276"/>
       <c r="F97" s="18"/>
       <c r="G97" s="18"/>
       <c r="H97" s="57"/>
@@ -45677,10 +45677,10 @@
       <c r="L97" s="18"/>
     </row>
     <row r="98" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="268" t="s">
+      <c r="A98" s="291" t="s">
         <v>293</v>
       </c>
-      <c r="B98" s="270"/>
+      <c r="B98" s="292"/>
       <c r="C98" s="12"/>
       <c r="D98" s="13" t="s">
         <v>294</v>
@@ -45712,10 +45712,10 @@
       <c r="A100" s="74" t="s">
         <v>295</v>
       </c>
-      <c r="B100" s="223"/>
-      <c r="C100" s="224"/>
-      <c r="D100" s="224"/>
-      <c r="E100" s="225"/>
+      <c r="B100" s="226"/>
+      <c r="C100" s="227"/>
+      <c r="D100" s="227"/>
+      <c r="E100" s="228"/>
       <c r="F100" s="18"/>
       <c r="G100" s="18"/>
       <c r="H100" s="55"/>
@@ -45742,10 +45742,10 @@
       <c r="A102" s="74" t="s">
         <v>296</v>
       </c>
-      <c r="B102" s="223"/>
-      <c r="C102" s="224"/>
-      <c r="D102" s="224"/>
-      <c r="E102" s="225"/>
+      <c r="B102" s="226"/>
+      <c r="C102" s="227"/>
+      <c r="D102" s="227"/>
+      <c r="E102" s="228"/>
       <c r="F102" s="18"/>
       <c r="G102" s="18"/>
       <c r="H102" s="55"/>
@@ -45797,13 +45797,13 @@
       <c r="H105" s="55"/>
     </row>
     <row r="106" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="265" t="s">
+      <c r="A106" s="250" t="s">
         <v>299</v>
       </c>
-      <c r="B106" s="223"/>
-      <c r="C106" s="224"/>
-      <c r="D106" s="224"/>
-      <c r="E106" s="225"/>
+      <c r="B106" s="226"/>
+      <c r="C106" s="227"/>
+      <c r="D106" s="227"/>
+      <c r="E106" s="228"/>
       <c r="F106" s="18"/>
       <c r="G106" s="18"/>
       <c r="H106" s="55"/>
@@ -45813,7 +45813,7 @@
       <c r="L106" s="18"/>
     </row>
     <row r="107" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="271"/>
+      <c r="A107" s="251"/>
       <c r="B107" s="76"/>
       <c r="C107" s="77"/>
       <c r="D107" s="75"/>
@@ -45827,11 +45827,11 @@
       <c r="L107" s="18"/>
     </row>
     <row r="108" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="266"/>
-      <c r="B108" s="223"/>
-      <c r="C108" s="224"/>
-      <c r="D108" s="224"/>
-      <c r="E108" s="225"/>
+      <c r="A108" s="252"/>
+      <c r="B108" s="226"/>
+      <c r="C108" s="227"/>
+      <c r="D108" s="227"/>
+      <c r="E108" s="228"/>
       <c r="F108" s="18"/>
       <c r="G108" s="18"/>
       <c r="H108" s="55"/>
@@ -45855,13 +45855,13 @@
       <c r="L109" s="18"/>
     </row>
     <row r="110" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="257" t="s">
+      <c r="A110" s="322" t="s">
         <v>300</v>
       </c>
-      <c r="B110" s="259"/>
-      <c r="C110" s="260"/>
-      <c r="D110" s="260"/>
-      <c r="E110" s="261"/>
+      <c r="B110" s="293"/>
+      <c r="C110" s="294"/>
+      <c r="D110" s="294"/>
+      <c r="E110" s="324"/>
       <c r="F110" s="18"/>
       <c r="G110" s="18"/>
       <c r="H110" s="55"/>
@@ -45871,11 +45871,11 @@
       <c r="L110" s="18"/>
     </row>
     <row r="111" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="258"/>
-      <c r="B111" s="262"/>
-      <c r="C111" s="263"/>
-      <c r="D111" s="263"/>
-      <c r="E111" s="264"/>
+      <c r="A111" s="323"/>
+      <c r="B111" s="297"/>
+      <c r="C111" s="298"/>
+      <c r="D111" s="298"/>
+      <c r="E111" s="325"/>
       <c r="F111" s="18"/>
       <c r="G111" s="18"/>
       <c r="H111" s="55"/>
@@ -45890,38 +45890,38 @@
       <c r="E112" s="12"/>
     </row>
     <row r="113" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="265" t="s">
+      <c r="A113" s="250" t="s">
         <v>301</v>
       </c>
-      <c r="B113" s="259"/>
-      <c r="C113" s="260"/>
-      <c r="D113" s="260"/>
-      <c r="E113" s="261"/>
+      <c r="B113" s="293"/>
+      <c r="C113" s="294"/>
+      <c r="D113" s="294"/>
+      <c r="E113" s="324"/>
     </row>
     <row r="114" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="266"/>
-      <c r="B114" s="262"/>
-      <c r="C114" s="263"/>
-      <c r="D114" s="263"/>
-      <c r="E114" s="264"/>
+      <c r="A114" s="252"/>
+      <c r="B114" s="297"/>
+      <c r="C114" s="298"/>
+      <c r="D114" s="298"/>
+      <c r="E114" s="325"/>
     </row>
     <row r="115" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="116" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="267" t="s">
+      <c r="A116" s="326" t="s">
         <v>302</v>
       </c>
-      <c r="B116" s="267"/>
-      <c r="C116" s="267"/>
-      <c r="D116" s="267"/>
-      <c r="E116" s="267"/>
+      <c r="B116" s="326"/>
+      <c r="C116" s="326"/>
+      <c r="D116" s="326"/>
+      <c r="E116" s="326"/>
       <c r="H116" s="78"/>
     </row>
     <row r="117" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="268" t="s">
+      <c r="A117" s="291" t="s">
         <v>303</v>
       </c>
-      <c r="B117" s="269"/>
-      <c r="C117" s="270"/>
+      <c r="B117" s="327"/>
+      <c r="C117" s="292"/>
       <c r="D117" s="13" t="s">
         <v>304</v>
       </c>
@@ -45929,11 +45929,11 @@
       <c r="H117" s="9"/>
     </row>
     <row r="118" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="248"/>
-      <c r="B118" s="249"/>
-      <c r="C118" s="249"/>
-      <c r="D118" s="249"/>
-      <c r="E118" s="250"/>
+      <c r="A118" s="310"/>
+      <c r="B118" s="311"/>
+      <c r="C118" s="311"/>
+      <c r="D118" s="311"/>
+      <c r="E118" s="312"/>
     </row>
     <row r="119" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="45" t="s">
@@ -45960,10 +45960,10 @@
       <c r="A121" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B121" s="223"/>
-      <c r="C121" s="224"/>
-      <c r="D121" s="224"/>
-      <c r="E121" s="225"/>
+      <c r="B121" s="226"/>
+      <c r="C121" s="227"/>
+      <c r="D121" s="227"/>
+      <c r="E121" s="228"/>
       <c r="H121" s="9"/>
     </row>
     <row r="122" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -46009,11 +46009,11 @@
       <c r="H125" s="9"/>
     </row>
     <row r="126" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="251"/>
-      <c r="B126" s="252"/>
-      <c r="C126" s="252"/>
-      <c r="D126" s="252"/>
-      <c r="E126" s="253"/>
+      <c r="A126" s="313"/>
+      <c r="B126" s="314"/>
+      <c r="C126" s="314"/>
+      <c r="D126" s="314"/>
+      <c r="E126" s="315"/>
     </row>
     <row r="127" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="45" t="s">
@@ -46040,10 +46040,10 @@
       <c r="A129" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B129" s="223"/>
-      <c r="C129" s="224"/>
-      <c r="D129" s="224"/>
-      <c r="E129" s="225"/>
+      <c r="B129" s="226"/>
+      <c r="C129" s="227"/>
+      <c r="D129" s="227"/>
+      <c r="E129" s="228"/>
       <c r="H129" s="9"/>
     </row>
     <row r="130" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -46089,11 +46089,11 @@
       <c r="H133" s="9"/>
     </row>
     <row r="134" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="242"/>
-      <c r="B134" s="243"/>
-      <c r="C134" s="243"/>
-      <c r="D134" s="243"/>
-      <c r="E134" s="244"/>
+      <c r="A134" s="316"/>
+      <c r="B134" s="317"/>
+      <c r="C134" s="317"/>
+      <c r="D134" s="317"/>
+      <c r="E134" s="318"/>
     </row>
     <row r="135" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="45" t="s">
@@ -46119,10 +46119,10 @@
       <c r="A137" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B137" s="254"/>
-      <c r="C137" s="255"/>
-      <c r="D137" s="255"/>
-      <c r="E137" s="256"/>
+      <c r="B137" s="319"/>
+      <c r="C137" s="320"/>
+      <c r="D137" s="320"/>
+      <c r="E137" s="321"/>
     </row>
     <row r="138" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="58"/>
@@ -46165,11 +46165,11 @@
       <c r="F141" s="18"/>
     </row>
     <row r="142" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="242"/>
-      <c r="B142" s="243"/>
-      <c r="C142" s="243"/>
-      <c r="D142" s="243"/>
-      <c r="E142" s="244"/>
+      <c r="A142" s="316"/>
+      <c r="B142" s="317"/>
+      <c r="C142" s="317"/>
+      <c r="D142" s="317"/>
+      <c r="E142" s="318"/>
     </row>
     <row r="143" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="45" t="s">
@@ -46195,10 +46195,10 @@
       <c r="A145" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B145" s="223"/>
-      <c r="C145" s="224"/>
-      <c r="D145" s="224"/>
-      <c r="E145" s="225"/>
+      <c r="B145" s="226"/>
+      <c r="C145" s="227"/>
+      <c r="D145" s="227"/>
+      <c r="E145" s="228"/>
     </row>
     <row r="146" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="69"/>
@@ -46504,13 +46504,13 @@
       <c r="E182" s="18"/>
     </row>
     <row r="183" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A183" s="245" t="s">
+      <c r="A183" s="256" t="s">
         <v>314</v>
       </c>
-      <c r="B183" s="246"/>
-      <c r="C183" s="246"/>
-      <c r="D183" s="246"/>
-      <c r="E183" s="247"/>
+      <c r="B183" s="257"/>
+      <c r="C183" s="257"/>
+      <c r="D183" s="257"/>
+      <c r="E183" s="258"/>
     </row>
     <row r="184" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="53" t="s">
@@ -46524,20 +46524,20 @@
       <c r="A185" s="83"/>
     </row>
     <row r="186" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="236" t="s">
+      <c r="A186" s="274" t="s">
         <v>317</v>
       </c>
-      <c r="B186" s="237"/>
-      <c r="C186" s="237"/>
-      <c r="D186" s="238"/>
+      <c r="B186" s="275"/>
+      <c r="C186" s="275"/>
+      <c r="D186" s="276"/>
     </row>
     <row r="187" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="232" t="s">
+      <c r="A187" s="331" t="s">
         <v>318</v>
       </c>
-      <c r="B187" s="233"/>
-      <c r="C187" s="233"/>
-      <c r="D187" s="234"/>
+      <c r="B187" s="332"/>
+      <c r="C187" s="332"/>
+      <c r="D187" s="333"/>
     </row>
     <row r="188" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="12"/>
@@ -46546,12 +46546,12 @@
       <c r="D188" s="12"/>
     </row>
     <row r="189" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="232" t="s">
+      <c r="A189" s="331" t="s">
         <v>319</v>
       </c>
-      <c r="B189" s="233"/>
-      <c r="C189" s="233"/>
-      <c r="D189" s="234"/>
+      <c r="B189" s="332"/>
+      <c r="C189" s="332"/>
+      <c r="D189" s="333"/>
     </row>
     <row r="190" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="12"/>
@@ -46563,9 +46563,9 @@
       <c r="A191" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B191" s="223"/>
-      <c r="C191" s="224"/>
-      <c r="D191" s="225"/>
+      <c r="B191" s="226"/>
+      <c r="C191" s="227"/>
+      <c r="D191" s="228"/>
     </row>
     <row r="192" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="85"/>
@@ -46574,20 +46574,20 @@
       <c r="D192" s="12"/>
     </row>
     <row r="193" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="239" t="s">
+      <c r="A193" s="328" t="s">
         <v>320</v>
       </c>
-      <c r="B193" s="240"/>
-      <c r="C193" s="240"/>
-      <c r="D193" s="241"/>
+      <c r="B193" s="329"/>
+      <c r="C193" s="329"/>
+      <c r="D193" s="330"/>
     </row>
     <row r="194" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="232" t="s">
+      <c r="A194" s="331" t="s">
         <v>321</v>
       </c>
-      <c r="B194" s="233"/>
-      <c r="C194" s="233"/>
-      <c r="D194" s="234"/>
+      <c r="B194" s="332"/>
+      <c r="C194" s="332"/>
+      <c r="D194" s="333"/>
     </row>
     <row r="195" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="85"/>
@@ -46599,9 +46599,9 @@
       <c r="A196" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B196" s="223"/>
-      <c r="C196" s="224"/>
-      <c r="D196" s="225"/>
+      <c r="B196" s="226"/>
+      <c r="C196" s="227"/>
+      <c r="D196" s="228"/>
     </row>
     <row r="197" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="12"/>
@@ -46610,20 +46610,20 @@
       <c r="D197" s="12"/>
     </row>
     <row r="198" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="236" t="s">
+      <c r="A198" s="274" t="s">
         <v>322</v>
       </c>
-      <c r="B198" s="237"/>
-      <c r="C198" s="237"/>
-      <c r="D198" s="238"/>
+      <c r="B198" s="275"/>
+      <c r="C198" s="275"/>
+      <c r="D198" s="276"/>
     </row>
     <row r="199" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="232" t="s">
+      <c r="A199" s="331" t="s">
         <v>323</v>
       </c>
-      <c r="B199" s="233"/>
-      <c r="C199" s="233"/>
-      <c r="D199" s="234"/>
+      <c r="B199" s="332"/>
+      <c r="C199" s="332"/>
+      <c r="D199" s="333"/>
     </row>
     <row r="200" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="86"/>
@@ -46635,9 +46635,9 @@
       <c r="A201" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B201" s="223"/>
-      <c r="C201" s="224"/>
-      <c r="D201" s="225"/>
+      <c r="B201" s="226"/>
+      <c r="C201" s="227"/>
+      <c r="D201" s="228"/>
     </row>
     <row r="202" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="12"/>
@@ -46646,20 +46646,20 @@
       <c r="D202" s="12"/>
     </row>
     <row r="203" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="236" t="s">
+      <c r="A203" s="274" t="s">
         <v>324</v>
       </c>
-      <c r="B203" s="237"/>
-      <c r="C203" s="237"/>
-      <c r="D203" s="238"/>
+      <c r="B203" s="275"/>
+      <c r="C203" s="275"/>
+      <c r="D203" s="276"/>
     </row>
     <row r="204" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="232" t="s">
+      <c r="A204" s="331" t="s">
         <v>325</v>
       </c>
-      <c r="B204" s="233"/>
-      <c r="C204" s="233"/>
-      <c r="D204" s="234"/>
+      <c r="B204" s="332"/>
+      <c r="C204" s="332"/>
+      <c r="D204" s="333"/>
     </row>
     <row r="205" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="85"/>
@@ -46668,12 +46668,12 @@
       <c r="D205" s="12"/>
     </row>
     <row r="206" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="232" t="s">
+      <c r="A206" s="331" t="s">
         <v>326</v>
       </c>
-      <c r="B206" s="233"/>
-      <c r="C206" s="233"/>
-      <c r="D206" s="234"/>
+      <c r="B206" s="332"/>
+      <c r="C206" s="332"/>
+      <c r="D206" s="333"/>
     </row>
     <row r="207" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="12"/>
@@ -46685,9 +46685,9 @@
       <c r="A208" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B208" s="223"/>
-      <c r="C208" s="224"/>
-      <c r="D208" s="225"/>
+      <c r="B208" s="226"/>
+      <c r="C208" s="227"/>
+      <c r="D208" s="228"/>
     </row>
     <row r="209" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="12"/>
@@ -46696,20 +46696,20 @@
       <c r="D209" s="12"/>
     </row>
     <row r="210" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="236" t="s">
+      <c r="A210" s="274" t="s">
         <v>327</v>
       </c>
-      <c r="B210" s="237"/>
-      <c r="C210" s="237"/>
-      <c r="D210" s="238"/>
+      <c r="B210" s="275"/>
+      <c r="C210" s="275"/>
+      <c r="D210" s="276"/>
     </row>
     <row r="211" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="232" t="s">
+      <c r="A211" s="331" t="s">
         <v>328</v>
       </c>
-      <c r="B211" s="233"/>
-      <c r="C211" s="233"/>
-      <c r="D211" s="234"/>
+      <c r="B211" s="332"/>
+      <c r="C211" s="332"/>
+      <c r="D211" s="333"/>
     </row>
     <row r="212" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="85"/>
@@ -46721,9 +46721,9 @@
       <c r="A213" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B213" s="223"/>
-      <c r="C213" s="224"/>
-      <c r="D213" s="225"/>
+      <c r="B213" s="226"/>
+      <c r="C213" s="227"/>
+      <c r="D213" s="228"/>
     </row>
     <row r="214" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="12"/>
@@ -46732,20 +46732,20 @@
       <c r="D214" s="12"/>
     </row>
     <row r="215" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="236" t="s">
+      <c r="A215" s="274" t="s">
         <v>329</v>
       </c>
-      <c r="B215" s="237"/>
-      <c r="C215" s="237"/>
-      <c r="D215" s="238"/>
+      <c r="B215" s="275"/>
+      <c r="C215" s="275"/>
+      <c r="D215" s="276"/>
     </row>
     <row r="216" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="232" t="s">
+      <c r="A216" s="331" t="s">
         <v>330</v>
       </c>
-      <c r="B216" s="233"/>
-      <c r="C216" s="233"/>
-      <c r="D216" s="234"/>
+      <c r="B216" s="332"/>
+      <c r="C216" s="332"/>
+      <c r="D216" s="333"/>
     </row>
     <row r="217" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="85"/>
@@ -46757,9 +46757,9 @@
       <c r="A218" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B218" s="223"/>
-      <c r="C218" s="224"/>
-      <c r="D218" s="225"/>
+      <c r="B218" s="226"/>
+      <c r="C218" s="227"/>
+      <c r="D218" s="228"/>
     </row>
     <row r="219" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="12"/>
@@ -46768,20 +46768,20 @@
       <c r="D219" s="12"/>
     </row>
     <row r="220" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="236" t="s">
+      <c r="A220" s="274" t="s">
         <v>331</v>
       </c>
-      <c r="B220" s="237"/>
-      <c r="C220" s="237"/>
-      <c r="D220" s="238"/>
+      <c r="B220" s="275"/>
+      <c r="C220" s="275"/>
+      <c r="D220" s="276"/>
     </row>
     <row r="221" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="232" t="s">
+      <c r="A221" s="331" t="s">
         <v>500</v>
       </c>
-      <c r="B221" s="233"/>
-      <c r="C221" s="233"/>
-      <c r="D221" s="234"/>
+      <c r="B221" s="332"/>
+      <c r="C221" s="332"/>
+      <c r="D221" s="333"/>
     </row>
     <row r="222" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="12"/>
@@ -46790,12 +46790,12 @@
       <c r="D222" s="12"/>
     </row>
     <row r="223" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="232" t="s">
+      <c r="A223" s="331" t="s">
         <v>501</v>
       </c>
-      <c r="B223" s="233"/>
-      <c r="C223" s="233"/>
-      <c r="D223" s="234"/>
+      <c r="B223" s="332"/>
+      <c r="C223" s="332"/>
+      <c r="D223" s="333"/>
     </row>
     <row r="224" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="85"/>
@@ -46807,9 +46807,9 @@
       <c r="A225" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B225" s="223"/>
-      <c r="C225" s="224"/>
-      <c r="D225" s="225"/>
+      <c r="B225" s="226"/>
+      <c r="C225" s="227"/>
+      <c r="D225" s="228"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="12"/>
@@ -46818,13 +46818,13 @@
       <c r="D226" s="12"/>
     </row>
     <row r="230" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A230" s="235" t="s">
+      <c r="A230" s="334" t="s">
         <v>334</v>
       </c>
-      <c r="B230" s="235"/>
-      <c r="C230" s="235"/>
-      <c r="D230" s="235"/>
-      <c r="E230" s="235"/>
+      <c r="B230" s="334"/>
+      <c r="C230" s="334"/>
+      <c r="D230" s="334"/>
+      <c r="E230" s="334"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="87"/>
@@ -46836,9 +46836,9 @@
       <c r="A232" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="B232" s="223"/>
-      <c r="C232" s="224"/>
-      <c r="D232" s="225"/>
+      <c r="B232" s="226"/>
+      <c r="C232" s="227"/>
+      <c r="D232" s="228"/>
     </row>
     <row r="233" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="11"/>
@@ -46850,9 +46850,9 @@
       <c r="A234" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="B234" s="223"/>
-      <c r="C234" s="224"/>
-      <c r="D234" s="225"/>
+      <c r="B234" s="226"/>
+      <c r="C234" s="227"/>
+      <c r="D234" s="228"/>
     </row>
     <row r="235" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="11"/>
@@ -46864,9 +46864,9 @@
       <c r="A236" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="B236" s="223"/>
-      <c r="C236" s="224"/>
-      <c r="D236" s="225"/>
+      <c r="B236" s="226"/>
+      <c r="C236" s="227"/>
+      <c r="D236" s="228"/>
     </row>
     <row r="237" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="11"/>
@@ -46878,9 +46878,9 @@
       <c r="A238" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="B238" s="223"/>
-      <c r="C238" s="224"/>
-      <c r="D238" s="225"/>
+      <c r="B238" s="226"/>
+      <c r="C238" s="227"/>
+      <c r="D238" s="228"/>
     </row>
     <row r="239" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="11"/>
@@ -46892,9 +46892,9 @@
       <c r="A240" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="B240" s="223"/>
-      <c r="C240" s="224"/>
-      <c r="D240" s="225"/>
+      <c r="B240" s="226"/>
+      <c r="C240" s="227"/>
+      <c r="D240" s="228"/>
     </row>
     <row r="241" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="11"/>
@@ -46906,9 +46906,9 @@
       <c r="A242" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="B242" s="223"/>
-      <c r="C242" s="224"/>
-      <c r="D242" s="225"/>
+      <c r="B242" s="226"/>
+      <c r="C242" s="227"/>
+      <c r="D242" s="228"/>
     </row>
     <row r="243" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="11"/>
@@ -46920,9 +46920,9 @@
       <c r="A244" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="B244" s="223"/>
-      <c r="C244" s="224"/>
-      <c r="D244" s="225"/>
+      <c r="B244" s="226"/>
+      <c r="C244" s="227"/>
+      <c r="D244" s="228"/>
     </row>
     <row r="245" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="11"/>
@@ -46934,9 +46934,9 @@
       <c r="A246" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="B246" s="223"/>
-      <c r="C246" s="224"/>
-      <c r="D246" s="225"/>
+      <c r="B246" s="226"/>
+      <c r="C246" s="227"/>
+      <c r="D246" s="228"/>
     </row>
     <row r="247" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="11"/>
@@ -46948,9 +46948,9 @@
       <c r="A248" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B248" s="223"/>
-      <c r="C248" s="224"/>
-      <c r="D248" s="225"/>
+      <c r="B248" s="226"/>
+      <c r="C248" s="227"/>
+      <c r="D248" s="228"/>
     </row>
     <row r="249" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="11"/>
@@ -46962,9 +46962,9 @@
       <c r="A250" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="B250" s="223"/>
-      <c r="C250" s="224"/>
-      <c r="D250" s="225"/>
+      <c r="B250" s="226"/>
+      <c r="C250" s="227"/>
+      <c r="D250" s="228"/>
     </row>
     <row r="251" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="11"/>
@@ -46976,9 +46976,9 @@
       <c r="A252" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B252" s="223"/>
-      <c r="C252" s="224"/>
-      <c r="D252" s="225"/>
+      <c r="B252" s="226"/>
+      <c r="C252" s="227"/>
+      <c r="D252" s="228"/>
     </row>
     <row r="253" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="11"/>
@@ -46990,9 +46990,9 @@
       <c r="A254" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="B254" s="223"/>
-      <c r="C254" s="224"/>
-      <c r="D254" s="225"/>
+      <c r="B254" s="226"/>
+      <c r="C254" s="227"/>
+      <c r="D254" s="228"/>
     </row>
     <row r="255" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="11"/>
@@ -47004,9 +47004,9 @@
       <c r="A256" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="B256" s="223"/>
-      <c r="C256" s="224"/>
-      <c r="D256" s="225"/>
+      <c r="B256" s="226"/>
+      <c r="C256" s="227"/>
+      <c r="D256" s="228"/>
     </row>
     <row r="257" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="11"/>
@@ -47018,9 +47018,9 @@
       <c r="A258" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="B258" s="223"/>
-      <c r="C258" s="224"/>
-      <c r="D258" s="225"/>
+      <c r="B258" s="226"/>
+      <c r="C258" s="227"/>
+      <c r="D258" s="228"/>
     </row>
     <row r="259" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="11"/>
@@ -47032,9 +47032,9 @@
       <c r="A260" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="B260" s="223"/>
-      <c r="C260" s="224"/>
-      <c r="D260" s="225"/>
+      <c r="B260" s="226"/>
+      <c r="C260" s="227"/>
+      <c r="D260" s="228"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="12"/>
@@ -47091,13 +47091,13 @@
       <c r="D269" s="12"/>
     </row>
     <row r="274" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A274" s="226" t="s">
+      <c r="A274" s="244" t="s">
         <v>349</v>
       </c>
-      <c r="B274" s="227"/>
-      <c r="C274" s="227"/>
-      <c r="D274" s="227"/>
-      <c r="E274" s="228"/>
+      <c r="B274" s="245"/>
+      <c r="C274" s="245"/>
+      <c r="D274" s="245"/>
+      <c r="E274" s="246"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="88"/>
@@ -47106,102 +47106,211 @@
       <c r="D275" s="12"/>
     </row>
     <row r="276" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="229" t="s">
+      <c r="A276" s="247" t="s">
         <v>350</v>
       </c>
-      <c r="B276" s="230"/>
-      <c r="C276" s="230"/>
-      <c r="D276" s="231"/>
+      <c r="B276" s="248"/>
+      <c r="C276" s="248"/>
+      <c r="D276" s="249"/>
       <c r="E276" s="89" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="223"/>
-      <c r="B277" s="224"/>
-      <c r="C277" s="224"/>
-      <c r="D277" s="225"/>
+      <c r="A277" s="226"/>
+      <c r="B277" s="227"/>
+      <c r="C277" s="227"/>
+      <c r="D277" s="228"/>
       <c r="E277" s="51"/>
     </row>
     <row r="278" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="220"/>
-      <c r="B278" s="221"/>
-      <c r="C278" s="221"/>
-      <c r="D278" s="222"/>
+      <c r="A278" s="335"/>
+      <c r="B278" s="336"/>
+      <c r="C278" s="336"/>
+      <c r="D278" s="337"/>
       <c r="E278" s="51"/>
     </row>
     <row r="279" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="220"/>
-      <c r="B279" s="221"/>
-      <c r="C279" s="221"/>
-      <c r="D279" s="222"/>
+      <c r="A279" s="335"/>
+      <c r="B279" s="336"/>
+      <c r="C279" s="336"/>
+      <c r="D279" s="337"/>
       <c r="E279" s="51"/>
     </row>
     <row r="280" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="220"/>
-      <c r="B280" s="221"/>
-      <c r="C280" s="221"/>
-      <c r="D280" s="222"/>
+      <c r="A280" s="335"/>
+      <c r="B280" s="336"/>
+      <c r="C280" s="336"/>
+      <c r="D280" s="337"/>
       <c r="E280" s="51"/>
     </row>
     <row r="281" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="220"/>
-      <c r="B281" s="221"/>
-      <c r="C281" s="221"/>
-      <c r="D281" s="222"/>
+      <c r="A281" s="335"/>
+      <c r="B281" s="336"/>
+      <c r="C281" s="336"/>
+      <c r="D281" s="337"/>
       <c r="E281" s="51"/>
     </row>
     <row r="282" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="220"/>
-      <c r="B282" s="221"/>
-      <c r="C282" s="221"/>
-      <c r="D282" s="222"/>
+      <c r="A282" s="335"/>
+      <c r="B282" s="336"/>
+      <c r="C282" s="336"/>
+      <c r="D282" s="337"/>
       <c r="E282" s="51"/>
     </row>
     <row r="283" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="220"/>
-      <c r="B283" s="221"/>
-      <c r="C283" s="221"/>
-      <c r="D283" s="222"/>
+      <c r="A283" s="335"/>
+      <c r="B283" s="336"/>
+      <c r="C283" s="336"/>
+      <c r="D283" s="337"/>
       <c r="E283" s="51"/>
     </row>
     <row r="284" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="220"/>
-      <c r="B284" s="221"/>
-      <c r="C284" s="221"/>
-      <c r="D284" s="222"/>
+      <c r="A284" s="335"/>
+      <c r="B284" s="336"/>
+      <c r="C284" s="336"/>
+      <c r="D284" s="337"/>
       <c r="E284" s="51"/>
     </row>
     <row r="285" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="220"/>
-      <c r="B285" s="221"/>
-      <c r="C285" s="221"/>
-      <c r="D285" s="222"/>
+      <c r="A285" s="335"/>
+      <c r="B285" s="336"/>
+      <c r="C285" s="336"/>
+      <c r="D285" s="337"/>
       <c r="E285" s="51"/>
     </row>
     <row r="286" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="220"/>
-      <c r="B286" s="221"/>
-      <c r="C286" s="221"/>
-      <c r="D286" s="222"/>
+      <c r="A286" s="335"/>
+      <c r="B286" s="336"/>
+      <c r="C286" s="336"/>
+      <c r="D286" s="337"/>
       <c r="E286" s="51"/>
     </row>
     <row r="287" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="220"/>
-      <c r="B287" s="221"/>
-      <c r="C287" s="221"/>
-      <c r="D287" s="222"/>
+      <c r="A287" s="335"/>
+      <c r="B287" s="336"/>
+      <c r="C287" s="336"/>
+      <c r="D287" s="337"/>
       <c r="E287" s="51"/>
     </row>
     <row r="288" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="220"/>
-      <c r="B288" s="221"/>
-      <c r="C288" s="221"/>
-      <c r="D288" s="222"/>
+      <c r="A288" s="335"/>
+      <c r="B288" s="336"/>
+      <c r="C288" s="336"/>
+      <c r="D288" s="337"/>
       <c r="E288" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="123">
+    <mergeCell ref="A286:D286"/>
+    <mergeCell ref="A287:D287"/>
+    <mergeCell ref="A288:D288"/>
+    <mergeCell ref="A280:D280"/>
+    <mergeCell ref="A281:D281"/>
+    <mergeCell ref="A282:D282"/>
+    <mergeCell ref="A283:D283"/>
+    <mergeCell ref="A284:D284"/>
+    <mergeCell ref="A285:D285"/>
+    <mergeCell ref="B260:D260"/>
+    <mergeCell ref="A274:E274"/>
+    <mergeCell ref="A276:D276"/>
+    <mergeCell ref="A277:D277"/>
+    <mergeCell ref="A278:D278"/>
+    <mergeCell ref="A279:D279"/>
+    <mergeCell ref="B248:D248"/>
+    <mergeCell ref="B250:D250"/>
+    <mergeCell ref="B252:D252"/>
+    <mergeCell ref="B254:D254"/>
+    <mergeCell ref="B256:D256"/>
+    <mergeCell ref="B258:D258"/>
+    <mergeCell ref="B236:D236"/>
+    <mergeCell ref="B238:D238"/>
+    <mergeCell ref="B240:D240"/>
+    <mergeCell ref="B242:D242"/>
+    <mergeCell ref="B244:D244"/>
+    <mergeCell ref="B246:D246"/>
+    <mergeCell ref="A221:D221"/>
+    <mergeCell ref="A223:D223"/>
+    <mergeCell ref="B225:D225"/>
+    <mergeCell ref="A230:E230"/>
+    <mergeCell ref="B232:D232"/>
+    <mergeCell ref="B234:D234"/>
+    <mergeCell ref="A211:D211"/>
+    <mergeCell ref="B213:D213"/>
+    <mergeCell ref="A215:D215"/>
+    <mergeCell ref="A216:D216"/>
+    <mergeCell ref="B218:D218"/>
+    <mergeCell ref="A220:D220"/>
+    <mergeCell ref="B201:D201"/>
+    <mergeCell ref="A203:D203"/>
+    <mergeCell ref="A204:D204"/>
+    <mergeCell ref="A206:D206"/>
+    <mergeCell ref="B208:D208"/>
+    <mergeCell ref="A210:D210"/>
+    <mergeCell ref="B191:D191"/>
+    <mergeCell ref="A193:D193"/>
+    <mergeCell ref="A194:D194"/>
+    <mergeCell ref="B196:D196"/>
+    <mergeCell ref="A198:D198"/>
+    <mergeCell ref="A199:D199"/>
+    <mergeCell ref="A142:E142"/>
+    <mergeCell ref="B145:E145"/>
+    <mergeCell ref="A183:E183"/>
+    <mergeCell ref="A186:D186"/>
+    <mergeCell ref="A187:D187"/>
+    <mergeCell ref="A189:D189"/>
+    <mergeCell ref="A118:E118"/>
+    <mergeCell ref="B121:E121"/>
+    <mergeCell ref="A126:E126"/>
+    <mergeCell ref="B129:E129"/>
+    <mergeCell ref="A134:E134"/>
+    <mergeCell ref="B137:E137"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:E111"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:E114"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A97:E97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="B102:E102"/>
+    <mergeCell ref="A106:A108"/>
+    <mergeCell ref="B106:E106"/>
+    <mergeCell ref="B108:E108"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:E91"/>
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="B93:E95"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:E84"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B49:E49"/>
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="A23:A25"/>
@@ -47216,115 +47325,6 @@
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B17:E17"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:E84"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="A97:E97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="B100:E100"/>
-    <mergeCell ref="B102:E102"/>
-    <mergeCell ref="A106:A108"/>
-    <mergeCell ref="B106:E106"/>
-    <mergeCell ref="B108:E108"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:E91"/>
-    <mergeCell ref="A93:A95"/>
-    <mergeCell ref="B93:E95"/>
-    <mergeCell ref="A118:E118"/>
-    <mergeCell ref="B121:E121"/>
-    <mergeCell ref="A126:E126"/>
-    <mergeCell ref="B129:E129"/>
-    <mergeCell ref="A134:E134"/>
-    <mergeCell ref="B137:E137"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B110:E111"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:E114"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="B191:D191"/>
-    <mergeCell ref="A193:D193"/>
-    <mergeCell ref="A194:D194"/>
-    <mergeCell ref="B196:D196"/>
-    <mergeCell ref="A198:D198"/>
-    <mergeCell ref="A199:D199"/>
-    <mergeCell ref="A142:E142"/>
-    <mergeCell ref="B145:E145"/>
-    <mergeCell ref="A183:E183"/>
-    <mergeCell ref="A186:D186"/>
-    <mergeCell ref="A187:D187"/>
-    <mergeCell ref="A189:D189"/>
-    <mergeCell ref="A211:D211"/>
-    <mergeCell ref="B213:D213"/>
-    <mergeCell ref="A215:D215"/>
-    <mergeCell ref="A216:D216"/>
-    <mergeCell ref="B218:D218"/>
-    <mergeCell ref="A220:D220"/>
-    <mergeCell ref="B201:D201"/>
-    <mergeCell ref="A203:D203"/>
-    <mergeCell ref="A204:D204"/>
-    <mergeCell ref="A206:D206"/>
-    <mergeCell ref="B208:D208"/>
-    <mergeCell ref="A210:D210"/>
-    <mergeCell ref="B236:D236"/>
-    <mergeCell ref="B238:D238"/>
-    <mergeCell ref="B240:D240"/>
-    <mergeCell ref="B242:D242"/>
-    <mergeCell ref="B244:D244"/>
-    <mergeCell ref="B246:D246"/>
-    <mergeCell ref="A221:D221"/>
-    <mergeCell ref="A223:D223"/>
-    <mergeCell ref="B225:D225"/>
-    <mergeCell ref="A230:E230"/>
-    <mergeCell ref="B232:D232"/>
-    <mergeCell ref="B234:D234"/>
-    <mergeCell ref="B260:D260"/>
-    <mergeCell ref="A274:E274"/>
-    <mergeCell ref="A276:D276"/>
-    <mergeCell ref="A277:D277"/>
-    <mergeCell ref="A278:D278"/>
-    <mergeCell ref="A279:D279"/>
-    <mergeCell ref="B248:D248"/>
-    <mergeCell ref="B250:D250"/>
-    <mergeCell ref="B252:D252"/>
-    <mergeCell ref="B254:D254"/>
-    <mergeCell ref="B256:D256"/>
-    <mergeCell ref="B258:D258"/>
-    <mergeCell ref="A286:D286"/>
-    <mergeCell ref="A287:D287"/>
-    <mergeCell ref="A288:D288"/>
-    <mergeCell ref="A280:D280"/>
-    <mergeCell ref="A281:D281"/>
-    <mergeCell ref="A282:D282"/>
-    <mergeCell ref="A283:D283"/>
-    <mergeCell ref="A284:D284"/>
-    <mergeCell ref="A285:D285"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ProjectStuff/AWOME tables-V4.xlsx
+++ b/ProjectStuff/AWOME tables-V4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="11820" firstSheet="1"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="28800" windowHeight="11820" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="Forms" sheetId="6" r:id="rId1"/>
@@ -3699,6 +3699,179 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3711,9 +3884,6 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3759,182 +3929,7 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3944,12 +3939,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3959,6 +3955,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3977,24 +3977,14 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4004,29 +3994,45 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4070,32 +4076,26 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -15356,7 +15356,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Enterprise Table'!$I$2" spid="_x0000_s8242"/>
+                  <a14:cameraTool cellRange="'Enterprise Table'!$I$2" spid="_x0000_s8244"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -28024,7 +28024,7 @@
   <dimension ref="A2:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D6"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28421,13 +28421,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="245" t="s">
         <v>502</v>
       </c>
-      <c r="B1" s="257"/>
-      <c r="C1" s="257"/>
-      <c r="D1" s="257"/>
-      <c r="E1" s="258"/>
+      <c r="B1" s="246"/>
+      <c r="C1" s="246"/>
+      <c r="D1" s="246"/>
+      <c r="E1" s="247"/>
     </row>
     <row r="2" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -28440,10 +28440,10 @@
       <c r="A3" s="100" t="s">
         <v>503</v>
       </c>
-      <c r="B3" s="302"/>
-      <c r="C3" s="365"/>
-      <c r="D3" s="365"/>
-      <c r="E3" s="303"/>
+      <c r="B3" s="277"/>
+      <c r="C3" s="384"/>
+      <c r="D3" s="384"/>
+      <c r="E3" s="278"/>
     </row>
     <row r="4" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="135"/>
@@ -28453,68 +28453,68 @@
       <c r="E4" s="135"/>
     </row>
     <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="366" t="s">
+      <c r="A5" s="385" t="s">
         <v>504</v>
       </c>
-      <c r="B5" s="367"/>
+      <c r="B5" s="386"/>
       <c r="C5" s="135"/>
       <c r="D5" s="135"/>
       <c r="E5" s="135"/>
     </row>
     <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="368" t="s">
+      <c r="A6" s="387" t="s">
         <v>350</v>
       </c>
-      <c r="B6" s="368"/>
-      <c r="C6" s="368" t="s">
+      <c r="B6" s="387"/>
+      <c r="C6" s="387" t="s">
         <v>505</v>
       </c>
-      <c r="D6" s="368"/>
+      <c r="D6" s="387"/>
       <c r="E6" s="100" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="364"/>
-      <c r="B7" s="364"/>
-      <c r="C7" s="364"/>
-      <c r="D7" s="364"/>
+      <c r="A7" s="376"/>
+      <c r="B7" s="376"/>
+      <c r="C7" s="376"/>
+      <c r="D7" s="376"/>
       <c r="E7" s="137"/>
     </row>
     <row r="8" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="364"/>
-      <c r="B8" s="364"/>
-      <c r="C8" s="364"/>
-      <c r="D8" s="364"/>
+      <c r="A8" s="376"/>
+      <c r="B8" s="376"/>
+      <c r="C8" s="376"/>
+      <c r="D8" s="376"/>
       <c r="E8" s="137"/>
     </row>
     <row r="9" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="364"/>
-      <c r="B9" s="364"/>
-      <c r="C9" s="364"/>
-      <c r="D9" s="364"/>
+      <c r="A9" s="376"/>
+      <c r="B9" s="376"/>
+      <c r="C9" s="376"/>
+      <c r="D9" s="376"/>
       <c r="E9" s="137"/>
     </row>
     <row r="10" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="364"/>
-      <c r="B10" s="364"/>
-      <c r="C10" s="364"/>
-      <c r="D10" s="364"/>
+      <c r="A10" s="376"/>
+      <c r="B10" s="376"/>
+      <c r="C10" s="376"/>
+      <c r="D10" s="376"/>
       <c r="E10" s="137"/>
     </row>
     <row r="11" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="364"/>
-      <c r="B11" s="364"/>
-      <c r="C11" s="364"/>
-      <c r="D11" s="364"/>
+      <c r="A11" s="376"/>
+      <c r="B11" s="376"/>
+      <c r="C11" s="376"/>
+      <c r="D11" s="376"/>
       <c r="E11" s="137"/>
     </row>
     <row r="12" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="372"/>
-      <c r="B12" s="372"/>
-      <c r="C12" s="372"/>
-      <c r="D12" s="372"/>
-      <c r="E12" s="372"/>
+      <c r="A12" s="377"/>
+      <c r="B12" s="377"/>
+      <c r="C12" s="377"/>
+      <c r="D12" s="377"/>
+      <c r="E12" s="377"/>
     </row>
     <row r="13" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="138"/>
@@ -28558,34 +28558,34 @@
       <c r="E17" s="135"/>
     </row>
     <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="369" t="s">
+      <c r="A18" s="365" t="s">
         <v>509</v>
       </c>
-      <c r="B18" s="371"/>
+      <c r="B18" s="366"/>
       <c r="C18" s="135"/>
       <c r="D18" s="135"/>
       <c r="E18" s="135"/>
     </row>
     <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="373"/>
-      <c r="B19" s="374"/>
-      <c r="C19" s="374"/>
-      <c r="D19" s="374"/>
-      <c r="E19" s="375"/>
+      <c r="A19" s="369"/>
+      <c r="B19" s="370"/>
+      <c r="C19" s="370"/>
+      <c r="D19" s="370"/>
+      <c r="E19" s="371"/>
     </row>
     <row r="20" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="376"/>
-      <c r="B20" s="377"/>
-      <c r="C20" s="377"/>
-      <c r="D20" s="377"/>
-      <c r="E20" s="378"/>
+      <c r="A20" s="378"/>
+      <c r="B20" s="379"/>
+      <c r="C20" s="379"/>
+      <c r="D20" s="379"/>
+      <c r="E20" s="380"/>
     </row>
     <row r="21" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="379"/>
-      <c r="B21" s="380"/>
-      <c r="C21" s="380"/>
-      <c r="D21" s="380"/>
-      <c r="E21" s="381"/>
+      <c r="A21" s="381"/>
+      <c r="B21" s="382"/>
+      <c r="C21" s="382"/>
+      <c r="D21" s="382"/>
+      <c r="E21" s="383"/>
     </row>
     <row r="22" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="135"/>
@@ -28595,34 +28595,34 @@
       <c r="E22" s="135"/>
     </row>
     <row r="23" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="369" t="s">
+      <c r="A23" s="365" t="s">
         <v>510</v>
       </c>
-      <c r="B23" s="371"/>
+      <c r="B23" s="366"/>
       <c r="C23" s="135"/>
       <c r="D23" s="135"/>
       <c r="E23" s="135"/>
     </row>
     <row r="24" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="373"/>
-      <c r="B24" s="374"/>
-      <c r="C24" s="374"/>
-      <c r="D24" s="374"/>
-      <c r="E24" s="375"/>
+      <c r="A24" s="369"/>
+      <c r="B24" s="370"/>
+      <c r="C24" s="370"/>
+      <c r="D24" s="370"/>
+      <c r="E24" s="371"/>
     </row>
     <row r="25" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="376"/>
-      <c r="B25" s="377"/>
-      <c r="C25" s="377"/>
-      <c r="D25" s="377"/>
-      <c r="E25" s="378"/>
+      <c r="A25" s="378"/>
+      <c r="B25" s="379"/>
+      <c r="C25" s="379"/>
+      <c r="D25" s="379"/>
+      <c r="E25" s="380"/>
     </row>
     <row r="26" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="379"/>
-      <c r="B26" s="380"/>
-      <c r="C26" s="380"/>
-      <c r="D26" s="380"/>
-      <c r="E26" s="381"/>
+      <c r="A26" s="381"/>
+      <c r="B26" s="382"/>
+      <c r="C26" s="382"/>
+      <c r="D26" s="382"/>
+      <c r="E26" s="383"/>
     </row>
     <row r="27" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="135"/>
@@ -28632,34 +28632,34 @@
       <c r="E27" s="135"/>
     </row>
     <row r="28" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="369" t="s">
+      <c r="A28" s="365" t="s">
         <v>511</v>
       </c>
-      <c r="B28" s="371"/>
+      <c r="B28" s="366"/>
       <c r="C28" s="135"/>
       <c r="D28" s="135"/>
       <c r="E28" s="135"/>
     </row>
     <row r="29" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="373"/>
-      <c r="B29" s="374"/>
-      <c r="C29" s="374"/>
-      <c r="D29" s="374"/>
-      <c r="E29" s="375"/>
+      <c r="A29" s="369"/>
+      <c r="B29" s="370"/>
+      <c r="C29" s="370"/>
+      <c r="D29" s="370"/>
+      <c r="E29" s="371"/>
     </row>
     <row r="30" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="376"/>
-      <c r="B30" s="377"/>
-      <c r="C30" s="377"/>
-      <c r="D30" s="377"/>
-      <c r="E30" s="378"/>
+      <c r="A30" s="378"/>
+      <c r="B30" s="379"/>
+      <c r="C30" s="379"/>
+      <c r="D30" s="379"/>
+      <c r="E30" s="380"/>
     </row>
     <row r="31" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="379"/>
-      <c r="B31" s="380"/>
-      <c r="C31" s="380"/>
-      <c r="D31" s="380"/>
-      <c r="E31" s="381"/>
+      <c r="A31" s="381"/>
+      <c r="B31" s="382"/>
+      <c r="C31" s="382"/>
+      <c r="D31" s="382"/>
+      <c r="E31" s="383"/>
     </row>
     <row r="32" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="144"/>
@@ -28669,34 +28669,34 @@
       <c r="E32" s="144"/>
     </row>
     <row r="33" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="369" t="s">
+      <c r="A33" s="365" t="s">
         <v>512</v>
       </c>
-      <c r="B33" s="371"/>
+      <c r="B33" s="366"/>
       <c r="C33" s="135"/>
       <c r="D33" s="135"/>
       <c r="E33" s="135"/>
     </row>
     <row r="34" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="373"/>
-      <c r="B34" s="374"/>
-      <c r="C34" s="374"/>
-      <c r="D34" s="374"/>
-      <c r="E34" s="375"/>
+      <c r="A34" s="369"/>
+      <c r="B34" s="370"/>
+      <c r="C34" s="370"/>
+      <c r="D34" s="370"/>
+      <c r="E34" s="371"/>
     </row>
     <row r="35" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="376"/>
-      <c r="B35" s="377"/>
-      <c r="C35" s="377"/>
-      <c r="D35" s="377"/>
-      <c r="E35" s="378"/>
+      <c r="A35" s="378"/>
+      <c r="B35" s="379"/>
+      <c r="C35" s="379"/>
+      <c r="D35" s="379"/>
+      <c r="E35" s="380"/>
     </row>
     <row r="36" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="379"/>
-      <c r="B36" s="380"/>
-      <c r="C36" s="380"/>
-      <c r="D36" s="380"/>
-      <c r="E36" s="381"/>
+      <c r="A36" s="381"/>
+      <c r="B36" s="382"/>
+      <c r="C36" s="382"/>
+      <c r="D36" s="382"/>
+      <c r="E36" s="383"/>
     </row>
     <row r="37" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="135"/>
@@ -28706,21 +28706,21 @@
       <c r="E37" s="135"/>
     </row>
     <row r="38" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="369" t="s">
+      <c r="A38" s="365" t="s">
         <v>513</v>
       </c>
-      <c r="B38" s="370"/>
-      <c r="C38" s="370"/>
-      <c r="D38" s="371"/>
+      <c r="B38" s="375"/>
+      <c r="C38" s="375"/>
+      <c r="D38" s="366"/>
       <c r="E38" s="135"/>
     </row>
     <row r="39" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="331" t="s">
+      <c r="A39" s="232" t="s">
         <v>318</v>
       </c>
-      <c r="B39" s="332"/>
-      <c r="C39" s="332"/>
-      <c r="D39" s="333"/>
+      <c r="B39" s="233"/>
+      <c r="C39" s="233"/>
+      <c r="D39" s="234"/>
       <c r="E39" s="135"/>
     </row>
     <row r="40" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28731,12 +28731,12 @@
       <c r="E40" s="135"/>
     </row>
     <row r="41" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="331" t="s">
+      <c r="A41" s="232" t="s">
         <v>319</v>
       </c>
-      <c r="B41" s="332"/>
-      <c r="C41" s="332"/>
-      <c r="D41" s="333"/>
+      <c r="B41" s="233"/>
+      <c r="C41" s="233"/>
+      <c r="D41" s="234"/>
       <c r="E41" s="135"/>
     </row>
     <row r="42" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28750,29 +28750,29 @@
       <c r="A43" s="147" t="s">
         <v>265</v>
       </c>
-      <c r="B43" s="373"/>
-      <c r="C43" s="374"/>
-      <c r="D43" s="375"/>
+      <c r="B43" s="369"/>
+      <c r="C43" s="370"/>
+      <c r="D43" s="371"/>
       <c r="E43" s="135"/>
     </row>
     <row r="44" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="382" t="s">
+      <c r="A44" s="372" t="s">
         <v>514</v>
       </c>
-      <c r="B44" s="383"/>
-      <c r="C44" s="383"/>
-      <c r="D44" s="383"/>
-      <c r="E44" s="384"/>
+      <c r="B44" s="373"/>
+      <c r="C44" s="373"/>
+      <c r="D44" s="373"/>
+      <c r="E44" s="374"/>
     </row>
     <row r="45" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="274" t="s">
+      <c r="A46" s="236" t="s">
         <v>515</v>
       </c>
-      <c r="B46" s="275"/>
-      <c r="C46" s="275"/>
-      <c r="D46" s="275"/>
-      <c r="E46" s="276"/>
+      <c r="B46" s="237"/>
+      <c r="C46" s="237"/>
+      <c r="D46" s="237"/>
+      <c r="E46" s="238"/>
     </row>
     <row r="47" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="148"/>
@@ -28782,10 +28782,10 @@
       <c r="E47" s="148"/>
     </row>
     <row r="48" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="369" t="s">
+      <c r="A48" s="365" t="s">
         <v>516</v>
       </c>
-      <c r="B48" s="371"/>
+      <c r="B48" s="366"/>
       <c r="C48" s="135"/>
       <c r="D48" s="137" t="s">
         <v>304</v>
@@ -28800,10 +28800,10 @@
       <c r="E49" s="135"/>
     </row>
     <row r="50" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="369" t="s">
+      <c r="A50" s="365" t="s">
         <v>517</v>
       </c>
-      <c r="B50" s="371"/>
+      <c r="B50" s="366"/>
       <c r="C50" s="135"/>
       <c r="D50" s="137"/>
       <c r="E50" s="135"/>
@@ -28816,10 +28816,10 @@
       <c r="E51" s="135"/>
     </row>
     <row r="52" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="369" t="s">
+      <c r="A52" s="365" t="s">
         <v>518</v>
       </c>
-      <c r="B52" s="371"/>
+      <c r="B52" s="366"/>
       <c r="C52" s="135"/>
       <c r="D52" s="137"/>
       <c r="E52" s="135"/>
@@ -28832,10 +28832,10 @@
       <c r="E53" s="135"/>
     </row>
     <row r="54" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="369" t="s">
+      <c r="A54" s="365" t="s">
         <v>519</v>
       </c>
-      <c r="B54" s="371"/>
+      <c r="B54" s="366"/>
       <c r="C54" s="135"/>
       <c r="D54" s="137" t="s">
         <v>304</v>
@@ -28850,10 +28850,10 @@
       <c r="E55" s="135"/>
     </row>
     <row r="56" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="369" t="s">
+      <c r="A56" s="365" t="s">
         <v>520</v>
       </c>
-      <c r="B56" s="371"/>
+      <c r="B56" s="366"/>
       <c r="C56" s="135"/>
       <c r="D56" s="137" t="s">
         <v>304</v>
@@ -28868,10 +28868,10 @@
       <c r="E57" s="135"/>
     </row>
     <row r="58" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="369" t="s">
+      <c r="A58" s="365" t="s">
         <v>521</v>
       </c>
-      <c r="B58" s="371"/>
+      <c r="B58" s="366"/>
       <c r="C58" s="135"/>
       <c r="D58" s="137" t="s">
         <v>304</v>
@@ -28886,10 +28886,10 @@
       <c r="E59" s="135"/>
     </row>
     <row r="60" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="369" t="s">
+      <c r="A60" s="365" t="s">
         <v>522</v>
       </c>
-      <c r="B60" s="371"/>
+      <c r="B60" s="366"/>
       <c r="C60" s="135"/>
       <c r="D60" s="137" t="s">
         <v>304</v>
@@ -28904,10 +28904,10 @@
       <c r="E61" s="135"/>
     </row>
     <row r="62" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="369" t="s">
+      <c r="A62" s="365" t="s">
         <v>523</v>
       </c>
-      <c r="B62" s="371"/>
+      <c r="B62" s="366"/>
       <c r="C62" s="135"/>
       <c r="D62" s="137" t="s">
         <v>304</v>
@@ -28922,10 +28922,10 @@
       <c r="E63" s="135"/>
     </row>
     <row r="64" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="369" t="s">
+      <c r="A64" s="365" t="s">
         <v>524</v>
       </c>
-      <c r="B64" s="371"/>
+      <c r="B64" s="366"/>
       <c r="C64" s="135"/>
       <c r="D64" s="137" t="s">
         <v>304</v>
@@ -28940,13 +28940,13 @@
       <c r="E65" s="135"/>
     </row>
     <row r="66" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="274" t="s">
+      <c r="A66" s="236" t="s">
         <v>525</v>
       </c>
-      <c r="B66" s="275"/>
-      <c r="C66" s="275"/>
-      <c r="D66" s="275"/>
-      <c r="E66" s="276"/>
+      <c r="B66" s="237"/>
+      <c r="C66" s="237"/>
+      <c r="D66" s="237"/>
+      <c r="E66" s="238"/>
     </row>
     <row r="67" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="148"/>
@@ -28956,10 +28956,10 @@
       <c r="E67" s="148"/>
     </row>
     <row r="68" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="369" t="s">
+      <c r="A68" s="365" t="s">
         <v>526</v>
       </c>
-      <c r="B68" s="371"/>
+      <c r="B68" s="366"/>
       <c r="C68" s="135"/>
       <c r="D68" s="137" t="s">
         <v>304</v>
@@ -28974,10 +28974,10 @@
       <c r="E69" s="135"/>
     </row>
     <row r="70" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="369" t="s">
+      <c r="A70" s="365" t="s">
         <v>527</v>
       </c>
-      <c r="B70" s="371"/>
+      <c r="B70" s="366"/>
       <c r="C70" s="135"/>
       <c r="D70" s="137" t="s">
         <v>304</v>
@@ -28992,10 +28992,10 @@
       <c r="E71" s="135"/>
     </row>
     <row r="72" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="369" t="s">
+      <c r="A72" s="365" t="s">
         <v>528</v>
       </c>
-      <c r="B72" s="371"/>
+      <c r="B72" s="366"/>
       <c r="C72" s="135"/>
       <c r="D72" s="137" t="s">
         <v>304</v>
@@ -29010,10 +29010,10 @@
       <c r="E73" s="135"/>
     </row>
     <row r="74" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="369" t="s">
+      <c r="A74" s="365" t="s">
         <v>529</v>
       </c>
-      <c r="B74" s="371"/>
+      <c r="B74" s="366"/>
       <c r="C74" s="135"/>
       <c r="D74" s="137" t="s">
         <v>304</v>
@@ -29028,10 +29028,10 @@
       <c r="E75" s="135"/>
     </row>
     <row r="76" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="369" t="s">
+      <c r="A76" s="365" t="s">
         <v>530</v>
       </c>
-      <c r="B76" s="371"/>
+      <c r="B76" s="366"/>
       <c r="C76" s="135"/>
       <c r="D76" s="137" t="s">
         <v>304</v>
@@ -29046,10 +29046,10 @@
       <c r="E77" s="135"/>
     </row>
     <row r="78" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="369" t="s">
+      <c r="A78" s="365" t="s">
         <v>531</v>
       </c>
-      <c r="B78" s="371"/>
+      <c r="B78" s="366"/>
       <c r="C78" s="135"/>
       <c r="D78" s="137" t="s">
         <v>304</v>
@@ -29064,10 +29064,10 @@
       <c r="E79" s="135"/>
     </row>
     <row r="80" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="385" t="s">
+      <c r="A80" s="367" t="s">
         <v>532</v>
       </c>
-      <c r="B80" s="386"/>
+      <c r="B80" s="368"/>
       <c r="C80" s="135"/>
       <c r="D80" s="137" t="s">
         <v>304</v>
@@ -29082,10 +29082,10 @@
       <c r="E81" s="135"/>
     </row>
     <row r="82" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="369" t="s">
+      <c r="A82" s="365" t="s">
         <v>533</v>
       </c>
-      <c r="B82" s="371"/>
+      <c r="B82" s="366"/>
       <c r="C82" s="135"/>
       <c r="D82" s="137" t="s">
         <v>304</v>
@@ -29100,10 +29100,10 @@
       <c r="E83" s="135"/>
     </row>
     <row r="84" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="369" t="s">
+      <c r="A84" s="365" t="s">
         <v>534</v>
       </c>
-      <c r="B84" s="371"/>
+      <c r="B84" s="366"/>
       <c r="C84" s="135"/>
       <c r="D84" s="137" t="s">
         <v>304</v>
@@ -29114,29 +29114,29 @@
     <row r="86" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="87" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="88" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="387"/>
-      <c r="B88" s="387"/>
-      <c r="C88" s="387"/>
-      <c r="D88" s="387"/>
-      <c r="E88" s="387"/>
+      <c r="A88" s="364"/>
+      <c r="B88" s="364"/>
+      <c r="C88" s="364"/>
+      <c r="D88" s="364"/>
+      <c r="E88" s="364"/>
     </row>
     <row r="89" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="93" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="334" t="s">
+      <c r="A93" s="235" t="s">
         <v>334</v>
       </c>
-      <c r="B93" s="334"/>
-      <c r="C93" s="334"/>
-      <c r="D93" s="334"/>
-      <c r="E93" s="334"/>
+      <c r="B93" s="235"/>
+      <c r="C93" s="235"/>
+      <c r="D93" s="235"/>
+      <c r="E93" s="235"/>
     </row>
     <row r="94" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="B94" s="226"/>
-      <c r="C94" s="227"/>
-      <c r="D94" s="228"/>
+      <c r="B94" s="223"/>
+      <c r="C94" s="224"/>
+      <c r="D94" s="225"/>
     </row>
     <row r="95" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
@@ -29148,9 +29148,9 @@
       <c r="A96" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="B96" s="226"/>
-      <c r="C96" s="227"/>
-      <c r="D96" s="228"/>
+      <c r="B96" s="223"/>
+      <c r="C96" s="224"/>
+      <c r="D96" s="225"/>
     </row>
     <row r="97" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
@@ -29162,9 +29162,9 @@
       <c r="A98" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="B98" s="226"/>
-      <c r="C98" s="227"/>
-      <c r="D98" s="228"/>
+      <c r="B98" s="223"/>
+      <c r="C98" s="224"/>
+      <c r="D98" s="225"/>
     </row>
     <row r="99" spans="1:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
@@ -29176,9 +29176,9 @@
       <c r="A100" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="B100" s="226"/>
-      <c r="C100" s="227"/>
-      <c r="D100" s="228"/>
+      <c r="B100" s="223"/>
+      <c r="C100" s="224"/>
+      <c r="D100" s="225"/>
     </row>
     <row r="101" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
@@ -29190,9 +29190,9 @@
       <c r="A102" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="B102" s="226"/>
-      <c r="C102" s="227"/>
-      <c r="D102" s="228"/>
+      <c r="B102" s="223"/>
+      <c r="C102" s="224"/>
+      <c r="D102" s="225"/>
     </row>
     <row r="103" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
@@ -29204,9 +29204,9 @@
       <c r="A104" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="B104" s="226"/>
-      <c r="C104" s="227"/>
-      <c r="D104" s="228"/>
+      <c r="B104" s="223"/>
+      <c r="C104" s="224"/>
+      <c r="D104" s="225"/>
     </row>
     <row r="105" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
@@ -29218,9 +29218,9 @@
       <c r="A106" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="B106" s="226"/>
-      <c r="C106" s="227"/>
-      <c r="D106" s="228"/>
+      <c r="B106" s="223"/>
+      <c r="C106" s="224"/>
+      <c r="D106" s="225"/>
     </row>
     <row r="107" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
@@ -29232,9 +29232,9 @@
       <c r="A108" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="B108" s="226"/>
-      <c r="C108" s="227"/>
-      <c r="D108" s="228"/>
+      <c r="B108" s="223"/>
+      <c r="C108" s="224"/>
+      <c r="D108" s="225"/>
     </row>
     <row r="109" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="11"/>
@@ -29246,9 +29246,9 @@
       <c r="A110" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B110" s="226"/>
-      <c r="C110" s="227"/>
-      <c r="D110" s="228"/>
+      <c r="B110" s="223"/>
+      <c r="C110" s="224"/>
+      <c r="D110" s="225"/>
     </row>
     <row r="111" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
@@ -29260,9 +29260,9 @@
       <c r="A112" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="B112" s="226"/>
-      <c r="C112" s="227"/>
-      <c r="D112" s="228"/>
+      <c r="B112" s="223"/>
+      <c r="C112" s="224"/>
+      <c r="D112" s="225"/>
     </row>
     <row r="113" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="11"/>
@@ -29274,9 +29274,9 @@
       <c r="A114" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B114" s="226"/>
-      <c r="C114" s="227"/>
-      <c r="D114" s="228"/>
+      <c r="B114" s="223"/>
+      <c r="C114" s="224"/>
+      <c r="D114" s="225"/>
     </row>
     <row r="115" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="11"/>
@@ -29288,9 +29288,9 @@
       <c r="A116" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="B116" s="226"/>
-      <c r="C116" s="227"/>
-      <c r="D116" s="228"/>
+      <c r="B116" s="223"/>
+      <c r="C116" s="224"/>
+      <c r="D116" s="225"/>
     </row>
     <row r="117" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="11"/>
@@ -29302,9 +29302,9 @@
       <c r="A118" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="B118" s="226"/>
-      <c r="C118" s="227"/>
-      <c r="D118" s="228"/>
+      <c r="B118" s="223"/>
+      <c r="C118" s="224"/>
+      <c r="D118" s="225"/>
     </row>
     <row r="119" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="11"/>
@@ -29316,9 +29316,9 @@
       <c r="A120" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="B120" s="226"/>
-      <c r="C120" s="227"/>
-      <c r="D120" s="228"/>
+      <c r="B120" s="223"/>
+      <c r="C120" s="224"/>
+      <c r="D120" s="225"/>
     </row>
     <row r="121" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="11"/>
@@ -29330,9 +29330,9 @@
       <c r="A122" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="B122" s="226"/>
-      <c r="C122" s="227"/>
-      <c r="D122" s="228"/>
+      <c r="B122" s="223"/>
+      <c r="C122" s="224"/>
+      <c r="D122" s="225"/>
     </row>
     <row r="123" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="12"/>
@@ -29342,11 +29342,55 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="B118:D118"/>
-    <mergeCell ref="B120:D120"/>
-    <mergeCell ref="B122:D122"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:E21"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:E26"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:E31"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:E36"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A82:B82"/>
     <mergeCell ref="B112:D112"/>
     <mergeCell ref="A88:E88"/>
     <mergeCell ref="A93:E93"/>
@@ -29359,55 +29403,11 @@
     <mergeCell ref="B106:D106"/>
     <mergeCell ref="B108:D108"/>
     <mergeCell ref="B110:D110"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:E21"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:E26"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:E31"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:E36"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B122:D122"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -30456,13 +30456,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="418" t="s">
+      <c r="A1" s="388" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="419"/>
-      <c r="C1" s="419"/>
-      <c r="D1" s="419"/>
-      <c r="E1" s="420"/>
+      <c r="B1" s="389"/>
+      <c r="C1" s="389"/>
+      <c r="D1" s="389"/>
+      <c r="E1" s="390"/>
     </row>
     <row r="2" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="152"/>
@@ -30480,11 +30480,11 @@
       <c r="E3" s="156"/>
     </row>
     <row r="4" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="421"/>
-      <c r="B4" s="422"/>
-      <c r="C4" s="422"/>
-      <c r="D4" s="422"/>
-      <c r="E4" s="423"/>
+      <c r="A4" s="391"/>
+      <c r="B4" s="392"/>
+      <c r="C4" s="392"/>
+      <c r="D4" s="392"/>
+      <c r="E4" s="393"/>
     </row>
     <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="157" t="s">
@@ -30568,31 +30568,31 @@
       <c r="D14" s="135"/>
     </row>
     <row r="15" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="415" t="s">
+      <c r="A15" s="394" t="s">
         <v>546</v>
       </c>
-      <c r="B15" s="336" t="s">
+      <c r="B15" s="221" t="s">
         <v>547</v>
       </c>
-      <c r="C15" s="336"/>
-      <c r="D15" s="336"/>
-      <c r="E15" s="337"/>
+      <c r="C15" s="221"/>
+      <c r="D15" s="221"/>
+      <c r="E15" s="222"/>
     </row>
     <row r="16" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="416"/>
+      <c r="A16" s="395"/>
       <c r="B16" s="124"/>
       <c r="C16" s="124"/>
       <c r="D16" s="124"/>
       <c r="E16" s="124"/>
     </row>
     <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="417"/>
-      <c r="B17" s="335" t="s">
+      <c r="A17" s="396"/>
+      <c r="B17" s="220" t="s">
         <v>548</v>
       </c>
-      <c r="C17" s="336"/>
-      <c r="D17" s="336"/>
-      <c r="E17" s="337"/>
+      <c r="C17" s="221"/>
+      <c r="D17" s="221"/>
+      <c r="E17" s="222"/>
     </row>
     <row r="18" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="144"/>
@@ -30604,12 +30604,12 @@
       <c r="A19" s="158" t="s">
         <v>549</v>
       </c>
-      <c r="B19" s="336" t="s">
+      <c r="B19" s="221" t="s">
         <v>550</v>
       </c>
-      <c r="C19" s="336"/>
-      <c r="D19" s="336"/>
-      <c r="E19" s="337"/>
+      <c r="C19" s="221"/>
+      <c r="D19" s="221"/>
+      <c r="E19" s="222"/>
     </row>
     <row r="20" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="159"/>
@@ -30619,31 +30619,31 @@
       <c r="E20" s="42"/>
     </row>
     <row r="21" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="415" t="s">
+      <c r="A21" s="394" t="s">
         <v>551</v>
       </c>
-      <c r="B21" s="336" t="s">
+      <c r="B21" s="221" t="s">
         <v>552</v>
       </c>
-      <c r="C21" s="336"/>
-      <c r="D21" s="336"/>
-      <c r="E21" s="337"/>
+      <c r="C21" s="221"/>
+      <c r="D21" s="221"/>
+      <c r="E21" s="222"/>
     </row>
     <row r="22" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="416"/>
+      <c r="A22" s="395"/>
       <c r="B22" s="124"/>
       <c r="C22" s="124"/>
       <c r="D22" s="124"/>
       <c r="E22" s="124"/>
     </row>
     <row r="23" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="417"/>
-      <c r="B23" s="336" t="s">
+      <c r="A23" s="396"/>
+      <c r="B23" s="221" t="s">
         <v>553</v>
       </c>
-      <c r="C23" s="336"/>
-      <c r="D23" s="336"/>
-      <c r="E23" s="337"/>
+      <c r="C23" s="221"/>
+      <c r="D23" s="221"/>
+      <c r="E23" s="222"/>
     </row>
     <row r="24" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="144"/>
@@ -30703,12 +30703,12 @@
       <c r="A31" s="397" t="s">
         <v>559</v>
       </c>
-      <c r="B31" s="335" t="s">
+      <c r="B31" s="220" t="s">
         <v>560</v>
       </c>
-      <c r="C31" s="336"/>
-      <c r="D31" s="336"/>
-      <c r="E31" s="337"/>
+      <c r="C31" s="221"/>
+      <c r="D31" s="221"/>
+      <c r="E31" s="222"/>
     </row>
     <row r="32" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="398"/>
@@ -30718,12 +30718,12 @@
     </row>
     <row r="33" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="399"/>
-      <c r="B33" s="335" t="s">
+      <c r="B33" s="220" t="s">
         <v>561</v>
       </c>
-      <c r="C33" s="336"/>
-      <c r="D33" s="336"/>
-      <c r="E33" s="337"/>
+      <c r="C33" s="221"/>
+      <c r="D33" s="221"/>
+      <c r="E33" s="222"/>
     </row>
     <row r="34" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="144"/>
@@ -30853,19 +30853,19 @@
       <c r="A49" s="136" t="s">
         <v>245</v>
       </c>
-      <c r="B49" s="302"/>
-      <c r="C49" s="365"/>
-      <c r="D49" s="365"/>
-      <c r="E49" s="303"/>
+      <c r="B49" s="277"/>
+      <c r="C49" s="384"/>
+      <c r="D49" s="384"/>
+      <c r="E49" s="278"/>
     </row>
     <row r="50" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="388" t="s">
+      <c r="A50" s="416" t="s">
         <v>575</v>
       </c>
-      <c r="B50" s="389"/>
-      <c r="C50" s="389"/>
-      <c r="D50" s="389"/>
-      <c r="E50" s="390"/>
+      <c r="B50" s="417"/>
+      <c r="C50" s="417"/>
+      <c r="D50" s="417"/>
+      <c r="E50" s="418"/>
     </row>
     <row r="51" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -30875,10 +30875,10 @@
       <c r="B52" s="167"/>
     </row>
     <row r="53" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="392" t="s">
+      <c r="A53" s="419" t="s">
         <v>576</v>
       </c>
-      <c r="B53" s="393"/>
+      <c r="B53" s="420"/>
       <c r="D53" s="51" t="s">
         <v>577</v>
       </c>
@@ -30970,66 +30970,66 @@
       <c r="A69" s="52"/>
     </row>
     <row r="70" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="394" t="s">
+      <c r="A70" s="421" t="s">
         <v>582</v>
       </c>
-      <c r="B70" s="395"/>
-      <c r="C70" s="395"/>
-      <c r="D70" s="395"/>
-      <c r="E70" s="396"/>
+      <c r="B70" s="422"/>
+      <c r="C70" s="422"/>
+      <c r="D70" s="422"/>
+      <c r="E70" s="423"/>
     </row>
     <row r="71" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="72" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="366" t="s">
+      <c r="A72" s="385" t="s">
         <v>583</v>
       </c>
-      <c r="B72" s="391"/>
-      <c r="C72" s="391"/>
-      <c r="D72" s="367"/>
+      <c r="B72" s="415"/>
+      <c r="C72" s="415"/>
+      <c r="D72" s="386"/>
       <c r="E72" s="168" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="335"/>
-      <c r="B73" s="336"/>
-      <c r="C73" s="336"/>
-      <c r="D73" s="337"/>
+      <c r="A73" s="220"/>
+      <c r="B73" s="221"/>
+      <c r="C73" s="221"/>
+      <c r="D73" s="222"/>
       <c r="E73" s="51"/>
     </row>
     <row r="74" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="335"/>
-      <c r="B74" s="336"/>
-      <c r="C74" s="336"/>
-      <c r="D74" s="337"/>
+      <c r="A74" s="220"/>
+      <c r="B74" s="221"/>
+      <c r="C74" s="221"/>
+      <c r="D74" s="222"/>
       <c r="E74" s="51"/>
     </row>
     <row r="75" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="302"/>
-      <c r="B75" s="365"/>
-      <c r="C75" s="365"/>
-      <c r="D75" s="303"/>
+      <c r="A75" s="277"/>
+      <c r="B75" s="384"/>
+      <c r="C75" s="384"/>
+      <c r="D75" s="278"/>
       <c r="E75" s="51"/>
     </row>
     <row r="76" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="335"/>
-      <c r="B76" s="336"/>
-      <c r="C76" s="336"/>
-      <c r="D76" s="337"/>
+      <c r="A76" s="220"/>
+      <c r="B76" s="221"/>
+      <c r="C76" s="221"/>
+      <c r="D76" s="222"/>
       <c r="E76" s="51"/>
     </row>
     <row r="77" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="335"/>
-      <c r="B77" s="336"/>
-      <c r="C77" s="336"/>
-      <c r="D77" s="337"/>
+      <c r="A77" s="220"/>
+      <c r="B77" s="221"/>
+      <c r="C77" s="221"/>
+      <c r="D77" s="222"/>
       <c r="E77" s="51"/>
     </row>
     <row r="78" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="335"/>
-      <c r="B78" s="336"/>
-      <c r="C78" s="336"/>
-      <c r="D78" s="337"/>
+      <c r="A78" s="220"/>
+      <c r="B78" s="221"/>
+      <c r="C78" s="221"/>
+      <c r="D78" s="222"/>
       <c r="E78" s="51"/>
     </row>
     <row r="79" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -31040,68 +31040,68 @@
       <c r="E79" s="124"/>
     </row>
     <row r="80" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="366" t="s">
+      <c r="A80" s="385" t="s">
         <v>490</v>
       </c>
-      <c r="B80" s="391"/>
-      <c r="C80" s="391"/>
-      <c r="D80" s="367"/>
+      <c r="B80" s="415"/>
+      <c r="C80" s="415"/>
+      <c r="D80" s="386"/>
       <c r="E80" s="168" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="335"/>
-      <c r="B81" s="336"/>
-      <c r="C81" s="336"/>
-      <c r="D81" s="337"/>
+      <c r="A81" s="220"/>
+      <c r="B81" s="221"/>
+      <c r="C81" s="221"/>
+      <c r="D81" s="222"/>
       <c r="E81" s="51"/>
     </row>
     <row r="82" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="335"/>
-      <c r="B82" s="336"/>
-      <c r="C82" s="336"/>
-      <c r="D82" s="337"/>
+      <c r="A82" s="220"/>
+      <c r="B82" s="221"/>
+      <c r="C82" s="221"/>
+      <c r="D82" s="222"/>
       <c r="E82" s="51"/>
     </row>
     <row r="83" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="335"/>
-      <c r="B83" s="336"/>
-      <c r="C83" s="336"/>
-      <c r="D83" s="337"/>
+      <c r="A83" s="220"/>
+      <c r="B83" s="221"/>
+      <c r="C83" s="221"/>
+      <c r="D83" s="222"/>
       <c r="E83" s="51"/>
     </row>
     <row r="84" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="335"/>
-      <c r="B84" s="336"/>
-      <c r="C84" s="336"/>
-      <c r="D84" s="337"/>
+      <c r="A84" s="220"/>
+      <c r="B84" s="221"/>
+      <c r="C84" s="221"/>
+      <c r="D84" s="222"/>
       <c r="E84" s="51"/>
     </row>
     <row r="85" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="335"/>
-      <c r="B85" s="336"/>
-      <c r="C85" s="336"/>
-      <c r="D85" s="337"/>
+      <c r="A85" s="220"/>
+      <c r="B85" s="221"/>
+      <c r="C85" s="221"/>
+      <c r="D85" s="222"/>
       <c r="E85" s="51"/>
     </row>
     <row r="88" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="89" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="388" t="s">
+      <c r="A89" s="416" t="s">
         <v>334</v>
       </c>
-      <c r="B89" s="389"/>
-      <c r="C89" s="389"/>
-      <c r="D89" s="389"/>
-      <c r="E89" s="390"/>
+      <c r="B89" s="417"/>
+      <c r="C89" s="417"/>
+      <c r="D89" s="417"/>
+      <c r="E89" s="418"/>
     </row>
     <row r="91" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="74" t="s">
         <v>585</v>
       </c>
-      <c r="B91" s="335"/>
-      <c r="C91" s="336"/>
-      <c r="D91" s="337"/>
+      <c r="B91" s="220"/>
+      <c r="C91" s="221"/>
+      <c r="D91" s="222"/>
     </row>
     <row r="92" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
@@ -31110,9 +31110,9 @@
       <c r="A93" s="74" t="s">
         <v>586</v>
       </c>
-      <c r="B93" s="335"/>
-      <c r="C93" s="336"/>
-      <c r="D93" s="337"/>
+      <c r="B93" s="220"/>
+      <c r="C93" s="221"/>
+      <c r="D93" s="222"/>
     </row>
     <row r="94" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
@@ -31121,9 +31121,9 @@
       <c r="A95" s="74" t="s">
         <v>587</v>
       </c>
-      <c r="B95" s="335"/>
-      <c r="C95" s="336"/>
-      <c r="D95" s="337"/>
+      <c r="B95" s="220"/>
+      <c r="C95" s="221"/>
+      <c r="D95" s="222"/>
     </row>
     <row r="96" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
@@ -31132,9 +31132,9 @@
       <c r="A97" s="74" t="s">
         <v>588</v>
       </c>
-      <c r="B97" s="335"/>
-      <c r="C97" s="336"/>
-      <c r="D97" s="337"/>
+      <c r="B97" s="220"/>
+      <c r="C97" s="221"/>
+      <c r="D97" s="222"/>
     </row>
     <row r="98" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
@@ -31143,9 +31143,9 @@
       <c r="A99" s="74" t="s">
         <v>589</v>
       </c>
-      <c r="B99" s="335"/>
-      <c r="C99" s="336"/>
-      <c r="D99" s="337"/>
+      <c r="B99" s="220"/>
+      <c r="C99" s="221"/>
+      <c r="D99" s="222"/>
     </row>
     <row r="100" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
@@ -31154,9 +31154,9 @@
       <c r="A101" s="74" t="s">
         <v>590</v>
       </c>
-      <c r="B101" s="335"/>
-      <c r="C101" s="336"/>
-      <c r="D101" s="337"/>
+      <c r="B101" s="220"/>
+      <c r="C101" s="221"/>
+      <c r="D101" s="222"/>
     </row>
     <row r="102" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
@@ -31165,9 +31165,9 @@
       <c r="A103" s="74" t="s">
         <v>591</v>
       </c>
-      <c r="B103" s="335"/>
-      <c r="C103" s="336"/>
-      <c r="D103" s="337"/>
+      <c r="B103" s="220"/>
+      <c r="C103" s="221"/>
+      <c r="D103" s="222"/>
     </row>
     <row r="104" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
@@ -31176,9 +31176,9 @@
       <c r="A105" s="74" t="s">
         <v>592</v>
       </c>
-      <c r="B105" s="335"/>
-      <c r="C105" s="336"/>
-      <c r="D105" s="337"/>
+      <c r="B105" s="220"/>
+      <c r="C105" s="221"/>
+      <c r="D105" s="222"/>
     </row>
     <row r="106" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="11"/>
@@ -31187,9 +31187,9 @@
       <c r="A107" s="74" t="s">
         <v>593</v>
       </c>
-      <c r="B107" s="335"/>
-      <c r="C107" s="336"/>
-      <c r="D107" s="337"/>
+      <c r="B107" s="220"/>
+      <c r="C107" s="221"/>
+      <c r="D107" s="222"/>
     </row>
     <row r="108" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
@@ -31198,9 +31198,9 @@
       <c r="A109" s="74" t="s">
         <v>594</v>
       </c>
-      <c r="B109" s="335"/>
-      <c r="C109" s="336"/>
-      <c r="D109" s="337"/>
+      <c r="B109" s="220"/>
+      <c r="C109" s="221"/>
+      <c r="D109" s="222"/>
     </row>
     <row r="110" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
@@ -31209,9 +31209,9 @@
       <c r="A111" s="74" t="s">
         <v>595</v>
       </c>
-      <c r="B111" s="335"/>
-      <c r="C111" s="336"/>
-      <c r="D111" s="337"/>
+      <c r="B111" s="220"/>
+      <c r="C111" s="221"/>
+      <c r="D111" s="222"/>
     </row>
     <row r="112" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
@@ -31220,9 +31220,9 @@
       <c r="A113" s="74" t="s">
         <v>596</v>
       </c>
-      <c r="B113" s="335"/>
-      <c r="C113" s="336"/>
-      <c r="D113" s="337"/>
+      <c r="B113" s="220"/>
+      <c r="C113" s="221"/>
+      <c r="D113" s="222"/>
     </row>
     <row r="114" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="11"/>
@@ -31231,9 +31231,9 @@
       <c r="A115" s="74" t="s">
         <v>597</v>
       </c>
-      <c r="B115" s="335"/>
-      <c r="C115" s="336"/>
-      <c r="D115" s="337"/>
+      <c r="B115" s="220"/>
+      <c r="C115" s="221"/>
+      <c r="D115" s="222"/>
     </row>
     <row r="116" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="11"/>
@@ -31242,9 +31242,9 @@
       <c r="A117" s="74" t="s">
         <v>598</v>
       </c>
-      <c r="B117" s="335"/>
-      <c r="C117" s="336"/>
-      <c r="D117" s="337"/>
+      <c r="B117" s="220"/>
+      <c r="C117" s="221"/>
+      <c r="D117" s="222"/>
     </row>
     <row r="118" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="11"/>
@@ -31253,30 +31253,33 @@
       <c r="A119" s="74" t="s">
         <v>599</v>
       </c>
-      <c r="B119" s="335"/>
-      <c r="C119" s="336"/>
-      <c r="D119" s="337"/>
+      <c r="B119" s="220"/>
+      <c r="C119" s="221"/>
+      <c r="D119" s="222"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="B109:D109"/>
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B99:D99"/>
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="B49:E49"/>
     <mergeCell ref="A50:E50"/>
@@ -31289,27 +31292,24 @@
     <mergeCell ref="A76:D76"/>
     <mergeCell ref="A77:D77"/>
     <mergeCell ref="A78:D78"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="B109:D109"/>
-    <mergeCell ref="B111:D111"/>
-    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B17:E17"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -32899,13 +32899,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="244" t="s">
+      <c r="A1" s="226" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="245"/>
-      <c r="C1" s="245"/>
-      <c r="D1" s="245"/>
-      <c r="E1" s="246"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="228"/>
     </row>
     <row r="2" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
@@ -32914,10 +32914,10 @@
       <c r="A3" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="226"/>
-      <c r="C3" s="227"/>
-      <c r="D3" s="227"/>
-      <c r="E3" s="228"/>
+      <c r="B3" s="223"/>
+      <c r="C3" s="224"/>
+      <c r="D3" s="224"/>
+      <c r="E3" s="225"/>
     </row>
     <row r="4" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
@@ -32984,56 +32984,56 @@
       <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="247" t="s">
+      <c r="A11" s="229" t="s">
         <v>236</v>
       </c>
-      <c r="B11" s="248"/>
-      <c r="C11" s="249"/>
+      <c r="B11" s="230"/>
+      <c r="C11" s="231"/>
       <c r="D11" s="17" t="s">
         <v>237</v>
       </c>
       <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="220"/>
-      <c r="B12" s="221"/>
-      <c r="C12" s="221"/>
-      <c r="D12" s="221"/>
-      <c r="E12" s="222"/>
+      <c r="A12" s="317"/>
+      <c r="B12" s="318"/>
+      <c r="C12" s="318"/>
+      <c r="D12" s="318"/>
+      <c r="E12" s="319"/>
     </row>
     <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="250" t="s">
+      <c r="A13" s="265" t="s">
         <v>238</v>
       </c>
-      <c r="B13" s="253" t="s">
+      <c r="B13" s="301" t="s">
         <v>239</v>
       </c>
-      <c r="C13" s="254"/>
-      <c r="D13" s="254"/>
-      <c r="E13" s="255"/>
+      <c r="C13" s="299"/>
+      <c r="D13" s="299"/>
+      <c r="E13" s="300"/>
     </row>
     <row r="14" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="251"/>
+      <c r="A14" s="271"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
     </row>
     <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="252"/>
-      <c r="B15" s="253" t="s">
+      <c r="A15" s="266"/>
+      <c r="B15" s="301" t="s">
         <v>240</v>
       </c>
-      <c r="C15" s="254"/>
-      <c r="D15" s="254"/>
-      <c r="E15" s="255"/>
+      <c r="C15" s="299"/>
+      <c r="D15" s="299"/>
+      <c r="E15" s="300"/>
     </row>
     <row r="16" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="220"/>
-      <c r="B16" s="221"/>
-      <c r="C16" s="221"/>
-      <c r="D16" s="221"/>
-      <c r="E16" s="222"/>
+      <c r="A16" s="317"/>
+      <c r="B16" s="318"/>
+      <c r="C16" s="318"/>
+      <c r="D16" s="318"/>
+      <c r="E16" s="319"/>
     </row>
     <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
@@ -33051,20 +33051,20 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="223"/>
-      <c r="B18" s="224"/>
-      <c r="C18" s="224"/>
-      <c r="D18" s="224"/>
-      <c r="E18" s="225"/>
+      <c r="A18" s="320"/>
+      <c r="B18" s="321"/>
+      <c r="C18" s="321"/>
+      <c r="D18" s="321"/>
+      <c r="E18" s="322"/>
     </row>
     <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="B19" s="226"/>
-      <c r="C19" s="227"/>
-      <c r="D19" s="227"/>
-      <c r="E19" s="228"/>
+      <c r="B19" s="223"/>
+      <c r="C19" s="224"/>
+      <c r="D19" s="224"/>
+      <c r="E19" s="225"/>
     </row>
     <row r="20" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
@@ -33092,27 +33092,27 @@
       <c r="E22" s="24"/>
     </row>
     <row r="23" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="229" t="s">
+      <c r="A23" s="323" t="s">
         <v>246</v>
       </c>
-      <c r="B23" s="232"/>
-      <c r="C23" s="233"/>
-      <c r="D23" s="233"/>
-      <c r="E23" s="234"/>
+      <c r="B23" s="326"/>
+      <c r="C23" s="327"/>
+      <c r="D23" s="327"/>
+      <c r="E23" s="328"/>
     </row>
     <row r="24" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="230"/>
-      <c r="B24" s="235"/>
-      <c r="C24" s="236"/>
-      <c r="D24" s="236"/>
-      <c r="E24" s="237"/>
+      <c r="A24" s="324"/>
+      <c r="B24" s="329"/>
+      <c r="C24" s="330"/>
+      <c r="D24" s="330"/>
+      <c r="E24" s="331"/>
     </row>
     <row r="25" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="231"/>
-      <c r="B25" s="238"/>
-      <c r="C25" s="239"/>
-      <c r="D25" s="239"/>
-      <c r="E25" s="240"/>
+      <c r="A25" s="325"/>
+      <c r="B25" s="332"/>
+      <c r="C25" s="333"/>
+      <c r="D25" s="333"/>
+      <c r="E25" s="334"/>
     </row>
     <row r="26" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
@@ -33122,37 +33122,37 @@
       <c r="E26" s="24"/>
     </row>
     <row r="27" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="241" t="s">
+      <c r="A27" s="335" t="s">
         <v>247</v>
       </c>
-      <c r="B27" s="232"/>
-      <c r="C27" s="233"/>
-      <c r="D27" s="233"/>
-      <c r="E27" s="234"/>
+      <c r="B27" s="326"/>
+      <c r="C27" s="327"/>
+      <c r="D27" s="327"/>
+      <c r="E27" s="328"/>
     </row>
     <row r="28" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="242"/>
-      <c r="B28" s="235"/>
-      <c r="C28" s="236"/>
-      <c r="D28" s="236"/>
-      <c r="E28" s="237"/>
+      <c r="A28" s="336"/>
+      <c r="B28" s="329"/>
+      <c r="C28" s="330"/>
+      <c r="D28" s="330"/>
+      <c r="E28" s="331"/>
     </row>
     <row r="29" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="243"/>
-      <c r="B29" s="238"/>
-      <c r="C29" s="239"/>
-      <c r="D29" s="239"/>
-      <c r="E29" s="240"/>
+      <c r="A29" s="337"/>
+      <c r="B29" s="332"/>
+      <c r="C29" s="333"/>
+      <c r="D29" s="333"/>
+      <c r="E29" s="334"/>
     </row>
     <row r="30" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="265" t="s">
+      <c r="A31" s="311" t="s">
         <v>248</v>
       </c>
-      <c r="B31" s="266"/>
-      <c r="C31" s="266"/>
-      <c r="D31" s="266"/>
-      <c r="E31" s="267"/>
+      <c r="B31" s="312"/>
+      <c r="C31" s="312"/>
+      <c r="D31" s="312"/>
+      <c r="E31" s="313"/>
     </row>
     <row r="32" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
@@ -33191,13 +33191,13 @@
       <c r="E35" s="12"/>
     </row>
     <row r="36" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="265" t="s">
+      <c r="A36" s="311" t="s">
         <v>253</v>
       </c>
-      <c r="B36" s="266"/>
-      <c r="C36" s="266"/>
-      <c r="D36" s="266"/>
-      <c r="E36" s="267"/>
+      <c r="B36" s="312"/>
+      <c r="C36" s="312"/>
+      <c r="D36" s="312"/>
+      <c r="E36" s="313"/>
     </row>
     <row r="37" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
@@ -33236,13 +33236,13 @@
       <c r="E40" s="12"/>
     </row>
     <row r="41" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="265" t="s">
+      <c r="A41" s="311" t="s">
         <v>254</v>
       </c>
-      <c r="B41" s="266"/>
-      <c r="C41" s="266"/>
-      <c r="D41" s="266"/>
-      <c r="E41" s="267"/>
+      <c r="B41" s="312"/>
+      <c r="C41" s="312"/>
+      <c r="D41" s="312"/>
+      <c r="E41" s="313"/>
     </row>
     <row r="42" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
@@ -33263,13 +33263,13 @@
       <c r="E43" s="12"/>
     </row>
     <row r="44" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="265" t="s">
+      <c r="A44" s="311" t="s">
         <v>257</v>
       </c>
-      <c r="B44" s="266"/>
-      <c r="C44" s="266"/>
-      <c r="D44" s="266"/>
-      <c r="E44" s="267"/>
+      <c r="B44" s="312"/>
+      <c r="C44" s="312"/>
+      <c r="D44" s="312"/>
+      <c r="E44" s="313"/>
     </row>
     <row r="45" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="26" t="s">
@@ -33290,72 +33290,72 @@
       <c r="E46" s="12"/>
     </row>
     <row r="47" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="259" t="s">
+      <c r="A47" s="305" t="s">
         <v>258</v>
       </c>
-      <c r="B47" s="268" t="s">
+      <c r="B47" s="314" t="s">
         <v>259</v>
       </c>
-      <c r="C47" s="269"/>
-      <c r="D47" s="269"/>
-      <c r="E47" s="270"/>
+      <c r="C47" s="315"/>
+      <c r="D47" s="315"/>
+      <c r="E47" s="316"/>
     </row>
     <row r="48" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="260"/>
+      <c r="A48" s="306"/>
       <c r="B48" s="29"/>
       <c r="C48" s="30"/>
       <c r="D48" s="30"/>
       <c r="E48" s="31"/>
     </row>
     <row r="49" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="261"/>
-      <c r="B49" s="268" t="s">
+      <c r="A49" s="307"/>
+      <c r="B49" s="314" t="s">
         <v>260</v>
       </c>
-      <c r="C49" s="269"/>
-      <c r="D49" s="269"/>
-      <c r="E49" s="270"/>
+      <c r="C49" s="315"/>
+      <c r="D49" s="315"/>
+      <c r="E49" s="316"/>
     </row>
     <row r="50" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="256" t="s">
+      <c r="A50" s="245" t="s">
         <v>261</v>
       </c>
-      <c r="B50" s="257"/>
-      <c r="C50" s="257"/>
-      <c r="D50" s="257"/>
-      <c r="E50" s="258"/>
+      <c r="B50" s="246"/>
+      <c r="C50" s="246"/>
+      <c r="D50" s="246"/>
+      <c r="E50" s="247"/>
     </row>
     <row r="51" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="259" t="s">
+      <c r="A52" s="305" t="s">
         <v>262</v>
       </c>
-      <c r="B52" s="253" t="s">
+      <c r="B52" s="301" t="s">
         <v>263</v>
       </c>
-      <c r="C52" s="254"/>
-      <c r="D52" s="254"/>
-      <c r="E52" s="255"/>
+      <c r="C52" s="299"/>
+      <c r="D52" s="299"/>
+      <c r="E52" s="300"/>
     </row>
     <row r="53" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="260"/>
+      <c r="A53" s="306"/>
       <c r="B53" s="32"/>
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="34"/>
     </row>
     <row r="54" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="260"/>
-      <c r="B54" s="253" t="s">
+      <c r="A54" s="306"/>
+      <c r="B54" s="301" t="s">
         <v>264</v>
       </c>
-      <c r="C54" s="254"/>
-      <c r="D54" s="254"/>
-      <c r="E54" s="255"/>
+      <c r="C54" s="299"/>
+      <c r="D54" s="299"/>
+      <c r="E54" s="300"/>
       <c r="F54" s="35"/>
     </row>
     <row r="55" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="260"/>
+      <c r="A55" s="306"/>
       <c r="B55" s="36"/>
       <c r="C55" s="36"/>
       <c r="D55" s="36"/>
@@ -33363,52 +33363,52 @@
       <c r="F55" s="35"/>
     </row>
     <row r="56" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="261"/>
+      <c r="A56" s="307"/>
       <c r="B56" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="C56" s="253"/>
-      <c r="D56" s="254"/>
-      <c r="E56" s="255"/>
+      <c r="C56" s="301"/>
+      <c r="D56" s="299"/>
+      <c r="E56" s="300"/>
       <c r="F56" s="35"/>
     </row>
     <row r="57" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="262"/>
-      <c r="B57" s="263"/>
-      <c r="C57" s="263"/>
-      <c r="D57" s="263"/>
-      <c r="E57" s="264"/>
+      <c r="A57" s="308"/>
+      <c r="B57" s="309"/>
+      <c r="C57" s="309"/>
+      <c r="D57" s="309"/>
+      <c r="E57" s="310"/>
     </row>
     <row r="58" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="285" t="s">
+      <c r="A58" s="296" t="s">
         <v>266</v>
       </c>
-      <c r="B58" s="254" t="s">
+      <c r="B58" s="299" t="s">
         <v>267</v>
       </c>
-      <c r="C58" s="254"/>
-      <c r="D58" s="254"/>
-      <c r="E58" s="255"/>
+      <c r="C58" s="299"/>
+      <c r="D58" s="299"/>
+      <c r="E58" s="300"/>
     </row>
     <row r="59" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="286"/>
+      <c r="A59" s="297"/>
       <c r="B59" s="33"/>
       <c r="C59" s="33"/>
       <c r="D59" s="33"/>
       <c r="E59" s="34"/>
     </row>
     <row r="60" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="286"/>
-      <c r="B60" s="254" t="s">
+      <c r="A60" s="297"/>
+      <c r="B60" s="299" t="s">
         <v>268</v>
       </c>
-      <c r="C60" s="254"/>
-      <c r="D60" s="254"/>
-      <c r="E60" s="255"/>
+      <c r="C60" s="299"/>
+      <c r="D60" s="299"/>
+      <c r="E60" s="300"/>
       <c r="F60" s="39"/>
     </row>
     <row r="61" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="286"/>
+      <c r="A61" s="297"/>
       <c r="B61" s="36"/>
       <c r="C61" s="36"/>
       <c r="D61" s="36"/>
@@ -33416,21 +33416,21 @@
       <c r="F61" s="39"/>
     </row>
     <row r="62" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="287"/>
+      <c r="A62" s="298"/>
       <c r="B62" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="C62" s="253"/>
-      <c r="D62" s="254"/>
-      <c r="E62" s="255"/>
+      <c r="C62" s="301"/>
+      <c r="D62" s="299"/>
+      <c r="E62" s="300"/>
       <c r="F62" s="39"/>
     </row>
     <row r="63" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="288"/>
-      <c r="B63" s="289"/>
-      <c r="C63" s="289"/>
-      <c r="D63" s="289"/>
-      <c r="E63" s="290"/>
+      <c r="A63" s="302"/>
+      <c r="B63" s="303"/>
+      <c r="C63" s="303"/>
+      <c r="D63" s="303"/>
+      <c r="E63" s="304"/>
     </row>
     <row r="64" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="43" t="s">
@@ -33446,46 +33446,46 @@
       <c r="E64" s="44"/>
     </row>
     <row r="65" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="271"/>
-      <c r="B65" s="272"/>
-      <c r="C65" s="272"/>
-      <c r="D65" s="272"/>
-      <c r="E65" s="273"/>
+      <c r="A65" s="291"/>
+      <c r="B65" s="292"/>
+      <c r="C65" s="292"/>
+      <c r="D65" s="292"/>
+      <c r="E65" s="293"/>
     </row>
     <row r="66" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="250" t="s">
+      <c r="A66" s="265" t="s">
         <v>271</v>
       </c>
-      <c r="B66" s="226" t="s">
+      <c r="B66" s="223" t="s">
         <v>272</v>
       </c>
-      <c r="C66" s="227"/>
-      <c r="D66" s="227"/>
-      <c r="E66" s="228"/>
+      <c r="C66" s="224"/>
+      <c r="D66" s="224"/>
+      <c r="E66" s="225"/>
       <c r="F66" s="18"/>
     </row>
     <row r="67" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="251"/>
+      <c r="A67" s="271"/>
       <c r="B67" s="19"/>
       <c r="C67" s="12"/>
       <c r="F67" s="18"/>
     </row>
     <row r="68" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="252"/>
-      <c r="B68" s="226" t="s">
+      <c r="A68" s="266"/>
+      <c r="B68" s="223" t="s">
         <v>273</v>
       </c>
-      <c r="C68" s="227"/>
-      <c r="D68" s="227"/>
-      <c r="E68" s="228"/>
+      <c r="C68" s="224"/>
+      <c r="D68" s="224"/>
+      <c r="E68" s="225"/>
       <c r="F68" s="18"/>
     </row>
     <row r="69" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="271"/>
-      <c r="B69" s="272"/>
-      <c r="C69" s="272"/>
-      <c r="D69" s="272"/>
-      <c r="E69" s="273"/>
+      <c r="A69" s="291"/>
+      <c r="B69" s="292"/>
+      <c r="C69" s="292"/>
+      <c r="D69" s="292"/>
+      <c r="E69" s="293"/>
     </row>
     <row r="70" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="45" t="s">
@@ -33625,13 +33625,13 @@
       <c r="L81" s="18"/>
     </row>
     <row r="82" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="274" t="s">
+      <c r="A82" s="236" t="s">
         <v>285</v>
       </c>
-      <c r="B82" s="275"/>
-      <c r="C82" s="275"/>
-      <c r="D82" s="275"/>
-      <c r="E82" s="276"/>
+      <c r="B82" s="237"/>
+      <c r="C82" s="237"/>
+      <c r="D82" s="237"/>
+      <c r="E82" s="238"/>
       <c r="F82" s="18"/>
       <c r="G82" s="18"/>
       <c r="H82" s="55"/>
@@ -33641,13 +33641,13 @@
       <c r="L82" s="18"/>
     </row>
     <row r="83" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="277" t="s">
+      <c r="A83" s="294" t="s">
         <v>286</v>
       </c>
-      <c r="B83" s="279"/>
-      <c r="C83" s="280"/>
-      <c r="D83" s="280"/>
-      <c r="E83" s="281"/>
+      <c r="B83" s="282"/>
+      <c r="C83" s="283"/>
+      <c r="D83" s="283"/>
+      <c r="E83" s="284"/>
       <c r="F83" s="18"/>
       <c r="G83" s="18"/>
       <c r="H83" s="57"/>
@@ -33657,11 +33657,11 @@
       <c r="L83" s="18"/>
     </row>
     <row r="84" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="278"/>
-      <c r="B84" s="282"/>
-      <c r="C84" s="283"/>
-      <c r="D84" s="283"/>
-      <c r="E84" s="284"/>
+      <c r="A84" s="295"/>
+      <c r="B84" s="285"/>
+      <c r="C84" s="286"/>
+      <c r="D84" s="286"/>
+      <c r="E84" s="287"/>
       <c r="F84" s="18"/>
       <c r="G84" s="18"/>
       <c r="H84" s="55"/>
@@ -33682,15 +33682,15 @@
       <c r="L85" s="18"/>
     </row>
     <row r="86" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="299" t="s">
+      <c r="A86" s="274" t="s">
         <v>287</v>
       </c>
-      <c r="B86" s="300"/>
-      <c r="C86" s="301"/>
-      <c r="D86" s="302" t="s">
+      <c r="B86" s="275"/>
+      <c r="C86" s="276"/>
+      <c r="D86" s="277" t="s">
         <v>288</v>
       </c>
-      <c r="E86" s="303"/>
+      <c r="E86" s="278"/>
       <c r="F86" s="18"/>
       <c r="G86" s="18"/>
       <c r="H86" s="55"/>
@@ -33717,10 +33717,10 @@
       <c r="A88" s="65" t="s">
         <v>289</v>
       </c>
-      <c r="B88" s="304"/>
-      <c r="C88" s="305"/>
-      <c r="D88" s="305"/>
-      <c r="E88" s="306"/>
+      <c r="B88" s="279"/>
+      <c r="C88" s="280"/>
+      <c r="D88" s="280"/>
+      <c r="E88" s="281"/>
       <c r="F88" s="18"/>
       <c r="G88" s="18"/>
       <c r="H88" s="66"/>
@@ -33741,13 +33741,13 @@
       <c r="L89" s="18"/>
     </row>
     <row r="90" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="250" t="s">
+      <c r="A90" s="265" t="s">
         <v>290</v>
       </c>
-      <c r="B90" s="279"/>
-      <c r="C90" s="280"/>
-      <c r="D90" s="280"/>
-      <c r="E90" s="281"/>
+      <c r="B90" s="282"/>
+      <c r="C90" s="283"/>
+      <c r="D90" s="283"/>
+      <c r="E90" s="284"/>
       <c r="F90" s="18"/>
       <c r="G90" s="18"/>
       <c r="H90" s="55"/>
@@ -33757,11 +33757,11 @@
       <c r="L90" s="18"/>
     </row>
     <row r="91" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="252"/>
-      <c r="B91" s="282"/>
-      <c r="C91" s="283"/>
-      <c r="D91" s="283"/>
-      <c r="E91" s="284"/>
+      <c r="A91" s="266"/>
+      <c r="B91" s="285"/>
+      <c r="C91" s="286"/>
+      <c r="D91" s="286"/>
+      <c r="E91" s="287"/>
       <c r="F91" s="18"/>
       <c r="G91" s="18"/>
       <c r="H91" s="55"/>
@@ -33781,13 +33781,13 @@
       <c r="L92" s="18"/>
     </row>
     <row r="93" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="250" t="s">
+      <c r="A93" s="265" t="s">
         <v>291</v>
       </c>
-      <c r="B93" s="279"/>
-      <c r="C93" s="280"/>
-      <c r="D93" s="280"/>
-      <c r="E93" s="281"/>
+      <c r="B93" s="282"/>
+      <c r="C93" s="283"/>
+      <c r="D93" s="283"/>
+      <c r="E93" s="284"/>
       <c r="F93" s="18"/>
       <c r="G93" s="18"/>
       <c r="H93" s="66"/>
@@ -33797,11 +33797,11 @@
       <c r="L93" s="18"/>
     </row>
     <row r="94" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="251"/>
-      <c r="B94" s="307"/>
-      <c r="C94" s="308"/>
-      <c r="D94" s="308"/>
-      <c r="E94" s="309"/>
+      <c r="A94" s="271"/>
+      <c r="B94" s="288"/>
+      <c r="C94" s="289"/>
+      <c r="D94" s="289"/>
+      <c r="E94" s="290"/>
       <c r="F94" s="18"/>
       <c r="G94" s="18"/>
       <c r="H94" s="70"/>
@@ -33811,11 +33811,11 @@
       <c r="L94" s="18"/>
     </row>
     <row r="95" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="252"/>
-      <c r="B95" s="282"/>
-      <c r="C95" s="283"/>
-      <c r="D95" s="283"/>
-      <c r="E95" s="284"/>
+      <c r="A95" s="266"/>
+      <c r="B95" s="285"/>
+      <c r="C95" s="286"/>
+      <c r="D95" s="286"/>
+      <c r="E95" s="287"/>
       <c r="F95" s="18"/>
       <c r="G95" s="18"/>
       <c r="H95" s="18"/>
@@ -33836,13 +33836,13 @@
       <c r="L96" s="18"/>
     </row>
     <row r="97" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="274" t="s">
+      <c r="A97" s="236" t="s">
         <v>292</v>
       </c>
-      <c r="B97" s="275"/>
-      <c r="C97" s="275"/>
-      <c r="D97" s="275"/>
-      <c r="E97" s="276"/>
+      <c r="B97" s="237"/>
+      <c r="C97" s="237"/>
+      <c r="D97" s="237"/>
+      <c r="E97" s="238"/>
       <c r="F97" s="18"/>
       <c r="G97" s="18"/>
       <c r="H97" s="57"/>
@@ -33852,10 +33852,10 @@
       <c r="L97" s="18"/>
     </row>
     <row r="98" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="291" t="s">
+      <c r="A98" s="268" t="s">
         <v>293</v>
       </c>
-      <c r="B98" s="292"/>
+      <c r="B98" s="270"/>
       <c r="C98" s="12"/>
       <c r="D98" s="13" t="s">
         <v>294</v>
@@ -33887,10 +33887,10 @@
       <c r="A100" s="74" t="s">
         <v>295</v>
       </c>
-      <c r="B100" s="226"/>
-      <c r="C100" s="227"/>
-      <c r="D100" s="227"/>
-      <c r="E100" s="228"/>
+      <c r="B100" s="223"/>
+      <c r="C100" s="224"/>
+      <c r="D100" s="224"/>
+      <c r="E100" s="225"/>
       <c r="F100" s="18"/>
       <c r="G100" s="18"/>
       <c r="H100" s="55"/>
@@ -33917,10 +33917,10 @@
       <c r="A102" s="74" t="s">
         <v>296</v>
       </c>
-      <c r="B102" s="226"/>
-      <c r="C102" s="227"/>
-      <c r="D102" s="227"/>
-      <c r="E102" s="228"/>
+      <c r="B102" s="223"/>
+      <c r="C102" s="224"/>
+      <c r="D102" s="224"/>
+      <c r="E102" s="225"/>
       <c r="F102" s="18"/>
       <c r="G102" s="18"/>
       <c r="H102" s="55"/>
@@ -33972,13 +33972,13 @@
       <c r="H105" s="55"/>
     </row>
     <row r="106" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="250" t="s">
+      <c r="A106" s="265" t="s">
         <v>299</v>
       </c>
-      <c r="B106" s="293"/>
-      <c r="C106" s="294"/>
-      <c r="D106" s="294"/>
-      <c r="E106" s="294"/>
+      <c r="B106" s="259"/>
+      <c r="C106" s="260"/>
+      <c r="D106" s="260"/>
+      <c r="E106" s="260"/>
       <c r="F106" s="18"/>
       <c r="G106" s="18"/>
       <c r="H106" s="55"/>
@@ -33988,11 +33988,11 @@
       <c r="L106" s="18"/>
     </row>
     <row r="107" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="251"/>
-      <c r="B107" s="295"/>
-      <c r="C107" s="296"/>
-      <c r="D107" s="296"/>
-      <c r="E107" s="296"/>
+      <c r="A107" s="271"/>
+      <c r="B107" s="272"/>
+      <c r="C107" s="273"/>
+      <c r="D107" s="273"/>
+      <c r="E107" s="273"/>
       <c r="F107" s="18"/>
       <c r="G107" s="18"/>
       <c r="H107" s="55"/>
@@ -34002,11 +34002,11 @@
       <c r="L107" s="18"/>
     </row>
     <row r="108" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="252"/>
-      <c r="B108" s="297"/>
-      <c r="C108" s="298"/>
-      <c r="D108" s="298"/>
-      <c r="E108" s="298"/>
+      <c r="A108" s="266"/>
+      <c r="B108" s="262"/>
+      <c r="C108" s="263"/>
+      <c r="D108" s="263"/>
+      <c r="E108" s="263"/>
       <c r="F108" s="18"/>
       <c r="G108" s="18"/>
       <c r="H108" s="55"/>
@@ -34030,13 +34030,13 @@
       <c r="L109" s="18"/>
     </row>
     <row r="110" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="322" t="s">
+      <c r="A110" s="257" t="s">
         <v>300</v>
       </c>
-      <c r="B110" s="293"/>
-      <c r="C110" s="294"/>
-      <c r="D110" s="294"/>
-      <c r="E110" s="324"/>
+      <c r="B110" s="259"/>
+      <c r="C110" s="260"/>
+      <c r="D110" s="260"/>
+      <c r="E110" s="261"/>
       <c r="F110" s="18"/>
       <c r="G110" s="18"/>
       <c r="H110" s="55"/>
@@ -34046,11 +34046,11 @@
       <c r="L110" s="18"/>
     </row>
     <row r="111" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="323"/>
-      <c r="B111" s="297"/>
-      <c r="C111" s="298"/>
-      <c r="D111" s="298"/>
-      <c r="E111" s="325"/>
+      <c r="A111" s="258"/>
+      <c r="B111" s="262"/>
+      <c r="C111" s="263"/>
+      <c r="D111" s="263"/>
+      <c r="E111" s="264"/>
       <c r="F111" s="18"/>
       <c r="G111" s="18"/>
       <c r="H111" s="55"/>
@@ -34065,38 +34065,38 @@
       <c r="E112" s="12"/>
     </row>
     <row r="113" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="250" t="s">
+      <c r="A113" s="265" t="s">
         <v>301</v>
       </c>
-      <c r="B113" s="293"/>
-      <c r="C113" s="294"/>
-      <c r="D113" s="294"/>
-      <c r="E113" s="324"/>
+      <c r="B113" s="259"/>
+      <c r="C113" s="260"/>
+      <c r="D113" s="260"/>
+      <c r="E113" s="261"/>
     </row>
     <row r="114" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="252"/>
-      <c r="B114" s="297"/>
-      <c r="C114" s="298"/>
-      <c r="D114" s="298"/>
-      <c r="E114" s="325"/>
+      <c r="A114" s="266"/>
+      <c r="B114" s="262"/>
+      <c r="C114" s="263"/>
+      <c r="D114" s="263"/>
+      <c r="E114" s="264"/>
     </row>
     <row r="115" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="116" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="326" t="s">
+      <c r="A116" s="267" t="s">
         <v>302</v>
       </c>
-      <c r="B116" s="326"/>
-      <c r="C116" s="326"/>
-      <c r="D116" s="326"/>
-      <c r="E116" s="326"/>
+      <c r="B116" s="267"/>
+      <c r="C116" s="267"/>
+      <c r="D116" s="267"/>
+      <c r="E116" s="267"/>
       <c r="H116" s="78"/>
     </row>
     <row r="117" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="291" t="s">
+      <c r="A117" s="268" t="s">
         <v>303</v>
       </c>
-      <c r="B117" s="327"/>
-      <c r="C117" s="292"/>
+      <c r="B117" s="269"/>
+      <c r="C117" s="270"/>
       <c r="D117" s="13" t="s">
         <v>304</v>
       </c>
@@ -34104,11 +34104,11 @@
       <c r="H117" s="9"/>
     </row>
     <row r="118" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="310"/>
-      <c r="B118" s="311"/>
-      <c r="C118" s="311"/>
-      <c r="D118" s="311"/>
-      <c r="E118" s="312"/>
+      <c r="A118" s="248"/>
+      <c r="B118" s="249"/>
+      <c r="C118" s="249"/>
+      <c r="D118" s="249"/>
+      <c r="E118" s="250"/>
     </row>
     <row r="119" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="45" t="s">
@@ -34135,10 +34135,10 @@
       <c r="A121" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B121" s="226"/>
-      <c r="C121" s="227"/>
-      <c r="D121" s="227"/>
-      <c r="E121" s="228"/>
+      <c r="B121" s="223"/>
+      <c r="C121" s="224"/>
+      <c r="D121" s="224"/>
+      <c r="E121" s="225"/>
       <c r="H121" s="9"/>
     </row>
     <row r="122" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -34184,11 +34184,11 @@
       <c r="H125" s="9"/>
     </row>
     <row r="126" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="313"/>
-      <c r="B126" s="314"/>
-      <c r="C126" s="314"/>
-      <c r="D126" s="314"/>
-      <c r="E126" s="315"/>
+      <c r="A126" s="251"/>
+      <c r="B126" s="252"/>
+      <c r="C126" s="252"/>
+      <c r="D126" s="252"/>
+      <c r="E126" s="253"/>
     </row>
     <row r="127" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="45" t="s">
@@ -34215,10 +34215,10 @@
       <c r="A129" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B129" s="226"/>
-      <c r="C129" s="227"/>
-      <c r="D129" s="227"/>
-      <c r="E129" s="228"/>
+      <c r="B129" s="223"/>
+      <c r="C129" s="224"/>
+      <c r="D129" s="224"/>
+      <c r="E129" s="225"/>
       <c r="H129" s="9"/>
     </row>
     <row r="130" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -34264,11 +34264,11 @@
       <c r="H133" s="9"/>
     </row>
     <row r="134" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="316"/>
-      <c r="B134" s="317"/>
-      <c r="C134" s="317"/>
-      <c r="D134" s="317"/>
-      <c r="E134" s="318"/>
+      <c r="A134" s="242"/>
+      <c r="B134" s="243"/>
+      <c r="C134" s="243"/>
+      <c r="D134" s="243"/>
+      <c r="E134" s="244"/>
     </row>
     <row r="135" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="45" t="s">
@@ -34294,10 +34294,10 @@
       <c r="A137" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B137" s="319"/>
-      <c r="C137" s="320"/>
-      <c r="D137" s="320"/>
-      <c r="E137" s="321"/>
+      <c r="B137" s="254"/>
+      <c r="C137" s="255"/>
+      <c r="D137" s="255"/>
+      <c r="E137" s="256"/>
     </row>
     <row r="138" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="58"/>
@@ -34340,11 +34340,11 @@
       <c r="F141" s="18"/>
     </row>
     <row r="142" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="316"/>
-      <c r="B142" s="317"/>
-      <c r="C142" s="317"/>
-      <c r="D142" s="317"/>
-      <c r="E142" s="318"/>
+      <c r="A142" s="242"/>
+      <c r="B142" s="243"/>
+      <c r="C142" s="243"/>
+      <c r="D142" s="243"/>
+      <c r="E142" s="244"/>
     </row>
     <row r="143" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="45" t="s">
@@ -34370,10 +34370,10 @@
       <c r="A145" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B145" s="226"/>
-      <c r="C145" s="227"/>
-      <c r="D145" s="227"/>
-      <c r="E145" s="228"/>
+      <c r="B145" s="223"/>
+      <c r="C145" s="224"/>
+      <c r="D145" s="224"/>
+      <c r="E145" s="225"/>
     </row>
     <row r="146" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="69"/>
@@ -34679,13 +34679,13 @@
       <c r="E182" s="18"/>
     </row>
     <row r="183" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A183" s="256" t="s">
+      <c r="A183" s="245" t="s">
         <v>314</v>
       </c>
-      <c r="B183" s="257"/>
-      <c r="C183" s="257"/>
-      <c r="D183" s="257"/>
-      <c r="E183" s="258"/>
+      <c r="B183" s="246"/>
+      <c r="C183" s="246"/>
+      <c r="D183" s="246"/>
+      <c r="E183" s="247"/>
     </row>
     <row r="184" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="53" t="s">
@@ -34699,20 +34699,20 @@
       <c r="A185" s="83"/>
     </row>
     <row r="186" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="274" t="s">
+      <c r="A186" s="236" t="s">
         <v>317</v>
       </c>
-      <c r="B186" s="275"/>
-      <c r="C186" s="275"/>
-      <c r="D186" s="276"/>
+      <c r="B186" s="237"/>
+      <c r="C186" s="237"/>
+      <c r="D186" s="238"/>
     </row>
     <row r="187" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="331" t="s">
+      <c r="A187" s="232" t="s">
         <v>318</v>
       </c>
-      <c r="B187" s="332"/>
-      <c r="C187" s="332"/>
-      <c r="D187" s="333"/>
+      <c r="B187" s="233"/>
+      <c r="C187" s="233"/>
+      <c r="D187" s="234"/>
     </row>
     <row r="188" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="12"/>
@@ -34721,12 +34721,12 @@
       <c r="D188" s="12"/>
     </row>
     <row r="189" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="331" t="s">
+      <c r="A189" s="232" t="s">
         <v>319</v>
       </c>
-      <c r="B189" s="332"/>
-      <c r="C189" s="332"/>
-      <c r="D189" s="333"/>
+      <c r="B189" s="233"/>
+      <c r="C189" s="233"/>
+      <c r="D189" s="234"/>
     </row>
     <row r="190" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="12"/>
@@ -34738,9 +34738,9 @@
       <c r="A191" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B191" s="226"/>
-      <c r="C191" s="227"/>
-      <c r="D191" s="228"/>
+      <c r="B191" s="223"/>
+      <c r="C191" s="224"/>
+      <c r="D191" s="225"/>
     </row>
     <row r="192" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="85"/>
@@ -34749,20 +34749,20 @@
       <c r="D192" s="12"/>
     </row>
     <row r="193" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="328" t="s">
+      <c r="A193" s="239" t="s">
         <v>320</v>
       </c>
-      <c r="B193" s="329"/>
-      <c r="C193" s="329"/>
-      <c r="D193" s="330"/>
+      <c r="B193" s="240"/>
+      <c r="C193" s="240"/>
+      <c r="D193" s="241"/>
     </row>
     <row r="194" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="331" t="s">
+      <c r="A194" s="232" t="s">
         <v>321</v>
       </c>
-      <c r="B194" s="332"/>
-      <c r="C194" s="332"/>
-      <c r="D194" s="333"/>
+      <c r="B194" s="233"/>
+      <c r="C194" s="233"/>
+      <c r="D194" s="234"/>
     </row>
     <row r="195" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="85"/>
@@ -34774,9 +34774,9 @@
       <c r="A196" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B196" s="226"/>
-      <c r="C196" s="227"/>
-      <c r="D196" s="228"/>
+      <c r="B196" s="223"/>
+      <c r="C196" s="224"/>
+      <c r="D196" s="225"/>
     </row>
     <row r="197" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="12"/>
@@ -34785,20 +34785,20 @@
       <c r="D197" s="12"/>
     </row>
     <row r="198" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="274" t="s">
+      <c r="A198" s="236" t="s">
         <v>322</v>
       </c>
-      <c r="B198" s="275"/>
-      <c r="C198" s="275"/>
-      <c r="D198" s="276"/>
+      <c r="B198" s="237"/>
+      <c r="C198" s="237"/>
+      <c r="D198" s="238"/>
     </row>
     <row r="199" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="331" t="s">
+      <c r="A199" s="232" t="s">
         <v>323</v>
       </c>
-      <c r="B199" s="332"/>
-      <c r="C199" s="332"/>
-      <c r="D199" s="333"/>
+      <c r="B199" s="233"/>
+      <c r="C199" s="233"/>
+      <c r="D199" s="234"/>
     </row>
     <row r="200" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="86"/>
@@ -34810,9 +34810,9 @@
       <c r="A201" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B201" s="226"/>
-      <c r="C201" s="227"/>
-      <c r="D201" s="228"/>
+      <c r="B201" s="223"/>
+      <c r="C201" s="224"/>
+      <c r="D201" s="225"/>
     </row>
     <row r="202" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="12"/>
@@ -34821,20 +34821,20 @@
       <c r="D202" s="12"/>
     </row>
     <row r="203" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="274" t="s">
+      <c r="A203" s="236" t="s">
         <v>324</v>
       </c>
-      <c r="B203" s="275"/>
-      <c r="C203" s="275"/>
-      <c r="D203" s="276"/>
+      <c r="B203" s="237"/>
+      <c r="C203" s="237"/>
+      <c r="D203" s="238"/>
     </row>
     <row r="204" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="331" t="s">
+      <c r="A204" s="232" t="s">
         <v>325</v>
       </c>
-      <c r="B204" s="332"/>
-      <c r="C204" s="332"/>
-      <c r="D204" s="333"/>
+      <c r="B204" s="233"/>
+      <c r="C204" s="233"/>
+      <c r="D204" s="234"/>
     </row>
     <row r="205" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="85"/>
@@ -34843,12 +34843,12 @@
       <c r="D205" s="12"/>
     </row>
     <row r="206" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="331" t="s">
+      <c r="A206" s="232" t="s">
         <v>326</v>
       </c>
-      <c r="B206" s="332"/>
-      <c r="C206" s="332"/>
-      <c r="D206" s="333"/>
+      <c r="B206" s="233"/>
+      <c r="C206" s="233"/>
+      <c r="D206" s="234"/>
     </row>
     <row r="207" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="12"/>
@@ -34860,9 +34860,9 @@
       <c r="A208" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B208" s="226"/>
-      <c r="C208" s="227"/>
-      <c r="D208" s="228"/>
+      <c r="B208" s="223"/>
+      <c r="C208" s="224"/>
+      <c r="D208" s="225"/>
     </row>
     <row r="209" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="12"/>
@@ -34871,20 +34871,20 @@
       <c r="D209" s="12"/>
     </row>
     <row r="210" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="274" t="s">
+      <c r="A210" s="236" t="s">
         <v>327</v>
       </c>
-      <c r="B210" s="275"/>
-      <c r="C210" s="275"/>
-      <c r="D210" s="276"/>
+      <c r="B210" s="237"/>
+      <c r="C210" s="237"/>
+      <c r="D210" s="238"/>
     </row>
     <row r="211" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="331" t="s">
+      <c r="A211" s="232" t="s">
         <v>328</v>
       </c>
-      <c r="B211" s="332"/>
-      <c r="C211" s="332"/>
-      <c r="D211" s="333"/>
+      <c r="B211" s="233"/>
+      <c r="C211" s="233"/>
+      <c r="D211" s="234"/>
     </row>
     <row r="212" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="85"/>
@@ -34896,9 +34896,9 @@
       <c r="A213" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B213" s="226"/>
-      <c r="C213" s="227"/>
-      <c r="D213" s="228"/>
+      <c r="B213" s="223"/>
+      <c r="C213" s="224"/>
+      <c r="D213" s="225"/>
     </row>
     <row r="214" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="12"/>
@@ -34907,20 +34907,20 @@
       <c r="D214" s="12"/>
     </row>
     <row r="215" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="274" t="s">
+      <c r="A215" s="236" t="s">
         <v>329</v>
       </c>
-      <c r="B215" s="275"/>
-      <c r="C215" s="275"/>
-      <c r="D215" s="276"/>
+      <c r="B215" s="237"/>
+      <c r="C215" s="237"/>
+      <c r="D215" s="238"/>
     </row>
     <row r="216" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="331" t="s">
+      <c r="A216" s="232" t="s">
         <v>330</v>
       </c>
-      <c r="B216" s="332"/>
-      <c r="C216" s="332"/>
-      <c r="D216" s="333"/>
+      <c r="B216" s="233"/>
+      <c r="C216" s="233"/>
+      <c r="D216" s="234"/>
     </row>
     <row r="217" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="85"/>
@@ -34932,9 +34932,9 @@
       <c r="A218" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B218" s="226"/>
-      <c r="C218" s="227"/>
-      <c r="D218" s="228"/>
+      <c r="B218" s="223"/>
+      <c r="C218" s="224"/>
+      <c r="D218" s="225"/>
     </row>
     <row r="219" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="12"/>
@@ -34943,20 +34943,20 @@
       <c r="D219" s="12"/>
     </row>
     <row r="220" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="274" t="s">
+      <c r="A220" s="236" t="s">
         <v>331</v>
       </c>
-      <c r="B220" s="275"/>
-      <c r="C220" s="275"/>
-      <c r="D220" s="276"/>
+      <c r="B220" s="237"/>
+      <c r="C220" s="237"/>
+      <c r="D220" s="238"/>
     </row>
     <row r="221" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="331" t="s">
+      <c r="A221" s="232" t="s">
         <v>332</v>
       </c>
-      <c r="B221" s="332"/>
-      <c r="C221" s="332"/>
-      <c r="D221" s="333"/>
+      <c r="B221" s="233"/>
+      <c r="C221" s="233"/>
+      <c r="D221" s="234"/>
     </row>
     <row r="222" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="12"/>
@@ -34965,12 +34965,12 @@
       <c r="D222" s="12"/>
     </row>
     <row r="223" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="331" t="s">
+      <c r="A223" s="232" t="s">
         <v>333</v>
       </c>
-      <c r="B223" s="332"/>
-      <c r="C223" s="332"/>
-      <c r="D223" s="333"/>
+      <c r="B223" s="233"/>
+      <c r="C223" s="233"/>
+      <c r="D223" s="234"/>
     </row>
     <row r="224" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="85"/>
@@ -34982,9 +34982,9 @@
       <c r="A225" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B225" s="226"/>
-      <c r="C225" s="227"/>
-      <c r="D225" s="228"/>
+      <c r="B225" s="223"/>
+      <c r="C225" s="224"/>
+      <c r="D225" s="225"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="12"/>
@@ -34993,13 +34993,13 @@
       <c r="D226" s="12"/>
     </row>
     <row r="230" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A230" s="334" t="s">
+      <c r="A230" s="235" t="s">
         <v>334</v>
       </c>
-      <c r="B230" s="334"/>
-      <c r="C230" s="334"/>
-      <c r="D230" s="334"/>
-      <c r="E230" s="334"/>
+      <c r="B230" s="235"/>
+      <c r="C230" s="235"/>
+      <c r="D230" s="235"/>
+      <c r="E230" s="235"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="87"/>
@@ -35011,9 +35011,9 @@
       <c r="A232" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="B232" s="226"/>
-      <c r="C232" s="227"/>
-      <c r="D232" s="228"/>
+      <c r="B232" s="223"/>
+      <c r="C232" s="224"/>
+      <c r="D232" s="225"/>
     </row>
     <row r="233" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="11"/>
@@ -35025,9 +35025,9 @@
       <c r="A234" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="B234" s="226"/>
-      <c r="C234" s="227"/>
-      <c r="D234" s="228"/>
+      <c r="B234" s="223"/>
+      <c r="C234" s="224"/>
+      <c r="D234" s="225"/>
     </row>
     <row r="235" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="11"/>
@@ -35039,9 +35039,9 @@
       <c r="A236" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="B236" s="226"/>
-      <c r="C236" s="227"/>
-      <c r="D236" s="228"/>
+      <c r="B236" s="223"/>
+      <c r="C236" s="224"/>
+      <c r="D236" s="225"/>
     </row>
     <row r="237" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="11"/>
@@ -35053,9 +35053,9 @@
       <c r="A238" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="B238" s="226"/>
-      <c r="C238" s="227"/>
-      <c r="D238" s="228"/>
+      <c r="B238" s="223"/>
+      <c r="C238" s="224"/>
+      <c r="D238" s="225"/>
     </row>
     <row r="239" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="11"/>
@@ -35067,9 +35067,9 @@
       <c r="A240" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="B240" s="226"/>
-      <c r="C240" s="227"/>
-      <c r="D240" s="228"/>
+      <c r="B240" s="223"/>
+      <c r="C240" s="224"/>
+      <c r="D240" s="225"/>
     </row>
     <row r="241" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="11"/>
@@ -35081,9 +35081,9 @@
       <c r="A242" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="B242" s="226"/>
-      <c r="C242" s="227"/>
-      <c r="D242" s="228"/>
+      <c r="B242" s="223"/>
+      <c r="C242" s="224"/>
+      <c r="D242" s="225"/>
     </row>
     <row r="243" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="11"/>
@@ -35095,9 +35095,9 @@
       <c r="A244" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="B244" s="226"/>
-      <c r="C244" s="227"/>
-      <c r="D244" s="228"/>
+      <c r="B244" s="223"/>
+      <c r="C244" s="224"/>
+      <c r="D244" s="225"/>
     </row>
     <row r="245" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="11"/>
@@ -35109,9 +35109,9 @@
       <c r="A246" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="B246" s="226"/>
-      <c r="C246" s="227"/>
-      <c r="D246" s="228"/>
+      <c r="B246" s="223"/>
+      <c r="C246" s="224"/>
+      <c r="D246" s="225"/>
     </row>
     <row r="247" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="11"/>
@@ -35123,9 +35123,9 @@
       <c r="A248" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B248" s="226"/>
-      <c r="C248" s="227"/>
-      <c r="D248" s="228"/>
+      <c r="B248" s="223"/>
+      <c r="C248" s="224"/>
+      <c r="D248" s="225"/>
     </row>
     <row r="249" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="11"/>
@@ -35137,9 +35137,9 @@
       <c r="A250" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="B250" s="226"/>
-      <c r="C250" s="227"/>
-      <c r="D250" s="228"/>
+      <c r="B250" s="223"/>
+      <c r="C250" s="224"/>
+      <c r="D250" s="225"/>
     </row>
     <row r="251" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="11"/>
@@ -35151,9 +35151,9 @@
       <c r="A252" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B252" s="226"/>
-      <c r="C252" s="227"/>
-      <c r="D252" s="228"/>
+      <c r="B252" s="223"/>
+      <c r="C252" s="224"/>
+      <c r="D252" s="225"/>
     </row>
     <row r="253" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="11"/>
@@ -35165,9 +35165,9 @@
       <c r="A254" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="B254" s="226"/>
-      <c r="C254" s="227"/>
-      <c r="D254" s="228"/>
+      <c r="B254" s="223"/>
+      <c r="C254" s="224"/>
+      <c r="D254" s="225"/>
     </row>
     <row r="255" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="11"/>
@@ -35179,9 +35179,9 @@
       <c r="A256" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="B256" s="226"/>
-      <c r="C256" s="227"/>
-      <c r="D256" s="228"/>
+      <c r="B256" s="223"/>
+      <c r="C256" s="224"/>
+      <c r="D256" s="225"/>
     </row>
     <row r="257" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="11"/>
@@ -35193,9 +35193,9 @@
       <c r="A258" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="B258" s="226"/>
-      <c r="C258" s="227"/>
-      <c r="D258" s="228"/>
+      <c r="B258" s="223"/>
+      <c r="C258" s="224"/>
+      <c r="D258" s="225"/>
     </row>
     <row r="259" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="11"/>
@@ -35207,9 +35207,9 @@
       <c r="A260" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="B260" s="226"/>
-      <c r="C260" s="227"/>
-      <c r="D260" s="228"/>
+      <c r="B260" s="223"/>
+      <c r="C260" s="224"/>
+      <c r="D260" s="225"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="12"/>
@@ -35266,13 +35266,13 @@
       <c r="D269" s="12"/>
     </row>
     <row r="274" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A274" s="244" t="s">
+      <c r="A274" s="226" t="s">
         <v>349</v>
       </c>
-      <c r="B274" s="245"/>
-      <c r="C274" s="245"/>
-      <c r="D274" s="245"/>
-      <c r="E274" s="246"/>
+      <c r="B274" s="227"/>
+      <c r="C274" s="227"/>
+      <c r="D274" s="227"/>
+      <c r="E274" s="228"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="88"/>
@@ -35281,210 +35281,102 @@
       <c r="D275" s="12"/>
     </row>
     <row r="276" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="247" t="s">
+      <c r="A276" s="229" t="s">
         <v>350</v>
       </c>
-      <c r="B276" s="248"/>
-      <c r="C276" s="248"/>
-      <c r="D276" s="249"/>
+      <c r="B276" s="230"/>
+      <c r="C276" s="230"/>
+      <c r="D276" s="231"/>
       <c r="E276" s="89" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="226"/>
-      <c r="B277" s="227"/>
-      <c r="C277" s="227"/>
-      <c r="D277" s="228"/>
+      <c r="A277" s="223"/>
+      <c r="B277" s="224"/>
+      <c r="C277" s="224"/>
+      <c r="D277" s="225"/>
       <c r="E277" s="51"/>
     </row>
     <row r="278" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="335"/>
-      <c r="B278" s="336"/>
-      <c r="C278" s="336"/>
-      <c r="D278" s="337"/>
+      <c r="A278" s="220"/>
+      <c r="B278" s="221"/>
+      <c r="C278" s="221"/>
+      <c r="D278" s="222"/>
       <c r="E278" s="51"/>
     </row>
     <row r="279" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="335"/>
-      <c r="B279" s="336"/>
-      <c r="C279" s="336"/>
-      <c r="D279" s="337"/>
+      <c r="A279" s="220"/>
+      <c r="B279" s="221"/>
+      <c r="C279" s="221"/>
+      <c r="D279" s="222"/>
       <c r="E279" s="51"/>
     </row>
     <row r="280" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="335"/>
-      <c r="B280" s="336"/>
-      <c r="C280" s="336"/>
-      <c r="D280" s="337"/>
+      <c r="A280" s="220"/>
+      <c r="B280" s="221"/>
+      <c r="C280" s="221"/>
+      <c r="D280" s="222"/>
       <c r="E280" s="51"/>
     </row>
     <row r="281" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="335"/>
-      <c r="B281" s="336"/>
-      <c r="C281" s="336"/>
-      <c r="D281" s="337"/>
+      <c r="A281" s="220"/>
+      <c r="B281" s="221"/>
+      <c r="C281" s="221"/>
+      <c r="D281" s="222"/>
       <c r="E281" s="51"/>
     </row>
     <row r="282" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="335"/>
-      <c r="B282" s="336"/>
-      <c r="C282" s="336"/>
-      <c r="D282" s="337"/>
+      <c r="A282" s="220"/>
+      <c r="B282" s="221"/>
+      <c r="C282" s="221"/>
+      <c r="D282" s="222"/>
       <c r="E282" s="51"/>
     </row>
     <row r="283" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="335"/>
-      <c r="B283" s="336"/>
-      <c r="C283" s="336"/>
-      <c r="D283" s="337"/>
+      <c r="A283" s="220"/>
+      <c r="B283" s="221"/>
+      <c r="C283" s="221"/>
+      <c r="D283" s="222"/>
       <c r="E283" s="51"/>
     </row>
     <row r="284" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="335"/>
-      <c r="B284" s="336"/>
-      <c r="C284" s="336"/>
-      <c r="D284" s="337"/>
+      <c r="A284" s="220"/>
+      <c r="B284" s="221"/>
+      <c r="C284" s="221"/>
+      <c r="D284" s="222"/>
       <c r="E284" s="51"/>
     </row>
     <row r="285" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="335"/>
-      <c r="B285" s="336"/>
-      <c r="C285" s="336"/>
-      <c r="D285" s="337"/>
+      <c r="A285" s="220"/>
+      <c r="B285" s="221"/>
+      <c r="C285" s="221"/>
+      <c r="D285" s="222"/>
       <c r="E285" s="51"/>
     </row>
     <row r="286" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="335"/>
-      <c r="B286" s="336"/>
-      <c r="C286" s="336"/>
-      <c r="D286" s="337"/>
+      <c r="A286" s="220"/>
+      <c r="B286" s="221"/>
+      <c r="C286" s="221"/>
+      <c r="D286" s="222"/>
       <c r="E286" s="51"/>
     </row>
     <row r="287" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="335"/>
-      <c r="B287" s="336"/>
-      <c r="C287" s="336"/>
-      <c r="D287" s="337"/>
+      <c r="A287" s="220"/>
+      <c r="B287" s="221"/>
+      <c r="C287" s="221"/>
+      <c r="D287" s="222"/>
       <c r="E287" s="51"/>
     </row>
     <row r="288" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="335"/>
-      <c r="B288" s="336"/>
-      <c r="C288" s="336"/>
-      <c r="D288" s="337"/>
+      <c r="A288" s="220"/>
+      <c r="B288" s="221"/>
+      <c r="C288" s="221"/>
+      <c r="D288" s="222"/>
       <c r="E288" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="122">
-    <mergeCell ref="A286:D286"/>
-    <mergeCell ref="A287:D287"/>
-    <mergeCell ref="A288:D288"/>
-    <mergeCell ref="A280:D280"/>
-    <mergeCell ref="A281:D281"/>
-    <mergeCell ref="A282:D282"/>
-    <mergeCell ref="A283:D283"/>
-    <mergeCell ref="A284:D284"/>
-    <mergeCell ref="A285:D285"/>
-    <mergeCell ref="B260:D260"/>
-    <mergeCell ref="A274:E274"/>
-    <mergeCell ref="A276:D276"/>
-    <mergeCell ref="A277:D277"/>
-    <mergeCell ref="A278:D278"/>
-    <mergeCell ref="A279:D279"/>
-    <mergeCell ref="B248:D248"/>
-    <mergeCell ref="B250:D250"/>
-    <mergeCell ref="B252:D252"/>
-    <mergeCell ref="B254:D254"/>
-    <mergeCell ref="B256:D256"/>
-    <mergeCell ref="B258:D258"/>
-    <mergeCell ref="B236:D236"/>
-    <mergeCell ref="B238:D238"/>
-    <mergeCell ref="B240:D240"/>
-    <mergeCell ref="B242:D242"/>
-    <mergeCell ref="B244:D244"/>
-    <mergeCell ref="B246:D246"/>
-    <mergeCell ref="A221:D221"/>
-    <mergeCell ref="A223:D223"/>
-    <mergeCell ref="B225:D225"/>
-    <mergeCell ref="A230:E230"/>
-    <mergeCell ref="B232:D232"/>
-    <mergeCell ref="B234:D234"/>
-    <mergeCell ref="A211:D211"/>
-    <mergeCell ref="B213:D213"/>
-    <mergeCell ref="A215:D215"/>
-    <mergeCell ref="A216:D216"/>
-    <mergeCell ref="B218:D218"/>
-    <mergeCell ref="A220:D220"/>
-    <mergeCell ref="B201:D201"/>
-    <mergeCell ref="A203:D203"/>
-    <mergeCell ref="A204:D204"/>
-    <mergeCell ref="A206:D206"/>
-    <mergeCell ref="B208:D208"/>
-    <mergeCell ref="A210:D210"/>
-    <mergeCell ref="B191:D191"/>
-    <mergeCell ref="A193:D193"/>
-    <mergeCell ref="A194:D194"/>
-    <mergeCell ref="B196:D196"/>
-    <mergeCell ref="A198:D198"/>
-    <mergeCell ref="A199:D199"/>
-    <mergeCell ref="A142:E142"/>
-    <mergeCell ref="B145:E145"/>
-    <mergeCell ref="A183:E183"/>
-    <mergeCell ref="A186:D186"/>
-    <mergeCell ref="A187:D187"/>
-    <mergeCell ref="A189:D189"/>
-    <mergeCell ref="A118:E118"/>
-    <mergeCell ref="B121:E121"/>
-    <mergeCell ref="A126:E126"/>
-    <mergeCell ref="B129:E129"/>
-    <mergeCell ref="A134:E134"/>
-    <mergeCell ref="B137:E137"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B110:E111"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:E114"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="A97:E97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="B100:E100"/>
-    <mergeCell ref="B102:E102"/>
-    <mergeCell ref="A106:A108"/>
-    <mergeCell ref="B106:E108"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:E91"/>
-    <mergeCell ref="A93:A95"/>
-    <mergeCell ref="B93:E95"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:E84"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B49:E49"/>
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="B19:E19"/>
@@ -35499,6 +35391,114 @@
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B15:E15"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:E84"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="A97:E97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="B102:E102"/>
+    <mergeCell ref="A106:A108"/>
+    <mergeCell ref="B106:E108"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:E91"/>
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="B93:E95"/>
+    <mergeCell ref="A118:E118"/>
+    <mergeCell ref="B121:E121"/>
+    <mergeCell ref="A126:E126"/>
+    <mergeCell ref="B129:E129"/>
+    <mergeCell ref="A134:E134"/>
+    <mergeCell ref="B137:E137"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:E111"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:E114"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="B191:D191"/>
+    <mergeCell ref="A193:D193"/>
+    <mergeCell ref="A194:D194"/>
+    <mergeCell ref="B196:D196"/>
+    <mergeCell ref="A198:D198"/>
+    <mergeCell ref="A199:D199"/>
+    <mergeCell ref="A142:E142"/>
+    <mergeCell ref="B145:E145"/>
+    <mergeCell ref="A183:E183"/>
+    <mergeCell ref="A186:D186"/>
+    <mergeCell ref="A187:D187"/>
+    <mergeCell ref="A189:D189"/>
+    <mergeCell ref="A211:D211"/>
+    <mergeCell ref="B213:D213"/>
+    <mergeCell ref="A215:D215"/>
+    <mergeCell ref="A216:D216"/>
+    <mergeCell ref="B218:D218"/>
+    <mergeCell ref="A220:D220"/>
+    <mergeCell ref="B201:D201"/>
+    <mergeCell ref="A203:D203"/>
+    <mergeCell ref="A204:D204"/>
+    <mergeCell ref="A206:D206"/>
+    <mergeCell ref="B208:D208"/>
+    <mergeCell ref="A210:D210"/>
+    <mergeCell ref="B236:D236"/>
+    <mergeCell ref="B238:D238"/>
+    <mergeCell ref="B240:D240"/>
+    <mergeCell ref="B242:D242"/>
+    <mergeCell ref="B244:D244"/>
+    <mergeCell ref="B246:D246"/>
+    <mergeCell ref="A221:D221"/>
+    <mergeCell ref="A223:D223"/>
+    <mergeCell ref="B225:D225"/>
+    <mergeCell ref="A230:E230"/>
+    <mergeCell ref="B232:D232"/>
+    <mergeCell ref="B234:D234"/>
+    <mergeCell ref="B260:D260"/>
+    <mergeCell ref="A274:E274"/>
+    <mergeCell ref="A276:D276"/>
+    <mergeCell ref="A277:D277"/>
+    <mergeCell ref="A278:D278"/>
+    <mergeCell ref="A279:D279"/>
+    <mergeCell ref="B248:D248"/>
+    <mergeCell ref="B250:D250"/>
+    <mergeCell ref="B252:D252"/>
+    <mergeCell ref="B254:D254"/>
+    <mergeCell ref="B256:D256"/>
+    <mergeCell ref="B258:D258"/>
+    <mergeCell ref="A286:D286"/>
+    <mergeCell ref="A287:D287"/>
+    <mergeCell ref="A288:D288"/>
+    <mergeCell ref="A280:D280"/>
+    <mergeCell ref="A281:D281"/>
+    <mergeCell ref="A282:D282"/>
+    <mergeCell ref="A283:D283"/>
+    <mergeCell ref="A284:D284"/>
+    <mergeCell ref="A285:D285"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -39458,13 +39458,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="244" t="s">
+      <c r="A1" s="226" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="245"/>
-      <c r="C1" s="245"/>
-      <c r="D1" s="245"/>
-      <c r="E1" s="246"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="228"/>
       <c r="H1" s="9" t="s">
         <v>415</v>
       </c>
@@ -39482,10 +39482,10 @@
       <c r="A3" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="226"/>
-      <c r="C3" s="227"/>
-      <c r="D3" s="227"/>
-      <c r="E3" s="228"/>
+      <c r="B3" s="223"/>
+      <c r="C3" s="224"/>
+      <c r="D3" s="224"/>
+      <c r="E3" s="225"/>
       <c r="H3" s="9" t="s">
         <v>417</v>
       </c>
@@ -39607,11 +39607,11 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="247" t="s">
+      <c r="A13" s="229" t="s">
         <v>236</v>
       </c>
-      <c r="B13" s="248"/>
-      <c r="C13" s="249"/>
+      <c r="B13" s="230"/>
+      <c r="C13" s="231"/>
       <c r="D13" s="17" t="s">
         <v>237</v>
       </c>
@@ -39624,25 +39624,25 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="220"/>
-      <c r="B14" s="221"/>
-      <c r="C14" s="221"/>
-      <c r="D14" s="221"/>
-      <c r="E14" s="222"/>
+      <c r="A14" s="317"/>
+      <c r="B14" s="318"/>
+      <c r="C14" s="318"/>
+      <c r="D14" s="318"/>
+      <c r="E14" s="319"/>
       <c r="I14" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="322" t="s">
+      <c r="A15" s="257" t="s">
         <v>426</v>
       </c>
-      <c r="B15" s="253" t="s">
+      <c r="B15" s="301" t="s">
         <v>239</v>
       </c>
-      <c r="C15" s="254"/>
-      <c r="D15" s="254"/>
-      <c r="E15" s="255"/>
+      <c r="C15" s="299"/>
+      <c r="D15" s="299"/>
+      <c r="E15" s="300"/>
       <c r="H15" s="101" t="s">
         <v>254</v>
       </c>
@@ -39651,7 +39651,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="338"/>
+      <c r="A16" s="348"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
@@ -39661,13 +39661,13 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="323"/>
-      <c r="B17" s="253" t="s">
+      <c r="A17" s="258"/>
+      <c r="B17" s="301" t="s">
         <v>240</v>
       </c>
-      <c r="C17" s="254"/>
-      <c r="D17" s="254"/>
-      <c r="E17" s="255"/>
+      <c r="C17" s="299"/>
+      <c r="D17" s="299"/>
+      <c r="E17" s="300"/>
       <c r="H17" s="101" t="s">
         <v>257</v>
       </c>
@@ -39676,11 +39676,11 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="220"/>
-      <c r="B18" s="221"/>
-      <c r="C18" s="221"/>
-      <c r="D18" s="221"/>
-      <c r="E18" s="222"/>
+      <c r="A18" s="317"/>
+      <c r="B18" s="318"/>
+      <c r="C18" s="318"/>
+      <c r="D18" s="318"/>
+      <c r="E18" s="319"/>
       <c r="I18" t="s">
         <v>353</v>
       </c>
@@ -39708,11 +39708,11 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="223"/>
-      <c r="B20" s="224"/>
-      <c r="C20" s="224"/>
-      <c r="D20" s="224"/>
-      <c r="E20" s="225"/>
+      <c r="A20" s="320"/>
+      <c r="B20" s="321"/>
+      <c r="C20" s="321"/>
+      <c r="D20" s="321"/>
+      <c r="E20" s="322"/>
       <c r="I20" t="s">
         <v>353</v>
       </c>
@@ -39721,10 +39721,10 @@
       <c r="A21" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="B21" s="226"/>
-      <c r="C21" s="227"/>
-      <c r="D21" s="227"/>
-      <c r="E21" s="228"/>
+      <c r="B21" s="223"/>
+      <c r="C21" s="224"/>
+      <c r="D21" s="224"/>
+      <c r="E21" s="225"/>
       <c r="H21" s="9" t="s">
         <v>236</v>
       </c>
@@ -39746,10 +39746,10 @@
       <c r="A23" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="B23" s="339"/>
-      <c r="C23" s="340"/>
-      <c r="D23" s="340"/>
-      <c r="E23" s="341"/>
+      <c r="B23" s="349"/>
+      <c r="C23" s="350"/>
+      <c r="D23" s="350"/>
+      <c r="E23" s="351"/>
       <c r="H23" s="9" t="s">
         <v>432</v>
       </c>
@@ -39768,13 +39768,13 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="265" t="s">
+      <c r="A25" s="311" t="s">
         <v>248</v>
       </c>
-      <c r="B25" s="266"/>
-      <c r="C25" s="266"/>
-      <c r="D25" s="266"/>
-      <c r="E25" s="267"/>
+      <c r="B25" s="312"/>
+      <c r="C25" s="312"/>
+      <c r="D25" s="312"/>
+      <c r="E25" s="313"/>
       <c r="I25" t="s">
         <v>353</v>
       </c>
@@ -39825,13 +39825,13 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="265" t="s">
+      <c r="A30" s="311" t="s">
         <v>253</v>
       </c>
-      <c r="B30" s="266"/>
-      <c r="C30" s="266"/>
-      <c r="D30" s="266"/>
-      <c r="E30" s="267"/>
+      <c r="B30" s="312"/>
+      <c r="C30" s="312"/>
+      <c r="D30" s="312"/>
+      <c r="E30" s="313"/>
       <c r="I30" t="s">
         <v>353</v>
       </c>
@@ -39879,13 +39879,13 @@
       <c r="E34" s="12"/>
     </row>
     <row r="35" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="265" t="s">
+      <c r="A35" s="311" t="s">
         <v>254</v>
       </c>
-      <c r="B35" s="266"/>
-      <c r="C35" s="266"/>
-      <c r="D35" s="266"/>
-      <c r="E35" s="267"/>
+      <c r="B35" s="312"/>
+      <c r="C35" s="312"/>
+      <c r="D35" s="312"/>
+      <c r="E35" s="313"/>
       <c r="I35" t="s">
         <v>353</v>
       </c>
@@ -39919,13 +39919,13 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="265" t="s">
+      <c r="A38" s="311" t="s">
         <v>257</v>
       </c>
-      <c r="B38" s="266"/>
-      <c r="C38" s="266"/>
-      <c r="D38" s="266"/>
-      <c r="E38" s="267"/>
+      <c r="B38" s="312"/>
+      <c r="C38" s="312"/>
+      <c r="D38" s="312"/>
+      <c r="E38" s="313"/>
       <c r="I38" t="s">
         <v>353</v>
       </c>
@@ -39955,22 +39955,22 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="259" t="s">
+      <c r="A41" s="305" t="s">
         <v>258</v>
       </c>
-      <c r="B41" s="268" t="s">
+      <c r="B41" s="314" t="s">
         <v>259</v>
       </c>
-      <c r="C41" s="269"/>
-      <c r="D41" s="269"/>
-      <c r="E41" s="270"/>
+      <c r="C41" s="315"/>
+      <c r="D41" s="315"/>
+      <c r="E41" s="316"/>
       <c r="F41" s="102"/>
       <c r="I41" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="260"/>
+      <c r="A42" s="306"/>
       <c r="B42" s="29"/>
       <c r="C42" s="30"/>
       <c r="D42" s="30"/>
@@ -39981,13 +39981,13 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="261"/>
-      <c r="B43" s="268" t="s">
+      <c r="A43" s="307"/>
+      <c r="B43" s="314" t="s">
         <v>260</v>
       </c>
-      <c r="C43" s="269"/>
-      <c r="D43" s="269"/>
-      <c r="E43" s="270"/>
+      <c r="C43" s="315"/>
+      <c r="D43" s="315"/>
+      <c r="E43" s="316"/>
       <c r="F43" s="102"/>
       <c r="H43" s="9" t="s">
         <v>434</v>
@@ -40004,46 +40004,46 @@
       <c r="E44" s="105"/>
     </row>
     <row r="45" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="285" t="s">
+      <c r="A45" s="296" t="s">
         <v>435</v>
       </c>
-      <c r="B45" s="342"/>
-      <c r="C45" s="343"/>
-      <c r="D45" s="343"/>
-      <c r="E45" s="344"/>
+      <c r="B45" s="339"/>
+      <c r="C45" s="340"/>
+      <c r="D45" s="340"/>
+      <c r="E45" s="341"/>
       <c r="H45" s="106" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="286"/>
-      <c r="B46" s="345"/>
-      <c r="C46" s="346"/>
-      <c r="D46" s="346"/>
-      <c r="E46" s="347"/>
+      <c r="A46" s="297"/>
+      <c r="B46" s="342"/>
+      <c r="C46" s="343"/>
+      <c r="D46" s="343"/>
+      <c r="E46" s="344"/>
       <c r="H46" s="106" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="287"/>
-      <c r="B47" s="348"/>
-      <c r="C47" s="349"/>
-      <c r="D47" s="349"/>
-      <c r="E47" s="350"/>
+      <c r="A47" s="298"/>
+      <c r="B47" s="345"/>
+      <c r="C47" s="346"/>
+      <c r="D47" s="346"/>
+      <c r="E47" s="347"/>
       <c r="H47" s="106" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="256" t="s">
+      <c r="A49" s="245" t="s">
         <v>261</v>
       </c>
-      <c r="B49" s="257"/>
-      <c r="C49" s="257"/>
-      <c r="D49" s="257"/>
-      <c r="E49" s="258"/>
+      <c r="B49" s="246"/>
+      <c r="C49" s="246"/>
+      <c r="D49" s="246"/>
+      <c r="E49" s="247"/>
       <c r="H49" s="106" t="s">
         <v>436</v>
       </c>
@@ -40054,15 +40054,15 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="285" t="s">
+      <c r="A51" s="296" t="s">
         <v>266</v>
       </c>
-      <c r="B51" s="254" t="s">
+      <c r="B51" s="299" t="s">
         <v>267</v>
       </c>
-      <c r="C51" s="254"/>
-      <c r="D51" s="254"/>
-      <c r="E51" s="255"/>
+      <c r="C51" s="299"/>
+      <c r="D51" s="299"/>
+      <c r="E51" s="300"/>
       <c r="H51" s="106" t="s">
         <v>375</v>
       </c>
@@ -40071,7 +40071,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="286"/>
+      <c r="A52" s="297"/>
       <c r="B52" s="33"/>
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
@@ -40081,20 +40081,20 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="286"/>
-      <c r="B53" s="254" t="s">
+      <c r="A53" s="297"/>
+      <c r="B53" s="299" t="s">
         <v>268</v>
       </c>
-      <c r="C53" s="254"/>
-      <c r="D53" s="254"/>
-      <c r="E53" s="255"/>
+      <c r="C53" s="299"/>
+      <c r="D53" s="299"/>
+      <c r="E53" s="300"/>
       <c r="F53" s="39"/>
       <c r="H53" s="106" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="286"/>
+      <c r="A54" s="297"/>
       <c r="B54" s="36"/>
       <c r="C54" s="107"/>
       <c r="D54" s="107"/>
@@ -40102,21 +40102,21 @@
       <c r="F54" s="39"/>
     </row>
     <row r="55" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="287"/>
-      <c r="B55" s="253" t="s">
+      <c r="A55" s="298"/>
+      <c r="B55" s="301" t="s">
         <v>437</v>
       </c>
-      <c r="C55" s="254"/>
-      <c r="D55" s="254"/>
-      <c r="E55" s="255"/>
+      <c r="C55" s="299"/>
+      <c r="D55" s="299"/>
+      <c r="E55" s="300"/>
       <c r="F55" s="39"/>
     </row>
     <row r="56" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="288"/>
-      <c r="B56" s="289"/>
-      <c r="C56" s="289"/>
-      <c r="D56" s="289"/>
-      <c r="E56" s="290"/>
+      <c r="A56" s="302"/>
+      <c r="B56" s="303"/>
+      <c r="C56" s="303"/>
+      <c r="D56" s="303"/>
+      <c r="E56" s="304"/>
     </row>
     <row r="57" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="43" t="s">
@@ -40136,25 +40136,25 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="271"/>
-      <c r="B58" s="272"/>
-      <c r="C58" s="272"/>
-      <c r="D58" s="272"/>
-      <c r="E58" s="273"/>
+      <c r="A58" s="291"/>
+      <c r="B58" s="292"/>
+      <c r="C58" s="292"/>
+      <c r="D58" s="292"/>
+      <c r="E58" s="293"/>
       <c r="I58" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="250" t="s">
+      <c r="A59" s="265" t="s">
         <v>271</v>
       </c>
-      <c r="B59" s="226" t="s">
+      <c r="B59" s="223" t="s">
         <v>439</v>
       </c>
-      <c r="C59" s="227"/>
-      <c r="D59" s="227"/>
-      <c r="E59" s="228"/>
+      <c r="C59" s="224"/>
+      <c r="D59" s="224"/>
+      <c r="E59" s="225"/>
       <c r="F59" s="18"/>
       <c r="H59" s="110" t="s">
         <v>275</v>
@@ -40164,7 +40164,7 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="251"/>
+      <c r="A60" s="271"/>
       <c r="B60" s="19"/>
       <c r="C60" s="12"/>
       <c r="F60" s="18"/>
@@ -40173,13 +40173,13 @@
       </c>
     </row>
     <row r="61" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="252"/>
-      <c r="B61" s="226" t="s">
+      <c r="A61" s="266"/>
+      <c r="B61" s="223" t="s">
         <v>440</v>
       </c>
-      <c r="C61" s="227"/>
-      <c r="D61" s="227"/>
-      <c r="E61" s="228"/>
+      <c r="C61" s="224"/>
+      <c r="D61" s="224"/>
+      <c r="E61" s="225"/>
       <c r="F61" s="18"/>
       <c r="H61" s="9" t="s">
         <v>441</v>
@@ -40189,11 +40189,11 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="271"/>
-      <c r="B62" s="272"/>
-      <c r="C62" s="272"/>
-      <c r="D62" s="272"/>
-      <c r="E62" s="273"/>
+      <c r="A62" s="291"/>
+      <c r="B62" s="292"/>
+      <c r="C62" s="292"/>
+      <c r="D62" s="292"/>
+      <c r="E62" s="293"/>
       <c r="I62" t="s">
         <v>353</v>
       </c>
@@ -40323,35 +40323,35 @@
       <c r="A74" s="9"/>
     </row>
     <row r="75" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="274" t="s">
+      <c r="A75" s="236" t="s">
         <v>285</v>
       </c>
-      <c r="B75" s="275"/>
-      <c r="C75" s="275"/>
-      <c r="D75" s="275"/>
-      <c r="E75" s="276"/>
+      <c r="B75" s="237"/>
+      <c r="C75" s="237"/>
+      <c r="D75" s="237"/>
+      <c r="E75" s="238"/>
       <c r="H75" s="9" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="277" t="s">
+      <c r="A76" s="294" t="s">
         <v>286</v>
       </c>
-      <c r="B76" s="279"/>
-      <c r="C76" s="280"/>
-      <c r="D76" s="280"/>
-      <c r="E76" s="281"/>
+      <c r="B76" s="282"/>
+      <c r="C76" s="283"/>
+      <c r="D76" s="283"/>
+      <c r="E76" s="284"/>
       <c r="H76" s="78" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="278"/>
-      <c r="B77" s="282"/>
-      <c r="C77" s="283"/>
-      <c r="D77" s="283"/>
-      <c r="E77" s="284"/>
+      <c r="A77" s="295"/>
+      <c r="B77" s="285"/>
+      <c r="C77" s="286"/>
+      <c r="D77" s="286"/>
+      <c r="E77" s="287"/>
       <c r="H77" s="9" t="s">
         <v>286</v>
       </c>
@@ -40364,15 +40364,15 @@
       </c>
     </row>
     <row r="79" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="299" t="s">
+      <c r="A79" s="274" t="s">
         <v>287</v>
       </c>
-      <c r="B79" s="300"/>
-      <c r="C79" s="301"/>
-      <c r="D79" s="302" t="s">
+      <c r="B79" s="275"/>
+      <c r="C79" s="276"/>
+      <c r="D79" s="277" t="s">
         <v>288</v>
       </c>
-      <c r="E79" s="303"/>
+      <c r="E79" s="278"/>
       <c r="H79" s="9" t="s">
         <v>448</v>
       </c>
@@ -40388,10 +40388,10 @@
       <c r="A81" s="65" t="s">
         <v>373</v>
       </c>
-      <c r="B81" s="304"/>
-      <c r="C81" s="305"/>
-      <c r="D81" s="305"/>
-      <c r="E81" s="306"/>
+      <c r="B81" s="279"/>
+      <c r="C81" s="280"/>
+      <c r="D81" s="280"/>
+      <c r="E81" s="281"/>
       <c r="H81" s="113" t="s">
         <v>373</v>
       </c>
@@ -40401,23 +40401,23 @@
       <c r="B82" s="68"/>
     </row>
     <row r="83" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="250" t="s">
+      <c r="A83" s="265" t="s">
         <v>290</v>
       </c>
-      <c r="B83" s="279"/>
-      <c r="C83" s="280"/>
-      <c r="D83" s="280"/>
-      <c r="E83" s="281"/>
+      <c r="B83" s="282"/>
+      <c r="C83" s="283"/>
+      <c r="D83" s="283"/>
+      <c r="E83" s="284"/>
       <c r="H83" s="9" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="252"/>
-      <c r="B84" s="282"/>
-      <c r="C84" s="283"/>
-      <c r="D84" s="283"/>
-      <c r="E84" s="284"/>
+      <c r="A84" s="266"/>
+      <c r="B84" s="285"/>
+      <c r="C84" s="286"/>
+      <c r="D84" s="286"/>
+      <c r="E84" s="287"/>
       <c r="H84" s="9" t="s">
         <v>449</v>
       </c>
@@ -40426,31 +40426,31 @@
       <c r="A85" s="69"/>
     </row>
     <row r="86" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="250" t="s">
+      <c r="A86" s="265" t="s">
         <v>291</v>
       </c>
-      <c r="B86" s="279"/>
-      <c r="C86" s="280"/>
-      <c r="D86" s="280"/>
-      <c r="E86" s="281"/>
+      <c r="B86" s="282"/>
+      <c r="C86" s="283"/>
+      <c r="D86" s="283"/>
+      <c r="E86" s="284"/>
       <c r="H86" s="113" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="251"/>
-      <c r="B87" s="307"/>
-      <c r="C87" s="308"/>
-      <c r="D87" s="308"/>
-      <c r="E87" s="309"/>
+      <c r="A87" s="271"/>
+      <c r="B87" s="288"/>
+      <c r="C87" s="289"/>
+      <c r="D87" s="289"/>
+      <c r="E87" s="290"/>
       <c r="H87" s="103"/>
     </row>
     <row r="88" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="252"/>
-      <c r="B88" s="282"/>
-      <c r="C88" s="283"/>
-      <c r="D88" s="283"/>
-      <c r="E88" s="284"/>
+      <c r="A88" s="266"/>
+      <c r="B88" s="285"/>
+      <c r="C88" s="286"/>
+      <c r="D88" s="286"/>
+      <c r="E88" s="287"/>
       <c r="F88" s="18"/>
     </row>
     <row r="89" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -40458,13 +40458,13 @@
       <c r="B89" s="68"/>
     </row>
     <row r="90" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="274" t="s">
+      <c r="A90" s="236" t="s">
         <v>292</v>
       </c>
-      <c r="B90" s="275"/>
-      <c r="C90" s="275"/>
-      <c r="D90" s="275"/>
-      <c r="E90" s="276"/>
+      <c r="B90" s="237"/>
+      <c r="C90" s="237"/>
+      <c r="D90" s="237"/>
+      <c r="E90" s="238"/>
       <c r="H90" s="78" t="s">
         <v>292</v>
       </c>
@@ -40473,10 +40473,10 @@
       <c r="A91" s="78"/>
     </row>
     <row r="92" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="291" t="s">
+      <c r="A92" s="268" t="s">
         <v>293</v>
       </c>
-      <c r="B92" s="292"/>
+      <c r="B92" s="270"/>
       <c r="C92" s="12"/>
       <c r="D92" s="13" t="s">
         <v>294</v>
@@ -40498,10 +40498,10 @@
       <c r="A94" s="74" t="s">
         <v>295</v>
       </c>
-      <c r="B94" s="226"/>
-      <c r="C94" s="227"/>
-      <c r="D94" s="227"/>
-      <c r="E94" s="228"/>
+      <c r="B94" s="223"/>
+      <c r="C94" s="224"/>
+      <c r="D94" s="224"/>
+      <c r="E94" s="225"/>
       <c r="H94" s="9" t="s">
         <v>452</v>
       </c>
@@ -40517,10 +40517,10 @@
       <c r="A96" s="74" t="s">
         <v>296</v>
       </c>
-      <c r="B96" s="226"/>
-      <c r="C96" s="227"/>
-      <c r="D96" s="227"/>
-      <c r="E96" s="228"/>
+      <c r="B96" s="223"/>
+      <c r="C96" s="224"/>
+      <c r="D96" s="224"/>
+      <c r="E96" s="225"/>
       <c r="F96" s="18"/>
       <c r="H96" s="9" t="s">
         <v>297</v>
@@ -40559,20 +40559,20 @@
       <c r="H99" s="55"/>
     </row>
     <row r="100" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="250" t="s">
+      <c r="A100" s="265" t="s">
         <v>299</v>
       </c>
-      <c r="B100" s="226"/>
-      <c r="C100" s="227"/>
-      <c r="D100" s="227"/>
-      <c r="E100" s="228"/>
+      <c r="B100" s="223"/>
+      <c r="C100" s="224"/>
+      <c r="D100" s="224"/>
+      <c r="E100" s="225"/>
       <c r="F100" s="111"/>
       <c r="H100" s="9" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="251"/>
+      <c r="A101" s="271"/>
       <c r="B101" s="76"/>
       <c r="C101" s="77"/>
       <c r="D101" s="75"/>
@@ -40581,11 +40581,11 @@
       <c r="H101" s="9"/>
     </row>
     <row r="102" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="252"/>
-      <c r="B102" s="226"/>
-      <c r="C102" s="227"/>
-      <c r="D102" s="227"/>
-      <c r="E102" s="228"/>
+      <c r="A102" s="266"/>
+      <c r="B102" s="223"/>
+      <c r="C102" s="224"/>
+      <c r="D102" s="224"/>
+      <c r="E102" s="225"/>
       <c r="F102" s="111"/>
       <c r="H102" s="9" t="s">
         <v>453</v>
@@ -40599,23 +40599,23 @@
       <c r="E103" s="12"/>
     </row>
     <row r="104" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="322" t="s">
+      <c r="A104" s="257" t="s">
         <v>300</v>
       </c>
-      <c r="B104" s="293"/>
-      <c r="C104" s="294"/>
-      <c r="D104" s="294"/>
-      <c r="E104" s="324"/>
+      <c r="B104" s="259"/>
+      <c r="C104" s="260"/>
+      <c r="D104" s="260"/>
+      <c r="E104" s="261"/>
       <c r="H104" s="9" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="323"/>
-      <c r="B105" s="297"/>
-      <c r="C105" s="298"/>
-      <c r="D105" s="298"/>
-      <c r="E105" s="325"/>
+      <c r="A105" s="258"/>
+      <c r="B105" s="262"/>
+      <c r="C105" s="263"/>
+      <c r="D105" s="263"/>
+      <c r="E105" s="264"/>
       <c r="H105" s="9" t="s">
         <v>301</v>
       </c>
@@ -40626,43 +40626,43 @@
       <c r="E106" s="12"/>
     </row>
     <row r="107" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="250" t="s">
+      <c r="A107" s="265" t="s">
         <v>301</v>
       </c>
-      <c r="B107" s="293"/>
-      <c r="C107" s="294"/>
-      <c r="D107" s="294"/>
-      <c r="E107" s="324"/>
+      <c r="B107" s="259"/>
+      <c r="C107" s="260"/>
+      <c r="D107" s="260"/>
+      <c r="E107" s="261"/>
     </row>
     <row r="108" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="252"/>
-      <c r="B108" s="297"/>
-      <c r="C108" s="298"/>
-      <c r="D108" s="298"/>
-      <c r="E108" s="325"/>
+      <c r="A108" s="266"/>
+      <c r="B108" s="262"/>
+      <c r="C108" s="263"/>
+      <c r="D108" s="263"/>
+      <c r="E108" s="264"/>
     </row>
     <row r="109" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="9"/>
     </row>
     <row r="110" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="111" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="351" t="s">
+      <c r="A111" s="338" t="s">
         <v>302</v>
       </c>
-      <c r="B111" s="326"/>
-      <c r="C111" s="326"/>
-      <c r="D111" s="326"/>
-      <c r="E111" s="326"/>
+      <c r="B111" s="267"/>
+      <c r="C111" s="267"/>
+      <c r="D111" s="267"/>
+      <c r="E111" s="267"/>
       <c r="H111" s="78" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="291" t="s">
+      <c r="A112" s="268" t="s">
         <v>303</v>
       </c>
-      <c r="B112" s="327"/>
-      <c r="C112" s="292"/>
+      <c r="B112" s="269"/>
+      <c r="C112" s="270"/>
       <c r="D112" s="13" t="s">
         <v>304</v>
       </c>
@@ -40672,11 +40672,11 @@
       </c>
     </row>
     <row r="113" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="310"/>
-      <c r="B113" s="311"/>
-      <c r="C113" s="311"/>
-      <c r="D113" s="311"/>
-      <c r="E113" s="312"/>
+      <c r="A113" s="248"/>
+      <c r="B113" s="249"/>
+      <c r="C113" s="249"/>
+      <c r="D113" s="249"/>
+      <c r="E113" s="250"/>
     </row>
     <row r="114" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="45" t="s">
@@ -40705,10 +40705,10 @@
       <c r="A116" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B116" s="226"/>
-      <c r="C116" s="227"/>
-      <c r="D116" s="227"/>
-      <c r="E116" s="228"/>
+      <c r="B116" s="223"/>
+      <c r="C116" s="224"/>
+      <c r="D116" s="224"/>
+      <c r="E116" s="225"/>
       <c r="H116" s="9" t="s">
         <v>306</v>
       </c>
@@ -40760,11 +40760,11 @@
       </c>
     </row>
     <row r="121" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="313"/>
-      <c r="B121" s="314"/>
-      <c r="C121" s="314"/>
-      <c r="D121" s="314"/>
-      <c r="E121" s="315"/>
+      <c r="A121" s="251"/>
+      <c r="B121" s="252"/>
+      <c r="C121" s="252"/>
+      <c r="D121" s="252"/>
+      <c r="E121" s="253"/>
     </row>
     <row r="122" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="45" t="s">
@@ -40793,10 +40793,10 @@
       <c r="A124" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B124" s="226"/>
-      <c r="C124" s="227"/>
-      <c r="D124" s="227"/>
-      <c r="E124" s="228"/>
+      <c r="B124" s="223"/>
+      <c r="C124" s="224"/>
+      <c r="D124" s="224"/>
+      <c r="E124" s="225"/>
       <c r="H124" s="9" t="s">
         <v>457</v>
       </c>
@@ -40848,11 +40848,11 @@
       </c>
     </row>
     <row r="129" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="316"/>
-      <c r="B129" s="317"/>
-      <c r="C129" s="317"/>
-      <c r="D129" s="317"/>
-      <c r="E129" s="318"/>
+      <c r="A129" s="242"/>
+      <c r="B129" s="243"/>
+      <c r="C129" s="243"/>
+      <c r="D129" s="243"/>
+      <c r="E129" s="244"/>
     </row>
     <row r="130" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="45" t="s">
@@ -40878,10 +40878,10 @@
       <c r="A132" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B132" s="319"/>
-      <c r="C132" s="320"/>
-      <c r="D132" s="320"/>
-      <c r="E132" s="321"/>
+      <c r="B132" s="254"/>
+      <c r="C132" s="255"/>
+      <c r="D132" s="255"/>
+      <c r="E132" s="256"/>
     </row>
     <row r="133" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="116"/>
@@ -40924,11 +40924,11 @@
       <c r="F136" s="18"/>
     </row>
     <row r="137" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="316"/>
-      <c r="B137" s="317"/>
-      <c r="C137" s="317"/>
-      <c r="D137" s="317"/>
-      <c r="E137" s="318"/>
+      <c r="A137" s="242"/>
+      <c r="B137" s="243"/>
+      <c r="C137" s="243"/>
+      <c r="D137" s="243"/>
+      <c r="E137" s="244"/>
     </row>
     <row r="138" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="45" t="s">
@@ -40954,10 +40954,10 @@
       <c r="A140" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B140" s="226"/>
-      <c r="C140" s="227"/>
-      <c r="D140" s="227"/>
-      <c r="E140" s="228"/>
+      <c r="B140" s="223"/>
+      <c r="C140" s="224"/>
+      <c r="D140" s="224"/>
+      <c r="E140" s="225"/>
     </row>
     <row r="141" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="112"/>
@@ -41039,16 +41039,45 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="A129:E129"/>
-    <mergeCell ref="B132:E132"/>
-    <mergeCell ref="A137:E137"/>
-    <mergeCell ref="B140:E140"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="A112:C112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="B116:E116"/>
-    <mergeCell ref="A121:E121"/>
-    <mergeCell ref="B124:E124"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:E47"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:E84"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A75:E75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:E77"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="B81:E81"/>
     <mergeCell ref="A107:A108"/>
     <mergeCell ref="B107:E108"/>
     <mergeCell ref="A86:A88"/>
@@ -41062,45 +41091,16 @@
     <mergeCell ref="B102:E102"/>
     <mergeCell ref="A104:A105"/>
     <mergeCell ref="B104:E105"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:E84"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A75:E75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:E77"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:E47"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A129:E129"/>
+    <mergeCell ref="B132:E132"/>
+    <mergeCell ref="A137:E137"/>
+    <mergeCell ref="B140:E140"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="B116:E116"/>
+    <mergeCell ref="A121:E121"/>
+    <mergeCell ref="B124:E124"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -43837,13 +43837,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="353" t="s">
+      <c r="A1" s="356" t="s">
         <v>474</v>
       </c>
-      <c r="B1" s="353"/>
-      <c r="C1" s="353"/>
-      <c r="D1" s="353"/>
-      <c r="E1" s="353"/>
+      <c r="B1" s="356"/>
+      <c r="C1" s="356"/>
+      <c r="D1" s="356"/>
+      <c r="E1" s="356"/>
       <c r="F1" s="14"/>
       <c r="G1" s="124"/>
       <c r="H1" s="124"/>
@@ -43855,11 +43855,11 @@
       <c r="A2" s="125" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="335" t="s">
+      <c r="B2" s="220" t="s">
         <v>475</v>
       </c>
-      <c r="C2" s="336"/>
-      <c r="D2" s="337"/>
+      <c r="C2" s="221"/>
+      <c r="D2" s="222"/>
       <c r="F2" s="14"/>
       <c r="G2" s="124"/>
       <c r="H2" s="124"/>
@@ -43879,9 +43879,9 @@
       <c r="A4" s="125" t="s">
         <v>245</v>
       </c>
-      <c r="B4" s="335"/>
-      <c r="C4" s="336"/>
-      <c r="D4" s="337"/>
+      <c r="B4" s="220"/>
+      <c r="C4" s="221"/>
+      <c r="D4" s="222"/>
       <c r="F4" s="14"/>
       <c r="G4" s="124"/>
       <c r="H4" s="124"/>
@@ -43901,9 +43901,9 @@
       <c r="A6" s="125" t="s">
         <v>476</v>
       </c>
-      <c r="B6" s="335"/>
-      <c r="C6" s="336"/>
-      <c r="D6" s="337"/>
+      <c r="B6" s="220"/>
+      <c r="C6" s="221"/>
+      <c r="D6" s="222"/>
       <c r="F6" s="14"/>
       <c r="G6" s="124"/>
       <c r="H6" s="124"/>
@@ -43925,11 +43925,11 @@
       <c r="K7" s="124"/>
     </row>
     <row r="8" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="354"/>
-      <c r="B8" s="354"/>
-      <c r="C8" s="354"/>
-      <c r="D8" s="354"/>
-      <c r="E8" s="354"/>
+      <c r="A8" s="357"/>
+      <c r="B8" s="357"/>
+      <c r="C8" s="357"/>
+      <c r="D8" s="357"/>
+      <c r="E8" s="357"/>
       <c r="F8" s="14"/>
       <c r="G8" s="124"/>
       <c r="H8" s="124"/>
@@ -43941,11 +43941,11 @@
       <c r="A9" s="125" t="s">
         <v>477</v>
       </c>
-      <c r="B9" s="335" t="s">
+      <c r="B9" s="220" t="s">
         <v>478</v>
       </c>
-      <c r="C9" s="336"/>
-      <c r="D9" s="337"/>
+      <c r="C9" s="221"/>
+      <c r="D9" s="222"/>
       <c r="E9" s="124"/>
       <c r="F9" s="14"/>
       <c r="G9" s="124"/>
@@ -43968,15 +43968,15 @@
       <c r="K10" s="124"/>
     </row>
     <row r="11" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="355" t="s">
+      <c r="A11" s="353" t="s">
         <v>479</v>
       </c>
-      <c r="B11" s="336" t="s">
+      <c r="B11" s="221" t="s">
         <v>480</v>
       </c>
-      <c r="C11" s="336"/>
-      <c r="D11" s="336"/>
-      <c r="E11" s="337"/>
+      <c r="C11" s="221"/>
+      <c r="D11" s="221"/>
+      <c r="E11" s="222"/>
       <c r="F11" s="14"/>
       <c r="G11" s="126"/>
       <c r="H11" s="124"/>
@@ -43985,7 +43985,7 @@
       <c r="K11" s="124"/>
     </row>
     <row r="12" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="356"/>
+      <c r="A12" s="354"/>
       <c r="B12" s="124"/>
       <c r="C12" s="124"/>
       <c r="D12" s="124"/>
@@ -43998,11 +43998,11 @@
       <c r="K12" s="124"/>
     </row>
     <row r="13" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="357"/>
-      <c r="B13" s="336"/>
-      <c r="C13" s="336"/>
-      <c r="D13" s="336"/>
-      <c r="E13" s="337"/>
+      <c r="A13" s="355"/>
+      <c r="B13" s="221"/>
+      <c r="C13" s="221"/>
+      <c r="D13" s="221"/>
+      <c r="E13" s="222"/>
       <c r="F13" s="124"/>
       <c r="G13" s="124"/>
       <c r="H13" s="124"/>
@@ -44095,20 +44095,20 @@
       <c r="E22" s="124"/>
     </row>
     <row r="23" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="355" t="s">
+      <c r="A23" s="353" t="s">
         <v>136</v>
       </c>
-      <c r="B23" s="279"/>
-      <c r="C23" s="280"/>
-      <c r="D23" s="280"/>
-      <c r="E23" s="281"/>
+      <c r="B23" s="282"/>
+      <c r="C23" s="283"/>
+      <c r="D23" s="283"/>
+      <c r="E23" s="284"/>
     </row>
     <row r="24" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="357"/>
-      <c r="B24" s="282"/>
-      <c r="C24" s="283"/>
-      <c r="D24" s="283"/>
-      <c r="E24" s="284"/>
+      <c r="A24" s="355"/>
+      <c r="B24" s="285"/>
+      <c r="C24" s="286"/>
+      <c r="D24" s="286"/>
+      <c r="E24" s="287"/>
     </row>
     <row r="25" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="352"/>
@@ -44121,11 +44121,11 @@
       <c r="A26" s="125" t="s">
         <v>487</v>
       </c>
-      <c r="B26" s="335" t="s">
+      <c r="B26" s="220" t="s">
         <v>478</v>
       </c>
-      <c r="C26" s="336"/>
-      <c r="D26" s="337"/>
+      <c r="C26" s="221"/>
+      <c r="D26" s="222"/>
       <c r="E26" s="124"/>
     </row>
     <row r="27" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -44136,29 +44136,29 @@
       <c r="E27" s="124"/>
     </row>
     <row r="28" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="355" t="s">
+      <c r="A28" s="353" t="s">
         <v>479</v>
       </c>
-      <c r="B28" s="336" t="s">
+      <c r="B28" s="221" t="s">
         <v>488</v>
       </c>
-      <c r="C28" s="336"/>
-      <c r="D28" s="336"/>
-      <c r="E28" s="337"/>
+      <c r="C28" s="221"/>
+      <c r="D28" s="221"/>
+      <c r="E28" s="222"/>
     </row>
     <row r="29" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="356"/>
+      <c r="A29" s="354"/>
       <c r="B29" s="124"/>
       <c r="C29" s="124"/>
       <c r="D29" s="124"/>
       <c r="E29" s="124"/>
     </row>
     <row r="30" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="357"/>
-      <c r="B30" s="336"/>
-      <c r="C30" s="336"/>
-      <c r="D30" s="336"/>
-      <c r="E30" s="337"/>
+      <c r="A30" s="355"/>
+      <c r="B30" s="221"/>
+      <c r="C30" s="221"/>
+      <c r="D30" s="221"/>
+      <c r="E30" s="222"/>
     </row>
     <row r="31" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
@@ -44239,20 +44239,20 @@
       <c r="E39" s="124"/>
     </row>
     <row r="40" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="355" t="s">
+      <c r="A40" s="353" t="s">
         <v>136</v>
       </c>
-      <c r="B40" s="279"/>
-      <c r="C40" s="280"/>
-      <c r="D40" s="280"/>
-      <c r="E40" s="281"/>
+      <c r="B40" s="282"/>
+      <c r="C40" s="283"/>
+      <c r="D40" s="283"/>
+      <c r="E40" s="284"/>
     </row>
     <row r="41" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="357"/>
-      <c r="B41" s="282"/>
-      <c r="C41" s="283"/>
-      <c r="D41" s="283"/>
-      <c r="E41" s="284"/>
+      <c r="A41" s="355"/>
+      <c r="B41" s="285"/>
+      <c r="C41" s="286"/>
+      <c r="D41" s="286"/>
+      <c r="E41" s="287"/>
     </row>
     <row r="42" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="352"/>
@@ -44263,13 +44263,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:E41"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:D2"/>
@@ -44282,6 +44275,13 @@
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:E24"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:E41"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -44727,13 +44727,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="244" t="s">
+      <c r="A1" s="226" t="s">
         <v>489</v>
       </c>
-      <c r="B1" s="245"/>
-      <c r="C1" s="245"/>
-      <c r="D1" s="245"/>
-      <c r="E1" s="246"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="228"/>
     </row>
     <row r="2" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
@@ -44742,10 +44742,10 @@
       <c r="A3" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="B3" s="226"/>
-      <c r="C3" s="227"/>
-      <c r="D3" s="227"/>
-      <c r="E3" s="228"/>
+      <c r="B3" s="223"/>
+      <c r="C3" s="224"/>
+      <c r="D3" s="224"/>
+      <c r="E3" s="225"/>
     </row>
     <row r="4" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
@@ -44776,12 +44776,12 @@
       <c r="A7" s="74" t="s">
         <v>491</v>
       </c>
-      <c r="B7" s="253" t="s">
+      <c r="B7" s="301" t="s">
         <v>492</v>
       </c>
-      <c r="C7" s="254"/>
-      <c r="D7" s="254"/>
-      <c r="E7" s="255"/>
+      <c r="C7" s="299"/>
+      <c r="D7" s="299"/>
+      <c r="E7" s="300"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -44830,66 +44830,66 @@
       <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="247" t="s">
+      <c r="A13" s="229" t="s">
         <v>236</v>
       </c>
-      <c r="B13" s="248"/>
-      <c r="C13" s="249"/>
+      <c r="B13" s="230"/>
+      <c r="C13" s="231"/>
       <c r="D13" s="17" t="s">
         <v>304</v>
       </c>
       <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="220"/>
-      <c r="B14" s="221"/>
-      <c r="C14" s="221"/>
-      <c r="D14" s="221"/>
-      <c r="E14" s="222"/>
+      <c r="A14" s="317"/>
+      <c r="B14" s="318"/>
+      <c r="C14" s="318"/>
+      <c r="D14" s="318"/>
+      <c r="E14" s="319"/>
     </row>
     <row r="15" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="322" t="s">
+      <c r="A15" s="257" t="s">
         <v>426</v>
       </c>
-      <c r="B15" s="253" t="s">
+      <c r="B15" s="301" t="s">
         <v>239</v>
       </c>
-      <c r="C15" s="254"/>
-      <c r="D15" s="254"/>
-      <c r="E15" s="255"/>
+      <c r="C15" s="299"/>
+      <c r="D15" s="299"/>
+      <c r="E15" s="300"/>
       <c r="I15" s="124"/>
     </row>
     <row r="16" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="338"/>
+      <c r="A16" s="348"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="323"/>
-      <c r="B17" s="253" t="s">
+      <c r="A17" s="258"/>
+      <c r="B17" s="301" t="s">
         <v>240</v>
       </c>
-      <c r="C17" s="254"/>
-      <c r="D17" s="254"/>
-      <c r="E17" s="255"/>
+      <c r="C17" s="299"/>
+      <c r="D17" s="299"/>
+      <c r="E17" s="300"/>
     </row>
     <row r="18" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="223"/>
-      <c r="B18" s="224"/>
-      <c r="C18" s="224"/>
-      <c r="D18" s="224"/>
-      <c r="E18" s="225"/>
+      <c r="A18" s="320"/>
+      <c r="B18" s="321"/>
+      <c r="C18" s="321"/>
+      <c r="D18" s="321"/>
+      <c r="E18" s="322"/>
     </row>
     <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="B19" s="226"/>
-      <c r="C19" s="227"/>
-      <c r="D19" s="227"/>
-      <c r="E19" s="228"/>
+      <c r="B19" s="223"/>
+      <c r="C19" s="224"/>
+      <c r="D19" s="224"/>
+      <c r="E19" s="225"/>
     </row>
     <row r="20" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
@@ -44920,24 +44920,24 @@
       <c r="A23" s="358" t="s">
         <v>246</v>
       </c>
-      <c r="B23" s="232"/>
-      <c r="C23" s="233"/>
-      <c r="D23" s="233"/>
-      <c r="E23" s="234"/>
+      <c r="B23" s="326"/>
+      <c r="C23" s="327"/>
+      <c r="D23" s="327"/>
+      <c r="E23" s="328"/>
     </row>
     <row r="24" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="359"/>
-      <c r="B24" s="235"/>
-      <c r="C24" s="236"/>
-      <c r="D24" s="236"/>
-      <c r="E24" s="237"/>
+      <c r="B24" s="329"/>
+      <c r="C24" s="330"/>
+      <c r="D24" s="330"/>
+      <c r="E24" s="331"/>
     </row>
     <row r="25" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="360"/>
-      <c r="B25" s="238"/>
-      <c r="C25" s="239"/>
-      <c r="D25" s="239"/>
-      <c r="E25" s="240"/>
+      <c r="B25" s="332"/>
+      <c r="C25" s="333"/>
+      <c r="D25" s="333"/>
+      <c r="E25" s="334"/>
     </row>
     <row r="26" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
@@ -44950,34 +44950,34 @@
       <c r="A27" s="361" t="s">
         <v>247</v>
       </c>
-      <c r="B27" s="232"/>
-      <c r="C27" s="233"/>
-      <c r="D27" s="233"/>
-      <c r="E27" s="234"/>
+      <c r="B27" s="326"/>
+      <c r="C27" s="327"/>
+      <c r="D27" s="327"/>
+      <c r="E27" s="328"/>
     </row>
     <row r="28" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="362"/>
-      <c r="B28" s="235"/>
-      <c r="C28" s="236"/>
-      <c r="D28" s="236"/>
-      <c r="E28" s="237"/>
+      <c r="B28" s="329"/>
+      <c r="C28" s="330"/>
+      <c r="D28" s="330"/>
+      <c r="E28" s="331"/>
     </row>
     <row r="29" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="363"/>
-      <c r="B29" s="238"/>
-      <c r="C29" s="239"/>
-      <c r="D29" s="239"/>
-      <c r="E29" s="240"/>
+      <c r="B29" s="332"/>
+      <c r="C29" s="333"/>
+      <c r="D29" s="333"/>
+      <c r="E29" s="334"/>
     </row>
     <row r="30" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="265" t="s">
+      <c r="A31" s="311" t="s">
         <v>248</v>
       </c>
-      <c r="B31" s="266"/>
-      <c r="C31" s="266"/>
-      <c r="D31" s="266"/>
-      <c r="E31" s="267"/>
+      <c r="B31" s="312"/>
+      <c r="C31" s="312"/>
+      <c r="D31" s="312"/>
+      <c r="E31" s="313"/>
     </row>
     <row r="32" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
@@ -45016,13 +45016,13 @@
       <c r="E35" s="12"/>
     </row>
     <row r="36" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="265" t="s">
+      <c r="A36" s="311" t="s">
         <v>253</v>
       </c>
-      <c r="B36" s="266"/>
-      <c r="C36" s="266"/>
-      <c r="D36" s="266"/>
-      <c r="E36" s="267"/>
+      <c r="B36" s="312"/>
+      <c r="C36" s="312"/>
+      <c r="D36" s="312"/>
+      <c r="E36" s="313"/>
     </row>
     <row r="37" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
@@ -45061,13 +45061,13 @@
       <c r="E40" s="12"/>
     </row>
     <row r="41" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="265" t="s">
+      <c r="A41" s="311" t="s">
         <v>254</v>
       </c>
-      <c r="B41" s="266"/>
-      <c r="C41" s="266"/>
-      <c r="D41" s="266"/>
-      <c r="E41" s="267"/>
+      <c r="B41" s="312"/>
+      <c r="C41" s="312"/>
+      <c r="D41" s="312"/>
+      <c r="E41" s="313"/>
     </row>
     <row r="42" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
@@ -45088,13 +45088,13 @@
       <c r="E43" s="12"/>
     </row>
     <row r="44" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="265" t="s">
+      <c r="A44" s="311" t="s">
         <v>257</v>
       </c>
-      <c r="B44" s="266"/>
-      <c r="C44" s="266"/>
-      <c r="D44" s="266"/>
-      <c r="E44" s="267"/>
+      <c r="B44" s="312"/>
+      <c r="C44" s="312"/>
+      <c r="D44" s="312"/>
+      <c r="E44" s="313"/>
     </row>
     <row r="45" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="26" t="s">
@@ -45115,72 +45115,72 @@
       <c r="E46" s="12"/>
     </row>
     <row r="47" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="259" t="s">
+      <c r="A47" s="305" t="s">
         <v>258</v>
       </c>
-      <c r="B47" s="268" t="s">
+      <c r="B47" s="314" t="s">
         <v>259</v>
       </c>
-      <c r="C47" s="269"/>
-      <c r="D47" s="269"/>
-      <c r="E47" s="270"/>
+      <c r="C47" s="315"/>
+      <c r="D47" s="315"/>
+      <c r="E47" s="316"/>
     </row>
     <row r="48" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="260"/>
+      <c r="A48" s="306"/>
       <c r="B48" s="29"/>
       <c r="C48" s="30"/>
       <c r="D48" s="30"/>
       <c r="E48" s="31"/>
     </row>
     <row r="49" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="261"/>
-      <c r="B49" s="268" t="s">
+      <c r="A49" s="307"/>
+      <c r="B49" s="314" t="s">
         <v>260</v>
       </c>
-      <c r="C49" s="269"/>
-      <c r="D49" s="269"/>
-      <c r="E49" s="270"/>
+      <c r="C49" s="315"/>
+      <c r="D49" s="315"/>
+      <c r="E49" s="316"/>
     </row>
     <row r="50" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="256" t="s">
+      <c r="A50" s="245" t="s">
         <v>495</v>
       </c>
-      <c r="B50" s="257"/>
-      <c r="C50" s="257"/>
-      <c r="D50" s="257"/>
-      <c r="E50" s="258"/>
+      <c r="B50" s="246"/>
+      <c r="C50" s="246"/>
+      <c r="D50" s="246"/>
+      <c r="E50" s="247"/>
     </row>
     <row r="51" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="259" t="s">
+      <c r="A52" s="305" t="s">
         <v>262</v>
       </c>
-      <c r="B52" s="253" t="s">
+      <c r="B52" s="301" t="s">
         <v>496</v>
       </c>
-      <c r="C52" s="254"/>
-      <c r="D52" s="254"/>
-      <c r="E52" s="255"/>
+      <c r="C52" s="299"/>
+      <c r="D52" s="299"/>
+      <c r="E52" s="300"/>
     </row>
     <row r="53" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="260"/>
+      <c r="A53" s="306"/>
       <c r="B53" s="32"/>
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="34"/>
     </row>
     <row r="54" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="260"/>
-      <c r="B54" s="253" t="s">
+      <c r="A54" s="306"/>
+      <c r="B54" s="301" t="s">
         <v>264</v>
       </c>
-      <c r="C54" s="254"/>
-      <c r="D54" s="254"/>
-      <c r="E54" s="255"/>
+      <c r="C54" s="299"/>
+      <c r="D54" s="299"/>
+      <c r="E54" s="300"/>
       <c r="F54" s="35"/>
     </row>
     <row r="55" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="260"/>
+      <c r="A55" s="306"/>
       <c r="B55" s="36"/>
       <c r="C55" s="36"/>
       <c r="D55" s="36"/>
@@ -45188,52 +45188,52 @@
       <c r="F55" s="35"/>
     </row>
     <row r="56" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="261"/>
+      <c r="A56" s="307"/>
       <c r="B56" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="C56" s="253"/>
-      <c r="D56" s="254"/>
-      <c r="E56" s="255"/>
+      <c r="C56" s="301"/>
+      <c r="D56" s="299"/>
+      <c r="E56" s="300"/>
       <c r="F56" s="35"/>
     </row>
     <row r="57" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="262"/>
-      <c r="B57" s="263"/>
-      <c r="C57" s="263"/>
-      <c r="D57" s="263"/>
-      <c r="E57" s="264"/>
+      <c r="A57" s="308"/>
+      <c r="B57" s="309"/>
+      <c r="C57" s="309"/>
+      <c r="D57" s="309"/>
+      <c r="E57" s="310"/>
     </row>
     <row r="58" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="285" t="s">
+      <c r="A58" s="296" t="s">
         <v>266</v>
       </c>
-      <c r="B58" s="254" t="s">
+      <c r="B58" s="299" t="s">
         <v>267</v>
       </c>
-      <c r="C58" s="254"/>
-      <c r="D58" s="254"/>
-      <c r="E58" s="255"/>
+      <c r="C58" s="299"/>
+      <c r="D58" s="299"/>
+      <c r="E58" s="300"/>
     </row>
     <row r="59" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="286"/>
+      <c r="A59" s="297"/>
       <c r="B59" s="33"/>
       <c r="C59" s="33"/>
       <c r="D59" s="33"/>
       <c r="E59" s="34"/>
     </row>
     <row r="60" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="286"/>
-      <c r="B60" s="254" t="s">
+      <c r="A60" s="297"/>
+      <c r="B60" s="299" t="s">
         <v>268</v>
       </c>
-      <c r="C60" s="254"/>
-      <c r="D60" s="254"/>
-      <c r="E60" s="255"/>
+      <c r="C60" s="299"/>
+      <c r="D60" s="299"/>
+      <c r="E60" s="300"/>
       <c r="F60" s="39"/>
     </row>
     <row r="61" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="286"/>
+      <c r="A61" s="297"/>
       <c r="B61" s="36"/>
       <c r="C61" s="36"/>
       <c r="D61" s="36"/>
@@ -45241,21 +45241,21 @@
       <c r="F61" s="39"/>
     </row>
     <row r="62" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="287"/>
+      <c r="A62" s="298"/>
       <c r="B62" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="C62" s="253"/>
-      <c r="D62" s="254"/>
-      <c r="E62" s="255"/>
+      <c r="C62" s="301"/>
+      <c r="D62" s="299"/>
+      <c r="E62" s="300"/>
       <c r="F62" s="39"/>
     </row>
     <row r="63" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="288"/>
-      <c r="B63" s="289"/>
-      <c r="C63" s="289"/>
-      <c r="D63" s="289"/>
-      <c r="E63" s="290"/>
+      <c r="A63" s="302"/>
+      <c r="B63" s="303"/>
+      <c r="C63" s="303"/>
+      <c r="D63" s="303"/>
+      <c r="E63" s="304"/>
     </row>
     <row r="64" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="43" t="s">
@@ -45271,46 +45271,46 @@
       <c r="E64" s="44"/>
     </row>
     <row r="65" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="271"/>
-      <c r="B65" s="272"/>
-      <c r="C65" s="272"/>
-      <c r="D65" s="272"/>
-      <c r="E65" s="273"/>
+      <c r="A65" s="291"/>
+      <c r="B65" s="292"/>
+      <c r="C65" s="292"/>
+      <c r="D65" s="292"/>
+      <c r="E65" s="293"/>
     </row>
     <row r="66" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="250" t="s">
+      <c r="A66" s="265" t="s">
         <v>271</v>
       </c>
-      <c r="B66" s="226" t="s">
+      <c r="B66" s="223" t="s">
         <v>272</v>
       </c>
-      <c r="C66" s="227"/>
-      <c r="D66" s="227"/>
-      <c r="E66" s="228"/>
+      <c r="C66" s="224"/>
+      <c r="D66" s="224"/>
+      <c r="E66" s="225"/>
       <c r="F66" s="18"/>
     </row>
     <row r="67" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="251"/>
+      <c r="A67" s="271"/>
       <c r="B67" s="19"/>
       <c r="C67" s="12"/>
       <c r="F67" s="18"/>
     </row>
     <row r="68" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="252"/>
-      <c r="B68" s="226" t="s">
+      <c r="A68" s="266"/>
+      <c r="B68" s="223" t="s">
         <v>273</v>
       </c>
-      <c r="C68" s="227"/>
-      <c r="D68" s="227"/>
-      <c r="E68" s="228"/>
+      <c r="C68" s="224"/>
+      <c r="D68" s="224"/>
+      <c r="E68" s="225"/>
       <c r="F68" s="18"/>
     </row>
     <row r="69" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="271"/>
-      <c r="B69" s="272"/>
-      <c r="C69" s="272"/>
-      <c r="D69" s="272"/>
-      <c r="E69" s="273"/>
+      <c r="A69" s="291"/>
+      <c r="B69" s="292"/>
+      <c r="C69" s="292"/>
+      <c r="D69" s="292"/>
+      <c r="E69" s="293"/>
     </row>
     <row r="70" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="45" t="s">
@@ -45450,13 +45450,13 @@
       <c r="L81" s="18"/>
     </row>
     <row r="82" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="274" t="s">
+      <c r="A82" s="236" t="s">
         <v>285</v>
       </c>
-      <c r="B82" s="275"/>
-      <c r="C82" s="275"/>
-      <c r="D82" s="275"/>
-      <c r="E82" s="276"/>
+      <c r="B82" s="237"/>
+      <c r="C82" s="237"/>
+      <c r="D82" s="237"/>
+      <c r="E82" s="238"/>
       <c r="F82" s="18"/>
       <c r="G82" s="18"/>
       <c r="H82" s="55"/>
@@ -45466,13 +45466,13 @@
       <c r="L82" s="18"/>
     </row>
     <row r="83" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="277" t="s">
+      <c r="A83" s="294" t="s">
         <v>286</v>
       </c>
-      <c r="B83" s="279"/>
-      <c r="C83" s="280"/>
-      <c r="D83" s="280"/>
-      <c r="E83" s="281"/>
+      <c r="B83" s="282"/>
+      <c r="C83" s="283"/>
+      <c r="D83" s="283"/>
+      <c r="E83" s="284"/>
       <c r="F83" s="18"/>
       <c r="G83" s="18"/>
       <c r="H83" s="57"/>
@@ -45482,11 +45482,11 @@
       <c r="L83" s="18"/>
     </row>
     <row r="84" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="278"/>
-      <c r="B84" s="282"/>
-      <c r="C84" s="283"/>
-      <c r="D84" s="283"/>
-      <c r="E84" s="284"/>
+      <c r="A84" s="295"/>
+      <c r="B84" s="285"/>
+      <c r="C84" s="286"/>
+      <c r="D84" s="286"/>
+      <c r="E84" s="287"/>
       <c r="F84" s="18"/>
       <c r="G84" s="18"/>
       <c r="H84" s="55"/>
@@ -45507,15 +45507,15 @@
       <c r="L85" s="18"/>
     </row>
     <row r="86" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="299" t="s">
+      <c r="A86" s="274" t="s">
         <v>287</v>
       </c>
-      <c r="B86" s="300"/>
-      <c r="C86" s="301"/>
-      <c r="D86" s="302" t="s">
+      <c r="B86" s="275"/>
+      <c r="C86" s="276"/>
+      <c r="D86" s="277" t="s">
         <v>288</v>
       </c>
-      <c r="E86" s="303"/>
+      <c r="E86" s="278"/>
       <c r="F86" s="18"/>
       <c r="G86" s="18"/>
       <c r="H86" s="55"/>
@@ -45542,10 +45542,10 @@
       <c r="A88" s="65" t="s">
         <v>373</v>
       </c>
-      <c r="B88" s="304"/>
-      <c r="C88" s="305"/>
-      <c r="D88" s="305"/>
-      <c r="E88" s="306"/>
+      <c r="B88" s="279"/>
+      <c r="C88" s="280"/>
+      <c r="D88" s="280"/>
+      <c r="E88" s="281"/>
       <c r="F88" s="18"/>
       <c r="G88" s="18"/>
       <c r="H88" s="66"/>
@@ -45566,13 +45566,13 @@
       <c r="L89" s="18"/>
     </row>
     <row r="90" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="250" t="s">
+      <c r="A90" s="265" t="s">
         <v>290</v>
       </c>
-      <c r="B90" s="279"/>
-      <c r="C90" s="280"/>
-      <c r="D90" s="280"/>
-      <c r="E90" s="281"/>
+      <c r="B90" s="282"/>
+      <c r="C90" s="283"/>
+      <c r="D90" s="283"/>
+      <c r="E90" s="284"/>
       <c r="F90" s="18"/>
       <c r="G90" s="18"/>
       <c r="H90" s="55"/>
@@ -45582,11 +45582,11 @@
       <c r="L90" s="18"/>
     </row>
     <row r="91" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="252"/>
-      <c r="B91" s="282"/>
-      <c r="C91" s="283"/>
-      <c r="D91" s="283"/>
-      <c r="E91" s="284"/>
+      <c r="A91" s="266"/>
+      <c r="B91" s="285"/>
+      <c r="C91" s="286"/>
+      <c r="D91" s="286"/>
+      <c r="E91" s="287"/>
       <c r="F91" s="18"/>
       <c r="G91" s="18"/>
       <c r="H91" s="55"/>
@@ -45606,13 +45606,13 @@
       <c r="L92" s="18"/>
     </row>
     <row r="93" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="250" t="s">
+      <c r="A93" s="265" t="s">
         <v>291</v>
       </c>
-      <c r="B93" s="279"/>
-      <c r="C93" s="280"/>
-      <c r="D93" s="280"/>
-      <c r="E93" s="281"/>
+      <c r="B93" s="282"/>
+      <c r="C93" s="283"/>
+      <c r="D93" s="283"/>
+      <c r="E93" s="284"/>
       <c r="F93" s="18"/>
       <c r="G93" s="18"/>
       <c r="H93" s="66"/>
@@ -45622,11 +45622,11 @@
       <c r="L93" s="18"/>
     </row>
     <row r="94" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="251"/>
-      <c r="B94" s="307"/>
-      <c r="C94" s="308"/>
-      <c r="D94" s="308"/>
-      <c r="E94" s="309"/>
+      <c r="A94" s="271"/>
+      <c r="B94" s="288"/>
+      <c r="C94" s="289"/>
+      <c r="D94" s="289"/>
+      <c r="E94" s="290"/>
       <c r="F94" s="18"/>
       <c r="G94" s="18"/>
       <c r="H94" s="70"/>
@@ -45636,11 +45636,11 @@
       <c r="L94" s="18"/>
     </row>
     <row r="95" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="252"/>
-      <c r="B95" s="282"/>
-      <c r="C95" s="283"/>
-      <c r="D95" s="283"/>
-      <c r="E95" s="284"/>
+      <c r="A95" s="266"/>
+      <c r="B95" s="285"/>
+      <c r="C95" s="286"/>
+      <c r="D95" s="286"/>
+      <c r="E95" s="287"/>
       <c r="F95" s="18"/>
       <c r="G95" s="18"/>
       <c r="H95" s="18"/>
@@ -45661,13 +45661,13 @@
       <c r="L96" s="18"/>
     </row>
     <row r="97" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="274" t="s">
+      <c r="A97" s="236" t="s">
         <v>292</v>
       </c>
-      <c r="B97" s="275"/>
-      <c r="C97" s="275"/>
-      <c r="D97" s="275"/>
-      <c r="E97" s="276"/>
+      <c r="B97" s="237"/>
+      <c r="C97" s="237"/>
+      <c r="D97" s="237"/>
+      <c r="E97" s="238"/>
       <c r="F97" s="18"/>
       <c r="G97" s="18"/>
       <c r="H97" s="57"/>
@@ -45677,10 +45677,10 @@
       <c r="L97" s="18"/>
     </row>
     <row r="98" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="291" t="s">
+      <c r="A98" s="268" t="s">
         <v>293</v>
       </c>
-      <c r="B98" s="292"/>
+      <c r="B98" s="270"/>
       <c r="C98" s="12"/>
       <c r="D98" s="13" t="s">
         <v>294</v>
@@ -45712,10 +45712,10 @@
       <c r="A100" s="74" t="s">
         <v>295</v>
       </c>
-      <c r="B100" s="226"/>
-      <c r="C100" s="227"/>
-      <c r="D100" s="227"/>
-      <c r="E100" s="228"/>
+      <c r="B100" s="223"/>
+      <c r="C100" s="224"/>
+      <c r="D100" s="224"/>
+      <c r="E100" s="225"/>
       <c r="F100" s="18"/>
       <c r="G100" s="18"/>
       <c r="H100" s="55"/>
@@ -45742,10 +45742,10 @@
       <c r="A102" s="74" t="s">
         <v>296</v>
       </c>
-      <c r="B102" s="226"/>
-      <c r="C102" s="227"/>
-      <c r="D102" s="227"/>
-      <c r="E102" s="228"/>
+      <c r="B102" s="223"/>
+      <c r="C102" s="224"/>
+      <c r="D102" s="224"/>
+      <c r="E102" s="225"/>
       <c r="F102" s="18"/>
       <c r="G102" s="18"/>
       <c r="H102" s="55"/>
@@ -45797,13 +45797,13 @@
       <c r="H105" s="55"/>
     </row>
     <row r="106" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="250" t="s">
+      <c r="A106" s="265" t="s">
         <v>299</v>
       </c>
-      <c r="B106" s="226"/>
-      <c r="C106" s="227"/>
-      <c r="D106" s="227"/>
-      <c r="E106" s="228"/>
+      <c r="B106" s="223"/>
+      <c r="C106" s="224"/>
+      <c r="D106" s="224"/>
+      <c r="E106" s="225"/>
       <c r="F106" s="18"/>
       <c r="G106" s="18"/>
       <c r="H106" s="55"/>
@@ -45813,7 +45813,7 @@
       <c r="L106" s="18"/>
     </row>
     <row r="107" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="251"/>
+      <c r="A107" s="271"/>
       <c r="B107" s="76"/>
       <c r="C107" s="77"/>
       <c r="D107" s="75"/>
@@ -45827,11 +45827,11 @@
       <c r="L107" s="18"/>
     </row>
     <row r="108" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="252"/>
-      <c r="B108" s="226"/>
-      <c r="C108" s="227"/>
-      <c r="D108" s="227"/>
-      <c r="E108" s="228"/>
+      <c r="A108" s="266"/>
+      <c r="B108" s="223"/>
+      <c r="C108" s="224"/>
+      <c r="D108" s="224"/>
+      <c r="E108" s="225"/>
       <c r="F108" s="18"/>
       <c r="G108" s="18"/>
       <c r="H108" s="55"/>
@@ -45855,13 +45855,13 @@
       <c r="L109" s="18"/>
     </row>
     <row r="110" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="322" t="s">
+      <c r="A110" s="257" t="s">
         <v>300</v>
       </c>
-      <c r="B110" s="293"/>
-      <c r="C110" s="294"/>
-      <c r="D110" s="294"/>
-      <c r="E110" s="324"/>
+      <c r="B110" s="259"/>
+      <c r="C110" s="260"/>
+      <c r="D110" s="260"/>
+      <c r="E110" s="261"/>
       <c r="F110" s="18"/>
       <c r="G110" s="18"/>
       <c r="H110" s="55"/>
@@ -45871,11 +45871,11 @@
       <c r="L110" s="18"/>
     </row>
     <row r="111" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="323"/>
-      <c r="B111" s="297"/>
-      <c r="C111" s="298"/>
-      <c r="D111" s="298"/>
-      <c r="E111" s="325"/>
+      <c r="A111" s="258"/>
+      <c r="B111" s="262"/>
+      <c r="C111" s="263"/>
+      <c r="D111" s="263"/>
+      <c r="E111" s="264"/>
       <c r="F111" s="18"/>
       <c r="G111" s="18"/>
       <c r="H111" s="55"/>
@@ -45890,38 +45890,38 @@
       <c r="E112" s="12"/>
     </row>
     <row r="113" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="250" t="s">
+      <c r="A113" s="265" t="s">
         <v>301</v>
       </c>
-      <c r="B113" s="293"/>
-      <c r="C113" s="294"/>
-      <c r="D113" s="294"/>
-      <c r="E113" s="324"/>
+      <c r="B113" s="259"/>
+      <c r="C113" s="260"/>
+      <c r="D113" s="260"/>
+      <c r="E113" s="261"/>
     </row>
     <row r="114" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="252"/>
-      <c r="B114" s="297"/>
-      <c r="C114" s="298"/>
-      <c r="D114" s="298"/>
-      <c r="E114" s="325"/>
+      <c r="A114" s="266"/>
+      <c r="B114" s="262"/>
+      <c r="C114" s="263"/>
+      <c r="D114" s="263"/>
+      <c r="E114" s="264"/>
     </row>
     <row r="115" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="116" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="326" t="s">
+      <c r="A116" s="267" t="s">
         <v>302</v>
       </c>
-      <c r="B116" s="326"/>
-      <c r="C116" s="326"/>
-      <c r="D116" s="326"/>
-      <c r="E116" s="326"/>
+      <c r="B116" s="267"/>
+      <c r="C116" s="267"/>
+      <c r="D116" s="267"/>
+      <c r="E116" s="267"/>
       <c r="H116" s="78"/>
     </row>
     <row r="117" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="291" t="s">
+      <c r="A117" s="268" t="s">
         <v>303</v>
       </c>
-      <c r="B117" s="327"/>
-      <c r="C117" s="292"/>
+      <c r="B117" s="269"/>
+      <c r="C117" s="270"/>
       <c r="D117" s="13" t="s">
         <v>304</v>
       </c>
@@ -45929,11 +45929,11 @@
       <c r="H117" s="9"/>
     </row>
     <row r="118" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="310"/>
-      <c r="B118" s="311"/>
-      <c r="C118" s="311"/>
-      <c r="D118" s="311"/>
-      <c r="E118" s="312"/>
+      <c r="A118" s="248"/>
+      <c r="B118" s="249"/>
+      <c r="C118" s="249"/>
+      <c r="D118" s="249"/>
+      <c r="E118" s="250"/>
     </row>
     <row r="119" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="45" t="s">
@@ -45960,10 +45960,10 @@
       <c r="A121" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B121" s="226"/>
-      <c r="C121" s="227"/>
-      <c r="D121" s="227"/>
-      <c r="E121" s="228"/>
+      <c r="B121" s="223"/>
+      <c r="C121" s="224"/>
+      <c r="D121" s="224"/>
+      <c r="E121" s="225"/>
       <c r="H121" s="9"/>
     </row>
     <row r="122" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -46009,11 +46009,11 @@
       <c r="H125" s="9"/>
     </row>
     <row r="126" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="313"/>
-      <c r="B126" s="314"/>
-      <c r="C126" s="314"/>
-      <c r="D126" s="314"/>
-      <c r="E126" s="315"/>
+      <c r="A126" s="251"/>
+      <c r="B126" s="252"/>
+      <c r="C126" s="252"/>
+      <c r="D126" s="252"/>
+      <c r="E126" s="253"/>
     </row>
     <row r="127" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="45" t="s">
@@ -46040,10 +46040,10 @@
       <c r="A129" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B129" s="226"/>
-      <c r="C129" s="227"/>
-      <c r="D129" s="227"/>
-      <c r="E129" s="228"/>
+      <c r="B129" s="223"/>
+      <c r="C129" s="224"/>
+      <c r="D129" s="224"/>
+      <c r="E129" s="225"/>
       <c r="H129" s="9"/>
     </row>
     <row r="130" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -46089,11 +46089,11 @@
       <c r="H133" s="9"/>
     </row>
     <row r="134" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="316"/>
-      <c r="B134" s="317"/>
-      <c r="C134" s="317"/>
-      <c r="D134" s="317"/>
-      <c r="E134" s="318"/>
+      <c r="A134" s="242"/>
+      <c r="B134" s="243"/>
+      <c r="C134" s="243"/>
+      <c r="D134" s="243"/>
+      <c r="E134" s="244"/>
     </row>
     <row r="135" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="45" t="s">
@@ -46119,10 +46119,10 @@
       <c r="A137" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B137" s="319"/>
-      <c r="C137" s="320"/>
-      <c r="D137" s="320"/>
-      <c r="E137" s="321"/>
+      <c r="B137" s="254"/>
+      <c r="C137" s="255"/>
+      <c r="D137" s="255"/>
+      <c r="E137" s="256"/>
     </row>
     <row r="138" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="58"/>
@@ -46165,11 +46165,11 @@
       <c r="F141" s="18"/>
     </row>
     <row r="142" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="316"/>
-      <c r="B142" s="317"/>
-      <c r="C142" s="317"/>
-      <c r="D142" s="317"/>
-      <c r="E142" s="318"/>
+      <c r="A142" s="242"/>
+      <c r="B142" s="243"/>
+      <c r="C142" s="243"/>
+      <c r="D142" s="243"/>
+      <c r="E142" s="244"/>
     </row>
     <row r="143" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="45" t="s">
@@ -46195,10 +46195,10 @@
       <c r="A145" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B145" s="226"/>
-      <c r="C145" s="227"/>
-      <c r="D145" s="227"/>
-      <c r="E145" s="228"/>
+      <c r="B145" s="223"/>
+      <c r="C145" s="224"/>
+      <c r="D145" s="224"/>
+      <c r="E145" s="225"/>
     </row>
     <row r="146" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="69"/>
@@ -46504,13 +46504,13 @@
       <c r="E182" s="18"/>
     </row>
     <row r="183" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A183" s="256" t="s">
+      <c r="A183" s="245" t="s">
         <v>314</v>
       </c>
-      <c r="B183" s="257"/>
-      <c r="C183" s="257"/>
-      <c r="D183" s="257"/>
-      <c r="E183" s="258"/>
+      <c r="B183" s="246"/>
+      <c r="C183" s="246"/>
+      <c r="D183" s="246"/>
+      <c r="E183" s="247"/>
     </row>
     <row r="184" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="53" t="s">
@@ -46524,20 +46524,20 @@
       <c r="A185" s="83"/>
     </row>
     <row r="186" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="274" t="s">
+      <c r="A186" s="236" t="s">
         <v>317</v>
       </c>
-      <c r="B186" s="275"/>
-      <c r="C186" s="275"/>
-      <c r="D186" s="276"/>
+      <c r="B186" s="237"/>
+      <c r="C186" s="237"/>
+      <c r="D186" s="238"/>
     </row>
     <row r="187" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="331" t="s">
+      <c r="A187" s="232" t="s">
         <v>318</v>
       </c>
-      <c r="B187" s="332"/>
-      <c r="C187" s="332"/>
-      <c r="D187" s="333"/>
+      <c r="B187" s="233"/>
+      <c r="C187" s="233"/>
+      <c r="D187" s="234"/>
     </row>
     <row r="188" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="12"/>
@@ -46546,12 +46546,12 @@
       <c r="D188" s="12"/>
     </row>
     <row r="189" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="331" t="s">
+      <c r="A189" s="232" t="s">
         <v>319</v>
       </c>
-      <c r="B189" s="332"/>
-      <c r="C189" s="332"/>
-      <c r="D189" s="333"/>
+      <c r="B189" s="233"/>
+      <c r="C189" s="233"/>
+      <c r="D189" s="234"/>
     </row>
     <row r="190" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="12"/>
@@ -46563,9 +46563,9 @@
       <c r="A191" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B191" s="226"/>
-      <c r="C191" s="227"/>
-      <c r="D191" s="228"/>
+      <c r="B191" s="223"/>
+      <c r="C191" s="224"/>
+      <c r="D191" s="225"/>
     </row>
     <row r="192" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="85"/>
@@ -46574,20 +46574,20 @@
       <c r="D192" s="12"/>
     </row>
     <row r="193" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="328" t="s">
+      <c r="A193" s="239" t="s">
         <v>320</v>
       </c>
-      <c r="B193" s="329"/>
-      <c r="C193" s="329"/>
-      <c r="D193" s="330"/>
+      <c r="B193" s="240"/>
+      <c r="C193" s="240"/>
+      <c r="D193" s="241"/>
     </row>
     <row r="194" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="331" t="s">
+      <c r="A194" s="232" t="s">
         <v>321</v>
       </c>
-      <c r="B194" s="332"/>
-      <c r="C194" s="332"/>
-      <c r="D194" s="333"/>
+      <c r="B194" s="233"/>
+      <c r="C194" s="233"/>
+      <c r="D194" s="234"/>
     </row>
     <row r="195" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="85"/>
@@ -46599,9 +46599,9 @@
       <c r="A196" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B196" s="226"/>
-      <c r="C196" s="227"/>
-      <c r="D196" s="228"/>
+      <c r="B196" s="223"/>
+      <c r="C196" s="224"/>
+      <c r="D196" s="225"/>
     </row>
     <row r="197" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="12"/>
@@ -46610,20 +46610,20 @@
       <c r="D197" s="12"/>
     </row>
     <row r="198" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="274" t="s">
+      <c r="A198" s="236" t="s">
         <v>322</v>
       </c>
-      <c r="B198" s="275"/>
-      <c r="C198" s="275"/>
-      <c r="D198" s="276"/>
+      <c r="B198" s="237"/>
+      <c r="C198" s="237"/>
+      <c r="D198" s="238"/>
     </row>
     <row r="199" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="331" t="s">
+      <c r="A199" s="232" t="s">
         <v>323</v>
       </c>
-      <c r="B199" s="332"/>
-      <c r="C199" s="332"/>
-      <c r="D199" s="333"/>
+      <c r="B199" s="233"/>
+      <c r="C199" s="233"/>
+      <c r="D199" s="234"/>
     </row>
     <row r="200" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="86"/>
@@ -46635,9 +46635,9 @@
       <c r="A201" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B201" s="226"/>
-      <c r="C201" s="227"/>
-      <c r="D201" s="228"/>
+      <c r="B201" s="223"/>
+      <c r="C201" s="224"/>
+      <c r="D201" s="225"/>
     </row>
     <row r="202" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="12"/>
@@ -46646,20 +46646,20 @@
       <c r="D202" s="12"/>
     </row>
     <row r="203" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="274" t="s">
+      <c r="A203" s="236" t="s">
         <v>324</v>
       </c>
-      <c r="B203" s="275"/>
-      <c r="C203" s="275"/>
-      <c r="D203" s="276"/>
+      <c r="B203" s="237"/>
+      <c r="C203" s="237"/>
+      <c r="D203" s="238"/>
     </row>
     <row r="204" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="331" t="s">
+      <c r="A204" s="232" t="s">
         <v>325</v>
       </c>
-      <c r="B204" s="332"/>
-      <c r="C204" s="332"/>
-      <c r="D204" s="333"/>
+      <c r="B204" s="233"/>
+      <c r="C204" s="233"/>
+      <c r="D204" s="234"/>
     </row>
     <row r="205" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="85"/>
@@ -46668,12 +46668,12 @@
       <c r="D205" s="12"/>
     </row>
     <row r="206" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="331" t="s">
+      <c r="A206" s="232" t="s">
         <v>326</v>
       </c>
-      <c r="B206" s="332"/>
-      <c r="C206" s="332"/>
-      <c r="D206" s="333"/>
+      <c r="B206" s="233"/>
+      <c r="C206" s="233"/>
+      <c r="D206" s="234"/>
     </row>
     <row r="207" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="12"/>
@@ -46685,9 +46685,9 @@
       <c r="A208" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B208" s="226"/>
-      <c r="C208" s="227"/>
-      <c r="D208" s="228"/>
+      <c r="B208" s="223"/>
+      <c r="C208" s="224"/>
+      <c r="D208" s="225"/>
     </row>
     <row r="209" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="12"/>
@@ -46696,20 +46696,20 @@
       <c r="D209" s="12"/>
     </row>
     <row r="210" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="274" t="s">
+      <c r="A210" s="236" t="s">
         <v>327</v>
       </c>
-      <c r="B210" s="275"/>
-      <c r="C210" s="275"/>
-      <c r="D210" s="276"/>
+      <c r="B210" s="237"/>
+      <c r="C210" s="237"/>
+      <c r="D210" s="238"/>
     </row>
     <row r="211" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="331" t="s">
+      <c r="A211" s="232" t="s">
         <v>328</v>
       </c>
-      <c r="B211" s="332"/>
-      <c r="C211" s="332"/>
-      <c r="D211" s="333"/>
+      <c r="B211" s="233"/>
+      <c r="C211" s="233"/>
+      <c r="D211" s="234"/>
     </row>
     <row r="212" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="85"/>
@@ -46721,9 +46721,9 @@
       <c r="A213" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B213" s="226"/>
-      <c r="C213" s="227"/>
-      <c r="D213" s="228"/>
+      <c r="B213" s="223"/>
+      <c r="C213" s="224"/>
+      <c r="D213" s="225"/>
     </row>
     <row r="214" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="12"/>
@@ -46732,20 +46732,20 @@
       <c r="D214" s="12"/>
     </row>
     <row r="215" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="274" t="s">
+      <c r="A215" s="236" t="s">
         <v>329</v>
       </c>
-      <c r="B215" s="275"/>
-      <c r="C215" s="275"/>
-      <c r="D215" s="276"/>
+      <c r="B215" s="237"/>
+      <c r="C215" s="237"/>
+      <c r="D215" s="238"/>
     </row>
     <row r="216" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="331" t="s">
+      <c r="A216" s="232" t="s">
         <v>330</v>
       </c>
-      <c r="B216" s="332"/>
-      <c r="C216" s="332"/>
-      <c r="D216" s="333"/>
+      <c r="B216" s="233"/>
+      <c r="C216" s="233"/>
+      <c r="D216" s="234"/>
     </row>
     <row r="217" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="85"/>
@@ -46757,9 +46757,9 @@
       <c r="A218" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B218" s="226"/>
-      <c r="C218" s="227"/>
-      <c r="D218" s="228"/>
+      <c r="B218" s="223"/>
+      <c r="C218" s="224"/>
+      <c r="D218" s="225"/>
     </row>
     <row r="219" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="12"/>
@@ -46768,20 +46768,20 @@
       <c r="D219" s="12"/>
     </row>
     <row r="220" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="274" t="s">
+      <c r="A220" s="236" t="s">
         <v>331</v>
       </c>
-      <c r="B220" s="275"/>
-      <c r="C220" s="275"/>
-      <c r="D220" s="276"/>
+      <c r="B220" s="237"/>
+      <c r="C220" s="237"/>
+      <c r="D220" s="238"/>
     </row>
     <row r="221" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="331" t="s">
+      <c r="A221" s="232" t="s">
         <v>500</v>
       </c>
-      <c r="B221" s="332"/>
-      <c r="C221" s="332"/>
-      <c r="D221" s="333"/>
+      <c r="B221" s="233"/>
+      <c r="C221" s="233"/>
+      <c r="D221" s="234"/>
     </row>
     <row r="222" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="12"/>
@@ -46790,12 +46790,12 @@
       <c r="D222" s="12"/>
     </row>
     <row r="223" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="331" t="s">
+      <c r="A223" s="232" t="s">
         <v>501</v>
       </c>
-      <c r="B223" s="332"/>
-      <c r="C223" s="332"/>
-      <c r="D223" s="333"/>
+      <c r="B223" s="233"/>
+      <c r="C223" s="233"/>
+      <c r="D223" s="234"/>
     </row>
     <row r="224" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="85"/>
@@ -46807,9 +46807,9 @@
       <c r="A225" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B225" s="226"/>
-      <c r="C225" s="227"/>
-      <c r="D225" s="228"/>
+      <c r="B225" s="223"/>
+      <c r="C225" s="224"/>
+      <c r="D225" s="225"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="12"/>
@@ -46818,13 +46818,13 @@
       <c r="D226" s="12"/>
     </row>
     <row r="230" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A230" s="334" t="s">
+      <c r="A230" s="235" t="s">
         <v>334</v>
       </c>
-      <c r="B230" s="334"/>
-      <c r="C230" s="334"/>
-      <c r="D230" s="334"/>
-      <c r="E230" s="334"/>
+      <c r="B230" s="235"/>
+      <c r="C230" s="235"/>
+      <c r="D230" s="235"/>
+      <c r="E230" s="235"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="87"/>
@@ -46836,9 +46836,9 @@
       <c r="A232" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="B232" s="226"/>
-      <c r="C232" s="227"/>
-      <c r="D232" s="228"/>
+      <c r="B232" s="223"/>
+      <c r="C232" s="224"/>
+      <c r="D232" s="225"/>
     </row>
     <row r="233" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="11"/>
@@ -46850,9 +46850,9 @@
       <c r="A234" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="B234" s="226"/>
-      <c r="C234" s="227"/>
-      <c r="D234" s="228"/>
+      <c r="B234" s="223"/>
+      <c r="C234" s="224"/>
+      <c r="D234" s="225"/>
     </row>
     <row r="235" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="11"/>
@@ -46864,9 +46864,9 @@
       <c r="A236" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="B236" s="226"/>
-      <c r="C236" s="227"/>
-      <c r="D236" s="228"/>
+      <c r="B236" s="223"/>
+      <c r="C236" s="224"/>
+      <c r="D236" s="225"/>
     </row>
     <row r="237" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="11"/>
@@ -46878,9 +46878,9 @@
       <c r="A238" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="B238" s="226"/>
-      <c r="C238" s="227"/>
-      <c r="D238" s="228"/>
+      <c r="B238" s="223"/>
+      <c r="C238" s="224"/>
+      <c r="D238" s="225"/>
     </row>
     <row r="239" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="11"/>
@@ -46892,9 +46892,9 @@
       <c r="A240" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="B240" s="226"/>
-      <c r="C240" s="227"/>
-      <c r="D240" s="228"/>
+      <c r="B240" s="223"/>
+      <c r="C240" s="224"/>
+      <c r="D240" s="225"/>
     </row>
     <row r="241" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="11"/>
@@ -46906,9 +46906,9 @@
       <c r="A242" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="B242" s="226"/>
-      <c r="C242" s="227"/>
-      <c r="D242" s="228"/>
+      <c r="B242" s="223"/>
+      <c r="C242" s="224"/>
+      <c r="D242" s="225"/>
     </row>
     <row r="243" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="11"/>
@@ -46920,9 +46920,9 @@
       <c r="A244" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="B244" s="226"/>
-      <c r="C244" s="227"/>
-      <c r="D244" s="228"/>
+      <c r="B244" s="223"/>
+      <c r="C244" s="224"/>
+      <c r="D244" s="225"/>
     </row>
     <row r="245" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="11"/>
@@ -46934,9 +46934,9 @@
       <c r="A246" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="B246" s="226"/>
-      <c r="C246" s="227"/>
-      <c r="D246" s="228"/>
+      <c r="B246" s="223"/>
+      <c r="C246" s="224"/>
+      <c r="D246" s="225"/>
     </row>
     <row r="247" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="11"/>
@@ -46948,9 +46948,9 @@
       <c r="A248" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B248" s="226"/>
-      <c r="C248" s="227"/>
-      <c r="D248" s="228"/>
+      <c r="B248" s="223"/>
+      <c r="C248" s="224"/>
+      <c r="D248" s="225"/>
     </row>
     <row r="249" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="11"/>
@@ -46962,9 +46962,9 @@
       <c r="A250" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="B250" s="226"/>
-      <c r="C250" s="227"/>
-      <c r="D250" s="228"/>
+      <c r="B250" s="223"/>
+      <c r="C250" s="224"/>
+      <c r="D250" s="225"/>
     </row>
     <row r="251" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="11"/>
@@ -46976,9 +46976,9 @@
       <c r="A252" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B252" s="226"/>
-      <c r="C252" s="227"/>
-      <c r="D252" s="228"/>
+      <c r="B252" s="223"/>
+      <c r="C252" s="224"/>
+      <c r="D252" s="225"/>
     </row>
     <row r="253" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="11"/>
@@ -46990,9 +46990,9 @@
       <c r="A254" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="B254" s="226"/>
-      <c r="C254" s="227"/>
-      <c r="D254" s="228"/>
+      <c r="B254" s="223"/>
+      <c r="C254" s="224"/>
+      <c r="D254" s="225"/>
     </row>
     <row r="255" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="11"/>
@@ -47004,9 +47004,9 @@
       <c r="A256" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="B256" s="226"/>
-      <c r="C256" s="227"/>
-      <c r="D256" s="228"/>
+      <c r="B256" s="223"/>
+      <c r="C256" s="224"/>
+      <c r="D256" s="225"/>
     </row>
     <row r="257" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="11"/>
@@ -47018,9 +47018,9 @@
       <c r="A258" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="B258" s="226"/>
-      <c r="C258" s="227"/>
-      <c r="D258" s="228"/>
+      <c r="B258" s="223"/>
+      <c r="C258" s="224"/>
+      <c r="D258" s="225"/>
     </row>
     <row r="259" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="11"/>
@@ -47032,9 +47032,9 @@
       <c r="A260" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="B260" s="226"/>
-      <c r="C260" s="227"/>
-      <c r="D260" s="228"/>
+      <c r="B260" s="223"/>
+      <c r="C260" s="224"/>
+      <c r="D260" s="225"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="12"/>
@@ -47091,13 +47091,13 @@
       <c r="D269" s="12"/>
     </row>
     <row r="274" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A274" s="244" t="s">
+      <c r="A274" s="226" t="s">
         <v>349</v>
       </c>
-      <c r="B274" s="245"/>
-      <c r="C274" s="245"/>
-      <c r="D274" s="245"/>
-      <c r="E274" s="246"/>
+      <c r="B274" s="227"/>
+      <c r="C274" s="227"/>
+      <c r="D274" s="227"/>
+      <c r="E274" s="228"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="88"/>
@@ -47106,171 +47106,142 @@
       <c r="D275" s="12"/>
     </row>
     <row r="276" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="247" t="s">
+      <c r="A276" s="229" t="s">
         <v>350</v>
       </c>
-      <c r="B276" s="248"/>
-      <c r="C276" s="248"/>
-      <c r="D276" s="249"/>
+      <c r="B276" s="230"/>
+      <c r="C276" s="230"/>
+      <c r="D276" s="231"/>
       <c r="E276" s="89" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="226"/>
-      <c r="B277" s="227"/>
-      <c r="C277" s="227"/>
-      <c r="D277" s="228"/>
+      <c r="A277" s="223"/>
+      <c r="B277" s="224"/>
+      <c r="C277" s="224"/>
+      <c r="D277" s="225"/>
       <c r="E277" s="51"/>
     </row>
     <row r="278" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="335"/>
-      <c r="B278" s="336"/>
-      <c r="C278" s="336"/>
-      <c r="D278" s="337"/>
+      <c r="A278" s="220"/>
+      <c r="B278" s="221"/>
+      <c r="C278" s="221"/>
+      <c r="D278" s="222"/>
       <c r="E278" s="51"/>
     </row>
     <row r="279" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="335"/>
-      <c r="B279" s="336"/>
-      <c r="C279" s="336"/>
-      <c r="D279" s="337"/>
+      <c r="A279" s="220"/>
+      <c r="B279" s="221"/>
+      <c r="C279" s="221"/>
+      <c r="D279" s="222"/>
       <c r="E279" s="51"/>
     </row>
     <row r="280" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="335"/>
-      <c r="B280" s="336"/>
-      <c r="C280" s="336"/>
-      <c r="D280" s="337"/>
+      <c r="A280" s="220"/>
+      <c r="B280" s="221"/>
+      <c r="C280" s="221"/>
+      <c r="D280" s="222"/>
       <c r="E280" s="51"/>
     </row>
     <row r="281" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="335"/>
-      <c r="B281" s="336"/>
-      <c r="C281" s="336"/>
-      <c r="D281" s="337"/>
+      <c r="A281" s="220"/>
+      <c r="B281" s="221"/>
+      <c r="C281" s="221"/>
+      <c r="D281" s="222"/>
       <c r="E281" s="51"/>
     </row>
     <row r="282" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="335"/>
-      <c r="B282" s="336"/>
-      <c r="C282" s="336"/>
-      <c r="D282" s="337"/>
+      <c r="A282" s="220"/>
+      <c r="B282" s="221"/>
+      <c r="C282" s="221"/>
+      <c r="D282" s="222"/>
       <c r="E282" s="51"/>
     </row>
     <row r="283" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="335"/>
-      <c r="B283" s="336"/>
-      <c r="C283" s="336"/>
-      <c r="D283" s="337"/>
+      <c r="A283" s="220"/>
+      <c r="B283" s="221"/>
+      <c r="C283" s="221"/>
+      <c r="D283" s="222"/>
       <c r="E283" s="51"/>
     </row>
     <row r="284" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="335"/>
-      <c r="B284" s="336"/>
-      <c r="C284" s="336"/>
-      <c r="D284" s="337"/>
+      <c r="A284" s="220"/>
+      <c r="B284" s="221"/>
+      <c r="C284" s="221"/>
+      <c r="D284" s="222"/>
       <c r="E284" s="51"/>
     </row>
     <row r="285" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="335"/>
-      <c r="B285" s="336"/>
-      <c r="C285" s="336"/>
-      <c r="D285" s="337"/>
+      <c r="A285" s="220"/>
+      <c r="B285" s="221"/>
+      <c r="C285" s="221"/>
+      <c r="D285" s="222"/>
       <c r="E285" s="51"/>
     </row>
     <row r="286" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="335"/>
-      <c r="B286" s="336"/>
-      <c r="C286" s="336"/>
-      <c r="D286" s="337"/>
+      <c r="A286" s="220"/>
+      <c r="B286" s="221"/>
+      <c r="C286" s="221"/>
+      <c r="D286" s="222"/>
       <c r="E286" s="51"/>
     </row>
     <row r="287" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="335"/>
-      <c r="B287" s="336"/>
-      <c r="C287" s="336"/>
-      <c r="D287" s="337"/>
+      <c r="A287" s="220"/>
+      <c r="B287" s="221"/>
+      <c r="C287" s="221"/>
+      <c r="D287" s="222"/>
       <c r="E287" s="51"/>
     </row>
     <row r="288" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="335"/>
-      <c r="B288" s="336"/>
-      <c r="C288" s="336"/>
-      <c r="D288" s="337"/>
+      <c r="A288" s="220"/>
+      <c r="B288" s="221"/>
+      <c r="C288" s="221"/>
+      <c r="D288" s="222"/>
       <c r="E288" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="123">
-    <mergeCell ref="A286:D286"/>
-    <mergeCell ref="A287:D287"/>
-    <mergeCell ref="A288:D288"/>
-    <mergeCell ref="A280:D280"/>
-    <mergeCell ref="A281:D281"/>
-    <mergeCell ref="A282:D282"/>
-    <mergeCell ref="A283:D283"/>
-    <mergeCell ref="A284:D284"/>
-    <mergeCell ref="A285:D285"/>
-    <mergeCell ref="B260:D260"/>
-    <mergeCell ref="A274:E274"/>
-    <mergeCell ref="A276:D276"/>
-    <mergeCell ref="A277:D277"/>
-    <mergeCell ref="A278:D278"/>
-    <mergeCell ref="A279:D279"/>
-    <mergeCell ref="B248:D248"/>
-    <mergeCell ref="B250:D250"/>
-    <mergeCell ref="B252:D252"/>
-    <mergeCell ref="B254:D254"/>
-    <mergeCell ref="B256:D256"/>
-    <mergeCell ref="B258:D258"/>
-    <mergeCell ref="B236:D236"/>
-    <mergeCell ref="B238:D238"/>
-    <mergeCell ref="B240:D240"/>
-    <mergeCell ref="B242:D242"/>
-    <mergeCell ref="B244:D244"/>
-    <mergeCell ref="B246:D246"/>
-    <mergeCell ref="A221:D221"/>
-    <mergeCell ref="A223:D223"/>
-    <mergeCell ref="B225:D225"/>
-    <mergeCell ref="A230:E230"/>
-    <mergeCell ref="B232:D232"/>
-    <mergeCell ref="B234:D234"/>
-    <mergeCell ref="A211:D211"/>
-    <mergeCell ref="B213:D213"/>
-    <mergeCell ref="A215:D215"/>
-    <mergeCell ref="A216:D216"/>
-    <mergeCell ref="B218:D218"/>
-    <mergeCell ref="A220:D220"/>
-    <mergeCell ref="B201:D201"/>
-    <mergeCell ref="A203:D203"/>
-    <mergeCell ref="A204:D204"/>
-    <mergeCell ref="A206:D206"/>
-    <mergeCell ref="B208:D208"/>
-    <mergeCell ref="A210:D210"/>
-    <mergeCell ref="B191:D191"/>
-    <mergeCell ref="A193:D193"/>
-    <mergeCell ref="A194:D194"/>
-    <mergeCell ref="B196:D196"/>
-    <mergeCell ref="A198:D198"/>
-    <mergeCell ref="A199:D199"/>
-    <mergeCell ref="A142:E142"/>
-    <mergeCell ref="B145:E145"/>
-    <mergeCell ref="A183:E183"/>
-    <mergeCell ref="A186:D186"/>
-    <mergeCell ref="A187:D187"/>
-    <mergeCell ref="A189:D189"/>
-    <mergeCell ref="A118:E118"/>
-    <mergeCell ref="B121:E121"/>
-    <mergeCell ref="A126:E126"/>
-    <mergeCell ref="B129:E129"/>
-    <mergeCell ref="A134:E134"/>
-    <mergeCell ref="B137:E137"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B110:E111"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:E114"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:E25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:E29"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:E84"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A65:E65"/>
     <mergeCell ref="A97:E97"/>
     <mergeCell ref="A98:B98"/>
     <mergeCell ref="B100:E100"/>
@@ -47285,46 +47256,75 @@
     <mergeCell ref="B90:E91"/>
     <mergeCell ref="A93:A95"/>
     <mergeCell ref="B93:E95"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:E84"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:E25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:E29"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="A118:E118"/>
+    <mergeCell ref="B121:E121"/>
+    <mergeCell ref="A126:E126"/>
+    <mergeCell ref="B129:E129"/>
+    <mergeCell ref="A134:E134"/>
+    <mergeCell ref="B137:E137"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:E111"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:E114"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="B191:D191"/>
+    <mergeCell ref="A193:D193"/>
+    <mergeCell ref="A194:D194"/>
+    <mergeCell ref="B196:D196"/>
+    <mergeCell ref="A198:D198"/>
+    <mergeCell ref="A199:D199"/>
+    <mergeCell ref="A142:E142"/>
+    <mergeCell ref="B145:E145"/>
+    <mergeCell ref="A183:E183"/>
+    <mergeCell ref="A186:D186"/>
+    <mergeCell ref="A187:D187"/>
+    <mergeCell ref="A189:D189"/>
+    <mergeCell ref="A211:D211"/>
+    <mergeCell ref="B213:D213"/>
+    <mergeCell ref="A215:D215"/>
+    <mergeCell ref="A216:D216"/>
+    <mergeCell ref="B218:D218"/>
+    <mergeCell ref="A220:D220"/>
+    <mergeCell ref="B201:D201"/>
+    <mergeCell ref="A203:D203"/>
+    <mergeCell ref="A204:D204"/>
+    <mergeCell ref="A206:D206"/>
+    <mergeCell ref="B208:D208"/>
+    <mergeCell ref="A210:D210"/>
+    <mergeCell ref="B236:D236"/>
+    <mergeCell ref="B238:D238"/>
+    <mergeCell ref="B240:D240"/>
+    <mergeCell ref="B242:D242"/>
+    <mergeCell ref="B244:D244"/>
+    <mergeCell ref="B246:D246"/>
+    <mergeCell ref="A221:D221"/>
+    <mergeCell ref="A223:D223"/>
+    <mergeCell ref="B225:D225"/>
+    <mergeCell ref="A230:E230"/>
+    <mergeCell ref="B232:D232"/>
+    <mergeCell ref="B234:D234"/>
+    <mergeCell ref="B260:D260"/>
+    <mergeCell ref="A274:E274"/>
+    <mergeCell ref="A276:D276"/>
+    <mergeCell ref="A277:D277"/>
+    <mergeCell ref="A278:D278"/>
+    <mergeCell ref="A279:D279"/>
+    <mergeCell ref="B248:D248"/>
+    <mergeCell ref="B250:D250"/>
+    <mergeCell ref="B252:D252"/>
+    <mergeCell ref="B254:D254"/>
+    <mergeCell ref="B256:D256"/>
+    <mergeCell ref="B258:D258"/>
+    <mergeCell ref="A286:D286"/>
+    <mergeCell ref="A287:D287"/>
+    <mergeCell ref="A288:D288"/>
+    <mergeCell ref="A280:D280"/>
+    <mergeCell ref="A281:D281"/>
+    <mergeCell ref="A282:D282"/>
+    <mergeCell ref="A283:D283"/>
+    <mergeCell ref="A284:D284"/>
+    <mergeCell ref="A285:D285"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
